--- a/YLEparsing/articleData/yle_articles_politiikka.xlsx
+++ b/YLEparsing/articleData/yle_articles_politiikka.xlsx
@@ -400,17 +400,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Katalaaniäänestäjä pettyi perinteisiin puolueisiin ja kannattaa nyt äärioikeistoa – "Vain he voivat palauttaa Espanjan espanjalaisille"</t>
+          <t>Rottaruno maahanmuuttajista oli liikaa Itävallan äärioikeistolaiselle vapauspuolueelle – Braunaun apulaispormestari joutuu eroamaan </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Espanjassa pidetään ensi sunnuntaina parlamenttivaalit. Parlamenttiin on ensi kertaa nousemassa myös äärioikeistolainen Vox-puolue.</t>
+          <t>Apulaispormestari Christian Schilcherin runo on inhottava ja syvästi rasistinen, sanoo Itävallan konservatiivinen liittokansleri Sebastian Kurz.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maija Salmi</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -420,17 +420,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nyt valta vaihtuu konkreettisesti: Uudet kansanedustajat saavat valtakirjansa ja eduskunnan puhemies nuijansa</t>
+          <t>Juha Sipilä päätti kauan sitten, että eroaa, jos keskusta ei menesty vaaleissa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tällä viikolla hallitustunnustelut kiihtyvät, eduskuntaryhmien puheenjohtajat valitaan sekä neuvotellaan valiokuntien puheenjohtajista. </t>
+          <t>Julkisuuteen palannut Sipilä kertoo jatkavansa rivikansanedustajana.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t>Päivi Annala</t>
         </is>
       </c>
     </row>
@@ -440,17 +440,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>François Fillonin presidenttihaaveet kaatanut nepotismiskandaali etenee oikeuteen Ranskassa</t>
+          <t>Kaikkonen: Hallitusovi ei "kategorisesti" kiinni, vaan "viisi senttiä raollaan" – Katso videolta, miten Sipilä kommentoi eroaan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fillon oli ennakkosuosikki Ranskan presidentiksi vuoden 2017 vaalien alla, mutta skandaali romahdutti hänen suosionsa.</t>
+          <t>Keskustan uusi eduskuntaryhmä kokoontui tänään ensimmäistä kertaa eduskuntavaalien jälkeen. Yle seurasi tässä artikkelissa päivän tapahtumia eduskunnassa. </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t>Antti PilkeAri HakahuhtaKristiina TolkkiMaria StenroosMerja NiilolaMiikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -460,12 +460,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trump haastaa oikeudessa edustajainhuoneen selvityksen hänen aiemmista liiketoimistaan</t>
+          <t>Kansanedustaja Al-Taee irtisanoutui eduskunnassa Israelia ja Isisiä rinnastaneista kommenteistaan: "Asia on SDP:ssä loppuunkäsitelty" </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presidentin on väitetty johtaneen lainoittajiaan harhaan liioittelemalla varallisuuttaan.</t>
+          <t>SDP ilmoitti, ettei puolue hyväksy ihmisten erottelua uskonnon tai etnisen ryhmän takia.  </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -480,17 +480,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rottaruno maahanmuuttajista oli liikaa Itävallan äärioikeistolaiselle vapauspuolueelle – Braunaun apulaispormestari joutuu eroamaan </t>
+          <t>Selma Vilhusen kolumni: Eduskunta ei ole kuva kansasta pienoiskoossa, mutta se on kuva siitä, miten valta Suomessa jakautuu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Apulaispormestari Christian Schilcherin runo on inhottava ja syvästi rasistinen, sanoo Itävallan konservatiivinen liittokansleri Sebastian Kurz.</t>
+          <t>Nuoret jotka eivät äänestä ovat sekä ongelma, että sen oire, pohtii Selma Vilhunen kolumnissaan.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -500,17 +500,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaikkonen: Hallitusovi ei "kategorisesti" kiinni, vaan "viisi senttiä raollaan" – Katso videolta, miten Sipilä kommentoi eroaan</t>
+          <t>Nyt valta vaihtuu konkreettisesti: Uudet kansanedustajat saavat valtakirjansa ja eduskunnan puhemies nuijansa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Keskustan uusi eduskuntaryhmä kokoontui tänään ensimmäistä kertaa eduskuntavaalien jälkeen. Yle seurasi tässä artikkelissa päivän tapahtumia eduskunnassa. </t>
+          <t>Tällä viikolla hallitustunnustelut kiihtyvät, eduskuntaryhmien puheenjohtajat valitaan sekä neuvotellaan valiokuntien puheenjohtajista. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Antti PilkeAri HakahuhtaKristiina TolkkiMaria StenroosMerja NiilolaMiikka Kaskinen</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kansanedustaja Al-Taee irtisanoutui eduskunnassa Israelia ja Isisiä rinnastaneista kommenteistaan: "Asia on SDP:ssä loppuunkäsitelty" </t>
+          <t>Tiistai 23.4. (radio)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SDP ilmoitti, ettei puolue hyväksy ihmisten erottelua uskonnon tai etnisen ryhmän takia.  </t>
+          <t>Eduskunta aloitti tänään. Edellinen pääministeri jatkaa tavallisena kasanedustajana. Työnantajat eivät tue ulkomaalaisten kielten opiskelua. Sri Lankan pommi-iskujen syy ehkä kosto. Samsungin uuden puhelimen julkaisu siirtyy. Tänään on ollut yli 20 astetta lämmintä.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ilkka Kilpeläinen</t>
         </is>
       </c>
     </row>
@@ -560,17 +560,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Selma Vilhusen kolumni: Eduskunta ei ole kuva kansasta pienoiskoossa, mutta se on kuva siitä, miten valta Suomessa jakautuu</t>
+          <t>Hannakaisa Heikkinen ei usko lähtevänsä keskustan puheenjohtajakisaan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nuoret jotka eivät äänestä ovat sekä ongelma, että sen oire, pohtii Selma Vilhunen kolumnissaan.</t>
+          <t>Hannakaisa Heikkisen mukaan olisi hankalaa yhdistää maatilan emännän, pienten lasten äidin ja keskustan puheenjohtajan tehtäviä.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Helmi Nykänen</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brexit toi tummat pilvet matkailun kasvun ylle – Lapin suurimman hotelliketjun ennakkovarauksissa hätyytellään jopa 20 prosentin laskua</t>
+          <t>Katalaaniäänestäjä pettyi perinteisiin puolueisiin ja kannattaa nyt äärioikeistoa – "Vain he voivat palauttaa Espanjan espanjalaisille"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lappi on briteille se "toinen ulkomaanmatka", perinteisen etelänmatkan jälkeen. </t>
+          <t>Espanjassa pidetään ensi sunnuntaina parlamenttivaalit. Parlamenttiin on ensi kertaa nousemassa myös äärioikeistolainen Vox-puolue.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tapio Räihä</t>
+          <t>Maija Salmi</t>
         </is>
       </c>
     </row>
@@ -600,17 +600,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tiistai 23.4. (radio)</t>
+          <t>Brexit toi tummat pilvet matkailun kasvun ylle – Lapin suurimman hotelliketjun ennakkovarauksissa hätyytellään jopa 20 prosentin laskua</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eduskunta aloitti tänään. Edellinen pääministeri jatkaa tavallisena kasanedustajana. Työnantajat eivät tue ulkomaalaisten kielten opiskelua. Sri Lankan pommi-iskujen syy ehkä kosto. Samsungin uuden puhelimen julkaisu siirtyy. Tänään on ollut yli 20 astetta lämmintä.</t>
+          <t>Lappi on briteille se "toinen ulkomaanmatka", perinteisen etelänmatkan jälkeen. </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ilkka Kilpeläinen</t>
+          <t>Tapio Räihä</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hannakaisa Heikkinen ei usko lähtevänsä keskustan puheenjohtajakisaan</t>
+          <t>François Fillonin presidenttihaaveet kaatanut nepotismiskandaali etenee oikeuteen Ranskassa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hannakaisa Heikkisen mukaan olisi hankalaa yhdistää maatilan emännän, pienten lasten äidin ja keskustan puheenjohtajan tehtäviä.</t>
+          <t>Fillon oli ennakkosuosikki Ranskan presidentiksi vuoden 2017 vaalien alla, mutta skandaali romahdutti hänen suosionsa.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Helmi Nykänen</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -640,17 +640,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Juha Sipilä päätti kauan sitten, että eroaa, jos keskusta ei menesty vaaleissa</t>
+          <t>Trump haastaa oikeudessa edustajainhuoneen selvityksen hänen aiemmista liiketoimistaan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Julkisuuteen palannut Sipilä kertoo jatkavansa rivikansanedustajana.</t>
+          <t>Presidentin on väitetty johtaneen lainoittajiaan harhaan liioittelemalla varallisuuttaan.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Päivi Annala</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Eduskunta aloittelee uutta vaalikautta - kansanedustajien valtakirjat tarkastetaan tänään</t>
+          <t>Jännitteet Sudanissa kasvavat, kun mielenosoittajien ja armeijan neuvottelut katkesivat sunnuntaina</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ryhmähuoneiden seiniä siirretään jälleen, koska vaalit muuttivat ryhmien voimasuhteita.</t>
+          <t>Torstaina protestoijat aikovat julkistaa oman väliaikaisen johtoneuvostonsa.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pohjois-Korea: Kim Jong-un ja Vladimir Putin tapaavat pian</t>
+          <t>Eduskunta aloittelee uutta vaalikautta - kansanedustajien valtakirjat tarkastetaan tänään</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tapaaminen totetuu mahdollisesti jo tällä viikolla.</t>
+          <t>Ryhmähuoneiden seiniä siirretään jälleen, koska vaalit muuttivat ryhmien voimasuhteita.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -720,12 +720,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho aloittaa kansanedustajan työt heinäkuussa, jatkaa siihen asti Brysselissä</t>
+          <t>Eduskunta toivottaa kansanedustajat tervetulleeksi vaalikaudelle 2019–2022, vaikka vaalit pidetään 2023 – miksi?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Halla-aho istuu meppikautensa loppuun Euroopan parlamentissa.  Hänen mukaansa ratkaisu ei tule vaikuttamaan perussuomalaisten edellytyksiin osallistua hallitustunnusteluihin.</t>
+          <t>Eduskunnan tapa ilmaista vaalikauden kesto hämmensi tarkkasilmäisimmät uutisten seuraajat. Miksi vaalivuosi jää pois laskuista, eduskunnan pääsihteeri Maija-Leena Paavola?</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>30-vuotias lähihoitaja Outokummusta nousi eduskuntaan – perussuomalaisten uusista kansanedustajista moni on hoitaja tai yrittäjä</t>
+          <t>Pohjois-Korea: Kim Jong-un ja Vladimir Putin tapaavat pian</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Joukossa on useita hoiva-alalla työskenteleviä naisia.</t>
+          <t>Tapaaminen totetuu mahdollisesti jo tällä viikolla.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Laura KosonenPetri VironenMaria Bonnor</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -760,17 +760,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vladimir Putin ei aio onnitella Ukrainan uutta presidenttiä – ainakaan vielä</t>
+          <t>Jussi Halla-aho aloittaa kansanedustajan työt heinäkuussa, jatkaa siihen asti Brysselissä</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Venäjän presidentin tiedottajan mukaan on vielä liian aikaista puhua onnitteluista tai yhteistyöstä.</t>
+          <t>Halla-aho istuu meppikautensa loppuun Euroopan parlamentissa.  Hänen mukaansa ratkaisu ei tule vaikuttamaan perussuomalaisten edellytyksiin osallistua hallitustunnusteluihin.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Simo Ortamo</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Miksi samat ihmiset epäilevät ilmastonmuutosta ja vastustavat maahanmuuttoa? Sitä selittää yksi piirre, jonka vuoksi ilmastonmuutoksesta pitäisi puhua eri tavoin</t>
+          <t>30-vuotias lähihoitaja Outokummusta nousi eduskuntaan – perussuomalaisten uusista kansanedustajista moni on hoitaja tai yrittäjä</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kirsti M. Jylhä tutkii, millainen poliittinen suuntaus ja maailmankuva voivat johtaa ilmastonmuutoksen epäilyyn.</t>
+          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Joukossa on useita hoiva-alalla työskenteleviä naisia.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hanna Eskonen</t>
+          <t>Laura KosonenPetri VironenMaria Bonnor</t>
         </is>
       </c>
     </row>
@@ -800,17 +800,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jännitteet Sudanissa kasvavat, kun mielenosoittajien ja armeijan neuvottelut katkesivat sunnuntaina</t>
+          <t>Vladimir Putin ei aio onnitella Ukrainan uutta presidenttiä – ainakaan vielä</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Torstaina protestoijat aikovat julkistaa oman väliaikaisen johtoneuvostonsa.</t>
+          <t>Venäjän presidentin tiedottajan mukaan on vielä liian aikaista puhua onnitteluista tai yhteistyöstä.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Simo Ortamo</t>
         </is>
       </c>
     </row>
@@ -820,17 +820,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eduskunta toivottaa kansanedustajat tervetulleeksi vaalikaudelle 2019–2022, vaikka vaalit pidetään 2023 – miksi?</t>
+          <t>Miksi samat ihmiset epäilevät ilmastonmuutosta ja vastustavat maahanmuuttoa? Sitä selittää yksi piirre, jonka vuoksi ilmastonmuutoksesta pitäisi puhua eri tavoin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Eduskunnan tapa ilmaista vaalikauden kesto hämmensi tarkkasilmäisimmät uutisten seuraajat. Miksi vaalivuosi jää pois laskuista, eduskunnan pääsihteeri Maija-Leena Paavola?</t>
+          <t>Kirsti M. Jylhä tutkii, millainen poliittinen suuntaus ja maailmankuva voivat johtaa ilmastonmuutoksen epäilyyn.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t>Hanna Eskonen</t>
         </is>
       </c>
     </row>
@@ -840,12 +840,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Herätys: Kokosimme Rinteen vaalilupaukset, Ukrainaa hallitsee koomikko tai suklaakuningas, lämmin sää jatkuu</t>
+          <t>Viisi huippujuttua sunnuntai-iltaan: Yhteisö, jossa lapset ovat kiellettyjä ja perussuomalaiset eivät ole vain unohdetun kansan puolue</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Luitko jo nämä? Kokosimme sinulle viikon parhaita juttuja, jotka saatoit arjen kiireessä ohittaa.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Viisi huippujuttua sunnuntai-iltaan: Yhteisö, jossa lapset ovat kiellettyjä ja perussuomalaiset eivät ole vain unohdetun kansan puolue</t>
+          <t>"Zelenskyin politiikka on täysi arvoitus" – 6 pointtia Ukrainan presidentinvaaleista </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Luitko jo nämä? Kokosimme sinulle viikon parhaita juttuja, jotka saatoit arjen kiireessä ohittaa.</t>
+          <t>Ukrainalaiset äänestävät parhaillaan presidentinvaalien toisella kierroksella. Vastakkain ovat tv-koomikko Volodymyr Zelenskyi, 41, ja istuva presidentti Petro Porošenko, 53. </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Mikko Haapanen</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ukrainassa presidenttiä näyttelevästä koomikosta on tulossa oikea presidentti – Miksi kansa päätyi protestiehdokkaan taakse?</t>
+          <t>Satanen eläkeläisille, hoitotakuu kaikille – Antti Rinteen 10 vaalilupausta</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Petro Porošenkon tiukan nationalistinen vaalikampanja kostautui, arvioivat tutkijat. Tv-tähti Volodymyr Zelenskyin äänestäjät voivat pettyä nopeasti. </t>
+          <t>Hallitusneuvottelut testaavat puolueiden vaalilupauksia. Paine kohdistuu erityisesti SDP:n Antti Rinteeseen.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Heikki Heiskanen</t>
+          <t>Lauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -900,17 +900,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Satanen eläkeläisille, hoitotakuu kaikille – Antti Rinteen 10 vaalilupausta</t>
+          <t>Herätys: Kokosimme Rinteen vaalilupaukset, Ukrainaa hallitsee koomikko tai suklaakuningas, lämmin sää jatkuu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hallitusneuvottelut testaavat puolueiden vaalilupauksia. Paine kohdistuu erityisesti SDP:n Antti Rinteeseen.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lauri Miikkulainen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Zelenskyin politiikka on täysi arvoitus" – 6 pointtia Ukrainan presidentinvaaleista </t>
+          <t>Ukrainassa presidenttiä näyttelevästä koomikosta on tulossa oikea presidentti – Miksi kansa päätyi protestiehdokkaan taakse?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ukrainalaiset äänestävät parhaillaan presidentinvaalien toisella kierroksella. Vastakkain ovat tv-koomikko Volodymyr Zelenskyi, 41, ja istuva presidentti Petro Porošenko, 53. </t>
+          <t>Petro Porošenkon tiukan nationalistinen vaalikampanja kostautui, arvioivat tutkijat. Tv-tähti Volodymyr Zelenskyin äänestäjät voivat pettyä nopeasti. </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mikko Haapanen</t>
+          <t>Heikki Heiskanen</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hussein al-Taee nauttii edelleen CMI:n luottamusta</t>
+          <t>Koomikko Volodymyr Zelenskyi on Ukrainan presidentinvaalien vahva suosikki – Odessalaiset odottavat uudelta presidentiltä muutosta</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Työt CMI:ssä jäävät tauolle kansanedustajuuden ajaksi. Al-Taee on pahoitellut pahennusta herättäneitä kommenttejaan.</t>
+          <t>Uusien mielipidetutkimusten mukaan Zelenskyin kannatus on jo yli 70 prosenttia. Presidentinvaalien toinen kierros pidetään huomenna sunnuntaina.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Kerstin Kronvall</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Republikaanien Mitt Romney kertoo tyrmistyneensä paljastuksista</t>
+          <t>Nämä pudokkaat nousevat eduskuntaan, jos "tuplaehdokkaat" valitaan EU-parlamenttiin: Touko Aalto, Toimi Kankaanniemi, Aki Ruotsala...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>– Minua kuvottaa se, kuinka laajaa ja kokonaisvaltaista epärehellisyyttä ja harhaanjohtamista maan korkeimmissa viroissa olevat henkilöt, presidentti mukaan lukien, ovat harjoittaneet, Romney sanoi tiedotteessa.</t>
+          <t>Professori toivoo puolueilta, että kaksiin vaaleihin ehdolle asettuvat kertoisivat aikeistaan avoimesti.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -980,17 +980,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kovan brexitin johtohahmo on kuin yläluokkainen sketsihahmo menneestä maailmasta – taustalla on armoton näkemys yhteiskunnasta  </t>
+          <t>Perussuomalaisten Halla-aho ei irtisanoudu vanhoista blogikirjoituksistaan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Britannian brexit-kiista on synnyttänyt uusi poliittisia tähtiä. Yksi heistä on kulttihahmoksi noussut Jacob Rees-Mogg.</t>
+          <t>Puoluejohtajan mukaan toimittajalta poistettiin kiirastorstaina mikrofoni, koska kysymykset eivät istuneet tapahtuman aiheeseen.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Esko Varho</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Koomikko Volodymyr Zelenskyi on Ukrainan presidentinvaalien vahva suosikki – Odessalaiset odottavat uudelta presidentiltä muutosta</t>
+          <t>Kovan brexitin johtohahmo on kuin yläluokkainen sketsihahmo menneestä maailmasta – taustalla on armoton näkemys yhteiskunnasta  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Uusien mielipidetutkimusten mukaan Zelenskyin kannatus on jo yli 70 prosenttia. Presidentinvaalien toinen kierros pidetään huomenna sunnuntaina.</t>
+          <t>Britannian brexit-kiista on synnyttänyt uusi poliittisia tähtiä. Yksi heistä on kulttihahmoksi noussut Jacob Rees-Mogg.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kerstin Kronvall</t>
+          <t>Esko Varho</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Halla-aho ei irtisanoudu vanhoista blogikirjoituksistaan</t>
+          <t>Hussein al-Taee nauttii edelleen CMI:n luottamusta</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Puoluejohtajan mukaan toimittajalta poistettiin kiirastorstaina mikrofoni, koska kysymykset eivät istuneet tapahtuman aiheeseen.</t>
+          <t>Työt CMI:ssä jäävät tauolle kansanedustajuuden ajaksi. Al-Taee on pahoitellut pahennusta herättäneitä kommenttejaan.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nämä pudokkaat nousevat eduskuntaan, jos "tuplaehdokkaat" valitaan EU-parlamenttiin: Touko Aalto, Toimi Kankaanniemi, Aki Ruotsala...</t>
+          <t>Republikaanien Mitt Romney kertoo tyrmistyneensä paljastuksista</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Professori toivoo puolueilta, että kaksiin vaaleihin ehdolle asettuvat kertoisivat aikeistaan avoimesti.</t>
+          <t>– Minua kuvottaa se, kuinka laajaa ja kokonaisvaltaista epärehellisyyttä ja harhaanjohtamista maan korkeimmissa viroissa olevat henkilöt, presidentti mukaan lukien, ovat harjoittaneet, Romney sanoi tiedotteessa.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -1080,17 +1080,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rökäletappio eduskuntavaaleissa leikkaa keskustan puoluetukea miljoonilla – Puoluesihteeri: "Totta kai se on ikävä tunne"</t>
+          <t>Jussi Halla-aho kirjoitti blogiinsa kahden vuoden hiljaiselon jälkeen – kokosi tylyt luvut loikkareista</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vaalivoiton saaneissa vihreissä lisärahan käyttöä ei ole ehditty vielä pohtia.</t>
+          <t>PS:n puheenjohtajana Halla-aho ei ollut vielä kertaakaan aiemmin kirjoittanut polemiikkia nostattaneeseen blogiinsa.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -1140,17 +1140,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho kirjoitti blogiinsa kahden vuoden hiljaiselon jälkeen – kokosi tylyt luvut loikkareista</t>
+          <t>Trump ei saanut puhtaita papereita Venäjä-raportista, demokraatit harkitsevat seuraavaa siirtoaan – lue tästä raportin jälkipuinnin pääkohdat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PS:n puheenjohtajana Halla-aho ei ollut vielä kertaakaan aiemmin kirjoittanut polemiikkia nostattaneeseen blogiinsa.</t>
+          <t>Demokraattien mielestä tutkinnan löydökset ovat paljon luultua vakavampia. Presidentin vieminen valtakunnanoikeuteen kuitenkin jakaa ja epäilyttää demokraatteja.
+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Johanna Kippo</t>
         </is>
       </c>
     </row>
@@ -1160,18 +1161,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Trump ei saanut puhtaita papereita Venäjä-raportista, demokraatit harkitsevat seuraavaa siirtoaan – lue tästä raportin jälkipuinnin pääkohdat</t>
+          <t>Rökäletappio eduskuntavaaleissa leikkaa keskustan puoluetukea miljoonilla – Puoluesihteeri: "Totta kai se on ikävä tunne"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Demokraattien mielestä tutkinnan löydökset ovat paljon luultua vakavampia. Presidentin vieminen valtakunnanoikeuteen kuitenkin jakaa ja epäilyttää demokraatteja.
-</t>
+          <t>Vaalivoiton saaneissa vihreissä lisärahan käyttöä ei ole ehditty vielä pohtia.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Johanna Kippo</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kreikka vaatii Saksalta sotakorvauksia natsimiehityksen ajalta – Saksa: "Asia on loppuunkäsitelty"</t>
+          <t>Saara Särmän kolumni: Ihmiset ovat somessa todella ihania ja ärsyttäviä</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kreikan parlamentin mukaan Saksa on sille velkaa yli 300 miljardia euroa.</t>
+          <t>Sosiaalinen media on juuri sellainen, millaiseksi me ihmiset sen teemme, pohtii Saara Särmä.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Petri Burtsov</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien äänikuningatar Sari Essayah lähtee eurovaaleihin, mutta asettaa hallituspaikan ykköseksi</t>
+          <t>Viro sai hallituksen – yksi hallituspuolueiden kansanedustaja äänesti oikeistopopulismia vastaan</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KD:n Sari Essayah luopuu meppipaikastaan, jos kristilliset nousee hallitukseen ja hän saa ministeripaikan.</t>
+          <t>Pääministeri Jüri Ratas vakuutti, että hallitus on kaikkien virolaisten hallitus, joka tukee oikeusvaltiota ja sananvapautta. </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Helmi Nykänen</t>
+          <t>Anniina Wallius</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Perussuomalaiset ei ole vain "unohdetun kansan" puolue – katso miten tulot tai työttömyys vaikuttavat vaalitulokseen alueellasi</t>
+          <t>Yle seurasi: Sote-konkari Krista Kiuru valittiin hallitusneuvottelijoiden joukkoon ja Rinne vakuutti kaikkien puolueiden olevan yhä mukana</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Millaisia ihmisiä kotikulmillasi asuu ja miten teillä äänestettiin? Entä naapurissa? Katsele vaalitulosta uusin silmin.</t>
+          <t>Perussuomalaisten Matti Putkonen syytti, että puolue on kabineteissa suljettu ulos hallituksesta.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Janne ToivonenEemeli MarttiPasi PeiponenJuha RissanenLinus Lång</t>
+          <t>Anne Orjala</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Toistakymmentä pohjalaista eurovaalilistoilla – mukana myös juuri eduskuntaan valitut perussuomalaisten Mauri Peltokangas ja kristillisdemokraattien Peter Östman</t>
+          <t>Neljä kainuulaista on ehdolla eurovaaleissa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pohjalaiset ovat hyvin edustettuina puolueiden eurovaaliehdokaslistoilla. </t>
+          <t>Vasemmistoliiton Merja Kyllönen ottaa paikan vastaan eduskunnassa, vaikka onkin ehdolla eurovaaleissa.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Päivi Rautanen</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Saara Särmän kolumni: Ihmiset ovat somessa todella ihania ja ärsyttäviä</t>
+          <t>Yli 150 ihmisen pelätään kuolleen lauttaturmassa Kongossa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sosiaalinen media on juuri sellainen, millaiseksi me ihmiset sen teemme, pohtii Saara Särmä.</t>
+          <t>Onnettomuuden syy ei ole selvillä, mutta Kivujärvellä kulkevat alukset ovat usein ylikuormitettuja. </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ääniharavana eduskuntaan noussut perussuomalaisten Mauri Peltokangas eurovaaliehdokkaaksi – SDP:n Jutta Urpilainen ei ehdolla</t>
+          <t>Kreikka vaatii Saksalta sotakorvauksia natsimiehityksen ajalta – Saksa: "Asia on loppuunkäsitelty"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Keski-Pohjanmaan alueelta europarlamenttivaaleihin lähtee viisi ehdokasta, joista kaksi valittiin juuri kansanedustajiksi.</t>
+          <t>Kreikan parlamentin mukaan Saksa on sille velkaa yli 300 miljardia euroa.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Riikka Oosi</t>
+          <t>Petri Burtsov</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>STT: Eduskuntaan valittu Hussein al-taee pyytää anteeksi vanhoja Facebook-päivityksiään – Rinnasti niissä Israelin ja Isisin</t>
+          <t>Muellerin raportti julkaistaan – kiinnitä huomio näihin viiteen kohtaan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hussein al-Taee ei kiistä avoimista Facebook-ryhmistä edelleen löytyvien kommenttien aitoutta.</t>
+          <t>Raporttia ei vieläkään julkaista täysin, mutta se antanee lisävalaisua kysymyksiin Muellerin Venäjä-tutkinnasta.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yli 150 ihmisen pelätään kuolleen lauttaturmassa Kongossa</t>
+          <t>Ojala-Niemelästä jälleen eduskuntaryhmän varapuheenjohtaja</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Onnettomuuden syy ei ole selvillä, mutta Kivujärvellä kulkevat alukset ovat usein ylikuormitettuja. </t>
+          <t>Rovaniemeläisedustaja on ollut ryhmänsä varapuheenjohtaja myös aiemmin.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Neljä kainuulaista on ehdolla eurovaaleissa</t>
+          <t>Oulun vaalipiirin kansanedustajista EU-vaaliehdokkaina ovat Hanna Sarkkinen, Merja Kyllönen ja Sebastian Tynkkynen</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton Merja Kyllönen ottaa paikan vastaan eduskunnassa, vaikka onkin ehdolla eurovaaleissa.</t>
+          <t>Politiikka seuraava bloggaaja Ville Koivuniemi ei tuomitsisi tuplaehdokkaita äänestäjien vedättämisestä.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Päivi Annala</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Viro sai hallituksen – yksi hallituspuolueiden kansanedustaja äänesti oikeistopopulismia vastaan</t>
+          <t>Torstai 18.4.2019 (radio)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pääministeri Jüri Ratas vakuutti, että hallitus on kaikkien virolaisten hallitus, joka tukee oikeusvaltiota ja sananvapautta. </t>
+          <t>Viro on saanut uuden hallituksen. Madeiran lomasaarella tapahtui bussionnettomuus. Valmet Automotive palkkaa lisää työntekijöitä. Pääsiäinen tuo muutoksia liikenteeseen. Pääsiäisenä on hyvä ulkoilusää.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Anniina Wallius</t>
+          <t>Pertti Seppä</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Yhdysvallat kiristää sanktioitaan Latinalaisessa Amerikassa – matkustusta Kuubaan rajoitetaan</t>
+          <t>Perussuomalaisten Laura Huhtasaari lähtee europarlamenttivaaleihin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Turvallisuusneuvonantaja kutsui Kuubaa, Venezuelaa ja Nicaraguaa "tyrannian troikaksi".</t>
+          <t>Huhtasaari keräsi Satakunnassa eduskuntavaaleissa yli kymmenen prosenttia vaalipiirissä annetuista äänistä.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Markus Heikkilä</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kärnä: Keskusta todennäköisesti oppositioon</t>
+          <t>Europarlamenttiin tarjolla ainakin viisi eteläsavolaista</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mikko Kärnän (kesk.) mukaan keskustalla pitää olla tiukat ehdot, mikäli puolue lähtisikin hallitukseen.</t>
+          <t>Puolueet ovat jättäneet tänään ehdokaslistansa toukokuun lopun eurovaaleihin.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Jaakko Palvaila</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Europarlamenttiin tarjolla ainakin viisi eteläsavolaista</t>
+          <t>Tarkastuslaskennassa hyväksyttiin kymmeniä uusia ääniä Oulun vaalipiirissä</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Puolueet ovat jättäneet tänään ehdokaslistansa toukokuun lopun eurovaaleihin.</t>
+          <t>Vaalipiirilautakunnat vahvistivat tarkistuslaskentojen tulokset keskiviikkona.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jaakko Palvaila</t>
+          <t>Markus Leskinen</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Viidelle Lapin kansanedustajalle palkkioihin korotus: +229 euroa ja +331 euroa kuussa</t>
+          <t>Ääniharavana eduskuntaan noussut perussuomalaisten Mauri Peltokangas eurovaaliehdokkaaksi – SDP:n Jutta Urpilainen ei ehdolla</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pisimpään eduskunnassa olleiden Markus Mustajärven (vas.) ja Johanna Ojala-Niemelän (sd.) palkkiot nousevat 7408 euroon kuukaudessa.</t>
+          <t>Keski-Pohjanmaan alueelta europarlamenttivaaleihin lähtee viisi ehdokasta, joista kaksi valittiin juuri kansanedustajiksi.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Riikka Oosi</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Video: Perussuomalaisten tiedotustilaisuus kuumeni – toimittaja kysyi Halla-aholta vanhoista blogiteksteistä, Putkonen keskeytti</t>
+          <t>Eduskuntavaalien äänikuningatar Sari Essayah lähtee eurovaaleihin, mutta asettaa hallituspaikan ykköseksi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Perussuomalaisten tiedotustilaisuudessa nähtiin erikoinen show, kun Halla-aho ei suostunut vastaamaan toimittajan kysymykseen. </t>
+          <t>KD:n Sari Essayah luopuu meppipaikastaan, jos kristilliset nousee hallitukseen ja hän saa ministeripaikan.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tatu Kuukkanen</t>
+          <t>Helmi Nykänen</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Puolueiden ehdokaslistat selvillä: Laura Huhtasaari lähtee eurovaaleihin, Timo Soini ei  </t>
+          <t>Perussuomalaisten Mauri Peltokangas eurovaaliehdokkuudestaan: "Kun koutsi käskee, pelaaja tekee"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eurovaaliehdokkaiksi on ilmaantunut useita kansanedustajaksi valittuja tunnettuja henkilöitä. KD:n Sari Essayah asettaa hallituspaikan ykköseksi.</t>
+          <t>Eduskuntavaalikampanjointi meinasi viedä mehut, silti Mauri Peltokangas on heti valmiina uudelleen kentälle.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Marjatta RautioTiina Länkinen</t>
+          <t>Kati Latva-Teikari</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"En ole ollut vankilassa, olen ollut politiikassa" – Timo Soinin ura jytkyineen ja sotkuineen: Katso 90-luvun nousevan tähden haastattelu</t>
+          <t>Kärnä: Keskusta todennäköisesti oppositioon</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Soinin poliittisen uran vuoristoradassa oli pitkä nousu huipulle. Sitä seurannut jyrkkä pudotus yllätti jokaisen.</t>
+          <t>Mikko Kärnän (kesk.) mukaan keskustalla pitää olla tiukat ehdot, mikäli puolue lähtisikin hallitukseen.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tiina LänkinenVarpu HelpinenAnne Orjala</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Timo Soini ei lähde ehdolle eurovaaleihin – "Minä lähden politiikasta, hyväntuulisena, hyvillä mielin"</t>
+          <t>STT: Eduskuntaan valittu Hussein al-taee pyytää anteeksi vanhoja Facebook-päivityksiään – Rinnasti niissä Israelin ja Isisin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hän kirjoittaa hoitavansa ministeripestinsä loppuun ja olevansa sen jälkeen vapaa suomalainen mies.</t>
+          <t>Hussein al-Taee ei kiistä avoimista Facebook-ryhmistä edelleen löytyvien kommenttien aitoutta.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hanna Hanhinen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Oulun vaalipiirin kansanedustajista EU-vaaliehdokkaina ovat Hanna Sarkkinen, Merja Kyllönen ja Sebastian Tynkkynen</t>
+          <t>Yhdysvallat kiristää sanktioitaan Latinalaisessa Amerikassa – matkustusta Kuubaan rajoitetaan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Politiikka seuraava bloggaaja Ville Koivuniemi ei tuomitsisi tuplaehdokkaita äänestäjien vedättämisestä.</t>
+          <t>Turvallisuusneuvonantaja kutsui Kuubaa, Venezuelaa ja Nicaraguaa "tyrannian troikaksi".</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Päivi Annala</t>
+          <t>Markus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ojala-Niemelästä jälleen eduskuntaryhmän varapuheenjohtaja</t>
+          <t>Puolueiden ehdokaslistat selvillä: Laura Huhtasaari lähtee eurovaaleihin, Timo Soini ei  </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Rovaniemeläisedustaja on ollut ryhmänsä varapuheenjohtaja myös aiemmin.</t>
+          <t>Eurovaaliehdokkaiksi on ilmaantunut useita kansanedustajaksi valittuja tunnettuja henkilöitä. KD:n Sari Essayah asettaa hallituspaikan ykköseksi.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Marjatta RautioTiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -1581,17 +1581,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Laura Huhtasaari lähtee europarlamenttivaaleihin</t>
+          <t>Timo Soini ei lähde ehdolle eurovaaleihin – "Minä lähden politiikasta, hyväntuulisena, hyvillä mielin"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Huhtasaari keräsi Satakunnassa eduskuntavaaleissa yli kymmenen prosenttia vaalipiirissä annetuista äänistä.</t>
+          <t>Hän kirjoittaa hoitavansa ministeripestinsä loppuun ja olevansa sen jälkeen vapaa suomalainen mies.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Hanna Hanhinen</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Muellerin raportti julkaistaan – kiinnitä huomio näihin viiteen kohtaan</t>
+          <t>Toistakymmentä pohjalaista eurovaalilistoilla – mukana myös juuri eduskuntaan valitut perussuomalaisten Mauri Peltokangas ja kristillisdemokraattien Peter Östman</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Raporttia ei vieläkään julkaista täysin, mutta se antanee lisävalaisua kysymyksiin Muellerin Venäjä-tutkinnasta.</t>
+          <t>Pohjalaiset ovat hyvin edustettuina puolueiden eurovaaliehdokaslistoilla. </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Päivi Rautanen</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Torstai 18.4.2019 (radio)</t>
+          <t>Perussuomalaiset ei ole vain "unohdetun kansan" puolue – katso miten tulot tai työttömyys vaikuttavat vaalitulokseen alueellasi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Viro on saanut uuden hallituksen. Madeiran lomasaarella tapahtui bussionnettomuus. Valmet Automotive palkkaa lisää työntekijöitä. Pääsiäinen tuo muutoksia liikenteeseen. Pääsiäisenä on hyvä ulkoilusää.</t>
+          <t>Millaisia ihmisiä kotikulmillasi asuu ja miten teillä äänestettiin? Entä naapurissa? Katsele vaalitulosta uusin silmin.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Pertti Seppä</t>
+          <t>Janne ToivonenEemeli MarttiPasi PeiponenJuha RissanenLinus Lång</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tarkastuslaskennassa hyväksyttiin kymmeniä uusia ääniä Oulun vaalipiirissä</t>
+          <t>Video: Perussuomalaisten tiedotustilaisuus kuumeni – toimittaja kysyi Halla-aholta vanhoista blogiteksteistä, Putkonen keskeytti</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vaalipiirilautakunnat vahvistivat tarkistuslaskentojen tulokset keskiviikkona.</t>
+          <t>Perussuomalaisten tiedotustilaisuudessa nähtiin erikoinen show, kun Halla-aho ei suostunut vastaamaan toimittajan kysymykseen. </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Markus Leskinen</t>
+          <t>Tatu Kuukkanen</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Mauri Peltokangas eurovaaliehdokkuudestaan: "Kun koutsi käskee, pelaaja tekee"</t>
+          <t>"En ole ollut vankilassa, olen ollut politiikassa" – Timo Soinin ura jytkyineen ja sotkuineen: Katso 90-luvun nousevan tähden haastattelu</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Eduskuntavaalikampanjointi meinasi viedä mehut, silti Mauri Peltokangas on heti valmiina uudelleen kentälle.</t>
+          <t>Soinin poliittisen uran vuoristoradassa oli pitkä nousu huipulle. Sitä seurannut jyrkkä pudotus yllätti jokaisen.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kati Latva-Teikari</t>
+          <t>Tiina LänkinenVarpu HelpinenAnne Orjala</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Yle seurasi: Sote-konkari Krista Kiuru valittiin hallitusneuvottelijoiden joukkoon ja Rinne vakuutti kaikkien puolueiden olevan yhä mukana</t>
+          <t>Viidelle Lapin kansanedustajalle palkkioihin korotus: +229 euroa ja +331 euroa kuussa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Matti Putkonen syytti, että puolue on kabineteissa suljettu ulos hallituksesta.</t>
+          <t>Pisimpään eduskunnassa olleiden Markus Mustajärven (vas.) ja Johanna Ojala-Niemelän (sd.) palkkiot nousevat 7408 euroon kuukaudessa.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Anne Orjala</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ylijohtaja Varhila: Sote-uudistuksella on kiire – Suomesta loppuvat kymmenen vuoden päästä lähihoitajat </t>
+          <t>Ovatko perussuomalaiset vasemmalla vai oikealla? Tutkija: "Suuri joukko uusia edustajia on musta hevonen" – tiukka maahanmuuttolinja yhdistää</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sosiaali- ja terveysministeriö ei usko, että terveyskeskusten uudistaminen riittää. </t>
+          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Siksi heidän linjauksiaan muussa kuin maahanmuutossa on vaikea tietää.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kristiina Tolkki</t>
+          <t>Ville Vedenpää</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Juha Sipilän 8 vuotta kestänyt poliittinen ura muistetaan kätilöistä, kikystä ja sotesotkuista</t>
+          <t>Perussuomalaisten Ville Tavio: En lähde eurovaaliehdokkaaksi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Keskustan puheenjohtajan tehtävät jättävä Juha Sipilä on outolintu puoluejohtajien joukossa. </t>
+          <t>Ville Tavio kertoo päätöksestään eurovaaleihin liittyen Facebook-sivuillaan.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ari Mölsä</t>
+          <t>Johanna Lehtola</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kokoomuspiirin toiminnanjohtaja vaihtuu</t>
+          <t>Ylijohtaja Varhila: Sote-uudistuksella on kiire – Suomesta loppuvat kymmenen vuoden päästä lähihoitajat </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pohjanmaan Kokoomuksen toiminnanjohtaja Daniel Lahti lähtee muihin töihin. Riikka Varila toimii tehtävässä ainakin kesään saakka.  </t>
+          <t>Sosiaali- ja terveysministeriö ei usko, että terveyskeskusten uudistaminen riittää. </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Päivi Rautanen</t>
+          <t>Kristiina Tolkki</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vanhojen kansanedustajien palkkioihin tuntuva korotus</t>
+          <t>Juha Sipilän 8 vuotta kestänyt poliittinen ura muistetaan kätilöistä, kikystä ja sotesotkuista</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vanhojen kansanedustajien palkkioihin tulee noin 300 euron kuukausittainen korotus.</t>
+          <t>Keskustan puheenjohtajan tehtävät jättävä Juha Sipilä on outolintu puoluejohtajien joukossa. </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jussi Salokorpi</t>
+          <t>Ari Mölsä</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haluatko tietää, mitä kansanedustajasi saa aikaan? Voitto-robotti valvoo uutta eduskuntaa puolestasi</t>
+          <t>Lapin kansanedustajat verottaisivat kaivoksia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ylen uutiskirjekokeilu seuraa jokaisen kansanedustajan aktiivisuutta eduskunnassa. Tästä jutusta löydät ohjeet oman edustajasi kirjeen tilaamiseen sähköpostiisi.</t>
+          <t>Täysin varauksetonta tukea kaivosten verottaminen ei kuitenkaan kaikilta saa.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Teemu Kiviniemi</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1801,18 +1801,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sitran jykevä veroavaus saa hallitusneuvotteluihin valmistautuvilta puolueilta pääosin myönteisen vastaanoton – perussuomalaiset tyrmää täysin</t>
+          <t>Ensimmäinen karu ennustus kävi toteen ja Tiina Elovaaralta lähti alta puolue ja työ: Nyt hän haluaa perussuomalaiset hallitukseen </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>
-Sitra ehdottaa mittavaa verojärjestelmän uudistusta kestävän kehityksen mallissaan. </t>
+          <t>Sinisten pudonnut kansanedustaja Tiina Elovaara haluaa perussuomalaiset hallitukseen. Hänen oma tarinansa on kaikkea muuta kuin tylsä.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Anne OrjalaPekka Kinnunen</t>
+          <t>Anu Leena Koskinen</t>
         </is>
       </c>
     </row>
@@ -1822,17 +1821,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KSML: Teuvo Hakkarainen lähtee eurovaaliehdokkaaksi</t>
+          <t>Turkulainen opiskelija arvioi täysin oikein keskustan vaalitappion ja nuorimman läpi päässeen – voitti Ylen vaaliveikkauksen</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Perussuomalaisten viitasaarelainen kansanedustaja Teuvo Hakkarainen on valittu puolueen ehdokkaaksi europarlamenttivaaleihin. </t>
+          <t>Ylen vaaliveikkaukseen osallistui lähes 4000 lukijaa.  </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Heli Suominen</t>
         </is>
       </c>
     </row>
@@ -1842,17 +1841,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Etelä-Savon maakuntahallitus ei kannata Joroisten ja Heinäveden maakuntavaihdoksia</t>
+          <t>Vanhojen kansanedustajien palkkioihin tuntuva korotus</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Maakuntahallitus on antanut kuntasiirroista lausuntonsa valtionvarainministeriölle.</t>
+          <t>Vanhojen kansanedustajien palkkioihin tulee noin 300 euron kuukausittainen korotus.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Timo Ikonen</t>
+          <t>Jussi Salokorpi</t>
         </is>
       </c>
     </row>
@@ -1862,17 +1861,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Ville Tavio: En lähde eurovaaliehdokkaaksi</t>
+          <t>Haluatko tietää, mitä kansanedustajasi saa aikaan? Voitto-robotti valvoo uutta eduskuntaa puolestasi</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ville Tavio kertoo päätöksestään eurovaaleihin liittyen Facebook-sivuillaan.</t>
+          <t>Ylen uutiskirjekokeilu seuraa jokaisen kansanedustajan aktiivisuutta eduskunnassa. Tästä jutusta löydät ohjeet oman edustajasi kirjeen tilaamiseen sähköpostiisi.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Johanna Lehtola</t>
+          <t>Teemu Kiviniemi</t>
         </is>
       </c>
     </row>
@@ -1882,17 +1881,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Suomalaiset konkarimepit pelkäävät EU-lainsäädännön halvaantuvan, jos ääriryhmät nousevat: "Tekevätkö populistit parlamentista vain puhujalavan?"</t>
+          <t>Sitran jykevä veroavaus saa hallitusneuvotteluihin valmistautuvilta puolueilta pääosin myönteisen vastaanoton – perussuomalaiset tyrmää täysin</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Anneli Jäätteenmäki  ja Liisa Jaakonsaari sanovat olevansa surullisia ja huolissaan ilmapiirin heikentymisestä Euroopassa.</t>
+          <t>
+Sitra ehdottaa mittavaa verojärjestelmän uudistusta kestävän kehityksen mallissaan. </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t>Anne OrjalaPekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -1902,17 +1902,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ovatko perussuomalaiset vasemmalla vai oikealla? Tutkija: "Suuri joukko uusia edustajia on musta hevonen" – tiukka maahanmuuttolinja yhdistää</t>
+          <t>Seinäjoen kaupunginhallituksen puheenjohtajuus kiinnostaa</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Siksi heidän linjauksiaan muussa kuin maahanmuutossa on vaikea tietää.</t>
+          <t>Seinäjoella saattaa vaihtua kaupunginhallituksen puheenjohtaja, sillä eduskuntaan valittu Pasi Kivisaari pohtii väistymistä. </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ville Vedenpää</t>
+          <t>Elina Niemistö</t>
         </is>
       </c>
     </row>
@@ -1922,17 +1922,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kainuulainen keskustakonkari on nähnyt maailman muutosten vaikutukset puolueeseen: "tällä hetkellä eletään vaihdon hetkiä"</t>
+          <t>Enemmistö tuoreista kansanedustajista haluaa, että Suomi on edelläkävijä ilmastonmuutoksen vastaisessa taistelussa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Vuoden vaihteessa Kainuun Keskustan toiminnanjohtajan pestistä eläkkeelle siirtynyt Lyyli Pokela uskoo parempaan huomiseen.</t>
+          <t>Lihaveroa ja bensa- ja dieselkäyttöisten autojen myyntikieltoa kannattaa sen sijaan uuden eduskunnan vähemmistö, käy ilmi Ylen vaalikoneen vastauksista.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Arto Loukasmäki</t>
+          <t>Hanna Eskonen</t>
         </is>
       </c>
     </row>
@@ -1942,17 +1942,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Vaalien tulos vahvistettiin – historian suurin rannalle jääneen äänimäärä on nyt 7 818 </t>
+          <t>Kokoomuspiirin toiminnanjohtaja vaihtuu</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lapissa reaalinen äänikynnys oli 9,7 prosenttia, kun Uudellamaalla se oli 2,3 prosenttia.</t>
+          <t>Pohjanmaan Kokoomuksen toiminnanjohtaja Daniel Lahti lähtee muihin töihin. Riikka Varila toimii tehtävässä ainakin kesään saakka.  </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t> STTJussi Salokorpi</t>
+          <t>Päivi Rautanen</t>
         </is>
       </c>
     </row>
@@ -1962,17 +1962,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ensimmäinen karu ennustus kävi toteen ja Tiina Elovaaralta lähti alta puolue ja työ: Nyt hän haluaa perussuomalaiset hallitukseen </t>
+          <t>Suomalaiset konkarimepit pelkäävät EU-lainsäädännön halvaantuvan, jos ääriryhmät nousevat: "Tekevätkö populistit parlamentista vain puhujalavan?"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sinisten pudonnut kansanedustaja Tiina Elovaara haluaa perussuomalaiset hallitukseen. Hänen oma tarinansa on kaikkea muuta kuin tylsä.</t>
+          <t>Anneli Jäätteenmäki  ja Liisa Jaakonsaari sanovat olevansa surullisia ja huolissaan ilmapiirin heikentymisestä Euroopassa.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Anu Leena Koskinen</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Turkulainen opiskelija arvioi täysin oikein keskustan vaalitappion ja nuorimman läpi päässeen – voitti Ylen vaaliveikkauksen</t>
+          <t>Lue tästä askelmerkit, miten Suomi saa uuden hallituksen – Valmista toukokuun lopulla tai viimeistään juhannukseksi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ylen vaaliveikkaukseen osallistui lähes 4000 lukijaa.  </t>
+          <t>Politiikan kapellimestarina häärii seuraavat viikot SDP:n puheenjohtaja Antti Rinne, josta tulee  hallitustunnustelija.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Heli Suominen</t>
+          <t>Ari Hakahuhta</t>
         </is>
       </c>
     </row>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Seinäjoen kaupunginhallituksen puheenjohtajuus kiinnostaa</t>
+          <t>Etelä-Savon maakuntahallitus ei kannata Joroisten ja Heinäveden maakuntavaihdoksia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Seinäjoella saattaa vaihtua kaupunginhallituksen puheenjohtaja, sillä eduskuntaan valittu Pasi Kivisaari pohtii väistymistä. </t>
+          <t>Maakuntahallitus on antanut kuntasiirroista lausuntonsa valtionvarainministeriölle.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Elina Niemistö</t>
+          <t>Timo Ikonen</t>
         </is>
       </c>
     </row>
@@ -2022,17 +2022,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Enemmistö tuoreista kansanedustajista haluaa, että Suomi on edelläkävijä ilmastonmuutoksen vastaisessa taistelussa</t>
+          <t>Kainuulainen keskustakonkari on nähnyt maailman muutosten vaikutukset puolueeseen: "tällä hetkellä eletään vaihdon hetkiä"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lihaveroa ja bensa- ja dieselkäyttöisten autojen myyntikieltoa kannattaa sen sijaan uuden eduskunnan vähemmistö, käy ilmi Ylen vaalikoneen vastauksista.</t>
+          <t>Vuoden vaihteessa Kainuun Keskustan toiminnanjohtajan pestistä eläkkeelle siirtynyt Lyyli Pokela uskoo parempaan huomiseen.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hanna Eskonen</t>
+          <t>Arto Loukasmäki</t>
         </is>
       </c>
     </row>
@@ -2062,17 +2062,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lue tästä askelmerkit, miten Suomi saa uuden hallituksen – Valmista toukokuun lopulla tai viimeistään juhannukseksi</t>
+          <t>KSML: Teuvo Hakkarainen lähtee eurovaaliehdokkaaksi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Politiikan kapellimestarina häärii seuraavat viikot SDP:n puheenjohtaja Antti Rinne, josta tulee  hallitustunnustelija.</t>
+          <t>Perussuomalaisten viitasaarelainen kansanedustaja Teuvo Hakkarainen on valittu puolueen ehdokkaaksi europarlamenttivaaleihin. </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ari Hakahuhta</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -2082,17 +2082,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lapin kansanedustajat verottaisivat kaivoksia</t>
+          <t>Onko Ivanka Trump todellinen vaikuttaja vai merkityksetön Yhdysvaltain prinsessa?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Täysin varauksetonta tukea kaivosten verottaminen ei kuitenkaan kaikilta saa.</t>
+          <t>Parhaillaan Afrikassa vieraileva Ivanka Trump pehmentää presidentti-isänsä kovaa julkisuuskuvaa. Tyttären asema Valkoisessa talossa hakee vertaistaan historiasta.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Onko Ivanka Trump todellinen vaikuttaja vai merkityksetön Yhdysvaltain prinsessa?</t>
+          <t>Vaalien tulos vahvistettiin – historian suurin rannalle jääneen äänimäärä on nyt 7 818 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Parhaillaan Afrikassa vieraileva Ivanka Trump pehmentää presidentti-isänsä kovaa julkisuuskuvaa. Tyttären asema Valkoisessa talossa hakee vertaistaan historiasta.</t>
+          <t>Lapissa reaalinen äänikynnys oli 9,7 prosenttia, kun Uudellamaalla se oli 2,3 prosenttia.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t> STTJussi Salokorpi</t>
         </is>
       </c>
     </row>
@@ -2122,17 +2122,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiistai 16.4.2019 (tv)</t>
+          <t>Ex-ministeri Stefan Wallin viestintäyritys Miltton Networksin johtoon</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Notre Damen tulipalo. Juha Sipilä eroaa keskustan johdosta. Hallitusneuvottelut alkavat pääsiäisen jälkeen. Ugandan ihmiskauppa. Sää.</t>
+          <t>Wallin kertoi alkuvuodesta jättävänsä eduskunnan.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pälvi Tammi</t>
+          <t>Hanna Hanhinen</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lapin kansanedustajat rakentaisivat Jäämeren radan – yhtä lukuunottamatta</t>
+          <t>Analyysi: Sipilä jätti uppoavan laivan – löytyykö keskustan uusi suunta piirun verran vasemmalta?</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Osa kansanedustajista selvittäisi rautatien rakentamista Venäjän kautta.</t>
+          <t>Keskusta putosi yhdessä yössä takaisin samaan kuoppaan, josta se Juha Sipilän johdolla kaivautui ylös kevään 2015 vaaleissa, politiikan toimittaja Pekka Kinnunen arvioi.  </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2162,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ensimmäinen Punaisen Ristin avustuslento saapui Venezuelaan</t>
+          <t>Keskustan entinen puoluesihteeri Jouni Ovaska: "On vaikea nähdä, että keskusta olisi lähtenyt hallitukseen Sipilän johdolla"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Presidentti Maduro on aiemmin torpannut kansainvälisen avun saapumisen maahan ilmoittamalla toistuvasti, ettei Venezuelassa ole humanitääristä kriisiä.</t>
+          <t>Uutinen ei yllättänyt vastavalittua kansanedustajaa. </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Heli Mansikka</t>
         </is>
       </c>
     </row>
@@ -2182,17 +2182,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Algerian väliaikainen presidentti nimitti perustuslailliseen neuvostoon uuden johtajan</t>
+          <t>Kainuun piiripomo keskustan vaalitappiosta ja Sipilän erosta: "Ei tämä tarkoita, että jäisimme yksin"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mielenosoittajat painostivat valitsemaan neuvostolle riippumattoman johtajan.</t>
+          <t>Esa Kemppaisen mukaan Kainuussa selvitään hyvin keskustan mylleryksestä huolimatta. </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -2202,17 +2202,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pitkän kansanedustajauran päättävä Annika Lapintie: Eduskuntaa on vaivannut asiantuntemuksen halveksunta </t>
+          <t>Algerian väliaikainen presidentti nimitti perustuslailliseen neuvostoon uuden johtajan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Katsomoon siirtynyt perustuslakivaliokunnan puheenjohtaja Lapintie tunnustaa vanhat syntinsä: poliisikyyti ja sakot. </t>
+          <t>Mielenosoittajat painostivat valitsemaan neuvostolle riippumattoman johtajan.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Merja Niilola</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -2222,17 +2222,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Egyptin parlamentti hyväksyi lain, jolla presidentti Sisin valtakausi jatkuu jopa vuoteen 2030</t>
+          <t>Postimees: Ratas nimitettiin Viron hallitustunnustelijaksi</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Perustuslain muutokset joutuvat vielä kansanäänestykseen ennen kuin ne lopullisesti hyväksytään.</t>
+          <t>Keskustapuolueen Jüri Rataksen hyväksymisestä tehtävään äänestetään huomenna maan parlamentissa. </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -2242,17 +2242,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Analyysi: Sipilä jätti uppoavan laivan – löytyykö keskustan uusi suunta piirun verran vasemmalta?</t>
+          <t>Juha Sipilän ero: Keski-Suomen keskustalaiset haluavat tulevan puheenjohtajan muistavan puolueen juuret</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Keskusta putosi yhdessä yössä takaisin samaan kuoppaan, josta se Juha Sipilän johdolla kaivautui ylös kevään 2015 vaaleissa, politiikan toimittaja Pekka Kinnunen arvioi.  </t>
+          <t>Keskustan keskisuomalaiset kansanedustajat eivät yllättyneet Juha Sipilän eroilmoituksesta puolueen puheenjohtajan tehtävästä.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -2262,17 +2262,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Keskustan entinen puoluesihteeri Jouni Ovaska: "On vaikea nähdä, että keskusta olisi lähtenyt hallitukseen Sipilän johdolla"</t>
+          <t>Ensimmäinen Punaisen Ristin avustuslento saapui Venezuelaan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Uutinen ei yllättänyt vastavalittua kansanedustajaa. </t>
+          <t>Presidentti Maduro on aiemmin torpannut kansainvälisen avun saapumisen maahan ilmoittamalla toistuvasti, ettei Venezuelassa ole humanitääristä kriisiä.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Heli Mansikka</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -2282,17 +2282,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kainuun piiripomo keskustan vaalitappiosta ja Sipilän erosta: "Ei tämä tarkoita, että jäisimme yksin"</t>
+          <t>Egyptin parlamentti hyväksyi lain, jolla presidentti Sisin valtakausi jatkuu jopa vuoteen 2030</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Esa Kemppaisen mukaan Kainuussa selvitään hyvin keskustan mylleryksestä huolimatta. </t>
+          <t>Perustuslain muutokset joutuvat vielä kansanäänestykseen ennen kuin ne lopullisesti hyväksytään.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -2302,15 +2302,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ulkolinja: Brexit, kello käy – Mitä tapahtui neuvottelujen kulisseissa?</t>
+          <t>Kansanedustaja Eeva Kalli pitäisi hallitusovea auki</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EU:n pääneuvottelija Michel Barnier taisteli brexit-neuvotteluissa aikaa vastaan.</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>Keskustan ainoa satakuntalaiskansanedustaja Eeva Kalli toivoo, että keskustan puheenjohtajapeliin saadaan useita ehdokkaita.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Antti Laakso</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -2318,17 +2322,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ex-ministeri Stefan Wallin viestintäyritys Miltton Networksin johtoon</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Wallin kertoi alkuvuodesta jättävänsä eduskunnan.</t>
-        </is>
-      </c>
+          <t>Keski-Pohjanmaalla ei yllätytty Sipilän erosta</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Hanna Hanhinen</t>
+          <t>Petra Haavisto</t>
         </is>
       </c>
     </row>
@@ -2338,17 +2338,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Postimees: Ratas nimitettiin Viron hallitustunnustelijaksi</t>
+          <t>Juha Sipilä jättää keskustan puheenjohtajuuden</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Keskustapuolueen Jüri Rataksen hyväksymisestä tehtävään äänestetään huomenna maan parlamentissa. </t>
+          <t>Juha Sipilän johdolla keskusta keräsi sunnuntain eduskuntavaaleissa Suomen itsenäisyyden ajan huonoimman vaalituloksen.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Päivi Annala</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2378,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Kokoomuksen ja keskustan puoluehallitukset koolla tänään</t>
+          <t>Lapin kansanedustajat rakentaisivat Jäämeren radan – yhtä lukuunottamatta</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sekä Orpolta että Sipilältä odotetaan linjauksia tulevaisuudesta ja siitä miltä hallitusmahdollisuudet näyttävät.</t>
+          <t>Osa kansanedustajista selvittäisi rautatien rakentamista Venäjän kautta.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -2398,17 +2398,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tarkastuslaskenta toi yllätyksen Savo-Karjalassa: Tuula Väätäinen nousee eduskuntaan, Timo Suhonen putoaa varalle</t>
+          <t>Analyysi: Eurooppa ei pysähdy vaikka suomalaispoliitikot jämähtäisivätkin riitelemään hallituksensa kokoonpanosta</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Väätäisen äänimäärä nousi tarkastuslaskennassa ja Suhosen laski.</t>
+          <t>Vaalitulos tuskin tuo äkkikäännöstä Suomen suuntaan EU:ssa. Hyvin pedattua puheenjohtajuuttakin on vaikea sössiä, kirjoittaa EU-kirjeenvaihtaja Petri Raivio.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Veli-Pekka Hämäläinen</t>
+          <t>Petri Raivio</t>
         </is>
       </c>
     </row>
@@ -2418,17 +2418,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kenestä Juha Sipilän seuraaja? Keskustan puheenjohtajapeli lähti heti käyntiin – listasimme kärkiehdokkaat</t>
+          <t>Pitkän kansanedustajauran päättävä Annika Lapintie: Eduskuntaa on vaivannut asiantuntemuksen halveksunta </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Tässä vahvimmat ehdokkaat Juha Sipilän seuraajaksi keskustan johtoon.</t>
+          <t>Katsomoon siirtynyt perustuslakivaliokunnan puheenjohtaja Lapintie tunnustaa vanhat syntinsä: poliisikyyti ja sakot. </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Merja Niilola</t>
         </is>
       </c>
     </row>
@@ -2438,19 +2438,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Li Andersson: Juha Sipilän lähtö helpottaa hallitusneuvotteluja – "Olen keskustellut Antin kanssa"</t>
+          <t>Ulkolinja: Brexit, kello käy – Mitä tapahtui neuvottelujen kulisseissa?</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton puheenjohtajan Li Anderssonin mukaan Sipilän eroilmoitus antaa viestin siitä, että keskusta ei ole ulkona hallitusneuvottelupöydästä. Keskustan tiedotteen mukaan puolueen kynnys hallitukseen on korkea.</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Eino Kossila</t>
-        </is>
-      </c>
+          <t>EU:n pääneuvottelija Michel Barnier taisteli brexit-neuvotteluissa aikaa vastaan.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -2458,17 +2454,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Juha Sipilän ero: Keski-Suomen keskustalaiset haluavat tulevan puheenjohtajan muistavan puolueen juuret</t>
+          <t>Kenestä Juha Sipilän seuraaja? Keskustan puheenjohtajapeli lähti heti käyntiin – listasimme kärkiehdokkaat</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Keskustan keskisuomalaiset kansanedustajat eivät yllättyneet Juha Sipilän eroilmoituksesta puolueen puheenjohtajan tehtävästä.</t>
+          <t>Tässä vahvimmat ehdokkaat Juha Sipilän seuraajaksi keskustan johtoon.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -2478,13 +2474,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Keski-Pohjanmaalla ei yllätytty Sipilän erosta</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>Kokoomuksen ja keskustan puoluehallitukset koolla tänään</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sekä Orpolta että Sipilältä odotetaan linjauksia tulevaisuudesta ja siitä miltä hallitusmahdollisuudet näyttävät.</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Petra Haavisto</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -2494,17 +2494,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Juha Sipilä jättää keskustan puheenjohtajuuden</t>
+          <t>Keskustan puoluesihteeri A-studiossa: "Keskusta on nyt menossa oppositioon"</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Juha Sipilän johdolla keskusta keräsi sunnuntain eduskuntavaaleissa Suomen itsenäisyyden ajan huonoimman vaalituloksen.</t>
+          <t>Riikka Pirkkalaisen mukaan Juha Sipilä päätti erostaan nopeasti keskustan vaalitappion selvittyä. </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Päivi Annala</t>
+          <t>Ellinoora Sandell</t>
         </is>
       </c>
     </row>
@@ -2514,17 +2514,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hallitusvastuu, hyökkäävä tyyli ja synnytyssairaalan lakkautus – näin Sipilän kotikuntalaiset ja puoluetoverit pohtivat eron syitä</t>
+          <t>Li Andersson: Juha Sipilän lähtö helpottaa hallitusneuvotteluja – "Olen keskustellut Antin kanssa"</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kierros Sipilän kotikulmilla Kempeleessä ja Oulussa osoittaa, että varsinainen yllätys ero ei monelle ollut. </t>
+          <t>Vasemmistoliiton puheenjohtajan Li Anderssonin mukaan Sipilän eroilmoitus antaa viestin siitä, että keskusta ei ole ulkona hallitusneuvottelupöydästä. Keskustan tiedotteen mukaan puolueen kynnys hallitukseen on korkea.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Risto DegermanTimo SipolaRisto UkkonenMarko Pinola</t>
+          <t>Eino Kossila</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Keskustan puoluesihteeri A-studiossa: "Keskusta on nyt menossa oppositioon"</t>
+          <t>Menoja leikaten vai veroja kiristäen – Talouspolitiikasta on tulossa hallituksen jakolinja</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Riikka Pirkkalaisen mukaan Juha Sipilä päätti erostaan nopeasti keskustan vaalitappion selvittyä. </t>
+          <t>Vaalikonevastausten mukaan kansanedustajien enemmistö pitää menojen karsimista veronkorotuksia parempana vaihtoehtona. </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ellinoora Sandell</t>
+          <t>Jarmo Koponen</t>
         </is>
       </c>
     </row>
@@ -2554,17 +2554,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Juha Sipilä jättää puheenjohtajan tehtävät, ei halua tulla tänään median eteen – Katso, miten puoluesihteeri kommentoi Sipilän eroa</t>
+          <t>Hallitusvastuu, hyökkäävä tyyli ja synnytyssairaalan lakkautus – näin Sipilän kotikuntalaiset ja puoluetoverit pohtivat eron syitä</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Keskusta valitsee uuden puheenjohtajan ensi syksyn ylimääräisessä puoluekokouksessa.</t>
+          <t>Kierros Sipilän kotikulmilla Kempeleessä ja Oulussa osoittaa, että varsinainen yllätys ero ei monelle ollut. </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Päivi HapponenHanna Hanhinen</t>
+          <t>Risto DegermanTimo SipolaRisto UkkonenMarko Pinola</t>
         </is>
       </c>
     </row>
@@ -2574,17 +2574,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Jari Lindström teki U-käännöksen – ei lähdekään ehdolle eurovaaleihin:  "Kun tässä nyt avaudutaan"</t>
+          <t>Tarkastuslaskenta toi yllätyksen Savo-Karjalassa: Tuula Väätäinen nousee eduskuntaan, Timo Suhonen putoaa varalle</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Työministerinä toiminut Jari Lindström (sin.) kertoi Twitterissä päättäneensä asiasta eduskuntavaalien tulosiltana.</t>
+          <t>Väätäisen äänimäärä nousi tarkastuslaskennassa ja Suhosen laski.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Miina Sillanpää</t>
+          <t>Veli-Pekka Hämäläinen</t>
         </is>
       </c>
     </row>
@@ -2594,15 +2594,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reetta Rädyn kolumni: Jos kansalainen ei vaalien jälkeen tiedä, mihin joukkoon kuuluu, on hän hahmottanut paikkansa maailmassa täsmällisesti</t>
+          <t>Jari Lindström teki U-käännöksen – ei lähdekään ehdolle eurovaaleihin:  "Kun tässä nyt avaudutaan"</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Miksi meillä pitäisi olla enää duunareiden, porvareiden ja maanviljelijöiden isot puolueet, kun kansa ei enää jakaudu näin? Jakolinjat ovat nyt ihan muualla, kirjoittaa Reetta Räty.</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>Työministerinä toiminut Jari Lindström (sin.) kertoi Twitterissä päättäneensä asiasta eduskuntavaalien tulosiltana.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Miina Sillanpää</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -2610,17 +2614,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kansanedustaja Eeva Kalli pitäisi hallitusovea auki</t>
+          <t>Tiistai 16.4.2019 (tv)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Keskustan ainoa satakuntalaiskansanedustaja Eeva Kalli toivoo, että keskustan puheenjohtajapeliin saadaan useita ehdokkaita.</t>
+          <t>Notre Damen tulipalo. Juha Sipilä eroaa keskustan johdosta. Hallitusneuvottelut alkavat pääsiäisen jälkeen. Ugandan ihmiskauppa. Sää.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Pälvi Tammi</t>
         </is>
       </c>
     </row>
@@ -2630,17 +2634,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Analyysi: Eurooppa ei pysähdy vaikka suomalaispoliitikot jämähtäisivätkin riitelemään hallituksensa kokoonpanosta</t>
+          <t>Juha Sipilä jättää puheenjohtajan tehtävät, ei halua tulla tänään median eteen – Katso, miten puoluesihteeri kommentoi Sipilän eroa</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vaalitulos tuskin tuo äkkikäännöstä Suomen suuntaan EU:ssa. Hyvin pedattua puheenjohtajuuttakin on vaikea sössiä, kirjoittaa EU-kirjeenvaihtaja Petri Raivio.</t>
+          <t>Keskusta valitsee uuden puheenjohtajan ensi syksyn ylimääräisessä puoluekokouksessa.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Petri Raivio</t>
+          <t>Päivi HapponenHanna Hanhinen</t>
         </is>
       </c>
     </row>
@@ -2650,19 +2654,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Menoja leikaten vai veroja kiristäen – Talouspolitiikasta on tulossa hallituksen jakolinja</t>
+          <t>Reetta Rädyn kolumni: Jos kansalainen ei vaalien jälkeen tiedä, mihin joukkoon kuuluu, on hän hahmottanut paikkansa maailmassa täsmällisesti</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vaalikonevastausten mukaan kansanedustajien enemmistö pitää menojen karsimista veronkorotuksia parempana vaihtoehtona. </t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Jarmo Koponen</t>
-        </is>
-      </c>
+          <t>Miksi meillä pitäisi olla enää duunareiden, porvareiden ja maanviljelijöiden isot puolueet, kun kansa ei enää jakaudu näin? Jakolinjat ovat nyt ihan muualla, kirjoittaa Reetta Räty.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -2670,17 +2670,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rinteen nenä haistaa yllätyksiä hallitusneuvotteluissa: Helppo ratkaisu, jos vedetään oikeista naruista – Yle seurasi hetki hetkeltä vaalien jälkipuintia </t>
+          <t>Herätys: SDP niukkaan vaalivoittoon, kaikki vaaleista tulospalvelussa, Suomen naisleijonille kirvelevä tappio</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Katso jutusta Antti Rinteen ja Jussi Halla-ahon videohaastattelut. Yle seurasi tässä artikkelissa vaalien jälkeisen päivän tapahtumia ja kommentteja. </t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Päivi HapponenMattias Mattila</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -2690,17 +2690,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Äänten tarkastuslaskenta tehty Lapissa: Markus Lohi viimeisenä läpi</t>
+          <t>Perseen myynti ja nahkurin orret – testaa tietosi Suomen poliitikkojen letkautuksista!</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Tarkastuslaskennassa ratkesi Lapin viimeinen läpimenijä eli seitsemäs kansanedustaja.</t>
+          <t>Suomen monenkirjavassa poliittisessa historiassa on sanansäilä lentänyt niin istuntosaleissa kuin turuilla ja toreilla. Monet lausahdukset ovat jääneet elämään aivan omaa elämäänsä vielä vuosien jälkeenkin. Elävä arkisto koosti niitä leikkimieliseen testiin. Kuka sanoi ja mitä? – testaa tietämyksesi!</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Petri Lehtola</t>
         </is>
       </c>
     </row>
@@ -2710,17 +2710,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Millainen oli vaalitulos kotikulmillasi? Kartat sen kertovat</t>
+          <t>Muellerin Venäjä-tutkintaraportista typistetty versio julki torstaina</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Kuntasi suurin puolue? Äänestysalueesi kakkospuolue? Missä puolueet kasvattivat äänipottiaan eniten? Katso tästä vaalitulos kartoilla.</t>
+          <t>Aiemmin raportista on annettu julkisuuteen nelisivuisen tiivistelmä.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Joel KanervaJuho SalminenJuha Rissanen</t>
+          <t>Marika Harjumaa</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Herätys: SDP niukkaan vaalivoittoon, kaikki vaaleista tulospalvelussa, Suomen naisleijonille kirvelevä tappio</t>
+          <t>Kulmuni Keskustan vaalitappiosta: "Vaatii puolueessa erittäin kovan ja tiukan analyysin"</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Keskustan lappilainen varapuheenjohtaja Katri Kulmuni pohtii antoiko puolue talousasioiden ajaa liikaa muiden edelle.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Antti Heikinmatti</t>
         </is>
       </c>
     </row>
@@ -2750,17 +2750,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Keski-Suomen uusilla kansanedustajilla tavoitteet ja valiokuntatoiveet selvillä</t>
+          <t>Vihreiden ensimmäinen kansanedustaja Lapista jäi 9 äänen päähän – tutkija: puolueen tie korkeuksiin koko maassa on vain ajan kysymys</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Keski-Suomen uudet kansanedustajat ovat asettaneet jo selkeitä tavoitteita ensi viikolla alkavalle eduskuntatyölleen ja pohtineet myös valiokuntatoiveitaan.</t>
+          <t>Neljän vuoden päästä vihreiden kannatus voi nousta jälleen, sillä nuoria äänestäjiä on lisää.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Laura Tolonen</t>
         </is>
       </c>
     </row>
@@ -2770,17 +2770,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Muellerin Venäjä-tutkintaraportista typistetty versio julki torstaina</t>
+          <t>Eduskunnan keski-ikä putosi vuodella – Nuoria kansanedustajia valittiin kuitenkin vähemmän kuin viimeksi </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Aiemmin raportista on annettu julkisuuteen nelisivuisen tiivistelmä.</t>
+          <t>Uudessa eduskunnassa aloittaa kahdeksan alle 30-vuotiasta kansanedustajaa.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Marika Harjumaa</t>
+          <t>Niina Honka</t>
         </is>
       </c>
     </row>
@@ -2790,17 +2790,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Eteläkarjalaiset kansanedustajat: Edessä vaativat hallitusneuvottelut</t>
+          <t>Maanantai 15.4.2019 (radio)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Etelä-Karjalassa kansanedustajat pohtivat vaaleissa hyvin menestyneen perussuomalaisten asemaa hallitusneuvotteluissa.</t>
+          <t>Kansanedustajiksi valittiin ennätysmäärä naisia. Uuden eduskunnan työ alkaa pääsiäisen jälkeen. SDP ei usko hallitusyhteistyöhön perussuomalaisten kanssa. Posti vähentää työntekijöitä. Ihmiselle löytyi uusi sukulainen.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tanja Hannus</t>
+          <t>Merja Windia</t>
         </is>
       </c>
     </row>
@@ -2810,17 +2810,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Keskustalla riittää tappiossa pureskeltavaa myös Keski-Pohjanmaalla:  "Nyt nöyrästi hattu kouraan ja uuteen nousuun"</t>
+          <t>Analyysi: Suomen suunta on hakusessa – SDP:n muutos ja perussuomalaisten protesti tuskin mahtuvat samaan hallitusbussiin</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Keskusta menetti toisen keskipohjalaisen kansanedustajansa. Monessa kunnassa puolueen osuus notkahti viime vaaleista, vaikka valta-asema säilyikin.</t>
+          <t>Antti Rinteen hallituksessa on vähintään SDP, vihreät sekä suuri ja pieni porvaripuolue, kirjoittaa Ari Hakahuhta.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Iina KluukeriSari Vähäsarja</t>
+          <t>Ari Hakahuhta</t>
         </is>
       </c>
     </row>
@@ -2830,17 +2830,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Huojennus demareille: Tarkastuslaskenta ei muuttanut SDP:n paikkamäärää Satakunnassa</t>
+          <t>Keski-Suomen uusilla kansanedustajilla tavoitteet ja valiokuntatoiveet selvillä</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SDP sai kolmannen paikan keskustan nenän edestä Satakunnassa vain 51 vertauslukuäänen perusteella.</t>
+          <t>Keski-Suomen uudet kansanedustajat ovat asettaneet jo selkeitä tavoitteita ensi viikolla alkavalle eduskuntatyölleen ja pohtineet myös valiokuntatoiveitaan.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t> STT–YleAntti Laakso</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -2850,17 +2850,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Kolmikymppiset menestyivät Oulun vaalipiirissä</t>
+          <t>Rinteen nenä haistaa yllätyksiä hallitusneuvotteluissa: Helppo ratkaisu, jos vedetään oikeista naruista – Yle seurasi hetki hetkeltä vaalien jälkipuintia </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t> Oululainen Hanna Sarkkinen oli koko vaalipiirin äänikuningatar.</t>
+          <t>Katso jutusta Antti Rinteen ja Jussi Halla-ahon videohaastattelut. Yle seurasi tässä artikkelissa vaalien jälkeisen päivän tapahtumia ja kommentteja. </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Emma Hinkula</t>
+          <t>Päivi HapponenMattias Mattila</t>
         </is>
       </c>
     </row>
@@ -2870,17 +2870,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Perseen myynti ja nahkurin orret – testaa tietosi Suomen poliitikkojen letkautuksista!</t>
+          <t>Äänten tarkastuslaskenta tehty Lapissa: Markus Lohi viimeisenä läpi</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Suomen monenkirjavassa poliittisessa historiassa on sanansäilä lentänyt niin istuntosaleissa kuin turuilla ja toreilla. Monet lausahdukset ovat jääneet elämään aivan omaa elämäänsä vielä vuosien jälkeenkin. Elävä arkisto koosti niitä leikkimieliseen testiin. Kuka sanoi ja mitä? – testaa tietämyksesi!</t>
+          <t>Tarkastuslaskennassa ratkesi Lapin viimeinen läpimenijä eli seitsemäs kansanedustaja.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Petri Lehtola</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -2890,17 +2890,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Maakuntajohtaja on pettynyt vaalitulokseen: "Paljon rajuja yllätyksiä Kainuulle"</t>
+          <t>Keskustalla riittää tappiossa pureskeltavaa myös Keski-Pohjanmaalla:  "Nyt nöyrästi hattu kouraan ja uuteen nousuun"</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Kainuun maakuntajohtaja Pentti Malisen mukaan kansanedustajien vaihtuminen ei ole välttämättä hyvä asia. </t>
+          <t>Keskusta menetti toisen keskipohjalaisen kansanedustajansa. Monessa kunnassa puolueen osuus notkahti viime vaaleista, vaikka valta-asema säilyikin.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Iina KluukeriSari Vähäsarja</t>
         </is>
       </c>
     </row>
@@ -2910,17 +2910,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Merja Kyllönen aikoo kunnioittaa äänestäjien toiveita ja pysyä eduskunnassa</t>
+          <t>Huojennus demareille: Tarkastuslaskenta ei muuttanut SDP:n paikkamäärää Satakunnassa</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton kansanedustaja ei aio katkaista kolmatta kansanedustajakauttaan.</t>
+          <t>SDP sai kolmannen paikan keskustan nenän edestä Satakunnassa vain 51 vertauslukuäänen perusteella.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Markus Leskinen</t>
+          <t> STT–YleAntti Laakso</t>
         </is>
       </c>
     </row>
@@ -2930,17 +2930,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Teuvo Hakkarainen pohtii eurovaaleja</t>
+          <t>Juha Sipilä ei vielä tänään paljastanut jatkostaan mitään – Keskustan puoluehallitus koolla huomenna</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Perussuomalaisista kolmannelle kaudelle eduskuntaan valittu Teuvo Hakkarainen pohtii ehdokkuutta eurovaaleissa. </t>
+          <t>Keskustan puoluehallitus on koolla tiistaina Kesärannassa.  Osa odottaa kokouksessa kuulevansa Sipilän jatkosuunnitelmista.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -2950,17 +2950,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Kainuun keskustalaiset kommentoivat rökäletappiota: “Turpaan on tullut”</t>
+          <t>Millainen oli vaalitulos kotikulmillasi? Kartat sen kertovat</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tuomas Kettunen ja Timo Korhonen ovat pettyneitä puolueen vaalitulokseen.</t>
+          <t>Kuntasi suurin puolue? Äänestysalueesi kakkospuolue? Missä puolueet kasvattivat äänipottiaan eniten? Katso tästä vaalitulos kartoilla.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Joel KanervaJuho SalminenJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -2970,17 +2970,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lapin äärimmäisen jännittävä vaalitulos – viimeisen eduskuntapaikan kohtalo ratkeaa maanantaina</t>
+          <t>Perussuomalaiset juhli rakettimaista nousua ja vihreät naisten voittokulkua – näin vaalivoittajien ilta eteni jännityksestä riemuun</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t> Lapin vaalipiirilautakunta julkistaa äänten tarkastuslaskennan tuloksen maanantaina iltapäivällä.</t>
+          <t>Voittajien riemuun jäi Helsingin dramaattisessa vaali-illassa pieni sivumaku – olisiko pitänyt saada vielä enemmän?</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Janne Toivonen</t>
         </is>
       </c>
     </row>
@@ -2990,15 +2990,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Erkki Virtasen kolumni: Karu arki iskee päälle heti vaalien jälkeen</t>
+          <t>Merja Kyllönen aikoo kunnioittaa äänestäjien toiveita ja pysyä eduskunnassa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tulevat hallituspuolueet eivät pääse pakoon talouden tosiasioita. Esimerkiksi Suomen velkaantuminen jatkuu edelleen päinvastaisista puheista huolimatta, kirjoittaa Erkki Virtanen.</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>Vasemmistoliiton kansanedustaja ei aio katkaista kolmatta kansanedustajakauttaan.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Markus Leskinen</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -3006,17 +3010,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>"Itku tuli kerran" – Konkari Juha Rehula kertoo, miltä tuntui pudota eduskunnasta</t>
+          <t>Keskustan romahdus tiivistyy maitopitäjään, jonka äänestäjät käänsivät selkänsä jopa oman kaupungin tähtiehdokkaalle – "Miksi Hannakaisa ei ole täällä?"</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Moni ministerikin jäi vaaleissa vaille parlamenttipaikkaa. Yle kuulosteli keskustakonkarin Juha Rehulan tuntoja kyynelten jälkeen. </t>
+          <t>Keskusta putosi rajusti monilla ydinalueillaan. Kävimme savolaisessa maitopitäjässä etsimässä syitä vaalitulokseen.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Merja Niilola</t>
+          <t>Antti KarhunenVeli-Pekka Hämäläinen</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3030,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Maailman reaktiot Suomen vaalitulokseen – "Politiikka on pirstaloitunut, suomalaiset protestoivat" </t>
+          <t>Kainuun keskustalaiset kommentoivat rökäletappiota: “Turpaan on tullut”</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Mediat Euroopassa ja muualla maailmalla pohtivat syitä Suomen vaalitulokseen ja povaavat vaikeita hallitusneuvotteluja.</t>
+          <t>Tuomas Kettunen ja Timo Korhonen ovat pettyneitä puolueen vaalitulokseen.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Petri BurtsovMikko Haapanen</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -3046,17 +3050,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Eduskunnasta pudonneet: Kankaanniemi rauhallisin mielin, Aalto ja Paloniemi kommentoivat vain Facebookissa</t>
+          <t>Tamperelainen Iiris Suomela, 24, on uuden eduskunnan kuopus – "Muutan pois keittiöttömästä yksiöstäni ja gradun tekeminen jää tauolle" </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Perussuomalaisten kansanedustaja Toimi Kankaanniemi ottaa eduskunnasta putoamisensa vastaan rauhallisin mielin.</t>
+          <t>Iiris Suomela sanoo, että nuorten naisten menestyminen vaaleissa kertoo siitä, että sukupolvenvaihdokselle ja tasa-arvolle on tilaus.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Heli Mansikka</t>
         </is>
       </c>
     </row>
@@ -3066,17 +3070,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Perussuomalaiset juhli rakettimaista nousua ja vihreät naisten voittokulkua – näin vaalivoittajien ilta eteni jännityksestä riemuun</t>
+          <t>Kolmikymppiset menestyivät Oulun vaalipiirissä</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Voittajien riemuun jäi Helsingin dramaattisessa vaali-illassa pieni sivumaku – olisiko pitänyt saada vielä enemmän?</t>
+          <t> Oululainen Hanna Sarkkinen oli koko vaalipiirin äänikuningatar.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Janne Toivonen</t>
+          <t>Emma Hinkula</t>
         </is>
       </c>
     </row>
@@ -3086,17 +3090,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Analyysi: Suomen suunta on hakusessa – SDP:n muutos ja perussuomalaisten protesti tuskin mahtuvat samaan hallitusbussiin</t>
+          <t>Lapin äärimmäisen jännittävä vaalitulos – viimeisen eduskuntapaikan kohtalo ratkeaa maanantaina</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Antti Rinteen hallituksessa on vähintään SDP, vihreät sekä suuri ja pieni porvaripuolue, kirjoittaa Ari Hakahuhta.</t>
+          <t> Lapin vaalipiirilautakunta julkistaa äänten tarkastuslaskennan tuloksen maanantaina iltapäivällä.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ari Hakahuhta</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3106,17 +3110,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Eduskunnan keski-ikä putosi vuodella – Nuoria kansanedustajia valittiin kuitenkin vähemmän kuin viimeksi </t>
+          <t>Halla-aho sovittelevana: Olemme valmiita kompromisseihin – myös maahanmuuttopolitiikassa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Uudessa eduskunnassa aloittaa kahdeksan alle 30-vuotiasta kansanedustajaa.</t>
+          <t>Eduskuntavaalien toiseksi suurin puolue on valmis kompromisseihin päästäkseen hallitukseen.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Niina Honka</t>
+          <t>Miikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -3126,17 +3130,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kulmuni Keskustan vaalitappiosta: "Vaatii puolueessa erittäin kovan ja tiukan analyysin"</t>
+          <t>Miten neljän suurimman puolueen kemiat kohtasivat A-studiossa? Keskustan Kulmuni: "Emme ole ensimmäisenä hinkumassa hallitukseen"</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Keskustan lappilainen varapuheenjohtaja Katri Kulmuni pohtii antoiko puolue talousasioiden ajaa liikaa muiden edelle.</t>
+          <t>Historiallinen vaalitulos ennakoi hankalia hallitusneuvotteluja. </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Antti Heikinmatti</t>
+          <t>Hanna Asikainen</t>
         </is>
       </c>
     </row>
@@ -3146,17 +3150,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"Neljä vuotta sitten naureskeltiin, että kaveri keulii" – Kokoomuksen äänikuningas Antti Häkkänen valmistautuu jo hallitusneuvotteluihin</t>
+          <t>"Itku tuli kerran" – Konkari Juha Rehula kertoo, miltä tuntui pudota eduskunnasta</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Antti Häkkänen keräsi eduskuntavaalien kolmanneksi suurimman äänipotin Jussi Halla-ahon ja Li Anderssonin jälkeen. </t>
+          <t>Moni ministerikin jäi vaaleissa vaille parlamenttipaikkaa. Yle kuulosteli keskustakonkarin Juha Rehulan tuntoja kyynelten jälkeen. </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Petri Vironen</t>
+          <t>Merja Niilola</t>
         </is>
       </c>
     </row>
@@ -3166,17 +3170,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Maanantai 15.4.2019 (radio)</t>
+          <t>Satakunnan tarkastuslaskenta voi viedä demareilta suurimman puolueen paikan eduskunnassa</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Kansanedustajiksi valittiin ennätysmäärä naisia. Uuden eduskunnan työ alkaa pääsiäisen jälkeen. SDP ei usko hallitusyhteistyöhön perussuomalaisten kanssa. Posti vähentää työntekijöitä. Ihmiselle löytyi uusi sukulainen.</t>
+          <t>Vaalijohtaja Arto Jääskeläisen mukaan paikan vaihtuminen yhdeltä puolueelta toiselle olisi äärimmäisen harvinaista.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Merja Windia</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -3186,17 +3190,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Juha Sipilä ei vielä tänään paljastanut jatkostaan mitään – Keskustan puoluehallitus koolla huomenna</t>
+          <t>Väyrynen: Tähtiliike mukana myös tulevissa vaaleissa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Keskustan puoluehallitus on koolla tiistaina Kesärannassa.  Osa odottaa kokouksessa kuulevansa Sipilän jatkosuunnitelmista.</t>
+          <t>Seuraaviin vaaleihin eli eurovaaleihin osallistuminen tosin mietityttää Paavo Väyrystä.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3206,17 +3210,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tamperelainen Iiris Suomela, 24, on uuden eduskunnan kuopus – "Muutan pois keittiöttömästä yksiöstäni ja gradun tekeminen jää tauolle" </t>
+          <t>Maakuntajohtaja on pettynyt vaalitulokseen: "Paljon rajuja yllätyksiä Kainuulle"</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Iiris Suomela sanoo, että nuorten naisten menestyminen vaaleissa kertoo siitä, että sukupolvenvaihdokselle ja tasa-arvolle on tilaus.</t>
+          <t>Kainuun maakuntajohtaja Pentti Malisen mukaan kansanedustajien vaihtuminen ei ole välttämättä hyvä asia. </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Heli Mansikka</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3230,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Moniko kansanedustajista on kaltaisesi? Katso täältä, miltä uusi eduskunta näyttää</t>
+          <t>Halla-aho oli ykkönen jopa vihreässä Kalliossa – ja ääniä ropisi muutenkin ympäri pääkaupunkia: "Hän esiintyi kärkihahmona, ja ihmiset äänestävät johtajaa"</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kerro hieman itsestäsi ja näet, paljonko samankaltaista väkeä on uudessa eduskunnassa.</t>
+          <t>Perussuomalaisten Jussi Halla-aho oli ylivoimainen ääniharava Helsingin vaalipiirissä.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Eemeli MarttiEetu PietarinenJuho Salminen</t>
+          <t>Esa Koivuranta</t>
         </is>
       </c>
     </row>
@@ -3246,17 +3250,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Vihreiden ensimmäinen kansanedustaja Lapista jäi 9 äänen päähän – tutkija: puolueen tie korkeuksiin koko maassa on vain ajan kysymys</t>
+          <t>"Neljä vuotta sitten naureskeltiin, että kaveri keulii" – Kokoomuksen äänikuningas Antti Häkkänen valmistautuu jo hallitusneuvotteluihin</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Neljän vuoden päästä vihreiden kannatus voi nousta jälleen, sillä nuoria äänestäjiä on lisää.</t>
+          <t>Antti Häkkänen keräsi eduskuntavaalien kolmanneksi suurimman äänipotin Jussi Halla-ahon ja Li Anderssonin jälkeen. </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Laura Tolonen</t>
+          <t>Petri Vironen</t>
         </is>
       </c>
     </row>
@@ -3266,17 +3270,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Väyrynen: Tähtiliike mukana myös tulevissa vaaleissa</t>
+          <t>Eduskunnasta pudonneet: Kankaanniemi rauhallisin mielin, Aalto ja Paloniemi kommentoivat vain Facebookissa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Seuraaviin vaaleihin eli eurovaaleihin osallistuminen tosin mietityttää Paavo Väyrystä.</t>
+          <t>Perussuomalaisten kansanedustaja Toimi Kankaanniemi ottaa eduskunnasta putoamisensa vastaan rauhallisin mielin.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -3286,17 +3290,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Miten neljän suurimman puolueen kemiat kohtasivat A-studiossa? Keskustan Kulmuni: "Emme ole ensimmäisenä hinkumassa hallitukseen"</t>
+          <t>Eteläkarjalaiset kansanedustajat: Edessä vaativat hallitusneuvottelut</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Historiallinen vaalitulos ennakoi hankalia hallitusneuvotteluja. </t>
+          <t>Etelä-Karjalassa kansanedustajat pohtivat vaaleissa hyvin menestyneen perussuomalaisten asemaa hallitusneuvotteluissa.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Hanna Asikainen</t>
+          <t>Tanja Hannus</t>
         </is>
       </c>
     </row>
@@ -3306,17 +3310,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Keskustan romahdus tiivistyy maitopitäjään, jonka äänestäjät käänsivät selkänsä jopa oman kaupungin tähtiehdokkaalle – "Miksi Hannakaisa ei ole täällä?"</t>
+          <t>Maailman reaktiot Suomen vaalitulokseen – "Politiikka on pirstaloitunut, suomalaiset protestoivat" </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Keskusta putosi rajusti monilla ydinalueillaan. Kävimme savolaisessa maitopitäjässä etsimässä syitä vaalitulokseen.</t>
+          <t>Mediat Euroopassa ja muualla maailmalla pohtivat syitä Suomen vaalitulokseen ja povaavat vaikeita hallitusneuvotteluja.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Antti KarhunenVeli-Pekka Hämäläinen</t>
+          <t>Petri BurtsovMikko Haapanen</t>
         </is>
       </c>
     </row>
@@ -3326,17 +3330,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Halla-aho sovittelevana: Olemme valmiita kompromisseihin – myös maahanmuuttopolitiikassa</t>
+          <t>Teuvo Hakkarainen pohtii eurovaaleja</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien toiseksi suurin puolue on valmis kompromisseihin päästäkseen hallitukseen.</t>
+          <t>Perussuomalaisista kolmannelle kaudelle eduskuntaan valittu Teuvo Hakkarainen pohtii ehdokkuutta eurovaaleissa. </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Miikka Kaskinen</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -3346,17 +3350,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Satakunnan tarkastuslaskenta voi viedä demareilta suurimman puolueen paikan eduskunnassa</t>
+          <t>Moniko kansanedustajista on kaltaisesi? Katso täältä, miltä uusi eduskunta näyttää</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vaalijohtaja Arto Jääskeläisen mukaan paikan vaihtuminen yhdeltä puolueelta toiselle olisi äärimmäisen harvinaista.</t>
+          <t>Kerro hieman itsestäsi ja näet, paljonko samankaltaista väkeä on uudessa eduskunnassa.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Eemeli MarttiEetu PietarinenJuho Salminen</t>
         </is>
       </c>
     </row>
@@ -3366,19 +3370,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Halla-aho oli ykkönen jopa vihreässä Kalliossa – ja ääniä ropisi muutenkin ympäri pääkaupunkia: "Hän esiintyi kärkihahmona, ja ihmiset äänestävät johtajaa"</t>
+          <t>Erkki Virtasen kolumni: Karu arki iskee päälle heti vaalien jälkeen</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Jussi Halla-aho oli ylivoimainen ääniharava Helsingin vaalipiirissä.</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Esa Koivuranta</t>
-        </is>
-      </c>
+          <t>Tulevat hallituspuolueet eivät pääse pakoon talouden tosiasioita. Esimerkiksi Suomen velkaantuminen jatkuu edelleen päinvastaisista puheista huolimatta, kirjoittaa Erkki Virtanen.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Seisoitko sinäkin pitkään L-Ö-jonossa? Kahtiajaossa iso epäsuhta – Vaalijohtaja: "Jonon saa katkaista, mistä haluaa"</t>
+          <t>SDP ja vihreät vaalivoittoon Hämeessä, keskustalle rökäletappio: "Panee miettimään, mitä olemme tehneet väärin" </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Väestötietojärjestelmän mukaan selvä enemmistö suomalaisista on aakkosissa sukunimeltään K:n jälkeen.</t>
+          <t>Hämeen äänikunigas on Ville Skinnari (sd.) ja äänikuningatar Lulu Ranne (ps.).</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Lauri RautavuoriNina Keski-Korpela</t>
         </is>
       </c>
     </row>
@@ -3406,17 +3406,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Analyysi: Muutoksen tuuli romutti keskustan – Sipilän lähtölaskenta alkoi</t>
+          <t>Väyrynen putosi eduskunnasta</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ennakkoäänestyksen alustavat tulokset toivat pääministeripuolue keskustalle painajaismaisen vaali-illan, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
+          <t>Väyrynen asettui näissä vaaleissa ehdolle Uudellemaalle uuden puolueensa Tähtiliikkeen riveissä.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3426,17 +3426,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SDP suurin puolue, aloitti jo uuden hallituksen hahmottelun – Yle seurasi vaali-iltaa hetki hetkeltä</t>
+          <t>Seisoitko sinäkin pitkään L-Ö-jonossa? Kahtiajaossa iso epäsuhta – Vaalijohtaja: "Jonon saa katkaista, mistä haluaa"</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SDP sai 40 kansanedustajaa, perussuomalaiset 39, kokoomus 38, keskusta 31, vihreät 20, vasemmistoliitto 16, RKP 9, KD 5 ja muut 2.</t>
+          <t>Väestötietojärjestelmän mukaan selvä enemmistö suomalaisista on aakkosissa sukunimeltään K:n jälkeen.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Timo-Pekka HeimaMiikka KaskinenHanna HanhinenSanttu Natri</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Demokraatit antoivat uuden takarajan Trumpin verotietojen luovuttamiselle – 10 päivää aikaa</t>
+          <t>Ari Torniainen uskoo, että kansa ei ole tyytyväinen tehtyyn politiikkaan: "Keskustalla on peiliin katsomisen paikka"</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Valtiovarainministerin mukaan asiaa harkitaan.</t>
+          <t>Ari Torniainen sai jatkopestin kolmannelle kaudelle eduskuntaan.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Johanna Luukko</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Keskusta menettämässä kolme paikkaa Oulun vaalipiirissä – monta uutta nimeä nousemassa eduskuntaan</t>
+          <t>Maduro vahvistaa Venezuelan armeijaa miljoonalla taistelijalla</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Keskustalle rökäletappio Oulun vaalipiirissä, perussuomalaiset ja vasemmistopuolueet ovat saamassa lisäpaikkoja</t>
+          <t>Venezuelan armeija on pysynyt uskollisena presidentti Madurolle.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Mari Jäntti</t>
+          <t>Markus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -3486,17 +3486,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Väyrynen putosi eduskunnasta</t>
+          <t>Ministerien äänimäärät romahtivat Pohjois-Pohjanmaalla, ääniharavoina kolmikymppiset ehdokkaat</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Väyrynen asettui näissä vaaleissa ehdolle Uudellemaalle uuden puolueensa Tähtiliikkeen riveissä.</t>
+          <t>Muhoslainen Pirkko Mattila, sin., menetti eduskuntapaikkansa ja pääministeri Juha Sipilän, kesk., äänimäärä lähes puolittui.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Katja Oittinen</t>
         </is>
       </c>
     </row>
@@ -3506,17 +3506,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ketkä olivat kotikuntasi suurimmat ääniharavat? Katso Voitto-robotin tulosraportit</t>
+          <t>Aiju Salmisen sarjakuvakolumni: Äänestäminen on rituaali</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ylen Voitto-robotti kirjoitti eduskuntavaalien tulosraportit jokaisesta Suomen kunnasta.</t>
+          <t>Ehdokkaan valinta on myös tapa tutustua omiin ajatuksiin, pohtii sarjakuvapiirtäjä Aiju Salminen.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t> Voitto-robottiEemeli MarttiTeemu Kiviniemi</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ennakkoäänet: SDP suurin puolue Kaakkois-Suomessa</t>
+          <t>Keskusta menettämässä kolme paikkaa Oulun vaalipiirissä – monta uutta nimeä nousemassa eduskuntaan</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Toiseksi suurin puolue kaakossa on keskusta ja kolmanneksi suurin kokoomus.</t>
+          <t>Keskustalle rökäletappio Oulun vaalipiirissä, perussuomalaiset ja vasemmistopuolueet ovat saamassa lisäpaikkoja</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Valtteri Kykkänen</t>
+          <t>Mari Jäntti</t>
         </is>
       </c>
     </row>
@@ -3546,17 +3546,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tässä ovat Kaakkois-Suomen 17 kansanedustajaa – Antti Häkkänen ylivoimainen ääniharava, SDP palasi suurimmaksi puolueeksi</t>
+          <t>Kokoomuksen Sari Raassina putoaa eduskunnasta ja jättää politiikan</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Kaakkois-Suomen edustajista kuusi on uusia. Oikeusministeri Antti Häkkäsen äänimäärä oli erittäin korkea valtakunnallisestikin.</t>
+          <t>Entinen kansanedustaja sanoi jatkavansa kunnallispolitiikassa tämän vaalikauden loppuun.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Valtteri Kykkänen</t>
+          <t>Laura Kosonen</t>
         </is>
       </c>
     </row>
@@ -3566,17 +3566,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SDP voitti perussuomalaiset hiuksenhienolla erolla – suurimman puolueen asema on nyt heikompi kuin koskaan itsenäisyyden aikana</t>
+          <t>SDP suurin puolue, aloitti jo uuden hallituksen hahmottelun – Yle seurasi vaali-iltaa hetki hetkeltä</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pääministeripuolue keskusta ja eduskunnasta rannalle jäänyt siniset olivat vaalien häviäjät.</t>
+          <t>SDP sai 40 kansanedustajaa, perussuomalaiset 39, kokoomus 38, keskusta 31, vihreät 20, vasemmistoliitto 16, RKP 9, KD 5 ja muut 2.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Timo-Pekka HeimaMiikka KaskinenHanna HanhinenSanttu Natri</t>
         </is>
       </c>
     </row>
@@ -3606,17 +3606,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Maduro vahvistaa Venezuelan armeijaa miljoonalla taistelijalla</t>
+          <t>Ennakkoäänet: SDP suurin puolue Kaakkois-Suomessa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Venezuelan armeija on pysynyt uskollisena presidentti Madurolle.</t>
+          <t>Toiseksi suurin puolue kaakossa on keskusta ja kolmanneksi suurin kokoomus.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Markus Heikkilä</t>
+          <t>Valtteri Kykkänen</t>
         </is>
       </c>
     </row>
@@ -3626,17 +3626,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Aiju Salmisen sarjakuvakolumni: Äänestäminen on rituaali</t>
+          <t>Lappiin kolme uutta kansanedustajaa – viimeisestä paikasta todellinen jännitysnäytelmä</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ehdokkaan valinta on myös tapa tutustua omiin ajatuksiin, pohtii sarjakuvapiirtäjä Aiju Salminen.</t>
+          <t>Markus Lohi (kesk.) ja Riikka Karppinen (vihr.) kamppailivat Lapin viimeisestä kansanedustajapaikasta ihan ääntenlaskennan viimeisille hetkille asti.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3646,17 +3646,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Äänestäjät hylkäsivät keskustan myös pääministeri Sipilän kotikonnuilla – vuosituhannen huonoin vaalitulos vaimensi vaalivalvojaiset Oulussa</t>
+          <t>Demokraatit antoivat uuden takarajan Trumpin verotietojen luovuttamiselle – 10 päivää aikaa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Keskustan vaali-ilta päättyi jopa synkemmin kuin ennakoitiin. Kannatus mureni myös puolueen sydämessä pohjoisessa.</t>
+          <t>Valtiovarainministerin mukaan asiaa harkitaan.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Risto Ukkonen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Työministerin jyrkkä pudotus – viime vaalien äänikuningas Jari Lindström löi hanskat tiskiin jo alkuillasta: "Ei minulla ollut mitään jakoa"</t>
+          <t>Katso videolta tunteiden koko kirjo, kun puoluepomot näkevät ennakkoäänet – Nieleskelyä, voimahaleja, peuroja ajovaloissa</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Työministeri Jari Lindström (sin.) joutuu jättämään eduskunnan kahdeksan vuoden jälkeen.</t>
+          <t>Viiden suurimman puolueen keulahahmot ottivat tiedon joukkojensa ääniosuuksista vastaan suorassa vaalilähetyksessä.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Satu Krautsuk</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -3686,17 +3686,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Orpo sai puolueiden puheenjohtajista vähiten ääniä – Rinnekään ei ollut puolueensa ykkönen</t>
+          <t>Tässä ovat Oulun vaalipiirin kansanedustajat – kaksi alle 30-vuotiasta mutta myös vanhoja konkareita</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Orpon edelle kiilasi neljä muuta kokoomuksen edustajaa.</t>
+          <t>Noin puolet Oulun vaalipiirin kansanedustajista vaihtuu. Uusia nimiä ovat mm. Jenna Simula (ps.) ja Jenni Pitko (vihr.).</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ulla-Maija Hamunen</t>
+          <t>Mari Jäntti</t>
         </is>
       </c>
     </row>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Naisia nousi kansanedustajiksi historiallisen paljon – 85 prosenttia vihreiden edustajista naisia</t>
+          <t>Helsingissä vihreät kiilasi suurimmaksi puolueeksi – Perussuomalaisten Halla-aho äänikuningas</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Naiskansanedustajien määrä nousi eduskuntavaaleissa 93:een.</t>
+          <t>Helsingissä äänestettiin viime vaaleja vilkkaammin. Äänestysprosentti nousi 77,4 prosenttiin, joka oli Suomen korkein. Keskusta menetti ainoan Helsingin paikkansa.</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Reeta Salminen</t>
         </is>
       </c>
     </row>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Lappiin kolme uutta kansanedustajaa – viimeisestä paikasta todellinen jännitysnäytelmä</t>
+          <t>Tässä ovat Vaasan vaalipiirin 16 kansanedustajaa – RKP kiri historiallisesti ohi keskustan</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Markus Lohi (kesk.) ja Riikka Karppinen (vihr.) kamppailivat Lapin viimeisestä kansanedustajapaikasta ihan ääntenlaskennan viimeisille hetkille asti.</t>
+          <t>Perussuomalaiset saivat läpi kolme uutta kansanedustajaa.</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Sari VähäsarjaElina Kaakinen</t>
         </is>
       </c>
     </row>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Mats Löfström jatkaa Ahvenanmaan kansanedustajana</t>
+          <t>Tässä ovat Hämeen vaalipiiristä valitut kansanedustajat: punavihreä voitto on keskustan tappio</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Ahvenanmaan vaalipiirin kaikki annetut äänet on nyt laskettu. </t>
+          <t>Hämeen vaalipiirissä äänikuninkaaksi nousi lahtelainen Ville Skinnari (sd.).</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Johanna Lehtola</t>
+          <t>Nina Keski-Korpela</t>
         </is>
       </c>
     </row>
@@ -3766,17 +3766,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tässä ovat Pirkanmaan 19 kansanedustajaa – demarit saivat yhden paikan lisää ja ovat nyt suurin puolue</t>
+          <t>SDP voitti perussuomalaiset hiuksenhienolla erolla – suurimman puolueen asema on nyt heikompi kuin koskaan itsenäisyyden aikana</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pirkanmaalla demarit saivat yhden edustajan lisää, keskusta puolestaan menetti yhden paikan.</t>
+          <t>Pääministeripuolue keskusta ja eduskunnasta rannalle jäänyt siniset olivat vaalien häviäjät.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Heli Mansikka</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Koko maan äänestysprosentti nousi 72:een – katso miten ahkerasti sinun kunnassasi äänestettiin</t>
+          <t>He ovat putoamassa eduskunnasta: Jussi Niinistö, Jyrki Kasvi, Silvia Modig, Paavo Väyrynen – Siniset: Puolueen lakkautuspäätöstä ei ole</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Äänestysprosentti on yltänyt yli 72:n viimeksi vuoden 1991 eduskuntavaaleissa.</t>
+          <t>Viisi viime hallituksen ministeriä joutuu tyhjentämään työhuoneensa Eduskuntatalossa.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -3806,17 +3806,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tässä ovat Hämeen vaalipiiristä valitut kansanedustajat: punavihreä voitto on keskustan tappio</t>
+          <t>Vaalivirkailija Kuittinen on ollut töissä kaikissa vaaleissa 1970-luvun puolivälistä – ja taas hän ja 20 000 muuta panevat vaalit rullaamaan</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Hämeen vaalipiirissä äänikuninkaaksi nousi lahtelainen Ville Skinnari (sd.).</t>
+          <t>Kymmenien vaalien konkari: "Sinne lähdetään oikein innostuneella tunnelmalla." Äänestyspaikkojen määrä on vähentynyt tuhannella  2000-luvulla.  </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Nina Keski-Korpela</t>
+          <t>Antti Parviala</t>
         </is>
       </c>
     </row>
@@ -3826,17 +3826,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tässä ovat Oulun vaalipiirin kansanedustajat – kaksi alle 30-vuotiasta mutta myös vanhoja konkareita</t>
+          <t>SDP:n komeetta Sanna Marin voitti sekä äänissä että hammaslääkärijonossa – puolueen johto oli lähes sulaa ennätysjännittävässä illassa</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Noin puolet Oulun vaalipiirin kansanedustajista vaihtuu. Uusia nimiä ovat mm. Jenna Simula (ps.) ja Jenni Pitko (vihr.).</t>
+          <t>SDP sai 40 kansanedustajaa ja voitti niukimmalla mahdollisella erolla. Perussuomalaiset ja kokoomus hengittivät koko illan niskaan. </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Mari Jäntti</t>
+          <t>Anu Leena Koskinen</t>
         </is>
       </c>
     </row>
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Kokoomuksen Sari Raassina putoaa eduskunnasta ja jättää politiikan</t>
+          <t>Tässä ovat Helsingin piirin uudet kansanedustajat – Yhdeksän uutta, viisi tippui </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Entinen kansanedustaja sanoi jatkavansa kunnallispolitiikassa tämän vaalikauden loppuun.</t>
+          <t>Helsingissä äänestettiin maan aktiivisimmin. Äänestysprosentti kipusi 77,4 prosenttiin. </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Laura Kosonen</t>
+          <t>Reeta Salminen</t>
         </is>
       </c>
     </row>
@@ -3866,18 +3866,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tässä ovat Keski-Suomen vaalipiiristä valitut kansanedustajat – SDP:n Riitta Mäkinen äänikuningatar: "En odottanut tällaista menestystä"</t>
+          <t>Muista nämä asiat, kun ennakkoäänten tulokset tulevat klo 20 –  Vaaliasiantuntija: Kaksi asiaa mutkistaa tulosten tulkintaa</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>
-Keskusta menetti paikan vasemmistoliitolle. Jatkokaudelle eivät päässeet Aila Paloniemi (kesk.), Toimi Kankaanniemi (ps.) ja Touko Aalto (vihr.).</t>
+          <t>Perinteisesti tietyt puolueet menettävät kannatusosuuttaan ääntenlaskennan edetessä, mutta tänä vuonna tilanne voi olla erilainen.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Laura Tolonen</t>
+          <t>Hanna Terävä</t>
         </is>
       </c>
     </row>
@@ -3887,17 +3886,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ylen tulospalvelu kertoo eduskuntavaalien tuloksen – katso oman kuntasi vaalitulos</t>
+          <t>Orpo sai puolueiden puheenjohtajista vähiten ääniä – Rinnekään ei ollut puolueensa ykkönen</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Tulospalvelun kautta voit saada selville myös muun muassa tulevan eduskunnan ikä- ja sukupuolijakauman.</t>
+          <t>Orpon edelle kiilasi neljä muuta kokoomuksen edustajaa.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Ulla-Maija Hamunen</t>
         </is>
       </c>
     </row>
@@ -3907,17 +3906,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SDP ja vihreät vaalivoittoon Hämeessä, keskustalle rökäletappio: "Panee miettimään, mitä olemme tehneet väärin" </t>
+          <t>Puheenjohtajat palasivat illan päätteeksi puhumaan omilleen – katso videot</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Hämeen äänikunigas on Ville Skinnari (sd.) ja äänikuningatar Lulu Ranne (ps.).</t>
+          <t>Vaali-illan kääntyessä loppusuoralle, siirtyivät puolueiden puheenjohtajat omiensa luokse pitämään kiitospuheita.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Lauri RautavuoriNina Keski-Korpela</t>
+          <t>Ilpo Pajunen</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3926,18 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Video H-hetkestä: Näin Rinne, Halla-aho, Sipilä ja muut selittävät ensimmäisiä laskettuja ääniä – "Raju pudotus, kansanvalta on puhunut"</t>
+          <t>Tässä ovat Keski-Suomen vaalipiiristä valitut kansanedustajat – SDP:n Riitta Mäkinen äänikuningatar: "En odottanut tällaista menestystä"</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"Ykkösenä loppuun asti", ennusti SDP:n puheenjohtaja Antti Rinne ääntenlaskennan ensivaiheessa.</t>
+          <t>
+Keskusta menetti paikan vasemmistoliitolle. Jatkokaudelle eivät päässeet Aila Paloniemi (kesk.), Toimi Kankaanniemi (ps.) ja Touko Aalto (vihr.).</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Laura Tolonen</t>
         </is>
       </c>
     </row>
@@ -3947,17 +3947,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Muista nämä asiat, kun ennakkoäänten tulokset tulevat klo 20 –  Vaaliasiantuntija: Kaksi asiaa mutkistaa tulosten tulkintaa</t>
+          <t>Brother Christmas ja nämä muut uudet tuttavuudet pääsevät kansanedustajiksi</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Perinteisesti tietyt puolueet menettävät kannatusosuuttaan ääntenlaskennan edetessä, mutta tänä vuonna tilanne voi olla erilainen.</t>
+          <t>Tuttuja julkkisnimiä noussee eduskuntaan. Liuta menneitä eduskuntakonkareita tekee comebackin tulevalla vaalikaudella.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hanna Terävä</t>
+          <t>Matti KonttinenTiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -3967,17 +3967,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SDP:n komeetta Sanna Marin voitti sekä äänissä että hammaslääkärijonossa – puolueen johto oli lähes sulaa ennätysjännittävässä illassa</t>
+          <t>Tässä ovat Pirkanmaan 19 kansanedustajaa – demarit saivat yhden paikan lisää ja ovat nyt suurin puolue</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SDP sai 40 kansanedustajaa ja voitti niukimmalla mahdollisella erolla. Perussuomalaiset ja kokoomus hengittivät koko illan niskaan. </t>
+          <t>Pirkanmaalla demarit saivat yhden edustajan lisää, keskusta puolestaan menetti yhden paikan.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Anu Leena Koskinen</t>
+          <t>Heli Mansikka</t>
         </is>
       </c>
     </row>
@@ -3987,17 +3987,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tässä ovat Helsingin piirin uudet kansanedustajat – Yhdeksän uutta, viisi tippui </t>
+          <t>Naisia nousi kansanedustajiksi historiallisen paljon – 85 prosenttia vihreiden edustajista naisia</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Helsingissä äänestettiin maan aktiivisimmin. Äänestysprosentti kipusi 77,4 prosenttiin. </t>
+          <t>Naiskansanedustajien määrä nousi eduskuntavaaleissa 93:een.</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Reeta Salminen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -4007,17 +4007,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vaalivirkailija Kuittinen on ollut töissä kaikissa vaaleissa 1970-luvun puolivälistä – ja taas hän ja 20 000 muuta panevat vaalit rullaamaan</t>
+          <t>Koko maan äänestysprosentti nousi 72:een – katso miten ahkerasti sinun kunnassasi äänestettiin</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kymmenien vaalien konkari: "Sinne lähdetään oikein innostuneella tunnelmalla." Äänestyspaikkojen määrä on vähentynyt tuhannella  2000-luvulla.  </t>
+          <t>Äänestysprosentti on yltänyt yli 72:n viimeksi vuoden 1991 eduskuntavaaleissa.</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Antti Parviala</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tässä ovat Vaasan vaalipiirin 16 kansanedustajaa – RKP kiri historiallisesti ohi keskustan</t>
+          <t>Video H-hetkestä: Näin Rinne, Halla-aho, Sipilä ja muut selittävät ensimmäisiä laskettuja ääniä – "Raju pudotus, kansanvalta on puhunut"</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Perussuomalaiset saivat läpi kolme uutta kansanedustajaa.</t>
+          <t>"Ykkösenä loppuun asti", ennusti SDP:n puheenjohtaja Antti Rinne ääntenlaskennan ensivaiheessa.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Sari VähäsarjaElina Kaakinen</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -4047,17 +4047,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Analyysi: Hallitusneuvotteluista äärimmäisen vaikeat – muutoksen suunta jäi kysymysmerkiksi</t>
+          <t>Tässä ovat Varsinais-Suomen vaalipiiristä valitut kansanedustajat – perussuomalaiset nousi suurimmaksi puolueeksi  </t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Jussi Halla-ahon perussuomalaisten vaaliylläköstä tuli  kutsumaton vieras punavihreän opposition voitonjuhliin, kirjoittaa politiikan toimittaja Pekka Kinnunen. </t>
+          <t>Vasemmistoliiton puheenjohtajaa Li Anderssonia äänesti yli 24 000 varsinaissuomalaista. Vaalipiirin äänestysprosentti oli 73,2. </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Satu Aaltonen</t>
         </is>
       </c>
     </row>
@@ -4067,17 +4067,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sunnuntai 14.4.2019 (radio)</t>
+          <t>Mats Löfström jatkaa Ahvenanmaan kansanedustajana</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Suomessa on järjestetty eduskuntavaalit. Vaalitulos on tasainen. Voittajia ovat vasemmistopuolueet ja vihreät. Myös perussuomalaiset menestyivät hyvin. Suurin häviäjä on keskusta. Urheilua: Suomi sai MM-hopeaa naisten jääkiekossa.</t>
+          <t>Ahvenanmaan vaalipiirin kaikki annetut äänet on nyt laskettu. </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Pertti Seppä</t>
+          <t>Johanna Lehtola</t>
         </is>
       </c>
     </row>
@@ -4087,17 +4087,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Brother Christmas ja nämä muut uudet tuttavuudet pääsevät kansanedustajiksi</t>
+          <t>Sunnuntai 14.4.2019 (radio)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tuttuja julkkisnimiä noussee eduskuntaan. Liuta menneitä eduskuntakonkareita tekee comebackin tulevalla vaalikaudella.</t>
+          <t>Suomessa on järjestetty eduskuntavaalit. Vaalitulos on tasainen. Voittajia ovat vasemmistopuolueet ja vihreät. Myös perussuomalaiset menestyivät hyvin. Suurin häviäjä on keskusta. Urheilua: Suomi sai MM-hopeaa naisten jääkiekossa.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Matti KonttinenTiina Länkinen</t>
+          <t>Pertti Seppä</t>
         </is>
       </c>
     </row>
@@ -4107,17 +4107,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tässä ovat Varsinais-Suomen vaalipiiristä valitut kansanedustajat – perussuomalaiset nousi suurimmaksi puolueeksi  </t>
+          <t>SDP ja vihreät vaalivoittoon Uudellamaalla – eniten kannatustaan menetti keskusta</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton puheenjohtajaa Li Anderssonia äänesti yli 24 000 varsinaissuomalaista. Vaalipiirin äänestysprosentti oli 73,2. </t>
+          <t>Vuoden 2019 eduskuntavaalit muodostuivat sosialidemokraattien ja vihreiden juhlaksi Uudenmaan vaalipiirissä.</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Satu Aaltonen</t>
+          <t>Paula Tiainen</t>
         </is>
       </c>
     </row>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ari Torniainen uskoo, että kansa ei ole tyytyväinen tehtyyn politiikkaan: "Keskustalla on peiliin katsomisen paikka"</t>
+          <t>Halla-aho vaalien äänikuningas ja ohitti Sauli Niinistön aikaisemman ennätyksen Helsingin vaalipiirissä – katso täältä muutkin äänirohmut</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ari Torniainen sai jatkopestin kolmannelle kaudelle eduskuntaan.</t>
+          <t>Viime vaalien ääniharava Juha Sipilä keräsi nyt seitsemänneksi eniten ääniä.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Johanna Luukko</t>
+          <t>Ilpo Pajunen</t>
         </is>
       </c>
     </row>
@@ -4147,17 +4147,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vihreiden Riikka Karppinen keräsi puolueensa kolmanneksi suurimman äänisaaliin – jäi silti Lapissa rannalle äärimmäisen pienellä erolla</t>
+          <t>Analyysi: Muutoksen tuuli romutti keskustan – Sipilän lähtölaskenta alkoi</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Sodankyläläinen kunnanvaltuutettu Riikka Karppinen keräsi Vihreän liiton ehdokkaista koko maan kolmanneksi suurimman äänisaaliin.</t>
+          <t>Ennakkoäänestyksen alustavat tulokset toivat pääministeripuolue keskustalle painajaismaisen vaali-illan, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Antti Heikinmatti</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -4167,17 +4167,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SDP ja vihreät vaalivoittoon Uudellamaalla – eniten kannatustaan menetti keskusta</t>
+          <t>Analyysi: Hallitusneuvotteluista äärimmäisen vaikeat – muutoksen suunta jäi kysymysmerkiksi</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Vuoden 2019 eduskuntavaalit muodostuivat sosialidemokraattien ja vihreiden juhlaksi Uudenmaan vaalipiirissä.</t>
+          <t>Jussi Halla-ahon perussuomalaisten vaaliylläköstä tuli  kutsumaton vieras punavihreän opposition voitonjuhliin, kirjoittaa politiikan toimittaja Pekka Kinnunen. </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Paula Tiainen</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -4187,12 +4187,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Katso videolta tunteiden koko kirjo, kun puoluepomot näkevät ennakkoäänet – Nieleskelyä, voimahaleja, peuroja ajovaloissa</t>
+          <t>Kädet ilmaan! Halla-aho juhlisti voitokasta iltaa suudelmalla, keskusta sulkeutui voimahalaukseen – kuvakooste vaali-illasta</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Viiden suurimman puolueen keulahahmot ottivat tiedon joukkojensa ääniosuuksista vastaan suorassa vaalilähetyksessä.</t>
+          <t>Puolueiden vaalivalvojaisissa näkyi voitonhuuma ja tappion nieleskely. Yle kokosi tunnelmakuvia sunnuntai-illasta.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4207,17 +4207,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ministerien äänimäärät romahtivat Pohjois-Pohjanmaalla, ääniharavoina kolmikymppiset ehdokkaat</t>
+          <t>Ketkä olivat kotikuntasi suurimmat ääniharavat? Katso Voitto-robotin tulosraportit</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Muhoslainen Pirkko Mattila, sin., menetti eduskuntapaikkansa ja pääministeri Juha Sipilän, kesk., äänimäärä lähes puolittui.</t>
+          <t>Ylen Voitto-robotti kirjoitti eduskuntavaalien tulosraportit jokaisesta Suomen kunnasta.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Katja Oittinen</t>
+          <t> Voitto-robottiEemeli MarttiTeemu Kiviniemi</t>
         </is>
       </c>
     </row>
@@ -4227,17 +4227,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Puheenjohtajat palasivat illan päätteeksi puhumaan omilleen – katso videot</t>
+          <t>Äänestäjät hylkäsivät keskustan myös pääministeri Sipilän kotikonnuilla – vuosituhannen huonoin vaalitulos vaimensi vaalivalvojaiset Oulussa</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Vaali-illan kääntyessä loppusuoralle, siirtyivät puolueiden puheenjohtajat omiensa luokse pitämään kiitospuheita.</t>
+          <t>Keskustan vaali-ilta päättyi jopa synkemmin kuin ennakoitiin. Kannatus mureni myös puolueen sydämessä pohjoisessa.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ilpo Pajunen</t>
+          <t>Risto Ukkonen</t>
         </is>
       </c>
     </row>
@@ -4247,17 +4247,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Helsingissä vihreät kiilasi suurimmaksi puolueeksi – Perussuomalaisten Halla-aho äänikuningas</t>
+          <t>Työministerin jyrkkä pudotus – viime vaalien äänikuningas Jari Lindström löi hanskat tiskiin jo alkuillasta: "Ei minulla ollut mitään jakoa"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Helsingissä äänestettiin viime vaaleja vilkkaammin. Äänestysprosentti nousi 77,4 prosenttiin, joka oli Suomen korkein. Keskusta menetti ainoan Helsingin paikkansa.</t>
+          <t>Työministeri Jari Lindström (sin.) joutuu jättämään eduskunnan kahdeksan vuoden jälkeen.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Reeta Salminen</t>
+          <t>Satu Krautsuk</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kädet ilmaan! Halla-aho juhlisti voitokasta iltaa suudelmalla, keskusta sulkeutui voimahalaukseen – kuvakooste vaali-illasta</t>
+          <t>Ylen tulospalvelu kertoo eduskuntavaalien tuloksen – katso oman kuntasi vaalitulos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Puolueiden vaalivalvojaisissa näkyi voitonhuuma ja tappion nieleskely. Yle kokosi tunnelmakuvia sunnuntai-illasta.</t>
+          <t>Tulospalvelun kautta voit saada selville myös muun muassa tulevan eduskunnan ikä- ja sukupuolijakauman.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -4287,17 +4287,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>He ovat putoamassa eduskunnasta: Jussi Niinistö, Jyrki Kasvi, Silvia Modig, Paavo Väyrynen – Siniset: Puolueen lakkautuspäätöstä ei ole</t>
+          <t>Tässä ovat Kaakkois-Suomen 17 kansanedustajaa – Antti Häkkänen ylivoimainen ääniharava, SDP palasi suurimmaksi puolueeksi</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Viisi viime hallituksen ministeriä joutuu tyhjentämään työhuoneensa Eduskuntatalossa.</t>
+          <t>Kaakkois-Suomen edustajista kuusi on uusia. Oikeusministeri Antti Häkkäsen äänimäärä oli erittäin korkea valtakunnallisestikin.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Valtteri Kykkänen</t>
         </is>
       </c>
     </row>
@@ -4307,17 +4307,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Halla-aho vaalien äänikuningas ja ohitti Sauli Niinistön aikaisemman ennätyksen Helsingin vaalipiirissä – katso täältä muutkin äänirohmut</t>
+          <t>Vihreiden Riikka Karppinen keräsi puolueensa kolmanneksi suurimman äänisaaliin – jäi silti Lapissa rannalle äärimmäisen pienellä erolla</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Viime vaalien ääniharava Juha Sipilä keräsi nyt seitsemänneksi eniten ääniä.</t>
+          <t>Sodankyläläinen kunnanvaltuutettu Riikka Karppinen keräsi Vihreän liiton ehdokkaista koko maan kolmanneksi suurimman äänisaaliin.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Ilpo Pajunen</t>
+          <t>Antti Heikinmatti</t>
         </is>
       </c>
     </row>
@@ -4327,17 +4327,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Komeita ovat Hämeen emännät" – Sirkka-Liisa Anttila sai Veikko Vennamolta kehut tuoreena kansanedustajana </t>
+          <t>Kärhämöinti Helsingin Narinkkatorin vaalitilaisuudessa jatkui – poliisi tekemässä rikosilmoitusta pahoinpitelystä</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Suomen pitkäaikaisin naiskansanedustaja keskittyy nyt isoäitiyteen ja kirjan kirjoittamiseen.</t>
+          <t>Naista lyötiin Suomen kansa ensin -puolueen vaaliteltalla.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Tiina Kokko</t>
+          <t>Jari Strömberg</t>
         </is>
       </c>
     </row>
@@ -4347,17 +4347,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Kärhämöinti Helsingin Narinkkatorin vaalitilaisuudessa jatkui – poliisi tekemässä rikosilmoitusta pahoinpitelystä</t>
+          <t>Narrin paikalta vallan kahvaan: Miksi äänestäjä luottaa koomikkoon? </t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Naista lyötiin Suomen kansa ensin -puolueen vaaliteltalla.</t>
+          <t>Elämme ajassa, jossa parodiapuolueen perustaja on noussut pääkaupungin pormestariksi ja presidenttiä esittävä koomikko pärjää oikeissa presidentinvaaleissa. Onko yhteisten asioiden päättämisestä tullut vitsi?</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Jari Strömberg</t>
+          <t>Anna Nevalainen</t>
         </is>
       </c>
     </row>
@@ -4367,17 +4367,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Narrin paikalta vallan kahvaan: Miksi äänestäjä luottaa koomikkoon? </t>
+          <t>Presidentti Niinistö odottaa television supersunnuntaita: "Pitää pystyä simultaani maali- ja vaaliseurantaan"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Elämme ajassa, jossa parodiapuolueen perustaja on noussut pääkaupungin pormestariksi ja presidenttiä esittävä koomikko pärjää oikeissa presidentinvaaleissa. Onko yhteisten asioiden päättämisestä tullut vitsi?</t>
+          <t>Eduskuntavaalien ennakkoäänten julkistus ja naisten jääkiekon MM-finaali osuvat samalle kellonlyömälle.</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Anna Nevalainen</t>
+          <t>Markus HeikkiläHinni Hirvonen</t>
         </is>
       </c>
     </row>
@@ -4387,17 +4387,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tunnistatko puolueiden ilmastolupaukset? Testaa tietosi</t>
+          <t>"Komeita ovat Hämeen emännät" – Sirkka-Liisa Anttila sai Veikko Vennamolta kehut tuoreena kansanedustajana </t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Ilmastonmuutoksesta on puhuttu paljon eduskuntavaalien yhteydessä. Mutta mitä asiasta sanotaan puolueiden vaaliohjelmissa?</t>
+          <t>Suomen pitkäaikaisin naiskansanedustaja keskittyy nyt isoäitiyteen ja kirjan kirjoittamiseen.</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Outi ParikkaLaura Tolonen</t>
+          <t>Tiina Kokko</t>
         </is>
       </c>
     </row>
@@ -4407,17 +4407,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>11 uutta ryhmää pyrkii eduskuntaan, mutta vain pari voinee onnistua – Miksi puolueen synnyttäminen on niin vaikeaa?</t>
+          <t>Tunnistatko puolueiden ilmastolupaukset? Testaa tietosi</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Monen pienen puolueen haaveet omista kansanedustajista murskautuvat vaaleissa. Eduskunnan kynnys on korkea. </t>
+          <t>Ilmastonmuutoksesta on puhuttu paljon eduskuntavaalien yhteydessä. Mutta mitä asiasta sanotaan puolueiden vaaliohjelmissa?</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Outi ParikkaLaura Tolonen</t>
         </is>
       </c>
     </row>
@@ -4427,17 +4427,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö odottaa television supersunnuntaita: "Pitää pystyä simultaani maali- ja vaaliseurantaan"</t>
+          <t>11 uutta ryhmää pyrkii eduskuntaan, mutta vain pari voinee onnistua – Miksi puolueen synnyttäminen on niin vaikeaa?</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien ennakkoäänten julkistus ja naisten jääkiekon MM-finaali osuvat samalle kellonlyömälle.</t>
+          <t>Monen pienen puolueen haaveet omista kansanedustajista murskautuvat vaaleissa. Eduskunnan kynnys on korkea. </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Markus HeikkiläHinni Hirvonen</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
@@ -4467,17 +4467,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ehdokas ostaa mieluummin tienvarsimainoksen kuin tubettajan – vaalimainonnassa Suomessa eletään yhä Kekkosen aikaa </t>
+          <t>Eduskuntavaalien nurja puoli – Kampanjat nielevät kymppitonneja, pelissä voi olla omat ja lähipiirin rahat, jopa perintöeurot</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Viestinnän asiantuntijat epäilevät, etteivät puolueet vieläkään osaa hyödyntää sosiaalista mediaa kampanjoissaan.</t>
+          <t>Eduskuntavaaleissa menestyminen vaatii edelleen useimmilta läpimenijöiltä kymmenien tuhansien eurojen riskinoton. </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Mikko Pesonen</t>
+          <t>Petri Vironen</t>
         </is>
       </c>
     </row>
@@ -4487,17 +4487,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tapahtuuko lähipäivinä jotain outoa? Näillä nopeilla vinkeillä voit tunnistaa vaalihäirinnän ilmiöt, jotka ovat tapahtuneet jo muualla</t>
+          <t>Viattomat tuotantoeläimet sotkettiin sote-soppaan – mitä tekemistä lehmillä on politiikan kanssa?</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pääosin verkossa tapahtuva vaalihäirintä voi osua Suomeen, mutta tärkeintä on pitää pää kylmänä. </t>
+          <t>Lehmänkaupoista on puhuttu liki koko päättynyt hallituskausi. Mutta mistä sanonta on peräisin?</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Riku RoslundPäivi Koskinen</t>
+          <t>Elina Rantalainen</t>
         </is>
       </c>
     </row>
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Obaman ex-avustajalle rikossyyte Muellerin Venäjä-tutkintaan liittyvässä vyyhdissä</t>
+          <t>Oululaista kaupunginvaltuutettua vastaan on nostettu syyte kiihottamisesta kansanryhmää vastaan</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Gregory Craig on ensimmäinen demokraatti, joka saa syytteen Muellerin Venäjä-tutkintaan liittyen.</t>
+          <t>Kihlakunnansyyttäjä tiedotti syytteistä samana päivänä, kun toimittaja Johanna Vehkoo tuomittiin Junes Lokan kunnian loukkaamisesta, kun Vehkoo kutsui häntä natsiksi.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Marko Pinola</t>
         </is>
       </c>
     </row>
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>The Washington Post: Trumpin hallinto halusi vapauttaa pidätettyjä siirtolaisia demokraattialueille rangaistakseen poliittisia vastustajiaan</t>
+          <t>Tässä nuorten vaalikeskustelun osallistujat – mukana väestönvaihdosta twiittaileva perussuomalainen ja suoran toiminnan vasemmistolainen</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Amerikkalaislehden mukaan Valkoinen talo halusi kohdistaa toimia muun muassa San Franciscoon.</t>
+          <t>Puolueiden nuorisojärjestöjen edustajat haastoivat tänään toisensa Ylen vaalitentissä.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -4547,17 +4547,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nigel Farage perustaa brexit-puolueen</t>
+          <t>Vaalipäivänä pääsee uurnille aurinkoisessa ja lämpimässä säässä – Tutkijan mukaan taivaalta pitäisi sataa "kissoja ja koiria", jotta se vaikuttaisi äänestysaktiivisuuteen</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Farage johti Britannian EU-eroa vaatinutta puoluetta, mutta erosi siitä.</t>
+          <t>Politiikan tutkijan Markku Jokisipilän mukaan äänestämään lähdetään, oli sää hyvä tai huono.</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Yrjö Kokkonen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -4567,17 +4567,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nuuska maitokauppoihin ja naisille Lotta-koulutusta – Nuorten vaalitentissä keskusteltiin kohteliaasti ja huutamatta vaikeista asioista</t>
+          <t>Obaman ex-avustajalle rikossyyte Muellerin Venäjä-tutkintaan liittyvässä vyyhdissä</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Keskustelua käytiin esimerkiksi koulutuksesta, päihteistä, ilmastonmuutoksesta ja hävittäjistä.</t>
+          <t>Gregory Craig on ensimmäinen demokraatti, joka saa syytteen Muellerin Venäjä-tutkintaan liittyen.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4587,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Toimittaja tuomittiin kunnianloukkauksesta, kun hän kutsui oululaista kaupunginvaltuutettua natsiksi ja rasistiksi</t>
+          <t>The Washington Post: Trumpin hallinto halusi vapauttaa pidätettyjä siirtolaisia demokraattialueille rangaistakseen poliittisia vastustajiaan</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Oikeuden mukaan arvostelu kohdistui Junes Lokkaan henkilönä, kun toimittaja Johanna Vehkoo kutsui häntä muun muassa natsipelleksi. </t>
+          <t>Amerikkalaislehden mukaan Valkoinen talo halusi kohdistaa toimia muun muassa San Franciscoon.</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Marko PinolaMari Jäntti</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -4607,17 +4607,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Elämäsi sää, kuukausi kansanedustajan saappaissa ja paljastava arvomittari – tässä ovat Ylen vaalikevään suosituimmat pelit ja testit </t>
+          <t>Toimittaja tuomittiin kunnianloukkauksesta, kun hän kutsui oululaista kaupunginvaltuutettua natsiksi ja rasistiksi</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Ylen interaktiiviset jutut kertovat muun muassa vaalimainoksista, kansanedustajan työstä, arvoista ja ilmastosta.</t>
+          <t>Oikeuden mukaan arvostelu kohdistui Junes Lokkaan henkilönä, kun toimittaja Johanna Vehkoo kutsui häntä muun muassa natsipelleksi. </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Juho Salminen</t>
+          <t>Marko PinolaMari Jäntti</t>
         </is>
       </c>
     </row>
@@ -4627,17 +4627,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Helsingin Sanomat: Valtiovarainministeriö pimitti eduskunnalta soteen liittyvän 210 miljoonan euron ongelman</t>
+          <t>Nigel Farage perustaa brexit-puolueen</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>HS näki sähköpostit: ”Onko riski, että joku eduskunnassa huomaa tuon puutteen?”</t>
+          <t>Farage johti Britannian EU-eroa vaatinutta puoluetta, mutta erosi siitä.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Yrjö Kokkonen</t>
         </is>
       </c>
     </row>
@@ -4647,17 +4647,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien nurja puoli – Kampanjat nielevät kymppitonneja, pelissä voi olla omat ja lähipiirin rahat, jopa perintöeurot</t>
+          <t>Elämäsi sää, kuukausi kansanedustajan saappaissa ja paljastava arvomittari – tässä ovat Ylen vaalikevään suosituimmat pelit ja testit </t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Eduskuntavaaleissa menestyminen vaatii edelleen useimmilta läpimenijöiltä kymmenien tuhansien eurojen riskinoton. </t>
+          <t>Ylen interaktiiviset jutut kertovat muun muassa vaalimainoksista, kansanedustajan työstä, arvoista ja ilmastosta.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Petri Vironen</t>
+          <t>Juho Salminen</t>
         </is>
       </c>
     </row>
@@ -4667,17 +4667,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mikko Alatalo jättäytyi eduskunnasta: "Kun jalka vielä teppasee, vois jotain muutakin touhuta"</t>
+          <t>Tapahtuuko lähipäivinä jotain outoa? Näillä nopeilla vinkeillä voit tunnistaa vaalihäirinnän ilmiöt, jotka ovat tapahtuneet jo muualla</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Neljän eduskuntakauden jälkeen on aikaa musiikin tekemiseen, laulattamiseen, reissaamiseen ja koiran pissatuslenkkeihin Pispalassa.</t>
+          <t>Pääosin verkossa tapahtuva vaalihäirintä voi osua Suomeen, mutta tärkeintä on pitää pää kylmänä. </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Reija Grönroos</t>
+          <t>Riku RoslundPäivi Koskinen</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Oululaista kaupunginvaltuutettua vastaan on nostettu syyte kiihottamisesta kansanryhmää vastaan</t>
+          <t>Mikko Alatalo jättäytyi eduskunnasta: "Kun jalka vielä teppasee, vois jotain muutakin touhuta"</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Kihlakunnansyyttäjä tiedotti syytteistä samana päivänä, kun toimittaja Johanna Vehkoo tuomittiin Junes Lokan kunnian loukkaamisesta, kun Vehkoo kutsui häntä natsiksi.</t>
+          <t>Neljän eduskuntakauden jälkeen on aikaa musiikin tekemiseen, laulattamiseen, reissaamiseen ja koiran pissatuslenkkeihin Pispalassa.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Marko Pinola</t>
+          <t>Reija Grönroos</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4707,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Viattomat tuotantoeläimet sotkettiin sote-soppaan – mitä tekemistä lehmillä on politiikan kanssa?</t>
+          <t>Nuuska maitokauppoihin ja naisille Lotta-koulutusta – Nuorten vaalitentissä keskusteltiin kohteliaasti ja huutamatta vaikeista asioista</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Lehmänkaupoista on puhuttu liki koko päättynyt hallituskausi. Mutta mistä sanonta on peräisin?</t>
+          <t>Keskustelua käytiin esimerkiksi koulutuksesta, päihteistä, ilmastonmuutoksesta ja hävittäjistä.</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Elina Rantalainen</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -4727,17 +4727,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tässä nuorten vaalikeskustelun osallistujat – mukana väestönvaihdosta twiittaileva perussuomalainen ja suoran toiminnan vasemmistolainen</t>
+          <t>Soikku ja Roni Back äänestävät nyt, mutta aina niin ei ole ollut – "En äänestänyt viimeksi, koska kaikki oli mun mielestä Suomessa ihan hyvin"</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Puolueiden nuorisojärjestöjen edustajat haastoivat tänään toisensa Ylen vaalitentissä.</t>
+          <t>Tubettajat Soikku ja Roni Back valitsivat eduskuntavaaliehdokkaansa vaalikoneen, kaverikeskustelujen ja ehdokkaan somepresenssin perusteella.</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t>Jonni Aromaa</t>
         </is>
       </c>
     </row>
@@ -4747,17 +4747,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Vaalipäivänä pääsee uurnille aurinkoisessa ja lämpimässä säässä – Tutkijan mukaan taivaalta pitäisi sataa "kissoja ja koiria", jotta se vaikuttaisi äänestysaktiivisuuteen</t>
+          <t>Helsingin Sanomat: Valtiovarainministeriö pimitti eduskunnalta soteen liittyvän 210 miljoonan euron ongelman</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Politiikan tutkijan Markku Jokisipilän mukaan äänestämään lähdetään, oli sää hyvä tai huono.</t>
+          <t>HS näki sähköpostit: ”Onko riski, että joku eduskunnassa huomaa tuon puutteen?”</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -4767,17 +4767,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ennakkoon ulkomailla äänestäneiden määrä kasvoi yli 41 000:een</t>
+          <t>Ehdokas ostaa mieluummin tienvarsimainoksen kuin tubettajan – vaalimainonnassa Suomessa eletään yhä Kekkosen aikaa </t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Eniten ääniä annettiin perinteiseen tapaan Tukholmassa ja Espanjan Aurinkorannikon Fuengirolassa.</t>
+          <t>Viestinnän asiantuntijat epäilevät, etteivät puolueet vieläkään osaa hyödyntää sosiaalista mediaa kampanjoissaan.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Mikko Pesonen</t>
         </is>
       </c>
     </row>
@@ -4787,17 +4787,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Soikku ja Roni Back äänestävät nyt, mutta aina niin ei ole ollut – "En äänestänyt viimeksi, koska kaikki oli mun mielestä Suomessa ihan hyvin"</t>
+          <t>Ennakkoon ulkomailla äänestäneiden määrä kasvoi yli 41 000:een</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Tubettajat Soikku ja Roni Back valitsivat eduskuntavaaliehdokkaansa vaalikoneen, kaverikeskustelujen ja ehdokkaan somepresenssin perusteella.</t>
+          <t>Eniten ääniä annettiin perinteiseen tapaan Tukholmassa ja Espanjan Aurinkorannikon Fuengirolassa.</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Jonni Aromaa</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -4807,17 +4807,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Analyysi: Brexitiin tuli kaivattu hengähdystauko, mutta kestääkö brittien pää lokakuun takarajaan saakka?</t>
+          <t>Pääministeri May selvitti parlamentille brexitin jatkoaskeleita: "Erosopimusta ei avata uudelleen" </t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Britanniassa kannetaan nyt huolta kansanedustajien henkisestä hyvinvoinnista,  kertoo Lontoosta Pasi Myöhänen.</t>
+          <t>Britannian pääministeri Theresa May pahoitteli parlamentin alahuoneessa lokakuuhun asti myönnetyn lykkäyksen toteutumista.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Pasi Myöhänen</t>
+          <t>Erja Tuomaala</t>
         </is>
       </c>
     </row>
@@ -4827,17 +4827,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Vastaavalta päätoimittajalta: Vaalikamppailu väliaikalähdöllä</t>
+          <t>Maduro: Punaisen ristin apu on tervetullut Venezuelaan</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Demokratia on suomalaisille vakava asia – hyvä niin, pohtii Jouko Jokinen näkökulmassaan.</t>
+          <t>YK:n mukaan lähes neljännes Venezuelan 30 miljoonasta ihmisestä tarvitsee kiireellistä apua.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Jouko Jokinen</t>
+          <t> STTMarkus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -4847,17 +4847,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Analyysi: Politiikan johtajuus hukassa – suurin puolue jäämässä alle 20 prosentin</t>
+          <t>Halla-aho näpäyttää perussuomalaisia hyljeksiviä puolueita: "Luulen, että ylpeys käy lankeamuksen edellä, ministerisalkkuja ei kannata vielä jakaa"</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Kannatusmittaukset ennakoivat eduskuntavaalikisasta jännitysnäytelmää ja vaikeita hallitusneuvotteluja, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
+          <t>Ylen kannatuskyselyssä on pienen marginaalin sisällä neljä puoluetta, joten hallitusneuvotteluista ennakoidaan vaikeita.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -4867,17 +4867,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pääministeri May selvitti parlamentille brexitin jatkoaskeleita: "Erosopimusta ei avata uudelleen" </t>
+          <t>Brexitin jatkoajasta tehtiin vesitetty kompromissi – "EU:ssa on kuitenkin yhä helpompi päättää asioista kuin brittiparlamentissa"</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Britannian pääministeri Theresa May pahoitteli parlamentin alahuoneessa lokakuuhun asti myönnetyn lykkäyksen toteutumista.</t>
+          <t>EU-johtajat eivät sulkeneet täysin pois vaihtoehtoa, että brexitin aikataulua joudutaan venyttämään uudelleen vielä syksylläkin.</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Erja Tuomaala</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Brexitin jatkoajasta tehtiin vesitetty kompromissi – "EU:ssa on kuitenkin yhä helpompi päättää asioista kuin brittiparlamentissa"</t>
+          <t>Ylen tv-uutiset äänestäjille selvästi tärkein politiikan tietolähde</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EU-johtajat eivät sulkeneet täysin pois vaihtoehtoa, että brexitin aikataulua joudutaan venyttämään uudelleen vielä syksylläkin.</t>
+          <t>Tarkasteltaessa koko äänestysikäistä väestöä, sosiaalinen media jää selvästi perinteisen median varjoon.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t>Miikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -4927,17 +4927,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ylen kannatusmittaus: Perussuomalaiset kiilasi kakkoseksi, SDP:n etumatka kutistunut</t>
+          <t>Vaalikone paljastaa: Ehdokkaat ovat usein eri mieltä kuin puolueet ja johtajat – Sipilä puolueensa vasemmassa siivessä, Rinne oikealla </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Ylen kyselyssä yksikään puolue ei yllä yli 20 prosentin kannatukseen, mikä olisi vaaleissa poikkeuksellinen tulos.</t>
+          <t>Politiikan asiantuntijan mukaan keskustassa puheenjohtaja on voinut kulkea omia teitään, mutta SDP:n Rinteellä voi olla vaikeampaa.</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Antti Pilke</t>
+          <t>Tulikukka de FresnesLinus LångPetter WestMalin Ekholm</t>
         </is>
       </c>
     </row>
@@ -4947,17 +4947,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Joko istahdit Vaalisohvan imuun? Tällaisia ehdokkaiden ja äänestäjien kohtaamisia koettiin olohuoneissa ympäri Suomen</t>
+          <t>Vaalibudjetteja availtu ennakkoon Hämeessä – osa ehdokkaista maksaa kaiken itse, osa saa tukea </t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Tavalliset suomalaiset tenttivät vaaliehdokkaita kotisohvillaan. Katso kaikki Ylen Vaalisohvat vaikka maratonina!</t>
+          <t>Kokoomuksen hämäläiset kärkiehdokkaat eivät ole vielä kertoneet vaalirahansa määrää. Ennakkoilmoitusta ei ole pakko tehdä.</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Jouni Koutonen</t>
+          <t>Kari Mustonen</t>
         </is>
       </c>
     </row>
@@ -4967,17 +4967,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Maduro: Punaisen ristin apu on tervetullut Venezuelaan</t>
+          <t>Kokoomuksen poliitikot ärähtävät keskustalle: sote-uudistuksen kaatumisesta ei voi syyttää kokoomusta</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>YK:n mukaan lähes neljännes Venezuelan 30 miljoonasta ihmisestä tarvitsee kiireellistä apua.</t>
+          <t>Kokoomuksen mukaan keskustaministerit epäonnistuivat tehtävissään.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t> STTMarkus Heikkilä</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -4987,17 +4987,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Puoluejohtajat ottivat kiihkeästi yhteen viimeisessä isossa vaalitentissä: "Teidän arvovalintanne ovat todella kovia", lue liveanalyysi täältä</t>
+          <t>Ylen kannatusmittaus: Perussuomalaiset kiilasi kakkoseksi, SDP:n etumatka kutistunut</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Yhdeksän eduskuntapuolueen puheenjohtajaa kohtasi viimeistä kertaa ennen eduskuntavaaleja Ylen suuressa vaalikeskustelussa.</t>
+          <t>Ylen kyselyssä yksikään puolue ei yllä yli 20 prosentin kannatukseen, mikä olisi vaaleissa poikkeuksellinen tulos.</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Heikki ValkamaHannu Tikkala</t>
+          <t>Antti Pilke</t>
         </is>
       </c>
     </row>
@@ -5007,17 +5007,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Vaalikone paljastaa: Ehdokkaat ovat usein eri mieltä kuin puolueet ja johtajat – Sipilä puolueensa vasemmassa siivessä, Rinne oikealla </t>
+          <t>Joko istahdit Vaalisohvan imuun? Tällaisia ehdokkaiden ja äänestäjien kohtaamisia koettiin olohuoneissa ympäri Suomen</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Politiikan asiantuntijan mukaan keskustassa puheenjohtaja on voinut kulkea omia teitään, mutta SDP:n Rinteellä voi olla vaikeampaa.</t>
+          <t>Tavalliset suomalaiset tenttivät vaaliehdokkaita kotisohvillaan. Katso kaikki Ylen Vaalisohvat vaikka maratonina!</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Tulikukka de FresnesLinus LångPetter WestMalin Ekholm</t>
+          <t>Jouni Koutonen</t>
         </is>
       </c>
     </row>
@@ -5027,17 +5027,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Halla-aho näpäyttää perussuomalaisia hyljeksiviä puolueita: "Luulen, että ylpeys käy lankeamuksen edellä, ministerisalkkuja ei kannata vielä jakaa"</t>
+          <t>Herätys: PS matkalla kohti jytkyä, Brexit lykättiin lokakuulle, hoivakodista hävisi satoja pillereitä ja sää muuttuu aurinkoiseksi</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Ylen kannatuskyselyssä on pienen marginaalin sisällä neljä puoluetta, joten hallitusneuvotteluista ennakoidaan vaikeita.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -5047,17 +5047,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Intialaiset aloittivat äänestämisen maailman suurimmissa vaaleissa</t>
+          <t>Analyysi: Brexitiin tuli kaivattu hengähdystauko, mutta kestääkö brittien pää lokakuun takarajaan saakka?</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Viikkoja kestävät parlamenttivaalit päättyvät toukokuun puolivälin jälkeen.</t>
+          <t>Britanniassa kannetaan nyt huolta kansanedustajien henkisestä hyvinvoinnista,  kertoo Lontoosta Pasi Myöhänen.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Mikko Leppänen</t>
+          <t>Pasi Myöhänen</t>
         </is>
       </c>
     </row>
@@ -5067,17 +5067,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ylen tv-uutiset äänestäjille selvästi tärkein politiikan tietolähde</t>
+          <t>Vastaavalta päätoimittajalta: Vaalikamppailu väliaikalähdöllä</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Tarkasteltaessa koko äänestysikäistä väestöä, sosiaalinen media jää selvästi perinteisen median varjoon.</t>
+          <t>Demokratia on suomalaisille vakava asia – hyvä niin, pohtii Jouko Jokinen näkökulmassaan.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Miikka Kaskinen</t>
+          <t>Jouko Jokinen</t>
         </is>
       </c>
     </row>
@@ -5087,17 +5087,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Kokoomuksen poliitikot ärähtävät keskustalle: sote-uudistuksen kaatumisesta ei voi syyttää kokoomusta</t>
+          <t>Puoluejohtajat ottivat kiihkeästi yhteen viimeisessä isossa vaalitentissä: "Teidän arvovalintanne ovat todella kovia", lue liveanalyysi täältä</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Kokoomuksen mukaan keskustaministerit epäonnistuivat tehtävissään.</t>
+          <t>Yhdeksän eduskuntapuolueen puheenjohtajaa kohtasi viimeistä kertaa ennen eduskuntavaaleja Ylen suuressa vaalikeskustelussa.</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Heikki ValkamaHannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -5107,17 +5107,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Vaalibudjetteja availtu ennakkoon Hämeessä – osa ehdokkaista maksaa kaiken itse, osa saa tukea </t>
+          <t>Intialaiset aloittivat äänestämisen maailman suurimmissa vaaleissa</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Kokoomuksen hämäläiset kärkiehdokkaat eivät ole vielä kertoneet vaalirahansa määrää. Ennakkoilmoitusta ei ole pakko tehdä.</t>
+          <t>Viikkoja kestävät parlamenttivaalit päättyvät toukokuun puolivälin jälkeen.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Kari Mustonen</t>
+          <t>Mikko Leppänen</t>
         </is>
       </c>
     </row>
@@ -5147,17 +5147,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Herätys: PS matkalla kohti jytkyä, Brexit lykättiin lokakuulle, hoivakodista hävisi satoja pillereitä ja sää muuttuu aurinkoiseksi</t>
+          <t>Analyysi: Politiikan johtajuus hukassa – suurin puolue jäämässä alle 20 prosentin</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Kannatusmittaukset ennakoivat eduskuntavaalikisasta jännitysnäytelmää ja vaikeita hallitusneuvotteluja, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -5167,17 +5167,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Analyysi: Skandaali ei kaada populistia – neljä vakavaa opetusta Israelin vaaleista</t>
+          <t>Faktantarkistuksen haaviin jäi 36 kiistanalaista väitettä – ympäristökysymykset kuohuttivat eniten</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Benjamin Netanjahu on saanut arvostella vapaasti muita, mutta häneen arvostelu ei tartu, arvioi Ylen ulkomaantoimittaja Mika Mäkeläinen.</t>
+          <t>Yle seurasi poliitikkojen vaaliväitteitä kolmen viikon ajan. Tässä kiinnostavimpia paloja.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Mika Mäkeläinen</t>
+          <t>Lauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -5187,17 +5187,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Luulitko tekeväsi arjen ilmastovalintasi itse? Näin poliitikot vaikuttavat ruokavalioosi, vaatteisiisi ja autoiluusi</t>
+          <t>Analyysi: Skandaali ei kaada populistia – neljä vakavaa opetusta Israelin vaaleista</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Kerromme esimerkkien avulla, miten poliitikot helpottavat tai vaikeuttavat ilmastoystävällistä kuluttamista.</t>
+          <t>Benjamin Netanjahu on saanut arvostella vapaasti muita, mutta häneen arvostelu ei tartu, arvioi Ylen ulkomaantoimittaja Mika Mäkeläinen.</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Risto Ukkonen</t>
+          <t>Mika Mäkeläinen</t>
         </is>
       </c>
     </row>
@@ -5207,17 +5207,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ylen vaaliasiantuntija: Erilainen vaalikamppailu näkyy äänestysinnossa – "Enää ei jankata, mistä leikataan"</t>
+          <t>Vaalilakia rikottiin Jyväskylässä ja Oulussa – kymmeniä äänestäjiä käännytettiin etuajassa pois äänestyspaikalta </t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Ennakkoäänestyksen suosion kasvussa näkyy myös se, että oppositiopuolueiden kannatus on noussut, arvioi Sami Borg. </t>
+          <t>Vaalitoimitsija kävi ilmoittamassa jonottajille, etteivät he ehdi enää äänestää. </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Johanna Östman</t>
+          <t>Päivi AnnalaSanna SavelaMiikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -5227,17 +5227,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Kuka se oli ja miksi? Viisi kysymystä vaalisivustoon iskeneestä verkkohyökkäyksestä</t>
+          <t>Suomi on jäämässä yhä kauemmaksi YK-tavoitteesta – kehitysavun määrä laski viime vuonna</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Viikko ennen vaaleja oikeusministeriön sivulle tehtyä palvelunestohyökkäystä osattiin odottaa. Mihin sillä pyrittiin?</t>
+          <t>Yhtenä syynä on se, että pakolaisiin ja turvapaikanhakijoihin liittyvät kulut Suomessa laskivat.</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Kirsi HeikelAntti Parviala</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -5247,17 +5247,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Kulttuuri ei juuri vaaliohjelmissa näy – Kysyimme suoraan puolueilta, mitä ne pitävät kulttuurissa tärkeänä</t>
+          <t>Ranskan Macron otti tiukan linjan brexitiin EU-kokouksen alkaessa – "Mikään ei ole varmaa"</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Suuri osa puolueista on valmis nostamaan kulttuurin rahoitusta. Tästä huolimatta kulttuuri ei juuri näy puolueiden painotuksissa vaalien alla. </t>
+          <t>Ranska haluaa rajoittaa Britannian valtaa EU:ssa, jos brexit lykkääntyy useilla kuukausilla tai jopa vuodella. Saksa on valmis pitkäänkin siirtymäaikaan.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Miia Gustafsson</t>
+          <t>Anna KarismoPetri Raivio</t>
         </is>
       </c>
     </row>
@@ -5267,17 +5267,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Faktantarkistuksen haaviin jäi 36 kiistanalaista väitettä – ympäristökysymykset kuohuttivat eniten</t>
+          <t>Donald Trumpin uudistukset ovat pistäneet monet ahtaalle Yhdysvalloissa – Kaliforniassa asuvat suomalaiset kertovat koventuneesta arjestaan </t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Yle seurasi poliitikkojen vaaliväitteitä kolmen viikon ajan. Tässä kiinnostavimpia paloja.</t>
+          <t>Yhdysvalloissa asuvien kolmen suomalaisen mukaan Trumpin myötä pienituloisilla verot ovat nousseet ja rasismi on lisääntynyt.</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Lauri Miikkulainen</t>
+          <t>Titta Puurunen</t>
         </is>
       </c>
     </row>
@@ -5287,17 +5287,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>HS: Sote-raportti antaa hallitukselle kovaa kritiikkiä poliittisesta ohjauksesta – oppositio repii riemua</t>
+          <t>Luulitko tekeväsi arjen ilmastovalintasi itse? Näin poliitikot vaikuttavat ruokavalioosi, vaatteisiisi ja autoiluusi</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Valtioneuvoston kanslian tilaaman raportin julkaisua lykättiin vaalien yli.</t>
+          <t>Kerromme esimerkkien avulla, miten poliitikot helpottavat tai vaikeuttavat ilmastoystävällistä kuluttamista.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Risto Ukkonen</t>
         </is>
       </c>
     </row>
@@ -5307,17 +5307,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Nuoret haastoivat nuorisopoliitikkoja vaalibattlessa – katso Yle Areenasta</t>
+          <t>Puhemies Risikko moitti kansanedustajia kovasta keskustelukulttuurista: “Kollega saatettu nähdä enemmän saaliina kuin ihmisenä”– Yle seurasi</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Cultura-säätiön järjestämän battlen aiheina ovat muun muassa nuorten työllisyys ja kansainvälistyminen.</t>
+          <t>Tasavallan presidentti puhui vaalikauden päättäjäisissä suomalaisten yhtenäisyydestä ja tiukentuneesta turvallisuustilanteesta. Puhemies taas arvosteli perustuslain moittijoita ja poliittisen retoriikan tasoa.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -5327,17 +5327,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Donald Trumpin uudistukset ovat pistäneet monet ahtaalle Yhdysvalloissa – Kaliforniassa asuvat suomalaiset kertovat koventuneesta arjestaan </t>
+          <t>Kulttuuri ei juuri vaaliohjelmissa näy – Kysyimme suoraan puolueilta, mitä ne pitävät kulttuurissa tärkeänä</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Yhdysvalloissa asuvien kolmen suomalaisen mukaan Trumpin myötä pienituloisilla verot ovat nousseet ja rasismi on lisääntynyt.</t>
+          <t>Suuri osa puolueista on valmis nostamaan kulttuurin rahoitusta. Tästä huolimatta kulttuuri ei juuri näy puolueiden painotuksissa vaalien alla. </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Titta Puurunen</t>
+          <t>Miia Gustafsson</t>
         </is>
       </c>
     </row>
@@ -5347,17 +5347,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Vaalilakia rikottiin Jyväskylässä ja Oulussa – kymmeniä äänestäjiä käännytettiin etuajassa pois äänestyspaikalta </t>
+          <t>HS: Sote-raportti antaa hallitukselle kovaa kritiikkiä poliittisesta ohjauksesta – oppositio repii riemua</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Vaalitoimitsija kävi ilmoittamassa jonottajille, etteivät he ehdi enää äänestää. </t>
+          <t>Valtioneuvoston kanslian tilaaman raportin julkaisua lykättiin vaalien yli.</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Päivi AnnalaSanna SavelaMiikka Kaskinen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -5367,17 +5367,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Puhemies Risikko moitti kansanedustajia kovasta keskustelukulttuurista: “Kollega saatettu nähdä enemmän saaliina kuin ihmisenä”– Yle seurasi</t>
+          <t>Ylen vaaliasiantuntija: Erilainen vaalikamppailu näkyy äänestysinnossa – "Enää ei jankata, mistä leikataan"</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Tasavallan presidentti puhui vaalikauden päättäjäisissä suomalaisten yhtenäisyydestä ja tiukentuneesta turvallisuustilanteesta. Puhemies taas arvosteli perustuslain moittijoita ja poliittisen retoriikan tasoa.</t>
+          <t>Ennakkoäänestyksen suosion kasvussa näkyy myös se, että oppositiopuolueiden kannatus on noussut, arvioi Sami Borg. </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Johanna Östman</t>
         </is>
       </c>
     </row>
@@ -5387,17 +5387,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Suomi on jäämässä yhä kauemmaksi YK-tavoitteesta – kehitysavun määrä laski viime vuonna</t>
+          <t>Kuka se oli ja miksi? Viisi kysymystä vaalisivustoon iskeneestä verkkohyökkäyksestä</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Yhtenä syynä on se, että pakolaisiin ja turvapaikanhakijoihin liittyvät kulut Suomessa laskivat.</t>
+          <t>Viikko ennen vaaleja oikeusministeriön sivulle tehtyä palvelunestohyökkäystä osattiin odottaa. Mihin sillä pyrittiin?</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Kirsi HeikelAntti Parviala</t>
         </is>
       </c>
     </row>
@@ -5407,17 +5407,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ranskan Macron otti tiukan linjan brexitiin EU-kokouksen alkaessa – "Mikään ei ole varmaa"</t>
+          <t>Nuoret haastoivat nuorisopoliitikkoja vaalibattlessa – katso Yle Areenasta</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Ranska haluaa rajoittaa Britannian valtaa EU:ssa, jos brexit lykkääntyy useilla kuukausilla tai jopa vuodella. Saksa on valmis pitkäänkin siirtymäaikaan.</t>
+          <t>Cultura-säätiön järjestämän battlen aiheina ovat muun muassa nuorten työllisyys ja kansainvälistyminen.</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Anna KarismoPetri Raivio</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tuomioistuin: Venäjä rikkoi oppositiojohtaja Aleksei Navalnyin oikeuksia kotiarestilla</t>
+          <t>Kazakstanissa ennenaikaiset presidentinvaalit kesäkuussa – takaako Nazarbajev vallan säilymisen lähipiirillään?</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Navalnyi määrättiin vuonna 2014 kotiarestiin, jota pidennettiin useita kertoja.</t>
+          <t>Eronneen johtajan Nursultan Nazarbajevin arvellaan tehneen suunnitelman jatkostaan.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Kazakstanissa ennenaikaiset presidentinvaalit kesäkuussa – takaako Nazarbajev vallan säilymisen lähipiirillään?</t>
+          <t>Tuomioistuin: Venäjä rikkoi oppositiojohtaja Aleksei Navalnyin oikeuksia kotiarestilla</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Eronneen johtajan Nursultan Nazarbajevin arvellaan tehneen suunnitelman jatkostaan.</t>
+          <t>Navalnyi määrättiin vuonna 2014 kotiarestiin, jota pidennettiin useita kertoja.</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5467,17 +5467,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Netanjahun Likud-puolue liittolaisineen voittamassa Israelin vaalit</t>
+          <t>Erdoganin AK-puolue hävisi Istanbulin paikallisvaalit ja vaatii nyt niiden uusimista</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Likud ja Sininen ja valkoinen -vaaliliitto ovat molemmat saamassa 35 paikkaa parlamenttiin.</t>
+          <t>AKP:n ehdokas Binali Yildirim hävisi vaalit opposition Ekrem Imamoglulle 14 500 äänellä.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Juho TakkunenIsmo SavolainenPetri Burtsov</t>
+          <t>Petri Burtsov</t>
         </is>
       </c>
     </row>
@@ -5487,17 +5487,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Erdoganin AK-puolue hävisi Istanbulin paikallisvaalit ja vaatii nyt niiden uusimista</t>
+          <t>Brittiparlamentti pakotti Mayn pyytämään brexitin lykkäystä</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AKP:n ehdokas Binali Yildirim hävisi vaalit opposition Ekrem Imamoglulle 14 500 äänellä.</t>
+          <t>Parlamentti keskustelee tänään, kuinka pitkän lykkäyksen se haluaa.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Petri Burtsov</t>
+          <t>Yrjö Kokkonen</t>
         </is>
       </c>
     </row>
@@ -5507,17 +5507,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Brittiparlamentti pakotti Mayn pyytämään brexitin lykkäystä</t>
+          <t>Netanjahun Likud-puolue liittolaisineen voittamassa Israelin vaalit</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Parlamentti keskustelee tänään, kuinka pitkän lykkäyksen se haluaa.</t>
+          <t>Likud ja Sininen ja valkoinen -vaaliliitto ovat molemmat saamassa 35 paikkaa parlamenttiin.</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Yrjö Kokkonen</t>
+          <t>Juho TakkunenIsmo SavolainenPetri Burtsov</t>
         </is>
       </c>
     </row>
@@ -5547,17 +5547,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Vielä ehdit uurnalle – ennakkoäänestys päättyy tänään</t>
+          <t>Ylen kysely: Palkkoja ja lisiä ei saa leikata suoraan työpaikoilla, vaikka työnantajalla menisi huonosti</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Yli 1,2 miljoonaa äänestäjää oli maanantai-iltaan mennessä antanut äänensä.</t>
+          <t>Erityisen kriittisesti suhtauduttiin palkan joustamiseen yrityksen taloustilanteen mukaan.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Robert SundmanMarika Harjumaa</t>
+          <t>Janne Toivonen</t>
         </is>
       </c>
     </row>
@@ -5567,17 +5567,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Kyllä, puoluejohtajissa on eroja – 10 miljoonaa puuta, 1000 poliisia ja Antti Rinteen miljardit jäivät mieleen puheenjohtajatenteistä</t>
+          <t>Miten Suomeen saadaan yli 60 000 työpaikkaa lisää? Katso Ylen vaalitentti työstä klo 21</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Onko ydinvoima vihreille kynnyskysymys? Kenen kanssa Li Andersson ei halua hallitukseen? Katso parhaat palat Ylen puheenjohtajatenteistä.</t>
+          <t>Vaalien alla puolueilla on kova luotto siihen, että työllisyysaste saadaan nostettua 75 prosenttiin. Mutta miten tuo temppu tehdään? </t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Heikki Valkama</t>
+          <t>Helmiina Suhonen</t>
         </is>
       </c>
     </row>
@@ -5587,17 +5587,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Vaalirahoituksesta kertominen ennen vaaleja on vapaaehtoista – ja sen huomaa: katso tästä, kuinka moni jättää lahjoittajansa paljastamatta</t>
+          <t>Lepomäki ja Arhinmäki ottivat yhteen paikallisesta sopimisesta: "Tällä hetkellä ajetaan paikallista sanelemista" – Lue kooste vaalitentin liveanalyysistä</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Eduskunta ei ole tarttunut ehdotuksiin, jotka avaisivat vaalirahoitusta. "Oma lehmä ojassa."</t>
+          <t>Ylen työaiheista vaalitenttiä olivat kommentoimassa Elina Pylkkänen ja Aki Kangasharju.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Antti Parviala</t>
+          <t>Annette Blencowe</t>
         </is>
       </c>
     </row>
@@ -5607,17 +5607,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Ylen kysely: Palkkoja ja lisiä ei saa leikata suoraan työpaikoilla, vaikka työnantajalla menisi huonosti</t>
+          <t>Vaalirahoituksesta kertominen ennen vaaleja on vapaaehtoista – ja sen huomaa: katso tästä, kuinka moni jättää lahjoittajansa paljastamatta</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Erityisen kriittisesti suhtauduttiin palkan joustamiseen yrityksen taloustilanteen mukaan.</t>
+          <t>Eduskunta ei ole tarttunut ehdotuksiin, jotka avaisivat vaalirahoitusta. "Oma lehmä ojassa."</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Janne Toivonen</t>
+          <t>Antti Parviala</t>
         </is>
       </c>
     </row>
@@ -5627,17 +5627,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tämä pariskunta on kuin Israel pienoiskoossa – Pääministeri Netanjahusta saa aikaan tulisen mielipidetaistelun</t>
+          <t>Vielä ehdit uurnalle – ennakkoäänestys päättyy tänään</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Korruptiosyytteet nakertavat Israelin kansan luottamusta poliitikkoihin, mutta uskottavat vaihtoehdot ovat tämän päivän parlamenttivaaleissa vähissä.</t>
+          <t>Yli 1,2 miljoonaa äänestäjää oli maanantai-iltaan mennessä antanut äänensä.</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Mika Mäkeläinen</t>
+          <t>Robert SundmanMarika Harjumaa</t>
         </is>
       </c>
     </row>
@@ -5647,17 +5647,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Mitä kaikkea oletkaan halunnut tietää ennen vaaleja, mutta et ole huomannut lukea – tässä puolueet yhdellä silmäyksellä</t>
+          <t>EU-eron kyllästämät britit ovat alkaneet haaveilla vahvasta johtajasta – moni myös nakertaisi parlamentin sananvaltaa</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Keräsimme Ylen laajasta vaalitarjonnasta muutamia olennaisia tenttejä ja analyysejä.</t>
+          <t>Tuoreen kyselyn mukaan ennätyksellisen suuri osa briteistä ajattelee, että maan poliittisessa järjestelmässä on paljon korjattavaa.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Jari Strömberg</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -5687,17 +5687,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ketkä saavat luopuvien poliitikkojen ja maahanmuuttajien äänet? Yle perkasi vaaliasetelmat 12 vaalipiirissä</t>
+          <t>Mitä kaikkea oletkaan halunnut tietää ennen vaaleja, mutta et ole huomannut lukea – tässä puolueet yhdellä silmäyksellä</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Useassa vaalipiirissä on nykyisiä kansanedustajia, jotka eivät ole ehdolla näissä eduskuntavaaleissa.</t>
+          <t>Keräsimme Ylen laajasta vaalitarjonnasta muutamia olennaisia tenttejä ja analyysejä.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Laura Tolonen</t>
+          <t>Jari Strömberg</t>
         </is>
       </c>
     </row>
@@ -5707,17 +5707,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>EU-eron kyllästämät britit ovat alkaneet haaveilla vahvasta johtajasta – moni myös nakertaisi parlamentin sananvaltaa</t>
+          <t>Ketkä saavat luopuvien poliitikkojen ja maahanmuuttajien äänet? Yle perkasi vaaliasetelmat 12 vaalipiirissä</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Tuoreen kyselyn mukaan ennätyksellisen suuri osa briteistä ajattelee, että maan poliittisessa järjestelmässä on paljon korjattavaa.</t>
+          <t>Useassa vaalipiirissä on nykyisiä kansanedustajia, jotka eivät ole ehdolla näissä eduskuntavaaleissa.</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Laura Tolonen</t>
         </is>
       </c>
     </row>
@@ -5727,17 +5727,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Lepomäki ja Arhinmäki ottivat yhteen paikallisesta sopimisesta: "Tällä hetkellä ajetaan paikallista sanelemista" – Lue kooste vaalitentin liveanalyysistä</t>
+          <t>Kyllä, puoluejohtajissa on eroja – 10 miljoonaa puuta, 1000 poliisia ja Antti Rinteen miljardit jäivät mieleen puheenjohtajatenteistä</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Ylen työaiheista vaalitenttiä olivat kommentoimassa Elina Pylkkänen ja Aki Kangasharju.</t>
+          <t>Onko ydinvoima vihreille kynnyskysymys? Kenen kanssa Li Andersson ei halua hallitukseen? Katso parhaat palat Ylen puheenjohtajatenteistä.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Annette Blencowe</t>
+          <t>Heikki Valkama</t>
         </is>
       </c>
     </row>
@@ -5747,17 +5747,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Poliisi epäilee rikosta Suomen kansa ensin -puolueen kampanjoinnissa – toinen epäillyistä puolueen puheenjohtaja Marco de Wit</t>
+          <t>Tämä pariskunta on kuin Israel pienoiskoossa – Pääministeri Netanjahusta saa aikaan tulisen mielipidetaistelun</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Kyseinen kampanjointi tapahtui viikonloppuna Narinkkatorilla Kampissa.</t>
+          <t>Korruptiosyytteet nakertavat Israelin kansan luottamusta poliitikkoihin, mutta uskottavat vaihtoehdot ovat tämän päivän parlamenttivaaleissa vähissä.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Mika Mäkeläinen</t>
         </is>
       </c>
     </row>
@@ -5787,17 +5787,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Mitä tapahtui kun kaksi ehdokasta saapui puhumaan politiikkaa helsinkiläiseen kommuuniin? Syntyi Ylen Vaalisohva – vielä ehdit katsoa ohjelman jaksot </t>
+          <t>Poliisi epäilee rikosta Suomen kansa ensin -puolueen kampanjoinnissa – toinen epäillyistä puolueen puheenjohtaja Marco de Wit</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Vaalisohva-ohjelma oli siihen osallistuneen Ronja Vehviläisen mielestä antoisa kokemus.</t>
+          <t>Kyseinen kampanjointi tapahtui viikonloppuna Narinkkatorilla Kampissa.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Tatu Kuukkanen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -5807,17 +5807,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Miten Suomeen saadaan yli 60 000 työpaikkaa lisää? Katso Ylen vaalitentti työstä klo 21</t>
+          <t>Mitä tapahtui kun kaksi ehdokasta saapui puhumaan politiikkaa helsinkiläiseen kommuuniin? Syntyi Ylen Vaalisohva – vielä ehdit katsoa ohjelman jaksot </t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Vaalien alla puolueilla on kova luotto siihen, että työllisyysaste saadaan nostettua 75 prosenttiin. Mutta miten tuo temppu tehdään? </t>
+          <t>Vaalisohva-ohjelma oli siihen osallistuneen Ronja Vehviläisen mielestä antoisa kokemus.</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Helmiina Suhonen</t>
+          <t>Tatu Kuukkanen</t>
         </is>
       </c>
     </row>
@@ -5827,17 +5827,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Yli puolet vaarallisiksi ilmoitetuista tuotteista EU-alueella tulee Kiinasta – kolmannes ihmisistä ei välitä takaisinvedosta</t>
+          <t>Valkoisen talon kansliapäällikkö: Trumpin verotietoja ei julkaista koskaan</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Euroopan komissio haluaa lisätä tietoutta Euroopan unionin tuoteturvallisuusmääräyksistä Kiinan suuntaan.</t>
+          <t>Mick Mulvaneyn mielestä kyseessä on vain demokraattien poliittinen näytös.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Markus Heikkilä</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -5847,17 +5847,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tältä näyttää nuorisovaalien valitsema eduskunta – eniten paikkoja haalivat vihreät ja perussuomalaiset </t>
+          <t>Yli puolet vaarallisiksi ilmoitetuista tuotteista EU-alueella tulee Kiinasta – kolmannes ihmisistä ei välitä takaisinvedosta</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Mitä puolueet vastaavat äänensä antaneille nuorille?</t>
+          <t>Euroopan komissio haluaa lisätä tietoutta Euroopan unionin tuoteturvallisuusmääräyksistä Kiinan suuntaan.</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Hanna AsikainenEllinoora SandellAnnette BlencoweSonja ParkkinenLauri Miikkulainen</t>
+          <t>Markus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -5867,17 +5867,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Eurooppa heräsi Kiinan vallan kasvuun – Seitsemän syytä, miksi Kiinasta tuli uhka</t>
+          <t>Presidentti Niinistö huolissaan kylmän sodan palaamisesta</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>EU vetää aiempaa tiukempaa linjaa suhteessa Kiinaan tiistaina huippukokouksessa. Listasimme, miksi EU haluaa muuttaa kurssia Kiinan suhteen juuri nyt.</t>
+          <t>Presidenttiä huolettaa vanhojen sopimusten romuttuminen. </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -5887,17 +5887,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö huolissaan kylmän sodan palaamisesta</t>
+          <t>Eurooppa heräsi Kiinan vallan kasvuun – Seitsemän syytä, miksi Kiinasta tuli uhka</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Presidenttiä huolettaa vanhojen sopimusten romuttuminen. </t>
+          <t>EU vetää aiempaa tiukempaa linjaa suhteessa Kiinaan tiistaina huippukokouksessa. Listasimme, miksi EU haluaa muuttaa kurssia Kiinan suhteen juuri nyt.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -5907,17 +5907,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Valkoisen talon kansliapäällikkö: Trumpin verotietoja ei julkaista koskaan</t>
+          <t>Tältä näyttää nuorisovaalien valitsema eduskunta – eniten paikkoja haalivat vihreät ja perussuomalaiset </t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Mick Mulvaneyn mielestä kyseessä on vain demokraattien poliittinen näytös.</t>
+          <t>Mitä puolueet vastaavat äänensä antaneille nuorille?</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Hanna AsikainenEllinoora SandellAnnette BlencoweSonja ParkkinenLauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -5967,17 +5967,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Haastoimme 8 ehdokasta astumaan oman kuplan ulkopuolelle – näin vihreä selvisi metsäkoneen puikoista ja kokoomuslainen minibudjetilla ruokaostoksista</t>
+          <t>Kiukkuiset kansalaiset osoittivat mieltään ja puhuivat: Ranskan pääministeri haluaa nyt leikata veroja "rohkeasti"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Kansanedustajan tärkein taito on ymmärtää toisin ajattelevia, sanovat eduskunnan konkarit.</t>
+          <t>Presidentti Emmanuel Macronilta odotetaan lähiaikoina puhetta, jossa hän kertoo suunnitelmansa keltaliivien rauhoittamiseksi.</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Laura KosonenVeli-Pekka Hämäläinen</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -5987,17 +5987,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Kiukkuiset kansalaiset osoittivat mieltään ja puhuivat: Ranskan pääministeri haluaa nyt leikata veroja "rohkeasti"</t>
+          <t>Haastoimme 8 ehdokasta astumaan oman kuplan ulkopuolelle – näin vihreä selvisi metsäkoneen puikoista ja kokoomuslainen minibudjetilla ruokaostoksista</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Presidentti Emmanuel Macronilta odotetaan lähiaikoina puhetta, jossa hän kertoo suunnitelmansa keltaliivien rauhoittamiseksi.</t>
+          <t>Kansanedustajan tärkein taito on ymmärtää toisin ajattelevia, sanovat eduskunnan konkarit.</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Laura KosonenVeli-Pekka Hämäläinen</t>
         </is>
       </c>
     </row>
@@ -6167,17 +6167,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Moni äänesti vahingossa väärää ehdokasta viime vaaleissa – näin vältät 5 mokaa äänestyskopissa</t>
+          <t>Britannian parlamentin ylähuone haluaa pakottaa pääministerin konsultoimaan parlamenttia EU-eron lykkäämisestä</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Kokosimme yhteen virheet, joita suomalaiset tekevät eduskuntavaalien äänestyskopeissa. Humalatila voi jopa estää äänestämisen.</t>
+          <t>May harkitsee, että tuo parlamentin käsiteltäväksi uuden kansanäänestyksen järjestämisen.</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Satu Krautsuk</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -6187,17 +6187,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Mikä on vaalipiirisi kuumin keskusteluaihe? Kuuntele tentit suorana Radio Suomesta tai Yle Areenasta</t>
+          <t>Radio Suomen vaalitentti: "Yritystukia perattava, ihmisiin investoitava"</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Yle järjestää kaikissa vaalipiireissä eduskuntapuolueille radiotentin. Osaa tenteistä voi seurata paikan päällä.</t>
+          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat kokoontuivat maanantaina Radio Suomen Päivä –ohjelman vaalitenttiin. </t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Hanne Kinnunen</t>
+          <t>Raisa Pöllänen</t>
         </is>
       </c>
     </row>
@@ -6207,17 +6207,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Britannian parlamentin ylähuone haluaa pakottaa pääministerin konsultoimaan parlamenttia EU-eron lykkäämisestä</t>
+          <t>Moni äänesti vahingossa väärää ehdokasta viime vaaleissa – näin vältät 5 mokaa äänestyskopissa</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>May harkitsee, että tuo parlamentin käsiteltäväksi uuden kansanäänestyksen järjestämisen.</t>
+          <t>Kokosimme yhteen virheet, joita suomalaiset tekevät eduskuntavaalien äänestyskopeissa. Humalatila voi jopa estää äänestämisen.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Satu Krautsuk</t>
         </is>
       </c>
     </row>
@@ -6227,17 +6227,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Radio Suomen vaalitentti: "Yritystukia perattava, ihmisiin investoitava"</t>
+          <t>Mikä on vaalipiirisi kuumin keskusteluaihe? Kuuntele tentit suorana Radio Suomesta tai Yle Areenasta</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat kokoontuivat maanantaina Radio Suomen Päivä –ohjelman vaalitenttiin. </t>
+          <t>Yle järjestää kaikissa vaalipiireissä eduskuntapuolueille radiotentin. Osaa tenteistä voi seurata paikan päällä.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Raisa Pöllänen</t>
+          <t>Hanne Kinnunen</t>
         </is>
       </c>
     </row>
@@ -6247,19 +6247,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Robottiautot singahtelevat ja Suomi pelaa jalkapallon MM-kisoissa – näin puoluejohtajat ennustavat vuotta 2050
-</t>
+          <t>Ylen vaalikonetta käytetty yli miljoona kertaa – oletko sinä jo löytänyt ehdokkaasi?</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>A-studio kysyi puoluejohtajilta, miten elämme 30 vuoden kuluttua.
-</t>
+          <t>Vaalikoneessa on 90 prosenttia kaikista eduskuntavaalien ehdokkaista. Vastaukset paljastavat heistä mielenkiintoisia asioita.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Tuomas HyytinenStina Tuominen</t>
+          <t>Ville Seuri</t>
         </is>
       </c>
     </row>
@@ -6269,17 +6267,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ylen vaalikonetta käytetty yli miljoona kertaa – oletko sinä jo löytänyt ehdokkaasi?</t>
+          <t>Tuttu nukkuvien puolue kerää näissäkin vaaleissa yli miljoona ääntä –“Koen, että ääni on turha, päättäjät päättää, mitä päättää”</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Vaalikoneessa on 90 prosenttia kaikista eduskuntavaalien ehdokkaista. Vastaukset paljastavat heistä mielenkiintoisia asioita.</t>
+          <t>Vaalitutkija arvioi, että äänestysaktiivisuus voi nousta muutamalla prosenttiyksiköllä viime vaaleista.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Ville Seuri</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -6289,18 +6287,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>“Rohkeus ja mielikuvitus säästöliekillä”  –  asiantuntijat pettyivät puoluejohtajien 2050-visioihin</t>
+          <t>Puoluejohtajat löysivät aatteensa jo nuorina – Kokosimme puheenjohtajien polut vallan huipulle </t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Vihreiden Pekka Haavisto ja ja vasemmistoliiton Li Andersson saivat parhaat arvosanat. Pienpuolueiden johtajat erottuivat rohkeudella.
-</t>
+          <t>Sipilä ja Rinne saivat poliittiset kotipesänsä kotoaan, Orpo loisti opiskelijapolitiikassa. Haavisto paloi ympäristöasioille, Halla-ahoa kaihersi maahanmuutto.</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Tuomas HyytinenStina Tuominen</t>
+          <t>Kai JaskariMarja SannikkaSanna Ukkola</t>
         </is>
       </c>
     </row>
@@ -6310,17 +6307,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tuttu nukkuvien puolue kerää näissäkin vaaleissa yli miljoona ääntä –“Koen, että ääni on turha, päättäjät päättää, mitä päättää”</t>
+          <t>Äänestyspaikoilla on ollut ennätysvilkasta – jo yli 800 000 on antanut äänensä ennakkoon</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Vaalitutkija arvioi, että äänestysaktiivisuus voi nousta muutamalla prosenttiyksiköllä viime vaaleista.</t>
+          <t>Eduskuntavaalien ennakkoäänestys jatkuu tiistaihin asti.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -6350,17 +6347,18 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Puoluejohtajat löysivät aatteensa jo nuorina – Kokosimme puheenjohtajien polut vallan huipulle </t>
+          <t>“Rohkeus ja mielikuvitus säästöliekillä”  –  asiantuntijat pettyivät puoluejohtajien 2050-visioihin</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Sipilä ja Rinne saivat poliittiset kotipesänsä kotoaan, Orpo loisti opiskelijapolitiikassa. Haavisto paloi ympäristöasioille, Halla-ahoa kaihersi maahanmuutto.</t>
+          <t>Vihreiden Pekka Haavisto ja ja vasemmistoliiton Li Andersson saivat parhaat arvosanat. Pienpuolueiden johtajat erottuivat rohkeudella.
+</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Kai JaskariMarja SannikkaSanna Ukkola</t>
+          <t>Tuomas HyytinenStina Tuominen</t>
         </is>
       </c>
     </row>
@@ -6370,17 +6368,19 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Analyysi: Virossa puoluekolmikko pelasi vaalivoittajan ulos hallituksesta – oikeistopopulistit etenemässä johtopaikoille</t>
+          <t>Robottiautot singahtelevat ja Suomi pelaa jalkapallon MM-kisoissa – näin puoluejohtajat ennustavat vuotta 2050
+</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Viron venäjänkieliset kokevat tulleensa petetyiksi, kun taas kulttuuriväki pelkää populismin nousua, kirjoittaa Ylen toimittaja Tallinnassa Silja Massa.</t>
+          <t>A-studio kysyi puoluejohtajilta, miten elämme 30 vuoden kuluttua.
+</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Silja Massa</t>
+          <t>Tuomas HyytinenStina Tuominen</t>
         </is>
       </c>
     </row>
@@ -6390,17 +6390,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Äänestyspaikoilla on ollut ennätysvilkasta – jo yli 800 000 on antanut äänensä ennakkoon</t>
+          <t>Analyysi: Virossa puoluekolmikko pelasi vaalivoittajan ulos hallituksesta – oikeistopopulistit etenemässä johtopaikoille</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien ennakkoäänestys jatkuu tiistaihin asti.</t>
+          <t>Viron venäjänkieliset kokevat tulleensa petetyiksi, kun taas kulttuuriväki pelkää populismin nousua, kirjoittaa Ylen toimittaja Tallinnassa Silja Massa.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Silja Massa</t>
         </is>
       </c>
     </row>
@@ -6410,17 +6410,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Virossa yllätyssopu hallituksesta – Jüri Ratas jatkaa pääministerinä</t>
+          <t>Lähikyrsää ja pelottava orava – Tältä näyttää vaalikampanjoinnin loppukiri ympäri Suomea ja se kertoo paljon siitä, mikseivät nuoret äänestä</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Reformipuolue on jäämässä yllättäen oppositioon.</t>
+          <t>Yle seurasi eduskuntavaalien loppukiriä ympäri Suomea. Simossa paistettiin makkaraa, Tampereella kiroiltiin.</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Tuija SiltamäkiEemeli MarttiJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -6430,17 +6430,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Lähikyrsää ja pelottava orava – Tältä näyttää vaalikampanjoinnin loppukiri ympäri Suomea ja se kertoo paljon siitä, mikseivät nuoret äänestä</t>
+          <t>Rinteellä puheenjohtajista suurin vaalibudjetti – osan tiedot puuttuvat</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Yle seurasi eduskuntavaalien loppukiriä ympäri Suomea. Simossa paistettiin makkaraa, Tampereella kiroiltiin.</t>
+          <t>Kokoomuksen Petteri Orpo ja perussuomalaisten Jussi Halla-aho eivät vielä ole tehneet vaalirahailmoitusta.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Tuija SiltamäkiEemeli MarttiJuha Rissanen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -6450,17 +6450,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tyypilliset rahastosijoittajat ovat duunareita tai alempia toimihenkilöitä</t>
+          <t>Virossa yllätyssopu hallituksesta – Jüri Ratas jatkaa pääministerinä</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Kaikkiaan neljäsosalla suomalaisista on rahastosijoituksia.</t>
+          <t>Reformipuolue on jäämässä yllättäen oppositioon.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -6470,17 +6470,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Rinteellä puheenjohtajista suurin vaalibudjetti – osan tiedot puuttuvat</t>
+          <t>Tyypilliset rahastosijoittajat ovat duunareita tai alempia toimihenkilöitä</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Kokoomuksen Petteri Orpo ja perussuomalaisten Jussi Halla-aho eivät vielä ole tehneet vaalirahailmoitusta.</t>
+          <t>Kaikkiaan neljäsosalla suomalaisista on rahastosijoituksia.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -6490,17 +6490,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Presidentti Halonen liputtaa opiskelijoiden ilmastolakon puolesta – "Tärkeintä on kuitenkin äänestää vaaleissa"</t>
+          <t>Testaa: Mitä tiedät eduskunnasta</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Presidentti Tarja Halonen puhui tänään Helsingissä opiskelijoiden ilmastomielenosoituksessa. Halosen mukaan ilmaston lämpenemisen estämiseksi on tehtävä välittömästi kaikki voitava. </t>
+          <t>Kuinka paljon oli naiskansanedustajia Suomen ensimmäisessä eduskunnassa, mikä on nykykansanedustajan palkkio? Testaa tietosi Ylen eduskuntavisassa!</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Petri Kosonen STT</t>
+          <t>Mia Gertsch</t>
         </is>
       </c>
     </row>
@@ -6510,17 +6510,18 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ukrainan presidenttikisa ottaa erikoisia kierroksia: Zelenskyi vaati Porošenkolta huumetestiä, Porošenko ojensi kätensä</t>
+          <t>Naisten osuus eduskuntavaaliehdokkaista kasvoi hieman – on nyt 42 prosenttia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Ensimmäisen kierroksen voittanut tv-koomikko vaati istuvalta presidentiltä huume- ja alkoholitestiä ehtona vaaliväittelylle.</t>
+          <t>Kokoomuksella äveriäimmät ehdokkaat, pienituloisimmat eläinoikeuspuolueella.
+</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Mikko Haapanen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -6530,17 +6531,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Robert Sundman: Kannattaako pienpuoluetentillä vain huvitella? Studiossa voi kyteä alku johonkin suurempaan</t>
+          <t>Nyt tutkimaan: Ylen eduskuntavaalien vaalikoneen aineisto julkaistu avoimena datana</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Isot puolueet voisivat oppia jotain pieniltä, kirjoittaa Ylen politiikan toimittaja Robert Sundman blogissaan.</t>
+          <t>Aineisto julkaistaan ilman ehdokkaiden nimiä. Koko materiaali on saatavissa journalistien ja tutkijoiden käyttöön pyynnöstä.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Ville Seuri</t>
         </is>
       </c>
     </row>
@@ -6571,17 +6572,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Reformipuolueen Kaja Kallas johtamaan Viron hallitusneuvotteluja</t>
+          <t>Yle tarkasti poliitikkojen vaaliväitteitä: turpeen työllisyysvaikutuksista hurjaa liioittelua, verottaja ei nauti provikkapalkkaa</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Neuvotteluista povataan hankalia, koska puolueiden kannat poikkeavat selvästi toisistaan.</t>
+          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Matti KoivistoLauri MiikkulainenAri MölsäMerja Niilola</t>
         </is>
       </c>
     </row>
@@ -6591,17 +6592,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Yle tarkasti poliitikkojen vaaliväitteitä: turpeen työllisyysvaikutuksista hurjaa liioittelua, verottaja ei nauti provikkapalkkaa</t>
+          <t>Reformipuolueen Kaja Kallas johtamaan Viron hallitusneuvotteluja</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
+          <t>Neuvotteluista povataan hankalia, koska puolueiden kannat poikkeavat selvästi toisistaan.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Matti KoivistoLauri MiikkulainenAri MölsäMerja Niilola</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6612,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Britannia hakee jatkoaikaa brexitille kesäkuun loppuun ja valmistautuu eurovaaleihin – Suomi jäisi ilman sovittua lisäpaikkaa</t>
+          <t>Robert Sundman: Kannattaako pienpuoluetentillä vain huvitella? Studiossa voi kyteä alku johonkin suurempaan</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Britannia haluaa kuitenkin lähteä EU:sta jo ennen kesäkuun loppua, mikäli parlamentti onnistuu ratifioimaan erosopimuksen.</t>
+          <t>Isot puolueet voisivat oppia jotain pieniltä, kirjoittaa Ylen politiikan toimittaja Robert Sundman blogissaan.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Johanna KippoUlla-Maija Hamunen</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -6631,17 +6632,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Trump kävi katsastamassa raja-aitaa Kaliforniassa – aidassa hopeinen Trump-kyltti  </t>
+          <t>Britannia hakee jatkoaikaa brexitille kesäkuun loppuun ja valmistautuu eurovaaleihin – Suomi jäisi ilman sovittua lisäpaikkaa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Meksikon rajalla on todella paha tilanne, todella paha, sanoi Trump.</t>
+          <t>Britannia haluaa kuitenkin lähteä EU:sta jo ennen kesäkuun loppua, mikäli parlamentti onnistuu ratifioimaan erosopimuksen.</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Johanna KippoUlla-Maija Hamunen</t>
         </is>
       </c>
     </row>
@@ -6651,17 +6652,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Nyt tutkimaan: Ylen eduskuntavaalien vaalikoneen aineisto julkaistu avoimena datana</t>
+          <t>Juha Sipilä: "Täytyy myöntää, että olen myös öitä valvonut vastuun edessä" – Valitsi keskustan jo lukioikäisenä</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Aineisto julkaistaan ilman ehdokkaiden nimiä. Koko materiaali on saatavissa journalistien ja tutkijoiden käyttöön pyynnöstä.</t>
+          <t>Herkistynyt keskustan puheenjohtaja Juha Sipilä sanoo, että oman lapsen kuolemassa on "epäluonnollinen ja väärä järjestys".</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Ville Seuri</t>
+          <t>Kai JaskariMarja Sannikka</t>
         </is>
       </c>
     </row>
@@ -6671,18 +6672,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Naisten osuus eduskuntavaaliehdokkaista kasvoi hieman – on nyt 42 prosenttia</t>
+          <t>Presidentti Halonen liputtaa opiskelijoiden ilmastolakon puolesta – "Tärkeintä on kuitenkin äänestää vaaleissa"</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Kokoomuksella äveriäimmät ehdokkaat, pienituloisimmat eläinoikeuspuolueella.
-</t>
+          <t>Presidentti Tarja Halonen puhui tänään Helsingissä opiskelijoiden ilmastomielenosoituksessa. Halosen mukaan ilmaston lämpenemisen estämiseksi on tehtävä välittömästi kaikki voitava. </t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Petri Kosonen STT</t>
         </is>
       </c>
     </row>
@@ -6692,17 +6692,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Kampanjoinnin loppukiri on käynnissä aurinkoisessa säässä – Katso Ylen vaalikierros läpi Suomen pääkaupungista napapiirille</t>
+          <t>Ukrainan presidenttikisa ottaa erikoisia kierroksia: Zelenskyi vaati Porošenkolta huumetestiä, Porošenko ojensi kätensä</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Ylen vaalikierroksella käytiin haistelemassa, millaisissa tunnelmissa vaalitoreilla kampanjoidaan.</t>
+          <t>Ensimmäisen kierroksen voittanut tv-koomikko vaati istuvalta presidentiltä huume- ja alkoholitestiä ehtona vaaliväittelylle.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Teemu HallamaaLaura Mäkiniemi</t>
+          <t>Mikko Haapanen</t>
         </is>
       </c>
     </row>
@@ -6712,17 +6712,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Juha Sipilä: "Täytyy myöntää, että olen myös öitä valvonut vastuun edessä" – Valitsi keskustan jo lukioikäisenä</t>
+          <t>Kampanjoinnin loppukiri on käynnissä aurinkoisessa säässä – Katso Ylen vaalikierros läpi Suomen pääkaupungista napapiirille</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Herkistynyt keskustan puheenjohtaja Juha Sipilä sanoo, että oman lapsen kuolemassa on "epäluonnollinen ja väärä järjestys".</t>
+          <t>Ylen vaalikierroksella käytiin haistelemassa, millaisissa tunnelmissa vaalitoreilla kampanjoidaan.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Kai JaskariMarja Sannikka</t>
+          <t>Teemu HallamaaLaura Mäkiniemi</t>
         </is>
       </c>
     </row>
@@ -6732,17 +6732,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Testaa: Mitä tiedät eduskunnasta</t>
+          <t>Trump kävi katsastamassa raja-aitaa Kaliforniassa – aidassa hopeinen Trump-kyltti  </t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Kuinka paljon oli naiskansanedustajia Suomen ensimmäisessä eduskunnassa, mikä on nykykansanedustajan palkkio? Testaa tietosi Ylen eduskuntavisassa!</t>
+          <t>Meksikon rajalla on todella paha tilanne, todella paha, sanoi Trump.</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Mia Gertsch</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -6752,17 +6752,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Kongressi uhmaa Trumpin Saudi-Arabian-politiikkaa –"USA:n tuki pois sotatoimilta Jemenissä"   </t>
+          <t>Maailman suurimmat vaalit alkavat viikon päästä – Intian parlamenttivaaleissa kaikki on suurta: 900 miljoonaa äänioikeutettua, miljoona äänestyspaikkaa</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Presidentti Donald Trump on uhannut käyttää asiassa veto-oikeuttaan. </t>
+          <t>Parlamenttivaalit ovat myös äänestys hindunationalistisen pääministerin Narendra Modin suosiosta. </t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Teemu Juhola</t>
         </is>
       </c>
     </row>
@@ -6772,17 +6772,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Evan tutkimus: Suomalaiset luottavat yhä poliisiin – "Eduskunnan ja poliitikkojen kannalta tilanne on murheellinen"</t>
+          <t>Kongressi uhmaa Trumpin Saudi-Arabian-politiikkaa –"USA:n tuki pois sotatoimilta Jemenissä"   </t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Elinkeinoelämän valtuuskunta EVA julkaisi torstaina uusimman tutkimuksen suomalaisten luottamuksesta yhteiskunnan eri instituutioihin.</t>
+          <t>Presidentti Donald Trump on uhannut käyttää asiassa veto-oikeuttaan. </t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -6792,20 +6792,15 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Liikuntakeskustelu ei sytytä vaalikentillä, vaikka liikkumattomuus maksaa miljardeja – löytyykö ratkaisu edullisemmista tilavuokrista tai harrasteseteleistä?</t>
+          <t>Jani Halmeen kolumni: Sisar hento valkoinen-sanonnan voi huoletta haudata, nyt on hurjien hoitajien vuoro</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>
-Kysyimme viideltä suurimmalta puolueelta, miksi liikunta ei nouse vaalipuheisiin, vaikka suomalaisten liikkumattomuus on iso ongelma.</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Riikka Smolander-Slotte</t>
-        </is>
-      </c>
+          <t>Vinoutuneet käsitykset hoitotyöstä ovat johtaneet siihen, etteivät poliitikot kykene tekemään viisaita päätöksiä, joissa näkyisivät hoitotyön todellinen arvo, kirjoittaa Jani Halme. </t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -6813,17 +6808,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Teollisuusjohtaja patistaa Suomea tekemään tiukkaa ilmastopolitiikkaa – jopa vihreiden tavoitteet saavat kiitosta</t>
+          <t>Vaaleja ja politiikkaa lasten silmin: "Jäin miettimään tuota äänestä Suomi takaisin -lausetta, että mitä se tarkoittaa, kun meillä on jo Suomi"</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Metsäteollisuuden johtaja varoittelee poliitikkoja rajoittamasta metsähakkuita.</t>
+          <t>Kymmenen vuoden päästä vaaliuurnille pääsevä äänestäjäsukupolvi tietää jo, mitä politiikassa periaatteessa tapahtuu.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Virpi Hukkanen</t>
+          <t>Mirva Ekman</t>
         </is>
       </c>
     </row>
@@ -6853,15 +6848,19 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Jani Halmeen kolumni: Sisar hento valkoinen-sanonnan voi huoletta haudata, nyt on hurjien hoitajien vuoro</t>
+          <t>Evan tutkimus: Suomalaiset luottavat yhä poliisiin – "Eduskunnan ja poliitikkojen kannalta tilanne on murheellinen"</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Vinoutuneet käsitykset hoitotyöstä ovat johtaneet siihen, etteivät poliitikot kykene tekemään viisaita päätöksiä, joissa näkyisivät hoitotyön todellinen arvo, kirjoittaa Jani Halme. </t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>Elinkeinoelämän valtuuskunta EVA julkaisi torstaina uusimman tutkimuksen suomalaisten luottamuksesta yhteiskunnan eri instituutioihin.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Hannu Tikkala</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -6869,17 +6868,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Vaaleja ja politiikkaa lasten silmin: "Jäin miettimään tuota äänestä Suomi takaisin -lausetta, että mitä se tarkoittaa, kun meillä on jo Suomi"</t>
+          <t>Suomesta ilmastotekojen mallimaa? Katso ilmastotentti kello 21</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Kymmenen vuoden päästä vaaliuurnille pääsevä äänestäjäsukupolvi tietää jo, mitä politiikassa periaatteessa tapahtuu.</t>
+          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat väittelevät siitä, millaisia toimia ilmastonmuutos vaatii seuraavalta hallitukselta ja suomalaisilta.</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Mirva Ekman</t>
+          <t>Helmiina Suhonen</t>
         </is>
       </c>
     </row>
@@ -6889,17 +6888,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Maailman suurimmat vaalit alkavat viikon päästä – Intian parlamenttivaaleissa kaikki on suurta: 900 miljoonaa äänioikeutettua, miljoona äänestyspaikkaa</t>
+          <t>Trump uhkaa Meksikoa autotuonnin verotuksella ja rajan sulkemisella </t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Parlamenttivaalit ovat myös äänestys hindunationalistisen pääministerin Narendra Modin suosiosta. </t>
+          <t>Meksikon rajan yli kulkee päivittäin tavaraa 1,7 miljardin dollarin eli 1,5 miljardin euron arvosta.</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Teemu Juhola</t>
+          <t>Minna Pärssinen</t>
         </is>
       </c>
     </row>
@@ -6929,17 +6928,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Suomesta ilmastotekojen mallimaa? Katso ilmastotentti kello 21</t>
+          <t>Osaavatko poliitikot puhua niin, että kuka vain ymmärtää? Vastaus selviää Ylen selkokielisessä vaalikeskustelussa – katso tästä koko lähetys </t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat väittelevät siitä, millaisia toimia ilmastonmuutos vaatii seuraavalta hallitukselta ja suomalaisilta.</t>
+          <t>Poliitikkojen oli keskustelussa onnistuttava puhumaan ymmärrettävää suomea, vaikka aihe olisi kuinka vaikea.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Helmiina Suhonen</t>
+          <t>Anne Orjala</t>
         </is>
       </c>
     </row>
@@ -6989,17 +6988,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Trump uhkaa Meksikoa autotuonnin verotuksella ja rajan sulkemisella </t>
+          <t>Teollisuusjohtaja patistaa Suomea tekemään tiukkaa ilmastopolitiikkaa – jopa vihreiden tavoitteet saavat kiitosta</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Meksikon rajan yli kulkee päivittäin tavaraa 1,7 miljardin dollarin eli 1,5 miljardin euron arvosta.</t>
+          <t>Metsäteollisuuden johtaja varoittelee poliitikkoja rajoittamasta metsähakkuita.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Minna Pärssinen</t>
+          <t>Virpi Hukkanen</t>
         </is>
       </c>
     </row>
@@ -7009,17 +7008,18 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Osaavatko poliitikot puhua niin, että kuka vain ymmärtää? Vastaus selviää Ylen selkokielisessä vaalikeskustelussa – katso tästä koko lähetys </t>
+          <t>Liikuntakeskustelu ei sytytä vaalikentillä, vaikka liikkumattomuus maksaa miljardeja – löytyykö ratkaisu edullisemmista tilavuokrista tai harrasteseteleistä?</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Poliitikkojen oli keskustelussa onnistuttava puhumaan ymmärrettävää suomea, vaikka aihe olisi kuinka vaikea.</t>
+          <t>
+Kysyimme viideltä suurimmalta puolueelta, miksi liikunta ei nouse vaalipuheisiin, vaikka suomalaisten liikkumattomuus on iso ongelma.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Anne Orjala</t>
+          <t>Riikka Smolander-Slotte</t>
         </is>
       </c>
     </row>
@@ -7029,17 +7029,13 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Skandaalista irti pyristelevä Justin Trudeau potkaisi kaksi ex-ministeriä ulos puolueestaan </t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Kohu sai alkunsa suuren rakennusyhtiön korruptiosyytteistä. </t>
-        </is>
-      </c>
+          <t>Brittiarmeija tutkii kohuvideota: Sotilaat näyttävät käyttävän oppositiojohtaja Jeremy Corbynin kuvaa harjoitusmaalina</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -7049,17 +7045,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Koululaiset toivovat lisää vapaata aikaa –  Professori: "Tylsistyminen on tervettä ja lisää luovuutta"</t>
+          <t>Miten pärjäisit kansanedustajan saappaissa? Ylen peli laittaa sinut vaalikauden kiperimpiin paikkoihin</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Tutkijaa ja tulevaa lapsiasiavaltuutettua hätkähdytti kaveria kaipaavien lasten määrä. </t>
+          <t>Mitä kansanedustaja oikein tekee työkseen? Testaa edustajantaitosi Ylen pelissä.</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Niina HonkaHanna Eskonen</t>
+          <t>Ari HakahuhtaJoel KanervaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -7089,17 +7085,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Venezuelassa oppositiojohtajalta poistettiin syytesuoja</t>
+          <t>Koululaiset toivovat lisää vapaata aikaa –  Professori: "Tylsistyminen on tervettä ja lisää luovuutta"</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>On vielä liian aikaista sanoa, ryhtyykö Maduro toimiin Guaidoa vastaan.</t>
+          <t>Tutkijaa ja tulevaa lapsiasiavaltuutettua hätkähdytti kaveria kaipaavien lasten määrä. </t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Niina HonkaHanna Eskonen</t>
         </is>
       </c>
     </row>
@@ -7109,17 +7105,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Miten pärjäisit kansanedustajan saappaissa? Ylen peli laittaa sinut vaalikauden kiperimpiin paikkoihin</t>
+          <t>Skandaalista irti pyristelevä Justin Trudeau potkaisi kaksi ex-ministeriä ulos puolueestaan </t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Mitä kansanedustaja oikein tekee työkseen? Testaa edustajantaitosi Ylen pelissä.</t>
+          <t>Kohu sai alkunsa suuren rakennusyhtiön korruptiosyytteistä. </t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaJoel KanervaEetu Pietarinen</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -7129,17 +7125,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ennakkoäänestys alkaa tänään, ja näin se hoituu: selvitä oman ehdokkaasi numero ja ota mukaan kuvallinen henkilöllisyystodistus</t>
+          <t>Katri Saarikiven kolumni: Eduskuntavaalien ehdokkaat mustamaalaavat toisiaan, mutta minua kiinnostaisi tietää, miten he tekevät yhteistyötä </t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Viimeinen päivä äänestää ennakkoon on ensi viikon tiistai eli 9. huhtikuuta. Varsinainen vaalipäivä on sunnuntaina 14. huhtikuuta.</t>
+          <t>Tarvittiin 400 000 ihmisen yhteistyötä, että ihminen pääsi kuuhun. Samaa yhteistyön ja virheistä oppimisen henkeä kaivattaisiin politiikkaan,  pohtii aivotutkija Katri Saarikivi.</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -7149,17 +7145,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Jyväskylässä 150 metrin jono – Ennakkoäänestys eduskuntavaaleissa alkoi vilkkaammin kuin neljä vuotta sitten</t>
+          <t>Onko ikä pelkkä numero? Veeti, 18, haluaa pelastaa ilmaston – vaalien vanhin, 85-vuotias Gunvor ajaisi vanhusten asiaa</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Seuraa eduskuntavaalien ennakkoäänestysintoa Ylen vertailutietojen avulla.</t>
+          <t>Kaikkien eduskuntavaaliehdokkaiden keski-ikä on 47 vuotta. Miehiä on ehdokkaina naisia enemmän.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaTiina Länkinen</t>
+          <t>Varpu Helpinen</t>
         </is>
       </c>
     </row>
@@ -7169,18 +7165,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Reformipuolueen Kaja Kallas aloittaa hallitustunnustelut Virossa – enemmistöhallituksen muodostaminen on vaikea tehtävä</t>
+          <t>Venezuelassa oppositiojohtajalta poistettiin syytesuoja</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Keskustapuolue valmistelee omaa hallituskokoonpanoaan
-.</t>
+          <t>On vielä liian aikaista sanoa, ryhtyykö Maduro toimiin Guaidoa vastaan.</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -7190,17 +7185,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>May ja Corbyn kävivät ”rakentavia keskusteluja” brexitistä</t>
+          <t>Henrik Dettmannin kolumni: Miksi vaalikoneet sivuuttavat täysin miljardien eurojen liikuntapommin? Esitä ehdokkaallesi nämä kysymykset ja vaikuta lastesi tulevaisuuteen</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Monet Mayn konservatiivipuolueen edustajat ovat arvostelleet neuvotteluja työväenpuolueen Corbynin kanssa.</t>
+          <t>Lastemme tulevaisuuden kannalta keskeiset teemat liikkumisesta ja oppimisesta pitäisi ottaa vaalikeskustelussa tosissaan, kirjoittaa Henrik Dettmann.</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Inka HaukkaKatriina Töyrylä</t>
+          <t>Henrik Dettmann</t>
         </is>
       </c>
     </row>
@@ -7210,17 +7205,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Henrik Dettmannin kolumni: Miksi vaalikoneet sivuuttavat täysin miljardien eurojen liikuntapommin? Esitä ehdokkaallesi nämä kysymykset ja vaikuta lastesi tulevaisuuteen</t>
+          <t>Ennakkoäänestys alkaa tänään, ja näin se hoituu: selvitä oman ehdokkaasi numero ja ota mukaan kuvallinen henkilöllisyystodistus</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Lastemme tulevaisuuden kannalta keskeiset teemat liikkumisesta ja oppimisesta pitäisi ottaa vaalikeskustelussa tosissaan, kirjoittaa Henrik Dettmann.</t>
+          <t>Viimeinen päivä äänestää ennakkoon on ensi viikon tiistai eli 9. huhtikuuta. Varsinainen vaalipäivä on sunnuntaina 14. huhtikuuta.</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Henrik Dettmann</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -7230,17 +7225,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Onko ikä pelkkä numero? Veeti, 18, haluaa pelastaa ilmaston – vaalien vanhin, 85-vuotias Gunvor ajaisi vanhusten asiaa</t>
+          <t>Jyväskylässä 150 metrin jono – Ennakkoäänestys eduskuntavaaleissa alkoi vilkkaammin kuin neljä vuotta sitten</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Kaikkien eduskuntavaaliehdokkaiden keski-ikä on 47 vuotta. Miehiä on ehdokkaina naisia enemmän.</t>
+          <t>Seuraa eduskuntavaalien ennakkoäänestysintoa Ylen vertailutietojen avulla.</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Varpu Helpinen</t>
+          <t>Ari HakahuhtaTiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -7250,17 +7245,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Katri Saarikiven kolumni: Eduskuntavaalien ehdokkaat mustamaalaavat toisiaan, mutta minua kiinnostaisi tietää, miten he tekevät yhteistyötä </t>
+          <t>Veroilmoituksen muoto muuttuu: lakanakaavake historiaan, tilalle A4</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Tarvittiin 400 000 ihmisen yhteistyötä, että ihminen pääsi kuuhun. Samaa yhteistyön ja virheistä oppimisen henkeä kaivattaisiin politiikkaan,  pohtii aivotutkija Katri Saarikivi.</t>
+          <t>Tilalle tulee A4-mallinen tuloste verotustiedoista.</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7270,17 +7265,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Veroilmoituksen muoto muuttuu: lakanakaavake historiaan, tilalle A4</t>
+          <t>May ja Corbyn kävivät ”rakentavia keskusteluja” brexitistä</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Tilalle tulee A4-mallinen tuloste verotustiedoista.</t>
+          <t>Monet Mayn konservatiivipuolueen edustajat ovat arvostelleet neuvotteluja työväenpuolueen Corbynin kanssa.</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Inka HaukkaKatriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -7290,13 +7285,18 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Brittiarmeija tutkii kohuvideota: Sotilaat näyttävät käyttävän oppositiojohtaja Jeremy Corbynin kuvaa harjoitusmaalina</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
+          <t>Reformipuolueen Kaja Kallas aloittaa hallitustunnustelut Virossa – enemmistöhallituksen muodostaminen on vaikea tehtävä</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Keskustapuolue valmistelee omaa hallituskokoonpanoaan
+.</t>
+        </is>
+      </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7346,17 +7346,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Analyysi: SDP joutunee taistelemaan äänestäjistä Helsingissä – Äänet annetaan joko päästöttömälle tulevaisuudelle tai Suomen kulttuurin säilymiselle</t>
+          <t>"Minut leimattiin saman tien rasistiksi" – lukijat kertovat Ylelle, miten oman äänestyspäätöksen paljastaminen voi johtaa jopa ilmiriitaan</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Huoli ilmastosta sekä eriarvoistumisen lisääntyminen näkynee pääkaupungin äänestystuloksissa. Maahanmuuttajien vastustuksella on oma vankka kannattajakuntansa.</t>
+          <t>Professorin mielestä äänestyspäätöksestä kertominen ei saisi olla asia, joka katkaisee keskusteluyhteyden.</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Reeta Salminen</t>
+          <t>Ulriikka Myöhänen</t>
         </is>
       </c>
     </row>
@@ -7366,17 +7366,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pienpuolueet väittelivät vihapuheesta ja ilmastosta: "Vihapuhe on tekaistu käsite"</t>
+          <t>Analyysi: SDP joutunee taistelemaan äänestäjistä Helsingissä – Äänet annetaan joko päästöttömälle tulevaisuudelle tai Suomen kulttuurin säilymiselle</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Kaksituntisessa vaalitentissä ääneen pääsivät puolueet, joilla ei ole tarvetta miellyttää keskitien äänestäjiä.</t>
+          <t>Huoli ilmastosta sekä eriarvoistumisen lisääntyminen näkynee pääkaupungin äänestystuloksissa. Maahanmuuttajien vastustuksella on oma vankka kannattajakuntansa.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Kristiina Tolkki</t>
+          <t>Reeta Salminen</t>
         </is>
       </c>
     </row>
@@ -7406,17 +7406,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>"Minut leimattiin saman tien rasistiksi" – lukijat kertovat Ylelle, miten oman äänestyspäätöksen paljastaminen voi johtaa jopa ilmiriitaan</t>
+          <t>Pienpuolueet väittelivät vihapuheesta ja ilmastosta: "Vihapuhe on tekaistu käsite"</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Professorin mielestä äänestyspäätöksestä kertominen ei saisi olla asia, joka katkaisee keskusteluyhteyden.</t>
+          <t>Kaksituntisessa vaalitentissä ääneen pääsivät puolueet, joilla ei ole tarvetta miellyttää keskitien äänestäjiä.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Ulriikka Myöhänen</t>
+          <t>Kristiina Tolkki</t>
         </is>
       </c>
     </row>
@@ -7426,15 +7426,19 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Jarno Limnéllin kolumni: Suomi tarvitsee nyt kyberturvallisuusjohtajan ja kyberturvallisuusyksikön</t>
+          <t>Niinistö tapaa Putinin Pietarissa</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Vaalien jälkeisen hallituksen on keskitettävä kyberturvallisuus yhteen paikkaan. Kyberturvallisuus on erottamaton osa Suomen ulko- ja turvallisuuspolitiikkaa, kirjoittaa Jarno Limnéll.</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>Presidentti Niinistö pitää puheenvuoron kansainvälisen arktisen foorumiin pääistunnossa.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Inka Haukka</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -7442,17 +7446,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Vielä ehtii osallistua: Ylen vaaliveikkaus sulkeutuu lauantai-iltana – veikkaa vaalitulos oikein ja voita ihana puoluepomotyyny </t>
+          <t>Sipilä syytti Halla-ahoa ja Väyrystä raiskausrikoksilla flirttailusta – Yle seurasi puoluejohtajien vaalitenttiä hetki hetkeltä</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Kuinka hyvin osaat veikata eduskuntavaalien tuloksen?  Viisi parasta veikkaajaa saa palkinnoksi valitsemansa puheenjohtajan kuvalla varustetun tyynysetin.</t>
+          <t>Kaikki kymmenen eduskuntapuoluetta olivat paikalla Oulun vaalitentissä. </t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Heli SuominenEemeli MarttiTeemo TebestStina Tuominen</t>
+          <t>Johanna Laakkonen</t>
         </is>
       </c>
     </row>
@@ -7462,17 +7466,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ankaran ja Istanbulin pormestaripaikoista käydään kiivasta taistelua – presidentti Erdoğanin puolue väittää omien tietojensa perusteella voittaneensa Istanbulissa</t>
+          <t>Vielä ehtii osallistua: Ylen vaaliveikkaus sulkeutuu lauantai-iltana – veikkaa vaalitulos oikein ja voita ihana puoluepomotyyny </t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Vaaleja pidettiin testinä presidentin suosiolle. Isot kaupungit näyttivät antavan hänelle näpäytyksen.</t>
+          <t>Kuinka hyvin osaat veikata eduskuntavaalien tuloksen?  Viisi parasta veikkaajaa saa palkinnoksi valitsemansa puheenjohtajan kuvalla varustetun tyynysetin.</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Heli SuominenEemeli MarttiTeemo TebestStina Tuominen</t>
         </is>
       </c>
     </row>
@@ -7502,17 +7506,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Sipilä syytti Halla-ahoa ja Väyrystä raiskausrikoksilla flirttailusta – Yle seurasi puoluejohtajien vaalitenttiä hetki hetkeltä</t>
+          <t>Näissä vaaleissa väistellään puhetta työllistämiskeinoista, koska ne "ovat kipeitä johonkin suuntaan", sanoo 150 budjettiriihen virkamies</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Kaikki kymmenen eduskuntapuoluetta olivat paikalla Oulun vaalitentissä. </t>
+          <t>Budjettipäällikkö Hannu Mäkisen mielestä olisi syytä varautua siihen, että tulevaisuus ei ole ruusuinen. </t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Johanna Laakkonen</t>
+          <t>Maria Stenroos</t>
         </is>
       </c>
     </row>
@@ -7522,17 +7526,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>EU-komission Katainen varoittaa: Todennäköisesti edessä on kova Brexit </t>
+          <t>F1-asiantuntija esitti uhkakuvan Ferrarista suuren katastrofin ja superlupauksen dominoinnin jälkeen – ”Toivottavasti politiikkaa ei tule mukaan”</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Euroopan unioni on valmistautunut sopimuksettoman eron varalta. Ero tapahtuu ensi viikon perjantaina, jolleivat EU ja britit sovi neuvotteluiden jatkoajasta.</t>
+          <t>Jukka Mildh toivoo, että Ferrarilla ei synny poliittiset pelit Bahrainin GP:n ja Charles Leclercin huippusuorituksen jälkeen.</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Maria Stenroos</t>
+          <t>Roope Visuri</t>
         </is>
       </c>
     </row>
@@ -7542,17 +7546,13 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tavoitteena halvemmat autot, lisää poliiseja ja sata hävittäjää – Tällainen puolue on Sampo Terhon siniset, joka taistelee olemassaolostaan</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Sampo Terho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa tänään maanantaina kello 21.00.</t>
-        </is>
-      </c>
+          <t>Brexit edelleen umpikujassa: brittiparlamentti ei löytänyt vaihtoehtoista irtautumistapaa EU:sta</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaEetu Pietarinen</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -7562,17 +7562,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Näissä vaaleissa väistellään puhetta työllistämiskeinoista, koska ne "ovat kipeitä johonkin suuntaan", sanoo 150 budjettiriihen virkamies</t>
+          <t>Junes Lokka syytteeseen kunnianloukkauksesta ja yksityiselämää loukkaavan tiedon levittämisestä</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Budjettipäällikkö Hannu Mäkisen mielestä olisi syytä varautua siihen, että tulevaisuus ei ole ruusuinen. </t>
+          <t>Oululainen kaupunginvaltuutettu Junes Lokka vei vastikään toimittajan käräjille oman kunniansa loukkaamisesta.</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Maria Stenroos</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7582,17 +7582,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Junes Lokka syytteeseen kunnianloukkauksesta ja yksityiselämää loukkaavan tiedon levittämisestä</t>
+          <t>Ankaran ja Istanbulin pormestaripaikoista käydään kiivasta taistelua – presidentti Erdoğanin puolue väittää omien tietojensa perusteella voittaneensa Istanbulissa</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Oululainen kaupunginvaltuutettu Junes Lokka vei vastikään toimittajan käräjille oman kunniansa loukkaamisesta.</t>
+          <t>Vaaleja pidettiin testinä presidentin suosiolle. Isot kaupungit näyttivät antavan hänelle näpäytyksen.</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -7602,17 +7602,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Niinistö tapaa Putinin Pietarissa</t>
+          <t>Erilainen pääministeritentti: Sampo Terho nauroi mutta järkyttyi, kun hänen lapsensa väitti isänsä muuttuneen punaiseksi – video</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö pitää puheenvuoron kansainvälisen arktisen foorumiin pääistunnossa.</t>
+          <t>Esitimme kahdeksan kiperää kysymystä sinisten puheenjohtajalle Sampo Terholle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Päivi Happonen</t>
         </is>
       </c>
     </row>
@@ -7622,13 +7622,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Brexit edelleen umpikujassa: brittiparlamentti ei löytänyt vaihtoehtoista irtautumistapaa EU:sta</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
+          <t>Tavoitteena halvemmat autot, lisää poliiseja ja sata hävittäjää – Tällainen puolue on Sampo Terhon siniset, joka taistelee olemassaolostaan</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Sampo Terho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa tänään maanantaina kello 21.00.</t>
+        </is>
+      </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Ari HakahuhtaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -7638,19 +7642,15 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Terho lupasi Ylen tentissä: autovero pois, tuhat uutta poliisia ja sata hävittäjää – lue liveanalyysi</t>
+          <t>Jarno Limnéllin kolumni: Suomi tarvitsee nyt kyberturvallisuusjohtajan ja kyberturvallisuusyksikön</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Miten sinisten tentti meni? Terhon suoriutumista Ylen vaalitentissä analysoivat verkossa politiikan tutkija Johanna Vuorelma Tampereen yliopistosta, retoriikan asiantuntija Antti Mustakallio ja Ylen Heikki Valkama. Voit katsoa suoraa lähetystä Areenasta.</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>Heikki Valkama</t>
-        </is>
-      </c>
+          <t>Vaalien jälkeisen hallituksen on keskitettävä kyberturvallisuus yhteen paikkaan. Kyberturvallisuus on erottamaton osa Suomen ulko- ja turvallisuuspolitiikkaa, kirjoittaa Jarno Limnéll.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -7658,17 +7658,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Erilainen pääministeritentti: Sampo Terho nauroi mutta järkyttyi, kun hänen lapsensa väitti isänsä muuttuneen punaiseksi – video</t>
+          <t>EU-komission Katainen varoittaa: Todennäköisesti edessä on kova Brexit </t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Esitimme kahdeksan kiperää kysymystä sinisten puheenjohtajalle Sampo Terholle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
+          <t>Euroopan unioni on valmistautunut sopimuksettoman eron varalta. Ero tapahtuu ensi viikon perjantaina, jolleivat EU ja britit sovi neuvotteluiden jatkoajasta.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Päivi Happonen</t>
+          <t>Maria Stenroos</t>
         </is>
       </c>
     </row>
@@ -7678,17 +7678,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Yhdysvallat harkitsee lisäpakotteita Iranille</t>
+          <t>Herätys: Sinisillä näytön paikka, veikkaa vaalivoittajaa, länsituuli lämmittää etelässä</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Viranomainen arvioi, että pakotteet tulisivat voimaan toukokuussa.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -7698,17 +7698,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>F1-asiantuntija esitti uhkakuvan Ferrarista suuren katastrofin ja superlupauksen dominoinnin jälkeen – ”Toivottavasti politiikkaa ei tule mukaan”</t>
+          <t>Terho lupasi Ylen tentissä: autovero pois, tuhat uutta poliisia ja sata hävittäjää – lue liveanalyysi</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Jukka Mildh toivoo, että Ferrarilla ei synny poliittiset pelit Bahrainin GP:n ja Charles Leclercin huippusuorituksen jälkeen.</t>
+          <t>Miten sinisten tentti meni? Terhon suoriutumista Ylen vaalitentissä analysoivat verkossa politiikan tutkija Johanna Vuorelma Tampereen yliopistosta, retoriikan asiantuntija Antti Mustakallio ja Ylen Heikki Valkama. Voit katsoa suoraa lähetystä Areenasta.</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Roope Visuri</t>
+          <t>Heikki Valkama</t>
         </is>
       </c>
     </row>
@@ -7718,17 +7718,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Herätys: Sinisillä näytön paikka, veikkaa vaalivoittajaa, länsituuli lämmittää etelässä</t>
+          <t>Britannian parlamentti äänesti Brexitistä – yksikään neljästä eri vaihtoehdosta ei saanut enemmistöä</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Äänestysten tarkoituksena oli löytää vaihtoehto pääministeri Theresa Mayn neuvottelemalle Brexit-sopimukselle.</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -7738,17 +7738,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Britannian parlamentti äänesti Brexitistä – yksikään neljästä eri vaihtoehdosta ei saanut enemmistöä</t>
+          <t>Yhdysvallat harkitsee lisäpakotteita Iranille</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Äänestysten tarkoituksena oli löytää vaihtoehto pääministeri Theresa Mayn neuvottelemalle Brexit-sopimukselle.</t>
+          <t>Viranomainen arvioi, että pakotteet tulisivat voimaan toukokuussa.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -7758,17 +7758,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Turkissa Erdoğanin AKP uhkaa hävitä ensimmäiset vaalit vuosiin</t>
+          <t>Haukuttu aktiivimalli muuttuu maanantaina – jatkossa esimerkiksi ammattiliitto, kunta tai rekisteröity yhdistys voi järjestää aktiivisuusehdon täyttävää koulutusta työttömälle</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Turkin talousongelmat ovat saaneet osan äänestäjistä pohtimaan vaihtoehtoja valtapuolueelle.</t>
+          <t>Myös työnantajan järjestämä muutosturvakoulutus kerryttää jatkossa aktiivisuutta.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -7798,17 +7798,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tv-koomikko, suklaakuningas vai kaasuprinsessa: Ukraina äänestää sunnuntaina maalle uuden presidentin, ja kisaa johtaa tv:stä tuttu yllättäjä</t>
+          <t>Turkissa Erdoğanin AKP uhkaa hävitä ensimmäiset vaalit vuosiin</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Koomikko, joka ei ole pitänyt yhtään vaalitilaisuutta, on selvässä gallupjohdossa. Yle esittelee kärkiehdokkaat.</t>
+          <t>Turkin talousongelmat ovat saaneet osan äänestäjistä pohtimaan vaihtoehtoja valtapuolueelle.</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Antti Kuronen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -7838,17 +7838,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Haukuttu aktiivimalli muuttuu maanantaina – jatkossa esimerkiksi ammattiliitto, kunta tai rekisteröity yhdistys voi järjestää aktiivisuusehdon täyttävää koulutusta työttömälle</t>
+          <t>Tv-koomikko, suklaakuningas vai kaasuprinsessa: Ukraina äänestää sunnuntaina maalle uuden presidentin, ja kisaa johtaa tv:stä tuttu yllättäjä</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Myös työnantajan järjestämä muutosturvakoulutus kerryttää jatkossa aktiivisuutta.</t>
+          <t>Koomikko, joka ei ole pitänyt yhtään vaalitilaisuutta, on selvässä gallupjohdossa. Yle esittelee kärkiehdokkaat.</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Antti Kuronen</t>
         </is>
       </c>
     </row>
@@ -7874,17 +7874,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Olisiko EU:sta ilmastosankariksi? Kyllä, jos poliittista tahtoa vain riittää, sanovat Suomen mepit</t>
+          <t>Vaalitaistelussa alkaa kahden viikon loppukiri – ehdokkaat toivovat toreille vaalirauhaa</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Vuonna 2050 maailmassa voi olla 200 miljoonaa ilmastopakolaista. Mitä jos he tulevat Eurooppaan?</t>
+          <t>Eduskuntavaaleihin on aikaa tasan kaksi viikkoa ja ennakkoäänestys alkaa jo keskiviikkona.</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Tuija SiltamäkiEemeli MarttiJuha Rissanen</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Vaalitaistelussa alkaa kahden viikon loppukiri – ehdokkaat toivovat toreille vaalirauhaa</t>
+          <t>Olisiko EU:sta ilmastosankariksi? Kyllä, jos poliittista tahtoa vain riittää, sanovat Suomen mepit</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Eduskuntavaaleihin on aikaa tasan kaksi viikkoa ja ennakkoäänestys alkaa jo keskiviikkona.</t>
+          <t>Vuonna 2050 maailmassa voi olla 200 miljoonaa ilmastopakolaista. Mitä jos he tulevat Eurooppaan?</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Tuija SiltamäkiEemeli MarttiJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -7934,17 +7934,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Egyptin presidentti al-Sisi nosti minimipalkkaa reilusti – yritys nostaa suosiota ennen kansanäänestystä valtakausista?</t>
+          <t>Presidentti Niinistö toivoo vaalien alla keskustelua ulko- ja turvallisuuspolitiikasta</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2 000 Egyptin punnan korotus nosti vähimmäispalkkaa kahdella kolmasosalla.</t>
+          <t> Eduskunta määrittelee Suomen ulko- ja turvallisuuspolitiikan peruslinjat presidentti muistuttaa.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Juho Takkunen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7954,17 +7954,18 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ilmastonmuutokselle on pakko tehdä jotain, mutta mitä se olisi – tarjolla vain ikäviä vastauksia</t>
+          <t>Kaikki vaalihäirintä ei näy lyönteinä julkisuudessa – uhkailua kokenut ehdokas: "lapsia en uskalla jättää enää kotiin ilman aikuista"    </t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Asiantuntijat kertovat, miten ilmastosaivartelusta päästään tositoimiin. Keinot ovat monelle poliitikolle karua kuultavaa.</t>
+          <t>
+Ylen kyselyssä viisi puoluetta kertoi häirinnän kohdistuvan usein naisiin. Myös maahanmuuttajataustaiset ovat usein kohteena.</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t>Anton Rinta-Jouppi</t>
         </is>
       </c>
     </row>
@@ -7974,17 +7975,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö toivoo vaalien alla keskustelua ulko- ja turvallisuuspolitiikasta</t>
+          <t>Egyptin presidentti al-Sisi nosti minimipalkkaa reilusti – yritys nostaa suosiota ennen kansanäänestystä valtakausista?</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t> Eduskunta määrittelee Suomen ulko- ja turvallisuuspolitiikan peruslinjat presidentti muistuttaa.</t>
+          <t>2 000 Egyptin punnan korotus nosti vähimmäispalkkaa kahdella kolmasosalla.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Juho Takkunen</t>
         </is>
       </c>
     </row>
@@ -7994,18 +7995,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Kaikki vaalihäirintä ei näy lyönteinä julkisuudessa – uhkailua kokenut ehdokas: "lapsia en uskalla jättää enää kotiin ilman aikuista"    </t>
+          <t>Onko kaikki viisaus puoluejohtajilla? Valitsemme vaaleissa parlamentin, emme diktaattoria</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>
-Ylen kyselyssä viisi puoluetta kertoi häirinnän kohdistuvan usein naisiin. Myös maahanmuuttajataustaiset ovat usein kohteena.</t>
+          <t>Eduskuntavaaleista on jälleen muodostumassa lähinnä puoluejohtajien välinen kisa, kirjoittaa politiikan toimittaja Timo Seppänen.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Anton Rinta-Jouppi</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
@@ -8015,17 +8015,17 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Onko kaikki viisaus puoluejohtajilla? Valitsemme vaaleissa parlamentin, emme diktaattoria</t>
+          <t>Ilmastonmuutokselle on pakko tehdä jotain, mutta mitä se olisi – tarjolla vain ikäviä vastauksia</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Eduskuntavaaleista on jälleen muodostumassa lähinnä puoluejohtajien välinen kisa, kirjoittaa politiikan toimittaja Timo Seppänen.</t>
+          <t>Asiantuntijat kertovat, miten ilmastosaivartelusta päästään tositoimiin. Keinot ovat monelle poliitikolle karua kuultavaa.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -8035,17 +8035,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Pelissä 800 miljoonan euron potti – Sitran rahojen kohtalo siirtyy seuraavalle hallitukselle</t>
+          <t>Ylen kannatusmittaus: Perussuomalaiset on nyt kolmanneksi suosituin puolue, SDP menetti kannatustaan</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Suomen itsenäisyyden juhlarahaston eli Sitran asemaa ja resursseja pohtinut työryhmä ei päässyt yksimielisyyteen siitä, mitä Sitran valtaville pääomille oikein pitäisi tehdä. </t>
+          <t>Myös kokoomuksen ja vihreiden suosio on laskenut. Kaikki muutokset mahtuvat virhemarginaalin sisään.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Jari Järvinen</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -8055,17 +8055,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Antti Rinne: "Koviksen maailma oli se, jolla suojautui muutosta vastaan" – Nahkatakkijätkä ei loistanut koulussa mutta suojeli kiusattua</t>
+          <t>SDP ylös – alas! Mihin hyytyi kokoomus? Perussuomalaiset ohi keskustan – katso, miten puolueet pomppivat Ylen animaatiossa</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>SDP:n Antti Rinne koki tulleensa kaltoin kohdelluksi, kun hänen tukijoitaan syytettiin junttauksesta puheenjohtajavaalissa.</t>
+          <t>Kärkipaikalla on neljän vuoden aikana ollut tuulista Ylen puoluekannatusmittauksissa. </t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Kai JaskariSanna Ukkola</t>
+          <t>Pekka KinnunenJoel KanervaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8075,17 +8075,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Analyysi: Perussuomalaiset matkalla uuteen jytkyyn – kokoomuksessa ja keskustassa aika painaa paniikkinappulaa</t>
+          <t>Antti Rinne: "Koviksen maailma oli se, jolla suojautui muutosta vastaan" – Nahkatakkijätkä ei loistanut koulussa mutta suojeli kiusattua</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Perussuomalaisten haasteena on kannattajien saaminen vaaliuurnille asti, kirjoittaa politiikan toimittaja Matti Koivisto. </t>
+          <t>SDP:n Antti Rinne koki tulleensa kaltoin kohdelluksi, kun hänen tukijoitaan syytettiin junttauksesta puheenjohtajavaalissa.</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Matti Koivisto</t>
+          <t>Kai JaskariSanna Ukkola</t>
         </is>
       </c>
     </row>
@@ -8095,17 +8095,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Nousussa oleva PS ei kelpaa vasemmistopuolueille hallituskumppaniksi – Halla-aho ihmettelee: "Vaalitulos ratkaisee hallituskelpoisuuden"</t>
+          <t>Herätys: Kannatusmittaus hyydyttää hymyjä vaaliteltoilla, uupumusta ehkäistään jaksamisvalmennuksella, etelässä jopa yli kymmenen astetta</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"Vaikea kuvitella, että arvomme kohtaisivat", sanoo SDP:n Antti Rinne.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Marika HarjumaaKristiina Tolkki</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -8115,17 +8115,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>15-vuotias haaveilee äänestämisestä, parikymppiset nuokkuivat viime vaaleissa – kysyimme, sytyttääkö ilmasto nuorten äänestysinnon</t>
+          <t>Puhemies Risikko seksuaalirikoksista: "Yhdenkään lapsen ei pitäisi joutua tällaiseen"</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Nuoret lähtivät ilmaston puolesta kaduille ja lakkoon, mutta näkyykö noussut aktiivisuus vaaliuurnilla? Näin vastaavat nuoret itse.</t>
+          <t>Sisäministeriö ilmoitti helmikuussa lisäävänsä poliisin resursseja seksuaalirikosten torjumiseksi.</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Jonna Karjalainen</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -8135,17 +8135,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Yle tarkasti poliitikkojen vaaliväitteitä: Perussuomalaisten luvut maahanmuuton kustannuksista kyseenalaisia, SDP ei ole nuorten suosikki</t>
+          <t>Nousussa oleva PS ei kelpaa vasemmistopuolueille hallituskumppaniksi – Halla-aho ihmettelee: "Vaalitulos ratkaisee hallituskelpoisuuden"</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
+          <t>"Vaikea kuvitella, että arvomme kohtaisivat", sanoo SDP:n Antti Rinne.</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Antti PilkeRiku RoslundMerja NiilolaLauri Miikkulainen</t>
+          <t>Marika HarjumaaKristiina Tolkki</t>
         </is>
       </c>
     </row>
@@ -8155,17 +8155,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Analyysi: Pirkanmaalla on kova halu saada oma ministeri – Kuka katkaisee kuivan kauden?</t>
+          <t>Analyysi: Perussuomalaiset matkalla uuteen jytkyyn – kokoomuksessa ja keskustassa aika painaa paniikkinappulaa</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>SDP:n tamperelaisella varapuheenjohtajalla Sanna Marinilla on hyvät mahdollisuudet uusia vaalien kärkipaikka Pirkanmaalla.</t>
+          <t>Perussuomalaisten haasteena on kannattajien saaminen vaaliuurnille asti, kirjoittaa politiikan toimittaja Matti Koivisto. </t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Antti Palomaa</t>
+          <t>Matti Koivisto</t>
         </is>
       </c>
     </row>
@@ -8175,17 +8175,17 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>SDP ylös – alas! Mihin hyytyi kokoomus? Perussuomalaiset ohi keskustan – katso, miten puolueet pomppivat Ylen animaatiossa</t>
+          <t>Yle tarkasti poliitikkojen vaaliväitteitä: Perussuomalaisten luvut maahanmuuton kustannuksista kyseenalaisia, SDP ei ole nuorten suosikki</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Kärkipaikalla on neljän vuoden aikana ollut tuulista Ylen puoluekannatusmittauksissa. </t>
+          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Pekka KinnunenJoel KanervaEetu Pietarinen</t>
+          <t>Antti PilkeRiku RoslundMerja NiilolaLauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -8195,17 +8195,17 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki: Yhtenäiskulttuuri kuolla kupsahti, mutta kaipuu yhteisiin kokemuksiin ei – Ja siksi me jonotamme museoon kuin idiootit</t>
+          <t>Analyysi: Pirkanmaalla on kova halu saada oma ministeri – Kuka katkaisee kuivan kauden?</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Tarvitsemme jonoja ja yhteisiä kokemuksia, jotta pysyisimme järjissämme, pohtii Tuija Siltamäki blogissaan. Tämän blogin voit myös kuunnella.</t>
+          <t>SDP:n tamperelaisella varapuheenjohtajalla Sanna Marinilla on hyvät mahdollisuudet uusia vaalien kärkipaikka Pirkanmaalla.</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t>Antti Palomaa</t>
         </is>
       </c>
     </row>
@@ -8215,17 +8215,17 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Herätys: Kannatusmittaus hyydyttää hymyjä vaaliteltoilla, uupumusta ehkäistään jaksamisvalmennuksella, etelässä jopa yli kymmenen astetta</t>
+          <t>Tuija Siltamäki: Yhtenäiskulttuuri kuolla kupsahti, mutta kaipuu yhteisiin kokemuksiin ei – Ja siksi me jonotamme museoon kuin idiootit</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Tarvitsemme jonoja ja yhteisiä kokemuksia, jotta pysyisimme järjissämme, pohtii Tuija Siltamäki blogissaan. Tämän blogin voit myös kuunnella.</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -8235,17 +8235,17 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Britannian parlamentti hylkäsi EU-erosopimuksen kolmannen kerran</t>
+          <t>15-vuotias haaveilee äänestämisestä, parikymppiset nuokkuivat viime vaaleissa – kysyimme, sytyttääkö ilmasto nuorten äänestysinnon</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Äänestystulos tarkoittaa, että sopimuksettoman EU-eron riski 12. huhtikuuta kasvaa.</t>
+          <t>Nuoret lähtivät ilmaston puolesta kaduille ja lakkoon, mutta näkyykö noussut aktiivisuus vaaliuurnilla? Näin vastaavat nuoret itse.</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Juho TakkunenHeikki Heiskanen</t>
+          <t>Jonna Karjalainen</t>
         </is>
       </c>
     </row>
@@ -8255,17 +8255,17 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Ylen kannatusmittaus: Perussuomalaiset on nyt kolmanneksi suosituin puolue, SDP menetti kannatustaan</t>
+          <t>Pelissä 800 miljoonan euron potti – Sitran rahojen kohtalo siirtyy seuraavalle hallitukselle</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Myös kokoomuksen ja vihreiden suosio on laskenut. Kaikki muutokset mahtuvat virhemarginaalin sisään.</t>
+          <t>Suomen itsenäisyyden juhlarahaston eli Sitran asemaa ja resursseja pohtinut työryhmä ei päässyt yksimielisyyteen siitä, mitä Sitran valtaville pääomille oikein pitäisi tehdä. </t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Jari Järvinen</t>
         </is>
       </c>
     </row>
@@ -8275,17 +8275,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Puhemies Risikko seksuaalirikoksista: "Yhdenkään lapsen ei pitäisi joutua tällaiseen"</t>
+          <t>Britannian parlamentti hylkäsi EU-erosopimuksen kolmannen kerran</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Sisäministeriö ilmoitti helmikuussa lisäävänsä poliisin resursseja seksuaalirikosten torjumiseksi.</t>
+          <t>Äänestystulos tarkoittaa, että sopimuksettoman EU-eron riski 12. huhtikuuta kasvaa.</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Juho TakkunenHeikki Heiskanen</t>
         </is>
       </c>
     </row>
@@ -8295,17 +8295,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho suomi "ilmastohysteriaa" Ylen tentissä: aiheuttaa ahdistusta ja laskee syntyvyyttä  – lue kooste liveanalyysistä täältä</t>
+          <t>Laura Huhtasaari joutui uhkauksen kohteeksi – teosta epäilty kokoomuspoliitikko eroaa puolueesta</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Perussuomalaisten puheenjohtajan Jussi Halla-ahon mukaan ilmastonmuutoskeskustelulla voi olla vaikutusta aiempaa alhaisempaan syntyvyyteen. </t>
+          <t>Poliisi tutkii tapausta. Kokoomus sanoutuu teosta jyrkästi irti.</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Puolassa tapettiin pormestari, Saksassa hyökättiin oikeistopoliitikon kimppuun – vastakkainasettelu johtaa hyökkäyksiin kaikilta laidoilta</t>
+          <t>Jussi Halla-aho Ylen vaalitentissä kello 21: Arvioi kaiken maahanmuuton kurkistusreiästä – tällainen puolue on perussuomalaiset, jolle maahanmuutto on uhka</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Perjantain Sannikka &amp; Ukkolassa keskustellaan siitä, millaista väkivallan uhkaa poliitikot Suomessa kohtaavat. Vieraina ovat muun muassa Päivi Räsänen ja Suldaan Said Ahmed.</t>
+          <t>Jussi Halla-aho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa torstai-iltana kello 21.00. </t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Sonja Parkkinen</t>
+          <t>Ari HakahuhtaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8355,17 +8355,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Suomi kehitti uuden aseen kiisteltyjen miinojen tilalle – Miten hyppypanos toimii, onko se kansainvälisten sopimusten mukainen?</t>
+          <t>Venezuela kielsi oppositiojohtaja Guaidolta osallistumisen politiikkaan</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Tutkijan mukaan Ukrainan tapahtumat muistuttivat, että maa voi joutua hyökkäyksen kohteeksi Euroopassakin.</t>
+          <t>Yhdysvallat pitää päätöstä naurettavana.</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Antti Parviala</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -8375,17 +8375,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Erilainen pääministeritentti: Jussi Halla-ahon ykkösarvo on itsepäisyys, ottaisi Isis-taistelijoiden lapset huostaan – video</t>
+          <t>Jussi Halla-aho suomi "ilmastohysteriaa" Ylen tentissä: aiheuttaa ahdistusta ja laskee syntyvyyttä  – lue kooste liveanalyysistä täältä</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Mitä pääministeriehdokas Jussi Halla-aho katuu elämässään? Esitimme kahdeksan kiperää kysymystä perussuomalaisten puheenjohtajalle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
+          <t>Perussuomalaisten puheenjohtajan Jussi Halla-ahon mukaan ilmastonmuutoskeskustelulla voi olla vaikutusta aiempaa alhaisempaan syntyvyyteen. </t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -8395,17 +8395,17 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Laura Huhtasaari joutui uhkauksen kohteeksi – teosta epäilty kokoomuspoliitikko eroaa puolueesta</t>
+          <t>Suomi kehitti uuden aseen kiisteltyjen miinojen tilalle – Miten hyppypanos toimii, onko se kansainvälisten sopimusten mukainen?</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Poliisi tutkii tapausta. Kokoomus sanoutuu teosta jyrkästi irti.</t>
+          <t>Tutkijan mukaan Ukrainan tapahtumat muistuttivat, että maa voi joutua hyökkäyksen kohteeksi Euroopassakin.</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Antti Parviala</t>
         </is>
       </c>
     </row>
@@ -8415,17 +8415,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Venezuela kielsi oppositiojohtaja Guaidolta osallistumisen politiikkaan</t>
+          <t>Erilainen pääministeritentti: Jussi Halla-ahon ykkösarvo on itsepäisyys, ottaisi Isis-taistelijoiden lapset huostaan – video</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Yhdysvallat pitää päätöstä naurettavana.</t>
+          <t>Mitä pääministeriehdokas Jussi Halla-aho katuu elämässään? Esitimme kahdeksan kiperää kysymystä perussuomalaisten puheenjohtajalle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -8435,17 +8435,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho Ylen vaalitentissä kello 21: Arvioi kaiken maahanmuuton kurkistusreiästä – tällainen puolue on perussuomalaiset, jolle maahanmuutto on uhka</t>
+          <t>Puolassa tapettiin pormestari, Saksassa hyökättiin oikeistopoliitikon kimppuun – vastakkainasettelu johtaa hyökkäyksiin kaikilta laidoilta</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa torstai-iltana kello 21.00. </t>
+          <t>Perjantain Sannikka &amp; Ukkolassa keskustellaan siitä, millaista väkivallan uhkaa poliitikot Suomessa kohtaavat. Vieraina ovat muun muassa Päivi Räsänen ja Suldaan Said Ahmed.</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaEetu Pietarinen</t>
+          <t>Sonja Parkkinen</t>
         </is>
       </c>
     </row>
@@ -8455,17 +8455,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö yhdessä puoluejohtajien kanssa: Vaalirauha on turvattava</t>
+          <t>Sisäministeri Kai Mykkänen ehdottaa Suomeen uutta ihmiskauppalakia</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Uhkailu tai väkivalta sanoissa tai teoissa eivät presidentin mielestä kuulu suomalaiselle vaalikentälle.</t>
+          <t>Asia nousi esiin nigerialaisen ihmiskaupan uhrin Itohan Okundayen tapauksen yhteydessä.</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Juho Takkunen</t>
         </is>
       </c>
     </row>
@@ -8475,17 +8475,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tutkijat: Perussuomalaisten vaalivideo toimi kohun logiikkaa hyödyntämällä, levityksessä apuna videon paheksujat</t>
+          <t>Haavisto suosituin pääministeriksi – SDP ja vihreät hallituksen runkopuolueiksi</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Viime viikolla julkaistu video on kerännyt jo reilusti yli neljännesmiljoona katselukertaa.</t>
+          <t>Kahdessa eri gallupissa suomalaiset valitsisivat seuraavaksi pääministeriksi vihreiden Pekka Haaviston.</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Ville LaaksoPäivi PuukkaMatti Koivisto</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -8495,17 +8495,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Analyysi: Taistelu Turun seudun äänistä ratkaisee Varsinais-Suomen eduskuntavaalien voimasuhteet</t>
+          <t>Vaalimainonnan somemaailma on kuin elämä itse: yllättävä, epälooginen, kekseliäs – ja välillä mielikuvitukseton ja tylsä</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Paikasta auringossa kisaa ministereitä, puoluejohtajia, politiikan konkareita ja sote-eksperttejä.</t>
+          <t>Pyysimme esimerkkejä vaalivaikuttamisesta verkossa – tässä maistiaisia. </t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Hannu Vähämäki</t>
+          <t>Jari Strömberg</t>
         </is>
       </c>
     </row>
@@ -8515,17 +8515,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Sisäministeri Kai Mykkänen ehdottaa Suomeen uutta ihmiskauppalakia</t>
+          <t>Presidentti Niinistö yhdessä puoluejohtajien kanssa: Vaalirauha on turvattava</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Asia nousi esiin nigerialaisen ihmiskaupan uhrin Itohan Okundayen tapauksen yhteydessä.</t>
+          <t>Uhkailu tai väkivalta sanoissa tai teoissa eivät presidentin mielestä kuulu suomalaiselle vaalikentälle.</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Juho Takkunen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -8535,17 +8535,17 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Rysky Riiheläisen kolumni: Salaliittoteorioissa väkivalta on aina läsnä</t>
+          <t>”Sitran varallisuutta ei tulla käyttämään valtion menoihin” – Sitraa ruotinut työryhmä julkistaa raporttinsa perjantaina</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Salaliittoteoriat helpottavat ihmisen oloa tekemällä maailmasta selkeämmän paikan. Mutta niiden sisältämä pelko ja viha tekevät maailmasta ikävämmän ja väkivaltaisemman paikan, kirjoittaa Rysky Riiheläinen.</t>
+          <t>Ryhmän puheenjohtajana toiminut kansanedustaja Matti Vanhanen (kesk.) kiistää, että työryhmä olisi päätynyt demareiden kannalle. SDP on halunnut pienentää Sitran pääomaa.</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -8555,17 +8555,17 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Vaalimainonnan somemaailma on kuin elämä itse: yllättävä, epälooginen, kekseliäs – ja välillä mielikuvitukseton ja tylsä</t>
+          <t>Amerikkalaismediat: Barbara Bush syyttää elämäkerrassaan Donald Trumpia sydänongelmistaan</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Pyysimme esimerkkejä vaalivaikuttamisesta verkossa – tässä maistiaisia. </t>
+          <t>Republikaanina tunnetulta Barbara Bushilta ei heru ymmärrystä Trumpin kannattamiselle: "ahne, itsekäs ja ruma".</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Jari Strömberg</t>
+          <t>Risto Mattila</t>
         </is>
       </c>
     </row>
@@ -8575,17 +8575,17 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Haavisto suosituin pääministeriksi – SDP ja vihreät hallituksen runkopuolueiksi</t>
+          <t>Li Andersson Ylen vaalitentissä: "Pidän epätodennäköisenä, että vasemmistoliitto päätyy kokoomuksen johtamaan hallitukseen" – lue kooste illan liveanalyysistä</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Kahdessa eri gallupissa suomalaiset valitsisivat seuraavaksi pääministeriksi vihreiden Pekka Haaviston.</t>
+          <t>Puheenjohtaja Andersson ei usko, että kokoomus ja vasemmistoliitto löytäisivät yhteistä säveltä hallitusohjelmaneuvotteluissa.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -8595,17 +8595,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Li Andersson yrittää katkaista vuosien tappiokierteen – tällainen puolue on uutta nousua hakeva vasemmistoliitto</t>
+          <t>Erilainen pääministeritentti: Miksi Li Andersson nauroi smoothiebaarille, mitä hän katuu elämässään eniten? video </t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Li Andersson on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa keskiviikko-iltana kello 21.</t>
+          <t>Esitimme kahdeksan kiperää kysymystä vasemmistoliiton puheenjohtalle Li Anderssonille. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Matti KoivistoEetu Pietarinen</t>
+          <t>Päivi Happonen</t>
         </is>
       </c>
     </row>
@@ -8615,17 +8615,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Satunnainen vaalitarkkailija kentällä: Painukkee suolle, käski mummo, toisen kanssa istuttiin “kikkelipenkillä” – kuka on pihalla vaaleissa?</t>
+          <t>Kuntaliitto joutui selittämään sote-kantaansa: ”Emme halua esittää, että näin sote tulisi hoitaa”</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Eduskuntavaalit ovat ovella. Silti moni on täysin pihalla. Mummoja he eivät ainakaan ole. Juttusarja käsittelee vaali-ilmiöitä. </t>
+          <t>Kuntaliitosta täsmennetään, että järjestön sote-kantaa rukataan seuraavalla vaalikaudella.</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Pasi Peiponen</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -8635,17 +8635,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Li Andersson Ylen vaalitentissä: "Pidän epätodennäköisenä, että vasemmistoliitto päätyy kokoomuksen johtamaan hallitukseen" – lue kooste illan liveanalyysistä</t>
+          <t>Li Andersson yrittää katkaista vuosien tappiokierteen – tällainen puolue on uutta nousua hakeva vasemmistoliitto</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Puheenjohtaja Andersson ei usko, että kokoomus ja vasemmistoliitto löytäisivät yhteistä säveltä hallitusohjelmaneuvotteluissa.</t>
+          <t>Li Andersson on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa keskiviikko-iltana kello 21.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t>Matti KoivistoEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8655,17 +8655,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Erilainen pääministeritentti: Miksi Li Andersson nauroi smoothiebaarille, mitä hän katuu elämässään eniten? video </t>
+          <t>Satunnainen vaalitarkkailija kentällä: Painukkee suolle, käski mummo, toisen kanssa istuttiin “kikkelipenkillä” – kuka on pihalla vaaleissa?</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Esitimme kahdeksan kiperää kysymystä vasemmistoliiton puheenjohtalle Li Anderssonille. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
+          <t>Eduskuntavaalit ovat ovella. Silti moni on täysin pihalla. Mummoja he eivät ainakaan ole. Juttusarja käsittelee vaali-ilmiöitä. </t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Päivi Happonen</t>
+          <t>Pasi Peiponen</t>
         </is>
       </c>
     </row>
@@ -8675,17 +8675,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Amerikkalaismediat: Barbara Bush syyttää elämäkerrassaan Donald Trumpia sydänongelmistaan</t>
+          <t>Rysky Riiheläisen kolumni: Salaliittoteorioissa väkivalta on aina läsnä</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Republikaanina tunnetulta Barbara Bushilta ei heru ymmärrystä Trumpin kannattamiselle: "ahne, itsekäs ja ruma".</t>
+          <t>Salaliittoteoriat helpottavat ihmisen oloa tekemällä maailmasta selkeämmän paikan. Mutta niiden sisältämä pelko ja viha tekevät maailmasta ikävämmän ja väkivaltaisemman paikan, kirjoittaa Rysky Riiheläinen.</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Risto Mattila</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -8695,17 +8695,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Kuntaliitto joutui selittämään sote-kantaansa: ”Emme halua esittää, että näin sote tulisi hoitaa”</t>
+          <t>Analyysi: Taistelu Turun seudun äänistä ratkaisee Varsinais-Suomen eduskuntavaalien voimasuhteet</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Kuntaliitosta täsmennetään, että järjestön sote-kantaa rukataan seuraavalla vaalikaudella.</t>
+          <t>Paikasta auringossa kisaa ministereitä, puoluejohtajia, politiikan konkareita ja sote-eksperttejä.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Hannu Vähämäki</t>
         </is>
       </c>
     </row>
@@ -8715,17 +8715,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>”Sitran varallisuutta ei tulla käyttämään valtion menoihin” – Sitraa ruotinut työryhmä julkistaa raporttinsa perjantaina</t>
+          <t>Tutkijat: Perussuomalaisten vaalivideo toimi kohun logiikkaa hyödyntämällä, levityksessä apuna videon paheksujat</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Ryhmän puheenjohtajana toiminut kansanedustaja Matti Vanhanen (kesk.) kiistää, että työryhmä olisi päätynyt demareiden kannalle. SDP on halunnut pienentää Sitran pääomaa.</t>
+          <t>Viime viikolla julkaistu video on kerännyt jo reilusti yli neljännesmiljoona katselukertaa.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Ville LaaksoPäivi PuukkaMatti Koivisto</t>
         </is>
       </c>
     </row>
@@ -8735,17 +8735,17 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Verkostoidu, älä viisastele, äläkä aloita puhetta kuten ruotsalaiset: "Vi i Sverige..." – Yle kysyi konkarimeppien neuvot tuleville EU-parlamentaarikoille</t>
+          <t>Veroasiantuntijoilta tyrmäys demareiden "puhtaan ruoan" arvonlisäverolle: "Päämäärä hyvä, mutta ei välttämättä toimi"</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Mustat laatikot pakollisiksi autoihin, kännykän käyttö halvemmaksi ulkomailla... EU-mepit vaikuttavat arkeemme, millainen edustaja on tehokkain?</t>
+          <t>Ympäristöystävällisemmän ruoan veroale voi olla EU-säädösten vastainen. Asiantuntijat epäilevät myös, ettei se ohjaa kulutustottumuksia toivottuun suuntaan.</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Anna KarismoHannele Muilu</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Kokoomuksen Petteri Orpo panttasi yhä puolueen kantaa hoitajamitoitukseen – lue Ylen liveanalyysi täältä</t>
+          <t>Verkostoidu, älä viisastele, äläkä aloita puhetta kuten ruotsalaiset: "Vi i Sverige..." – Yle kysyi konkarimeppien neuvot tuleville EU-parlamentaarikoille</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Puheenjohtaja Petteri Orpon mukaan kokoomuksen takki ei ole kääntynyt sote-asioissa, vaikka puolue hylkäsi valinnanvapausmallinsa.</t>
+          <t>Mustat laatikot pakollisiksi autoihin, kännykän käyttö halvemmaksi ulkomailla... EU-mepit vaikuttavat arkeemme, millainen edustaja on tehokkain?</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t>Anna KarismoHannele Muilu</t>
         </is>
       </c>
     </row>
@@ -8775,17 +8775,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Analyysi: Jopa kymmeniä tuhansia ääniä uusjakoon Kaakkois-Suomessa</t>
+          <t>Berner valittiin ruotsalaispankki SEB:in hallitukseen</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Luopumiset, vaalipiirin vaihdokset ja loikkaukset näkyvät vasta yhden kauden toimineessa vaalipiirissä</t>
+          <t>Berner aloittaa yhtiön hallituksessa kesäkuun alussa.</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Vesa Grekula</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -8835,17 +8835,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Berner valittiin ruotsalaispankki SEB:in hallitukseen</t>
+          <t>Kokoomuksen Petteri Orpo panttasi yhä puolueen kantaa hoitajamitoitukseen – lue Ylen liveanalyysi täältä</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Berner aloittaa yhtiön hallituksessa kesäkuun alussa.</t>
+          <t>Puheenjohtaja Petteri Orpon mukaan kokoomuksen takki ei ole kääntynyt sote-asioissa, vaikka puolue hylkäsi valinnanvapausmallinsa.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -8875,17 +8875,17 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Veroasiantuntijoilta tyrmäys demareiden "puhtaan ruoan" arvonlisäverolle: "Päämäärä hyvä, mutta ei välttämättä toimi"</t>
+          <t>Analyysi: Jopa kymmeniä tuhansia ääniä uusjakoon Kaakkois-Suomessa</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Ympäristöystävällisemmän ruoan veroale voi olla EU-säädösten vastainen. Asiantuntijat epäilevät myös, ettei se ohjaa kulutustottumuksia toivottuun suuntaan.</t>
+          <t>Luopumiset, vaalipiirin vaihdokset ja loikkaukset näkyvät vasta yhden kauden toimineessa vaalipiirissä</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Vesa Grekula</t>
         </is>
       </c>
     </row>
@@ -8915,17 +8915,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SDP:n Antti Rinne myönsi Ylen vaalitentissä, ettei hän tiedä puolueensa vaaliohjelman lopullista hintalappua – lue liveanalyysi täältä</t>
+          <t>Antti Rinteen viimeinen taisto pääministeriksi – tällainen puolue on vasemmalle kallistuva SDP</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Puheenjohtaja Antti Rinne sanoi Ylen vaalitentissä, että puolueen vaaliohjelman toteuttaminen maksaisi 1–3 miljardia euroa.</t>
+          <t>Puoluejohtaja Antti Rinne on Ylen puheenjohtajatentissä Areenassa ja TV1:ssä kello 21.</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Hannu TikkalaHeikki Valkama</t>
+          <t>Pekka KinnunenEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8955,17 +8955,17 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Antti Rinteen viimeinen taisto pääministeriksi – tällainen puolue on vasemmalle kallistuva SDP</t>
+          <t>Jari Ehrnroothin kolumni: Otetaan perusrakkaus politiikan käyttövoimaksi</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Puoluejohtaja Antti Rinne on Ylen puheenjohtajatentissä Areenassa ja TV1:ssä kello 21.</t>
+          <t>Mikä on poliittisen vihan tehokkain vastalääke, pohtii Jari Ehrnrooth.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Pekka KinnunenEetu Pietarinen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -8975,17 +8975,17 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Jari Ehrnroothin kolumni: Otetaan perusrakkaus politiikan käyttövoimaksi</t>
+          <t>SDP:n Antti Rinne myönsi Ylen vaalitentissä, ettei hän tiedä puolueensa vaaliohjelman lopullista hintalappua – lue liveanalyysi täältä</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Mikä on poliittisen vihan tehokkain vastalääke, pohtii Jari Ehrnrooth.</t>
+          <t>Puheenjohtaja Antti Rinne sanoi Ylen vaalitentissä, että puolueen vaaliohjelman toteuttaminen maksaisi 1–3 miljardia euroa.</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Hannu TikkalaHeikki Valkama</t>
         </is>
       </c>
     </row>
@@ -9075,17 +9075,17 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Joonas Janhusen kolumni: Nuoret eivät kaipaa poliitikoilta “kanssalapseilua”</t>
+          <t>Antero Vartia tajusi, ettei ilmastonmuutosta ratkaista politiikalla – "Asiat voivat mennä niin pahasti pieleen, ettei ihmiskuntaa enää ole"</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Poliitikoilta tarvitaan radikaalimpia tekoja, jotta systeemiin saataisiin uskottavuutta nuorten silmissä, kirjoittaa ensimmäistä kertaa äänestävä Joonas Janhunen.</t>
+          <t>Ilmaston muuttajat, osa 3/4: Antero Vartia jättää eduskunnan ja omistautuu hiljaisuudessa valmistellulle säätiölleen.</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Tuija SiltamäkiAntti HaanpääEemeli MarttiJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -9095,17 +9095,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Antero Vartia tajusi, ettei ilmastonmuutosta ratkaista politiikalla – "Asiat voivat mennä niin pahasti pieleen, ettei ihmiskuntaa enää ole"</t>
+          <t>Laura Kolehmainen yrittää ilmastoveivata Suomesta maailman ilmastojohtajan: "On ihan piipertelyä saarnata kulutusvalinnoista köyhille"</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Ilmaston muuttajat, osa 3/4: Antero Vartia jättää eduskunnan ja omistautuu hiljaisuudessa valmistellulle säätiölleen.</t>
+          <t>Ilmaston muuttajat, osa 2/4: Laura Kolehmaisen mielestä kansalaisen paras ilmastoteko on vaikuttaa päättäjiin.</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Tuija SiltamäkiAntti HaanpääEemeli MarttiJuha Rissanen</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -9115,17 +9115,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Laura Kolehmainen yrittää ilmastoveivata Suomesta maailman ilmastojohtajan: "On ihan piipertelyä saarnata kulutusvalinnoista köyhille"</t>
+          <t>Joonas Janhusen kolumni: Nuoret eivät kaipaa poliitikoilta “kanssalapseilua”</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Ilmaston muuttajat, osa 2/4: Laura Kolehmaisen mielestä kansalaisen paras ilmastoteko on vaikuttaa päättäjiin.</t>
+          <t>Poliitikoilta tarvitaan radikaalimpia tekoja, jotta systeemiin saataisiin uskottavuutta nuorten silmissä, kirjoittaa ensimmäistä kertaa äänestävä Joonas Janhunen.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -9135,17 +9135,17 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>EU-politiikkako vain vakavaa ja poliitikot kuivia? Ehei! "Helvetti on vielä tyhjä", sanoi Donald Tusk ja sai salin nauramaan</t>
+          <t>Armin Kellomäen kolumni: Vanhempien ikäluokkien parjaama idealismi sopii politiikkaan täydellisesti</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Eurooppa-komission puheenjohtaja Donald Tusk nauratti yleisöään eilen sekä tarkoituksella että tahottomasti.</t>
+          <t>Kun nuoret tekevät vanhempiin verrattuna erilaisia äänestysvalintoja, sanotaan turhaan, että nuo nuoret ovat kamalan mustavalkoisia, kirjoittaa ensimmäistä kertaa äänestävä Armin Kellomäki.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Kirsti Karttunen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -9155,17 +9155,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Analyysi: Savo-Karjalasta valitaan yksi edustaja vähemmän – miten asettuvat voimasuhteet useiden luopujien ja puolueen vaihtajien vaalipiirissä?</t>
+          <t>EU-politiikkako vain vakavaa ja poliitikot kuivia? Ehei! "Helvetti on vielä tyhjä", sanoi Donald Tusk ja sai salin nauramaan</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Savo-Karjalasta tulee eduskuntaan useita uusia kansanedustajia. Keskustalla sivuun jää kolmikko, joka keräsi vaalipiirissä neljänneksen puolueen viime vaalien äänistä. Perussuomalaisten kaikki kolme kansanedustajaa siirtyivät sinisiin. </t>
+          <t>Eurooppa-komission puheenjohtaja Donald Tusk nauratti yleisöään eilen sekä tarkoituksella että tahottomasti.</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Keijo Salokangas</t>
+          <t>Kirsti Karttunen</t>
         </is>
       </c>
     </row>
@@ -9195,17 +9195,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Armin Kellomäen kolumni: Vanhempien ikäluokkien parjaama idealismi sopii politiikkaan täydellisesti</t>
+          <t>Analyysi: Savo-Karjalasta valitaan yksi edustaja vähemmän – miten asettuvat voimasuhteet useiden luopujien ja puolueen vaihtajien vaalipiirissä?</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Kun nuoret tekevät vanhempiin verrattuna erilaisia äänestysvalintoja, sanotaan turhaan, että nuo nuoret ovat kamalan mustavalkoisia, kirjoittaa ensimmäistä kertaa äänestävä Armin Kellomäki.</t>
+          <t>Savo-Karjalasta tulee eduskuntaan useita uusia kansanedustajia. Keskustalla sivuun jää kolmikko, joka keräsi vaalipiirissä neljänneksen puolueen viime vaalien äänistä. Perussuomalaisten kaikki kolme kansanedustajaa siirtyivät sinisiin. </t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Keijo Salokangas</t>
         </is>
       </c>
     </row>
@@ -9295,17 +9295,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Suomi kuntoon, hallitus kumoon – tällainen puolue on keskusta </t>
+          <t>HS-gallup: SDP kasvattanut kannatustaan suhteessa kokoomukseen</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Puoluejohtaja Juha Sipilä on tänään Ylen puheenjohtajatentissä Areenassa ja TV1:ssä klo 21. </t>
+          <t>Keskustan kannatus heikkeni helmikuun 14,7 prosentista 14,3 prosenttiin.</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Matti KoivistoEetu Pietarinen</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -9315,17 +9315,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Analyysi: Ennätysmäärä ehdokkaita tavoittelee kansanedustajanpaikkaa Keski-Suomesta</t>
+          <t>Suomi kuntoon, hallitus kumoon – tällainen puolue on keskusta </t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Kolme keskisuomalaista politiikan konkaria jättää eduskunnan, mutta tilalle on tarjolla reilusti aiempaa suurempi joukko ehdokkaita.</t>
+          <t>Puoluejohtaja Juha Sipilä on tänään Ylen puheenjohtajatentissä Areenassa ja TV1:ssä klo 21. </t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Virpi Kotilainen</t>
+          <t>Matti KoivistoEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -9351,41 +9351,41 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Kristillisten Essayah teki translaista hallituskysymyksen: "Sukupuoli ei voi olla ilmoitusasia" – Lue analyysi Ylen tentistä täältä</t>
+          <t>Analyysi: Ennätysmäärä ehdokkaita tavoittelee kansanedustajanpaikkaa Keski-Suomesta</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Miten Sari Essayah pärjäsi Ylen vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Hannu Tikkala.</t>
+          <t>Kolme keskisuomalaista politiikan konkaria jättää eduskunnan, mutta tilalle on tarjolla reilusti aiempaa suurempi joukko ehdokkaita.</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Hannu TikkalaVille Seuri</t>
+          <t>Virpi Kotilainen</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>RKP:n Henriksson vaati suurempaa pakolaiskiintiötä ja parempaa oikeusturvaa turvapaikanhakijoille – Lue analyysi Ylen tentin kohokohdista</t>
+          <t>Kristillisten Essayah teki translaista hallituskysymyksen: "Sukupuoli ei voi olla ilmoitusasia" – Lue analyysi Ylen tentistä täältä</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>"Hopeavesi- ja nuuskakeskustelut tulivat päivänpoliittisten otsikkokysymysten ulkopuolelta ja siitä seurasi  hämmentävää selittelyä." Miten Anna-Maja Henriksson pärjäsi vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Heikki Valkama.</t>
+          <t>Miten Sari Essayah pärjäsi Ylen vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Hannu Tikkala.</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Heikki ValkamaVille Seuri</t>
+          <t>Hannu TikkalaVille Seuri</t>
         </is>
       </c>
     </row>
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Politiikka käyttää urheilua hyväkseen – miksi urheilu ei käytä politiikkaa?</t>
+          <t>Ranskan algerialaiset vaativat vanhan kotimaansa politiikkaan täysremonttia – Nuoret haikailevat Macronin kaltaista uudistajaa</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Eduskuntavaalit lähestyvät, mutta urheilusta ei puhu yksikään poliitikko eikä puolue. Miksi?</t>
+          <t>Presidentti Abdelaziz Bouteflikan ilmoitus olla pyrkimättä jatkokaudelle ei ole rauhoittanut protesteja. </t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Jussi Paasi</t>
+          <t>Annastiina Heikkilä</t>
         </is>
       </c>
     </row>
@@ -9415,37 +9415,37 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Ranskan algerialaiset vaativat vanhan kotimaansa politiikkaan täysremonttia – Nuoret haikailevat Macronin kaltaista uudistajaa</t>
+          <t>RKP:n Henriksson vaati suurempaa pakolaiskiintiötä ja parempaa oikeusturvaa turvapaikanhakijoille – Lue analyysi Ylen tentin kohokohdista</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Presidentti Abdelaziz Bouteflikan ilmoitus olla pyrkimättä jatkokaudelle ei ole rauhoittanut protesteja. </t>
+          <t>"Hopeavesi- ja nuuskakeskustelut tulivat päivänpoliittisten otsikkokysymysten ulkopuolelta ja siitä seurasi  hämmentävää selittelyä." Miten Anna-Maja Henriksson pärjäsi vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Heikki Valkama.</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Annastiina Heikkilä</t>
+          <t>Heikki ValkamaVille Seuri</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43540</v>
+        <v>43542</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Slovakian presidentinvaalit toiselle kierrokselle – vastakkain hallituksen äänekäs arvostelija ja maan nykyinen EU-komissaari</t>
+          <t>Politiikka käyttää urheilua hyväkseen – miksi urheilu ei käytä politiikkaa?</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Korruptiota tutkineen toimittajan murha varjostaa yhä maan politiikkaa.</t>
+          <t>Eduskuntavaalit lähestyvät, mutta urheilusta ei puhu yksikään poliitikko eikä puolue. Miksi?</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Jussi Paasi</t>
         </is>
       </c>
     </row>
@@ -9491,800 +9491,804 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43538</v>
+        <v>43540</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Kaikki vaaleista päivä päivältä: Tässä täydellinen opas politiikan superkevääseen</t>
+          <t>Slovakian presidentinvaalit toiselle kierrokselle – vastakkain hallituksen äänekäs arvostelija ja maan nykyinen EU-komissaari</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Tämä kalenteri kertoo, mitä Yle ja muu suomalainen media tarjoavat vaalien alla. Lista täydentyy pitkin kevättä.</t>
+          <t>Korruptiota tutkineen toimittajan murha varjostaa yhä maan politiikkaa.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Ville Seuri</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43536</v>
+        <v>43538</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Nuorison kiinnostus politiikkaan on kasvanut</t>
+          <t>Kaikki vaaleista päivä päivältä: Tässä täydellinen opas politiikan superkevääseen</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Vaikuttamisesta kiinnostuneet käyttävät monia keinoja osallistua.</t>
+          <t>Tämä kalenteri kertoo, mitä Yle ja muu suomalainen media tarjoavat vaalien alla. Lista täydentyy pitkin kevättä.</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ville Seuri</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43532</v>
+        <v>43536</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Analyysi: Sipilän hallituksen politiikka on ollut porvarillisinta miesmuistiin – koalition saavutukset hautautuvat soten raunioihin</t>
+          <t>Nuorison kiinnostus politiikkaan on kasvanut</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Juha Sipilän hallituksen politiikka on kärjistänyt poliittista vastakkainasettelua selvästi.</t>
+          <t>Vaikuttamisesta kiinnostuneet käyttävät monia keinoja osallistua.</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43529</v>
+        <v>43532</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Robert Sundman: Luokkakaveria mietitytti, onko Salatuista elämistä tuttu puolue hallituksessa – Nuorten on vaikea äänestää, kun politiikka loistaa arjesta poissaolollaan</t>
+          <t>Analyysi: Sipilän hallituksen politiikka on ollut porvarillisinta miesmuistiin – koalition saavutukset hautautuvat soten raunioihin</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Moni koulussa opittu asia muuttuu arjessa konkretiaksi, mutta toisin käy politiikalle. Siksi nuoret empivät vaaliuurnille lähtemistä, kirjoittaa politiikan toimittaja Robert Sundman.</t>
+          <t>Juha Sipilän hallituksen politiikka on kärjistänyt poliittista vastakkainasettelua selvästi.</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43526</v>
+        <v>43529</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Kokoomuksen Häkkänen: Rinteen puheissa vaalilaukan makua – Vaikea löytää kompromisseja, jos SDP lupaa täysin toisenlaista politiikkaa</t>
+          <t>Robert Sundman: Luokkakaveria mietitytti, onko Salatuista elämistä tuttu puolue hallituksessa – Nuorten on vaikea äänestää, kun politiikka loistaa arjesta poissaolollaan</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Kokoomuksen varapuheenjohtaja Antti Häkkänen vaatii SDP:lta kompromisseja, jotta puolueet mahtuisivat samaan hallitukseen.</t>
+          <t>Moni koulussa opittu asia muuttuu arjessa konkretiaksi, mutta toisin käy politiikalle. Siksi nuoret empivät vaaliuurnille lähtemistä, kirjoittaa politiikan toimittaja Robert Sundman.</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Johanna Östman</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43516</v>
+        <v>43526</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Anne Berner: "En ole jättämässä politiikkaa enkä keskustaa" – eduskuntaryhmässä kuohuu Bernerin ratkaisun jälkeen </t>
+          <t>Kokoomuksen Häkkänen: Rinteen puheissa vaalilaukan makua – Vaikea löytää kompromisseja, jos SDP lupaa täysin toisenlaista politiikkaa</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>"Huomenna huutoa saavat sekä Sipilä että Berner", kansanedustaja arvioi Ylelle.</t>
+          <t>Kokoomuksen varapuheenjohtaja Antti Häkkänen vaatii SDP:lta kompromisseja, jotta puolueet mahtuisivat samaan hallitukseen.</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Robert SundmanTulikukka de Fresnes</t>
+          <t>Johanna Östman</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43515</v>
+        <v>43516</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Ranskalaisnuoria ei kiinnosta politiikka – Hallitus yrittää hakea huomiota Twitchissä</t>
+          <t>Anne Berner: "En ole jättämässä politiikkaa enkä keskustaa" – eduskuntaryhmässä kuohuu Bernerin ratkaisun jälkeen </t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Ranskassa otetaan avuksi nuorten suosima Twitch-suoratoistopalvelu, jotta poliittinen keskustelu saataisiin kiinnostamaan heitäkin.</t>
+          <t>"Huomenna huutoa saavat sekä Sipilä että Berner", kansanedustaja arvioi Ylelle.</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Minna Rinta-Tassi</t>
+          <t>Robert SundmanTulikukka de Fresnes</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43488</v>
+        <v>43515</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Analyysi: Tähtääkö Timo Soini  hillotolpalle "pimeyden ytimeen"? – Kotimaan politiikka ei Soinia näytä enää kiinnostavan</t>
+          <t>Ranskalaisnuoria ei kiinnosta politiikka – Hallitus yrittää hakea huomiota Twitchissä</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Timo Soini ei ole tehnyt elettäkään, joka viittaisi hänen ehdokkuuteensa eduskuntavaaleissa. </t>
+          <t>Ranskassa otetaan avuksi nuorten suosima Twitch-suoratoistopalvelu, jotta poliittinen keskustelu saataisiin kiinnostamaan heitäkin.</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Minna Rinta-Tassi</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43484</v>
+        <v>43488</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puolustusministeri Niinistö Ykkösaamussa: Hävittäjiä voisi olla sata – vähentäminen "vastuutonta politiikkaa"</t>
+          <t>Analyysi: Tähtääkö Timo Soini  hillotolpalle "pimeyden ytimeen"? – Kotimaan politiikka ei Soinia näytä enää kiinnostavan</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Ylen kyselyn mukaan neljä puoluejohtajaa olisi valmiita vähentämään hävittäjien määrää. Nykyisiä Hornetteja hankittiin alun perin 64 kappaletta.</t>
+          <t>Timo Soini ei ole tehnyt elettäkään, joka viittaisi hänen ehdokkuuteensa eduskuntavaaleissa. </t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Johanna ÖstmanHanna Hanhinen</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43406</v>
+        <v>43484</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tunnetut radioäänet siirtyvät juontamaan A-studiota: Ykkösaamun Olli Seuri ja Politiikkaradion Sakari Sirkkanen haluavat kehittää klassikkobrändiä</t>
+          <t>Puolustusministeri Niinistö Ykkösaamussa: Hävittäjiä voisi olla sata – vähentäminen "vastuutonta politiikkaa"</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Sirkkasen kanssa A-studiota juontavat Heikki Ali-Hokka ja Annika Damström. Seuri aloittaa tammikuussa A-studio Talkin vetäjänä.</t>
+          <t>Ylen kyselyn mukaan neljä puoluejohtajaa olisi valmiita vähentämään hävittäjien määrää. Nykyisiä Hornetteja hankittiin alun perin 64 kappaletta.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Ville Vedenpää</t>
+          <t>Johanna ÖstmanHanna Hanhinen</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43275</v>
+        <v>43406</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ota politiikka haltuun kesämökin laiturilla –  kahdeksan podcastia, joilla pääset kärryille niin Trumpin kaudesta kuin sote-uudistuksen kiemuroistakin</t>
+          <t>Tunnetut radioäänet siirtyvät juontamaan A-studiota: Ykkösaamun Olli Seuri ja Politiikkaradion Sakari Sirkkanen haluavat kehittää klassikkobrändiä</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Onko saunan lämmetessä hetki aikaa ja juhannuksen soittolistat jo kuultu? Tässä kahdeksan podcast-suositusta politiikannälkään.</t>
+          <t>Sirkkasen kanssa A-studiota juontavat Heikki Ali-Hokka ja Annika Damström. Seuri aloittaa tammikuussa A-studio Talkin vetäjänä.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Matti Koivisto</t>
+          <t>Ville Vedenpää</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43255</v>
+        <v>43275</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Unto Hämäläisen kolumni: Politiikkaa hallitsee koston kierre – keskustele</t>
+          <t>Ota politiikka haltuun kesämökin laiturilla –  kahdeksan podcastia, joilla pääset kärryille niin Trumpin kaudesta kuin sote-uudistuksen kiemuroistakin</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Suomalaista politiikkaa hallitsee koston kierre, jossa uusi hallitus kostaa edellisen hallituksen "pahat" teot. Pääpuolueet ovat kukin vuorollaan kampittaneet toisiaan. Eduskunnan sote-kiista muistuttaa 90-luvun riitaa lääneistä, kirjoittaa Unto Hämäläinen. Voit keskustella aiheesta jutun lopussa.</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
+          <t>Onko saunan lämmetessä hetki aikaa ja juhannuksen soittolistat jo kuultu? Tässä kahdeksan podcast-suositusta politiikannälkään.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Matti Koivisto</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43208</v>
+        <v>43255</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Politiikka alkoi kiinnostaa Piilaaksoa – Teknologiayhtiöt nousivat suurimmiksi lobbareiksi Yhdysvalloissa</t>
+          <t>Unto Hämäläisen kolumni: Politiikkaa hallitsee koston kierre – keskustele</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Applen ja Googlen kaltaiset teknologiajätit laittavat lobbaamiseen kymmeniä miljoonia taatakseen asemansa maailman arvokkaimpina yrityksinä.</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr">
-        <is>
-          <t>Teemu Hallamaa</t>
-        </is>
-      </c>
+          <t>Suomalaista politiikkaa hallitsee koston kierre, jossa uusi hallitus kostaa edellisen hallituksen "pahat" teot. Pääpuolueet ovat kukin vuorollaan kampittaneet toisiaan. Eduskunnan sote-kiista muistuttaa 90-luvun riitaa lääneistä, kirjoittaa Unto Hämäläinen. Voit keskustella aiheesta jutun lopussa.</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43057</v>
+        <v>43208</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Verohallinnon väistyvä pääjohtaja: Miksi Yleisradio ei luovuta Panaman papereita? – "Lähdesuojahöpötystä”</t>
+          <t>Politiikka alkoi kiinnostaa Piilaaksoa – Teknologiayhtiöt nousivat suurimmiksi lobbareiksi Yhdysvalloissa</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Verohallinnon eläkkeelle jäävä pääjohtaja Pekka Ruuhonen ihmettelee, miksi Yleisradio kieltäytyy luovuttamasta Panaman paperit -veroparatiisitietovuodon materiaalia verottajalle. Ruuhosen mukaan kyse on ”lähdesuojahöpötyksestä”, koska verottaja ei ole kiinnostunut itse tietolähteestä.</t>
+          <t>Applen ja Googlen kaltaiset teknologiajätit laittavat lobbaamiseen kymmeniä miljoonia taatakseen asemansa maailman arvokkaimpina yrityksinä.</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Teemu Hallamaa</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>42802</v>
+        <v>43057</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Eduskunta käsittelee puolustusselontekoa – Yle näyttää suorana klo 14</t>
+          <t>Verohallinnon väistyvä pääjohtaja: Miksi Yleisradio ei luovuta Panaman papereita? – "Lähdesuojahöpötystä”</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Puolustusselonteko julkistettiin helmikuussa.</t>
+          <t>Verohallinnon eläkkeelle jäävä pääjohtaja Pekka Ruuhonen ihmettelee, miksi Yleisradio kieltäytyy luovuttamasta Panaman paperit -veroparatiisitietovuodon materiaalia verottajalle. Ruuhosen mukaan kyse on ”lähdesuojahöpötyksestä”, koska verottaja ei ole kiinnostunut itse tietolähteestä.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Jussi Virkkunen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>42170</v>
+        <v>42802</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Talbott arvosteli voimakkaasti Putinin politiikkaa</t>
+          <t>Eduskunta käsittelee puolustusselontekoa – Yle näyttää suorana klo 14</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Putin näyttää Strobe Talbottin mukaan toteuttavan  kansallismielistä politiikkaa, joka määrittää etnisyyden perustaksi sille, mihin valtioon ihmiset kuuluvat. Tämän tien päässä on katastrofi, hän sanoo.</t>
+          <t>Puolustusselonteko julkistettiin helmikuussa.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Ilpo Pajunen</t>
+          <t>Jussi Virkkunen</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>42044</v>
+        <v>42170</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>"Keskiolut pois kaupoista - älyllisyys takaisin politiikkaan"</t>
+          <t>Talbott arvosteli voimakkaasti Putinin politiikkaa</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Kansanedustajat Inkeri Kerola (Kesk.) ja Risto Kalliorinne (Vas.) kaipaavat politiikkaan lisää älyllisyyttä. Kansaa he raitistaisivat hieman eri tavoin. </t>
+          <t>Putin näyttää Strobe Talbottin mukaan toteuttavan  kansallismielistä politiikkaa, joka määrittää etnisyyden perustaksi sille, mihin valtioon ihmiset kuuluvat. Tämän tien päässä on katastrofi, hän sanoo.</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Timo Sipola</t>
+          <t>Ilpo Pajunen</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>41961</v>
+        <v>42044</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Pakotteisiin pohjautuva Venäjän politiikka herättää arvostelua</t>
+          <t>"Keskiolut pois kaupoista - älyllisyys takaisin politiikkaan"</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Kansainvälisen oikeuden professori ei usko pakotteiden muuttavan Putinin politiikkaa. Venäjän liike-elämän tuntija puolestaan uskoo pakotepolitiikan vahvistavan Putinin asemaa.</t>
+          <t>Kansanedustajat Inkeri Kerola (Kesk.) ja Risto Kalliorinne (Vas.) kaipaavat politiikkaan lisää älyllisyyttä. Kansaa he raitistaisivat hieman eri tavoin. </t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Jaana Kanninen</t>
+          <t>Timo Sipola</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>41917</v>
+        <v>41961</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Näkökulma: #Selfie-Stubbin "uusi politiikka" lopettaa lehmänkaupat</t>
+          <t>Pakotteisiin pohjautuva Venäjän politiikka herättää arvostelua</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Näyttää uhkaavasti siltä, että puhettaan hidastaneen joukkuepelaaja Alex Stubbin rummuttama uusi tapa tehdä politiikkaa ei ehdi vielä ennen vappua Suomeen, kirjoittaa Yle Uutisten toimittaja-tuottaja Jarno Virtanen näkökulmasssaan.</t>
+          <t>Kansainvälisen oikeuden professori ei usko pakotteiden muuttavan Putinin politiikkaa. Venäjän liike-elämän tuntija puolestaan uskoo pakotepolitiikan vahvistavan Putinin asemaa.</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Jarno Virtanen</t>
+          <t>Jaana Kanninen</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>41907</v>
+        <v>41917</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ville Haapasalo Venäjästä: "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan"</t>
+          <t>Näkökulma: #Selfie-Stubbin "uusi politiikka" lopettaa lehmänkaupat</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Venäjällä vaikuttava näyttelijä Ville Haapasalo moitti Ylen aamu-tv:n haastattelussa tapaa, jolla Suomessa suhtaudutaan Venäjään. "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan. Suomessa kukaan ei halua kertoa, mitä siellä tapahtuu. Unohdetaan, että siellä kansa kärsii ja on sota ja keskitytään sen sijaan muotoilemaan uhkakuvia."</t>
+          <t>Näyttää uhkaavasti siltä, että puhettaan hidastaneen joukkuepelaaja Alex Stubbin rummuttama uusi tapa tehdä politiikkaa ei ehdi vielä ennen vappua Suomeen, kirjoittaa Yle Uutisten toimittaja-tuottaja Jarno Virtanen näkökulmasssaan.</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Anna Takala</t>
+          <t>Jarno Virtanen</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>41900</v>
+        <v>41907</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LK: Ari Ruotsalainen harkitsee paluuta politiikkaan</t>
+          <t>Ville Haapasalo Venäjästä: "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan"</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Rovaniemen entinen kaupunginhallituksen puheenjohtaja Ari Ruotsalainen harkitsee paluuta politiikkaan, kertoo Lapin Kansa. Ruotsalaisen mukaan monet tahot ovat kysyneet häntä lähtemään keskustan kansanedustajaehdokkaaksi.</t>
+          <t>Venäjällä vaikuttava näyttelijä Ville Haapasalo moitti Ylen aamu-tv:n haastattelussa tapaa, jolla Suomessa suhtaudutaan Venäjään. "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan. Suomessa kukaan ei halua kertoa, mitä siellä tapahtuu. Unohdetaan, että siellä kansa kärsii ja on sota ja keskitytään sen sijaan muotoilemaan uhkakuvia."</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Jyri Tynkkynen</t>
+          <t>Anna Takala</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>41814</v>
+        <v>41900</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Politiikka vaikuttaa nuorten silmissä keski-ikäisten hommalta</t>
+          <t>LK: Ari Ruotsalainen harkitsee paluuta politiikkaan</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Suomalaisnuorilla on erinomaiset yhteiskunnalliset tiedot ja taidot, mutta halu vaikuttaa ympäröivään maailmaan puuttuu. Nuori vaikuttaja kannustaa hylkäämään vaatimattomuuden.</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr"/>
+          <t>Rovaniemen entinen kaupunginhallituksen puheenjohtaja Ari Ruotsalainen harkitsee paluuta politiikkaan, kertoo Lapin Kansa. Ruotsalaisen mukaan monet tahot ovat kysyneet häntä lähtemään keskustan kansanedustajaehdokkaaksi.</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Jyri Tynkkynen</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>41785</v>
+        <v>41814</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SDP:n Jaakonsaari: "Tehtävämme on palauttaa usko politiikkaan"</t>
+          <t>Politiikka vaikuttaa nuorten silmissä keski-ikäisten hommalta</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Sosiaalidemokraattien europarlamentaarikko Liisa Jaakonsaari ihmettelee, että aidosti rasistisilla kommenteilla saa ääniä politiikassa. Hän on huolestunut ääriliikkeistä, mutta pitää uusien europarlamentaarikkojen yhtenä tehtävänä palauttaa ihmisten usko politiikkaan.</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>Anne Pirskanen</t>
-        </is>
-      </c>
+          <t>Suomalaisnuorilla on erinomaiset yhteiskunnalliset tiedot ja taidot, mutta halu vaikuttaa ympäröivään maailmaan puuttuu. Nuori vaikuttaja kannustaa hylkäämään vaatimattomuuden.</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Vihreiden Satu Piispa-Hakala on koukussa politiikkaan</t>
+          <t>SDP:n Jaakonsaari: "Tehtävämme on palauttaa usko politiikkaan"</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Juvalainen Satu Piispa-Hakala on Vihreiden työmyyrä.  Vihreä politiikka on vienyt naista mennessään ja hän kuvaileekin sitä jo elämäntavaksi. </t>
+          <t>Sosiaalidemokraattien europarlamentaarikko Liisa Jaakonsaari ihmettelee, että aidosti rasistisilla kommenteilla saa ääniä politiikassa. Hän on huolestunut ääriliikkeistä, mutta pitää uusien europarlamentaarikkojen yhtenä tehtävänä palauttaa ihmisten usko politiikkaan.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Sari Ursin</t>
+          <t>Anne Pirskanen</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>41740</v>
+        <v>41771</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Kari Häkämies kirjoittaa murhista eikä haikaile politiikkaan</t>
+          <t>Vihreiden Satu Piispa-Hakala on koukussa politiikkaan</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Entinen kokoomuksen kansanedustaja ja ministeri Kari Häkämies kirjoitti neljännen dekkarinsa uudessa kotikaupungissaan Turussa. Lounais-Suomen aluehallintoviraston johtajana toimiva Häkämies ei halaja takaisin politiikkaan, vaikka sijoittaakin romaaninsa politiikan kulisseihin.</t>
+          <t>Juvalainen Satu Piispa-Hakala on Vihreiden työmyyrä.  Vihreä politiikka on vienyt naista mennessään ja hän kuvaileekin sitä jo elämäntavaksi. </t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Yrjö Hjelt</t>
+          <t>Sari Ursin</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>41663</v>
+        <v>41740</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Politiikka kiinnostaa pappeja: Arvokeskustelu ja vaikuttamisen mahdollisuus houkuttavat</t>
+          <t>Kari Häkämies kirjoittaa murhista eikä haikaile politiikkaan</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Euroopan parlamenttiin pyrkii kevään vaaleissa useita pappeja. Kunnallisella tasolla vaikuttamisessa papeilla on pitkät perinteet. </t>
+          <t>Entinen kokoomuksen kansanedustaja ja ministeri Kari Häkämies kirjoitti neljännen dekkarinsa uudessa kotikaupungissaan Turussa. Lounais-Suomen aluehallintoviraston johtajana toimiva Häkämies ei halaja takaisin politiikkaan, vaikka sijoittaakin romaaninsa politiikan kulisseihin.</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Anne-Pauliina Rytkönen</t>
+          <t>Yrjö Hjelt</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>41409</v>
+        <v>41663</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Politiikka syö sananvapautta Unkarissa</t>
+          <t>Politiikka kiinnostaa pappeja: Arvokeskustelu ja vaikuttamisen mahdollisuus houkuttavat</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Unkarin oikeistopopulistinen hallitus ulottaa valtansa sekä mediaan että kulttuuriin. Kriitikoiden mielestä nyt halutaan muuttaa mieliä: kansalaistensa ajattelua maasta, sen historiasta, sosialismin jälkeisestä ajasta ja ulkopuolella olevasta Euroopasta. </t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr"/>
+          <t>Euroopan parlamenttiin pyrkii kevään vaaleissa useita pappeja. Kunnallisella tasolla vaikuttamisessa papeilla on pitkät perinteet. </t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Anne-Pauliina Rytkönen</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>41394</v>
+        <v>41409</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Sipilä haluaa yhteistyötä politiikkaan</t>
+          <t>Politiikka syö sananvapautta Unkarissa</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Keskustan puheenjohtaja Juha Sipilä tarjoaa hallitukselle yhteistyötä sosiaali- ja terveyspalveluiden turvaamisessa ja energiapolitiikassa. Vappupuheessaan Oulun Rotuaarilla Sipilä mainosti myös keskustan politiikan vastuullisuutta.</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>Vesa Sundqvist</t>
-        </is>
-      </c>
+          <t>Unkarin oikeistopopulistinen hallitus ulottaa valtansa sekä mediaan että kulttuuriin. Kriitikoiden mielestä nyt halutaan muuttaa mieliä: kansalaistensa ajattelua maasta, sen historiasta, sosialismin jälkeisestä ajasta ja ulkopuolella olevasta Euroopasta. </t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>41348</v>
+        <v>41394</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Politiikkaa tehdään tiedostamattomien tunteiden varassa</t>
+          <t>Sipilä haluaa yhteistyötä politiikkaan</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Psykoanalyytikon ja entisen aktiivipoliitikon Claes Anderssonin mukaan paineet ovat johtaneet jopa kansanedustajan hermoromahdukseen eduskunnassa. </t>
+          <t>Keskustan puheenjohtaja Juha Sipilä tarjoaa hallitukselle yhteistyötä sosiaali- ja terveyspalveluiden turvaamisessa ja energiapolitiikassa. Vappupuheessaan Oulun Rotuaarilla Sipilä mainosti myös keskustan politiikan vastuullisuutta.</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Hilkka Säävälä</t>
+          <t>Vesa Sundqvist</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>41256</v>
+        <v>41348</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Valto Koski toivoo politiikkaa takaisin politiikkaan</t>
+          <t>Politiikkaa tehdään tiedostamattomien tunteiden varassa</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Pitkän poliittisen uran tehnyt Valto Koski johti maanantaina viimeisen kerran Kouvolan kaupunginvaltuustoa. Nyt Koskella on aikaa perheelle ja muistelmien kokoamiseen.</t>
+          <t>Psykoanalyytikon ja entisen aktiivipoliitikon Claes Anderssonin mukaan paineet ovat johtaneet jopa kansanedustajan hermoromahdukseen eduskunnassa. </t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Niklas Joki</t>
+          <t>Hilkka Säävälä</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>41191</v>
+        <v>41256</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Politiikka sai kasvot - Per Looks poiki lisää kuvablogeja</t>
+          <t>Valto Koski toivoo politiikkaa takaisin politiikkaan</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Perussuomalaisia kuvablogi ei miellyttänyt. Rumankauniista potrettisarjasta alkoi kuitenkin kuvastojen vyöry: nyt niitä on julkaistu vihreistä, piraateista ja kokoomuksestakin. </t>
+          <t>Pitkän poliittisen uran tehnyt Valto Koski johti maanantaina viimeisen kerran Kouvolan kaupunginvaltuustoa. Nyt Koskella on aikaa perheelle ja muistelmien kokoamiseen.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Teija Santaharju</t>
+          <t>Niklas Joki</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>41190</v>
+        <v>41191</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Romney maalaili uutta politiikkaa Lähi-itään</t>
+          <t>Politiikka sai kasvot - Per Looks poiki lisää kuvablogeja</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Republikaanien presidenttiehdokas maalailee Yhdysvaltojen uutta politiikkaa Lähi-itään. Romneyn mukaan presidentti Obaman linja on ollut liian lepsu ja toiveikas, Romney lupaakin tiukempaa lähestymistä useisiin kysymyksiin.</t>
+          <t>Perussuomalaisia kuvablogi ei miellyttänyt. Rumankauniista potrettisarjasta alkoi kuitenkin kuvastojen vyöry: nyt niitä on julkaistu vihreistä, piraateista ja kokoomuksestakin. </t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Teemu Toivola</t>
+          <t>Teija Santaharju</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>41178</v>
+        <v>41190</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Politiikka kiinnostaa nuoria yhä enemmän</t>
+          <t>Romney maalaili uutta politiikkaa Lähi-itään</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Nuorten kiinnostus politiikkaan on lisääntynyt. Tänään julkistetun Nuorisobarometrin mukaan nuorten luottamus toisiin ihmisiin on kuitenkin heikentynyt.</t>
+          <t>Republikaanien presidenttiehdokas maalailee Yhdysvaltojen uutta politiikkaa Lähi-itään. Romneyn mukaan presidentti Obaman linja on ollut liian lepsu ja toiveikas, Romney lupaakin tiukempaa lähestymistä useisiin kysymyksiin.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Susanna Siironen</t>
+          <t>Teemu Toivola</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>41029</v>
+        <v>41178</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Politiikka katoaa työväenlauluperinteestä</t>
+          <t>Politiikka kiinnostaa nuoria yhä enemmän</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Politiikka on häviämässä myös nykyisten työväenlaulujen sanoituksista. Vappuna kuullaan perinteisten marssien sijaan yhä enemmän nuorison suosimaa rokkia ja poppia.</t>
+          <t>Nuorten kiinnostus politiikkaan on lisääntynyt. Tänään julkistetun Nuorisobarometrin mukaan nuorten luottamus toisiin ihmisiin on kuitenkin heikentynyt.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Eero Mäntymaa</t>
+          <t>Susanna Siironen</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>41016</v>
+        <v>41029</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Nuorten kiinnostus politiikkaan viriämässä</t>
+          <t>Politiikka katoaa työväenlauluperinteestä</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Suomalaisnuoret tietävät politiikasta muita maita paremmin, mutta ovat  muita passiivisempia.</t>
+          <t>Politiikka on häviämässä myös nykyisten työväenlaulujen sanoituksista. Vappuna kuullaan perinteisten marssien sijaan yhä enemmän nuorison suosimaa rokkia ja poppia.</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t>Eero Mäntymaa</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>40992</v>
+        <v>41016</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tutkija: Edes poliitikot eivät luota politiikkaan</t>
+          <t>Nuorten kiinnostus politiikkaan viriämässä</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Poliittinen kielenkäyttö ja vastuu ovat hämärtyneet, sanoo Helsingin yliopiston poliitikan tutkija Anu Kantola. Hänen mukaansa poliitikot vierastavat puhua politiikasta, koska se viittaa hämärähommiin. Esimerkiksi kelpaavat puolustusvoimien uudistus ja Stefan Wallinin Dragsvik-puheet.</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
+          <t>Suomalaisnuoret tietävät politiikasta muita maita paremmin, mutta ovat  muita passiivisempia.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Katriina Töyrylä</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>40907</v>
+        <v>40992</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>YLE Puhe valtakunnalliseksi</t>
+          <t>Tutkija: Edes poliitikot eivät luota politiikkaan</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>YLE Puheesta tulee valtakunnallinen kanava vuoden 2012 alkaessa. Samalla Suomen ainoan puheradion profiili uudistuu. Kanavan ohjelmistoa suunnataan ruuhkavuosiaan eläville ihmisille.</t>
+          <t>Poliittinen kielenkäyttö ja vastuu ovat hämärtyneet, sanoo Helsingin yliopiston poliitikan tutkija Anu Kantola. Hänen mukaansa poliitikot vierastavat puhua politiikasta, koska se viittaa hämärähommiin. Esimerkiksi kelpaavat puolustusvoimien uudistus ja Stefan Wallinin Dragsvik-puheet.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>40861</v>
+        <v>40907</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Kiviniemi: EU-politiikkaa ei pidä alistaa puoluepolitiikalle</t>
+          <t>YLE Puhe valtakunnalliseksi</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Keskustan puheenjohtaja Mari Kiviniemi varoittaa, ettei EU-politiikkaa pidä alistaa lyhytnäköiselle puoluepolitiikalle. Hän sanoi keskustan Quo Vadis, Eurooppa -seminaarissa, että hallitus käytti vakuusasiassa valtavasti sitä poliittista pääomaa, jota olisi tarvittu tulevissa alue- ja maatalousneuvotteluissa.</t>
+          <t>YLE Puheesta tulee valtakunnallinen kanava vuoden 2012 alkaessa. Samalla Suomen ainoan puheradion profiili uudistuu. Kanavan ohjelmistoa suunnataan ruuhkavuosiaan eläville ihmisille.</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>40846</v>
+        <v>40861</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>AL: Kansa toivoo presidentiltä potkua EU-politiikkaan</t>
+          <t>Kiviniemi: EU-politiikkaa ei pidä alistaa puoluepolitiikalle</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Suomalaiset toivovat uudelta presidentiltä aktiivisempaa otetta Eurooppa-politiikkaan, kirjoittaa Aamulehti. Taloustutkimuksen tekemän kyselyn mukaan kolmannes noin 1 000 vastaajasta haluaa presidentiltä eurooppalaisia lisäpanoksia.</t>
+          <t>Keskustan puheenjohtaja Mari Kiviniemi varoittaa, ettei EU-politiikkaa pidä alistaa lyhytnäköiselle puoluepolitiikalle. Hän sanoi keskustan Quo Vadis, Eurooppa -seminaarissa, että hallitus käytti vakuusasiassa valtavasti sitä poliittista pääomaa, jota olisi tarvittu tulevissa alue- ja maatalousneuvotteluissa.</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>40631</v>
+        <v>40846</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Politiikkaohjelmat vahvistivat yhteistyötä</t>
+          <t>AL: Kansa toivoo presidentiltä potkua EU-politiikkaan</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Myös tulevan hallituksen toivotaan ottavan käyttöön poikkihallinnollisia politiikkaohjelmia ja kehittävän myös muita toimintatapoja poikkihallinnollisuuden suuntaan. Valtioneuvoston kanslia julkisti asiaa koskevan raportin tänään tiistaina.</t>
+          <t>Suomalaiset toivovat uudelta presidentiltä aktiivisempaa otetta Eurooppa-politiikkaan, kirjoittaa Aamulehti. Taloustutkimuksen tekemän kyselyn mukaan kolmannes noin 1 000 vastaajasta haluaa presidentiltä eurooppalaisia lisäpanoksia.</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>40445</v>
+        <v>40631</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tarkastusvirasto moittii politiikkaohjelmia riittämättömiksi</t>
+          <t>Politiikkaohjelmat vahvistivat yhteistyötä</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Valtiontalouden tarkastusviraston (VTV:n) mukaan hallituksen politiikkaohjelmien merkitys on nykymuodossaan melko vähäinen. Politiikkaohjelmien tarkoituksena on tehostaa hallitusohjelman toteutusta ja lisätä hallinnonalojen yhteistyötä. Viraston mielestä niillä ei ole kuitenkaan saatu aikaan oleellisia parannuksia.</t>
+          <t>Myös tulevan hallituksen toivotaan ottavan käyttöön poikkihallinnollisia politiikkaohjelmia ja kehittävän myös muita toimintatapoja poikkihallinnollisuuden suuntaan. Valtioneuvoston kanslia julkisti asiaa koskevan raportin tänään tiistaina.</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>40438</v>
+        <v>40445</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Nuorisojärjestöt: Politiikka takaisin kouluihin</t>
+          <t>Tarkastusvirasto moittii politiikkaohjelmia riittämättömiksi</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Poliittiset nuorisojärjestöt haluaisivat päästä nykyistä useammin kouluihin puhumaan politiikasta. Nuorisojärjestöjen mukaan koulut aristelevat yksittäisten poliittisten järjestöjen vierailuja leimautumisen pelossa. Poliittinen keskustelu kouluissa voisi nuorisopoliitikkojen mukaan nostaa nuorten äänestysintoa.</t>
+          <t>Valtiontalouden tarkastusviraston (VTV:n) mukaan hallituksen politiikkaohjelmien merkitys on nykymuodossaan melko vähäinen. Politiikkaohjelmien tarkoituksena on tehostaa hallitusohjelman toteutusta ja lisätä hallinnonalojen yhteistyötä. Viraston mielestä niillä ei ole kuitenkaan saatu aikaan oleellisia parannuksia.</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>

--- a/YLEparsing/articleData/yle_articles_politiikka.xlsx
+++ b/YLEparsing/articleData/yle_articles_politiikka.xlsx
@@ -400,17 +400,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rottaruno maahanmuuttajista oli liikaa Itävallan äärioikeistolaiselle vapauspuolueelle – Braunaun apulaispormestari joutuu eroamaan </t>
+          <t>Katalaaniäänestäjä pettyi perinteisiin puolueisiin ja kannattaa nyt äärioikeistoa – "Vain he voivat palauttaa Espanjan espanjalaisille"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Apulaispormestari Christian Schilcherin runo on inhottava ja syvästi rasistinen, sanoo Itävallan konservatiivinen liittokansleri Sebastian Kurz.</t>
+          <t>Espanjassa pidetään ensi sunnuntaina parlamenttivaalit. Parlamenttiin on ensi kertaa nousemassa myös äärioikeistolainen Vox-puolue.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t>Maija Salmi</t>
         </is>
       </c>
     </row>
@@ -420,17 +420,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juha Sipilä päätti kauan sitten, että eroaa, jos keskusta ei menesty vaaleissa</t>
+          <t>Nyt valta vaihtuu konkreettisesti: Uudet kansanedustajat saavat valtakirjansa ja eduskunnan puhemies nuijansa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Julkisuuteen palannut Sipilä kertoo jatkavansa rivikansanedustajana.</t>
+          <t>Tällä viikolla hallitustunnustelut kiihtyvät, eduskuntaryhmien puheenjohtajat valitaan sekä neuvotellaan valiokuntien puheenjohtajista. </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Päivi Annala</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -440,17 +440,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kaikkonen: Hallitusovi ei "kategorisesti" kiinni, vaan "viisi senttiä raollaan" – Katso videolta, miten Sipilä kommentoi eroaan</t>
+          <t>François Fillonin presidenttihaaveet kaatanut nepotismiskandaali etenee oikeuteen Ranskassa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Keskustan uusi eduskuntaryhmä kokoontui tänään ensimmäistä kertaa eduskuntavaalien jälkeen. Yle seurasi tässä artikkelissa päivän tapahtumia eduskunnassa. </t>
+          <t>Fillon oli ennakkosuosikki Ranskan presidentiksi vuoden 2017 vaalien alla, mutta skandaali romahdutti hänen suosionsa.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Antti PilkeAri HakahuhtaKristiina TolkkiMaria StenroosMerja NiilolaMiikka Kaskinen</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -460,12 +460,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kansanedustaja Al-Taee irtisanoutui eduskunnassa Israelia ja Isisiä rinnastaneista kommenteistaan: "Asia on SDP:ssä loppuunkäsitelty" </t>
+          <t>Trump haastaa oikeudessa edustajainhuoneen selvityksen hänen aiemmista liiketoimistaan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SDP ilmoitti, ettei puolue hyväksy ihmisten erottelua uskonnon tai etnisen ryhmän takia.  </t>
+          <t>Presidentin on väitetty johtaneen lainoittajiaan harhaan liioittelemalla varallisuuttaan.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -480,17 +480,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Selma Vilhusen kolumni: Eduskunta ei ole kuva kansasta pienoiskoossa, mutta se on kuva siitä, miten valta Suomessa jakautuu</t>
+          <t>Rottaruno maahanmuuttajista oli liikaa Itävallan äärioikeistolaiselle vapauspuolueelle – Braunaun apulaispormestari joutuu eroamaan </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nuoret jotka eivät äänestä ovat sekä ongelma, että sen oire, pohtii Selma Vilhunen kolumnissaan.</t>
+          <t>Apulaispormestari Christian Schilcherin runo on inhottava ja syvästi rasistinen, sanoo Itävallan konservatiivinen liittokansleri Sebastian Kurz.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -500,17 +500,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nyt valta vaihtuu konkreettisesti: Uudet kansanedustajat saavat valtakirjansa ja eduskunnan puhemies nuijansa</t>
+          <t>Kaikkonen: Hallitusovi ei "kategorisesti" kiinni, vaan "viisi senttiä raollaan" – Katso videolta, miten Sipilä kommentoi eroaan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tällä viikolla hallitustunnustelut kiihtyvät, eduskuntaryhmien puheenjohtajat valitaan sekä neuvotellaan valiokuntien puheenjohtajista. </t>
+          <t>Keskustan uusi eduskuntaryhmä kokoontui tänään ensimmäistä kertaa eduskuntavaalien jälkeen. Yle seurasi tässä artikkelissa päivän tapahtumia eduskunnassa. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t>Antti PilkeAri HakahuhtaKristiina TolkkiMaria StenroosMerja NiilolaMiikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tiistai 23.4. (radio)</t>
+          <t>Kansanedustaja Al-Taee irtisanoutui eduskunnassa Israelia ja Isisiä rinnastaneista kommenteistaan: "Asia on SDP:ssä loppuunkäsitelty" </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eduskunta aloitti tänään. Edellinen pääministeri jatkaa tavallisena kasanedustajana. Työnantajat eivät tue ulkomaalaisten kielten opiskelua. Sri Lankan pommi-iskujen syy ehkä kosto. Samsungin uuden puhelimen julkaisu siirtyy. Tänään on ollut yli 20 astetta lämmintä.</t>
+          <t>SDP ilmoitti, ettei puolue hyväksy ihmisten erottelua uskonnon tai etnisen ryhmän takia.  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ilkka Kilpeläinen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -560,17 +560,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hannakaisa Heikkinen ei usko lähtevänsä keskustan puheenjohtajakisaan</t>
+          <t>Selma Vilhusen kolumni: Eduskunta ei ole kuva kansasta pienoiskoossa, mutta se on kuva siitä, miten valta Suomessa jakautuu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hannakaisa Heikkisen mukaan olisi hankalaa yhdistää maatilan emännän, pienten lasten äidin ja keskustan puheenjohtajan tehtäviä.</t>
+          <t>Nuoret jotka eivät äänestä ovat sekä ongelma, että sen oire, pohtii Selma Vilhunen kolumnissaan.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Helmi Nykänen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Katalaaniäänestäjä pettyi perinteisiin puolueisiin ja kannattaa nyt äärioikeistoa – "Vain he voivat palauttaa Espanjan espanjalaisille"</t>
+          <t>Brexit toi tummat pilvet matkailun kasvun ylle – Lapin suurimman hotelliketjun ennakkovarauksissa hätyytellään jopa 20 prosentin laskua</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Espanjassa pidetään ensi sunnuntaina parlamenttivaalit. Parlamenttiin on ensi kertaa nousemassa myös äärioikeistolainen Vox-puolue.</t>
+          <t>Lappi on briteille se "toinen ulkomaanmatka", perinteisen etelänmatkan jälkeen. </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maija Salmi</t>
+          <t>Tapio Räihä</t>
         </is>
       </c>
     </row>
@@ -600,17 +600,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brexit toi tummat pilvet matkailun kasvun ylle – Lapin suurimman hotelliketjun ennakkovarauksissa hätyytellään jopa 20 prosentin laskua</t>
+          <t>Tiistai 23.4. (radio)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lappi on briteille se "toinen ulkomaanmatka", perinteisen etelänmatkan jälkeen. </t>
+          <t>Eduskunta aloitti tänään. Edellinen pääministeri jatkaa tavallisena kasanedustajana. Työnantajat eivät tue ulkomaalaisten kielten opiskelua. Sri Lankan pommi-iskujen syy ehkä kosto. Samsungin uuden puhelimen julkaisu siirtyy. Tänään on ollut yli 20 astetta lämmintä.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tapio Räihä</t>
+          <t>Ilkka Kilpeläinen</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>François Fillonin presidenttihaaveet kaatanut nepotismiskandaali etenee oikeuteen Ranskassa</t>
+          <t>Hannakaisa Heikkinen ei usko lähtevänsä keskustan puheenjohtajakisaan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fillon oli ennakkosuosikki Ranskan presidentiksi vuoden 2017 vaalien alla, mutta skandaali romahdutti hänen suosionsa.</t>
+          <t>Hannakaisa Heikkisen mukaan olisi hankalaa yhdistää maatilan emännän, pienten lasten äidin ja keskustan puheenjohtajan tehtäviä.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t>Helmi Nykänen</t>
         </is>
       </c>
     </row>
@@ -640,17 +640,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Trump haastaa oikeudessa edustajainhuoneen selvityksen hänen aiemmista liiketoimistaan</t>
+          <t>Juha Sipilä päätti kauan sitten, että eroaa, jos keskusta ei menesty vaaleissa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Presidentin on väitetty johtaneen lainoittajiaan harhaan liioittelemalla varallisuuttaan.</t>
+          <t>Julkisuuteen palannut Sipilä kertoo jatkavansa rivikansanedustajana.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Päivi Annala</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jännitteet Sudanissa kasvavat, kun mielenosoittajien ja armeijan neuvottelut katkesivat sunnuntaina</t>
+          <t>Eduskunta aloittelee uutta vaalikautta - kansanedustajien valtakirjat tarkastetaan tänään</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Torstaina protestoijat aikovat julkistaa oman väliaikaisen johtoneuvostonsa.</t>
+          <t>Ryhmähuoneiden seiniä siirretään jälleen, koska vaalit muuttivat ryhmien voimasuhteita.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Eduskunta aloittelee uutta vaalikautta - kansanedustajien valtakirjat tarkastetaan tänään</t>
+          <t>Pohjois-Korea: Kim Jong-un ja Vladimir Putin tapaavat pian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ryhmähuoneiden seiniä siirretään jälleen, koska vaalit muuttivat ryhmien voimasuhteita.</t>
+          <t>Tapaaminen totetuu mahdollisesti jo tällä viikolla.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -720,12 +720,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Eduskunta toivottaa kansanedustajat tervetulleeksi vaalikaudelle 2019–2022, vaikka vaalit pidetään 2023 – miksi?</t>
+          <t>Jussi Halla-aho aloittaa kansanedustajan työt heinäkuussa, jatkaa siihen asti Brysselissä</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eduskunnan tapa ilmaista vaalikauden kesto hämmensi tarkkasilmäisimmät uutisten seuraajat. Miksi vaalivuosi jää pois laskuista, eduskunnan pääsihteeri Maija-Leena Paavola?</t>
+          <t>Halla-aho istuu meppikautensa loppuun Euroopan parlamentissa.  Hänen mukaansa ratkaisu ei tule vaikuttamaan perussuomalaisten edellytyksiin osallistua hallitustunnusteluihin.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pohjois-Korea: Kim Jong-un ja Vladimir Putin tapaavat pian</t>
+          <t>30-vuotias lähihoitaja Outokummusta nousi eduskuntaan – perussuomalaisten uusista kansanedustajista moni on hoitaja tai yrittäjä</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tapaaminen totetuu mahdollisesti jo tällä viikolla.</t>
+          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Joukossa on useita hoiva-alalla työskenteleviä naisia.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Laura KosonenPetri VironenMaria Bonnor</t>
         </is>
       </c>
     </row>
@@ -760,17 +760,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho aloittaa kansanedustajan työt heinäkuussa, jatkaa siihen asti Brysselissä</t>
+          <t>Vladimir Putin ei aio onnitella Ukrainan uutta presidenttiä – ainakaan vielä</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Halla-aho istuu meppikautensa loppuun Euroopan parlamentissa.  Hänen mukaansa ratkaisu ei tule vaikuttamaan perussuomalaisten edellytyksiin osallistua hallitustunnusteluihin.</t>
+          <t>Venäjän presidentin tiedottajan mukaan on vielä liian aikaista puhua onnitteluista tai yhteistyöstä.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t>Simo Ortamo</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30-vuotias lähihoitaja Outokummusta nousi eduskuntaan – perussuomalaisten uusista kansanedustajista moni on hoitaja tai yrittäjä</t>
+          <t>Miksi samat ihmiset epäilevät ilmastonmuutosta ja vastustavat maahanmuuttoa? Sitä selittää yksi piirre, jonka vuoksi ilmastonmuutoksesta pitäisi puhua eri tavoin</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Joukossa on useita hoiva-alalla työskenteleviä naisia.</t>
+          <t>Kirsti M. Jylhä tutkii, millainen poliittinen suuntaus ja maailmankuva voivat johtaa ilmastonmuutoksen epäilyyn.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Laura KosonenPetri VironenMaria Bonnor</t>
+          <t>Hanna Eskonen</t>
         </is>
       </c>
     </row>
@@ -800,17 +800,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vladimir Putin ei aio onnitella Ukrainan uutta presidenttiä – ainakaan vielä</t>
+          <t>Jännitteet Sudanissa kasvavat, kun mielenosoittajien ja armeijan neuvottelut katkesivat sunnuntaina</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Venäjän presidentin tiedottajan mukaan on vielä liian aikaista puhua onnitteluista tai yhteistyöstä.</t>
+          <t>Torstaina protestoijat aikovat julkistaa oman väliaikaisen johtoneuvostonsa.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Simo Ortamo</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -820,17 +820,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Miksi samat ihmiset epäilevät ilmastonmuutosta ja vastustavat maahanmuuttoa? Sitä selittää yksi piirre, jonka vuoksi ilmastonmuutoksesta pitäisi puhua eri tavoin</t>
+          <t>Eduskunta toivottaa kansanedustajat tervetulleeksi vaalikaudelle 2019–2022, vaikka vaalit pidetään 2023 – miksi?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kirsti M. Jylhä tutkii, millainen poliittinen suuntaus ja maailmankuva voivat johtaa ilmastonmuutoksen epäilyyn.</t>
+          <t>Eduskunnan tapa ilmaista vaalikauden kesto hämmensi tarkkasilmäisimmät uutisten seuraajat. Miksi vaalivuosi jää pois laskuista, eduskunnan pääsihteeri Maija-Leena Paavola?</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hanna Eskonen</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -840,12 +840,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Viisi huippujuttua sunnuntai-iltaan: Yhteisö, jossa lapset ovat kiellettyjä ja perussuomalaiset eivät ole vain unohdetun kansan puolue</t>
+          <t>Herätys: Kokosimme Rinteen vaalilupaukset, Ukrainaa hallitsee koomikko tai suklaakuningas, lämmin sää jatkuu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Luitko jo nämä? Kokosimme sinulle viikon parhaita juttuja, jotka saatoit arjen kiireessä ohittaa.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Zelenskyin politiikka on täysi arvoitus" – 6 pointtia Ukrainan presidentinvaaleista </t>
+          <t>Viisi huippujuttua sunnuntai-iltaan: Yhteisö, jossa lapset ovat kiellettyjä ja perussuomalaiset eivät ole vain unohdetun kansan puolue</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ukrainalaiset äänestävät parhaillaan presidentinvaalien toisella kierroksella. Vastakkain ovat tv-koomikko Volodymyr Zelenskyi, 41, ja istuva presidentti Petro Porošenko, 53. </t>
+          <t>Luitko jo nämä? Kokosimme sinulle viikon parhaita juttuja, jotka saatoit arjen kiireessä ohittaa.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mikko Haapanen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Satanen eläkeläisille, hoitotakuu kaikille – Antti Rinteen 10 vaalilupausta</t>
+          <t>Ukrainassa presidenttiä näyttelevästä koomikosta on tulossa oikea presidentti – Miksi kansa päätyi protestiehdokkaan taakse?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hallitusneuvottelut testaavat puolueiden vaalilupauksia. Paine kohdistuu erityisesti SDP:n Antti Rinteeseen.</t>
+          <t>Petro Porošenkon tiukan nationalistinen vaalikampanja kostautui, arvioivat tutkijat. Tv-tähti Volodymyr Zelenskyin äänestäjät voivat pettyä nopeasti. </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Lauri Miikkulainen</t>
+          <t>Heikki Heiskanen</t>
         </is>
       </c>
     </row>
@@ -900,17 +900,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Herätys: Kokosimme Rinteen vaalilupaukset, Ukrainaa hallitsee koomikko tai suklaakuningas, lämmin sää jatkuu</t>
+          <t>Satanen eläkeläisille, hoitotakuu kaikille – Antti Rinteen 10 vaalilupausta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Hallitusneuvottelut testaavat puolueiden vaalilupauksia. Paine kohdistuu erityisesti SDP:n Antti Rinteeseen.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Lauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ukrainassa presidenttiä näyttelevästä koomikosta on tulossa oikea presidentti – Miksi kansa päätyi protestiehdokkaan taakse?</t>
+          <t>"Zelenskyin politiikka on täysi arvoitus" – 6 pointtia Ukrainan presidentinvaaleista </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Petro Porošenkon tiukan nationalistinen vaalikampanja kostautui, arvioivat tutkijat. Tv-tähti Volodymyr Zelenskyin äänestäjät voivat pettyä nopeasti. </t>
+          <t>Ukrainalaiset äänestävät parhaillaan presidentinvaalien toisella kierroksella. Vastakkain ovat tv-koomikko Volodymyr Zelenskyi, 41, ja istuva presidentti Petro Porošenko, 53. </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Heikki Heiskanen</t>
+          <t>Mikko Haapanen</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Koomikko Volodymyr Zelenskyi on Ukrainan presidentinvaalien vahva suosikki – Odessalaiset odottavat uudelta presidentiltä muutosta</t>
+          <t>Hussein al-Taee nauttii edelleen CMI:n luottamusta</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Uusien mielipidetutkimusten mukaan Zelenskyin kannatus on jo yli 70 prosenttia. Presidentinvaalien toinen kierros pidetään huomenna sunnuntaina.</t>
+          <t>Työt CMI:ssä jäävät tauolle kansanedustajuuden ajaksi. Al-Taee on pahoitellut pahennusta herättäneitä kommenttejaan.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kerstin Kronvall</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nämä pudokkaat nousevat eduskuntaan, jos "tuplaehdokkaat" valitaan EU-parlamenttiin: Touko Aalto, Toimi Kankaanniemi, Aki Ruotsala...</t>
+          <t>Republikaanien Mitt Romney kertoo tyrmistyneensä paljastuksista</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Professori toivoo puolueilta, että kaksiin vaaleihin ehdolle asettuvat kertoisivat aikeistaan avoimesti.</t>
+          <t>– Minua kuvottaa se, kuinka laajaa ja kokonaisvaltaista epärehellisyyttä ja harhaanjohtamista maan korkeimmissa viroissa olevat henkilöt, presidentti mukaan lukien, ovat harjoittaneet, Romney sanoi tiedotteessa.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tulikukka de Fresnes</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -980,17 +980,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Halla-aho ei irtisanoudu vanhoista blogikirjoituksistaan</t>
+          <t>Kovan brexitin johtohahmo on kuin yläluokkainen sketsihahmo menneestä maailmasta – taustalla on armoton näkemys yhteiskunnasta  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Puoluejohtajan mukaan toimittajalta poistettiin kiirastorstaina mikrofoni, koska kysymykset eivät istuneet tapahtuman aiheeseen.</t>
+          <t>Britannian brexit-kiista on synnyttänyt uusi poliittisia tähtiä. Yksi heistä on kulttihahmoksi noussut Jacob Rees-Mogg.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Esko Varho</t>
         </is>
       </c>
     </row>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kovan brexitin johtohahmo on kuin yläluokkainen sketsihahmo menneestä maailmasta – taustalla on armoton näkemys yhteiskunnasta  </t>
+          <t>Koomikko Volodymyr Zelenskyi on Ukrainan presidentinvaalien vahva suosikki – Odessalaiset odottavat uudelta presidentiltä muutosta</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Britannian brexit-kiista on synnyttänyt uusi poliittisia tähtiä. Yksi heistä on kulttihahmoksi noussut Jacob Rees-Mogg.</t>
+          <t>Uusien mielipidetutkimusten mukaan Zelenskyin kannatus on jo yli 70 prosenttia. Presidentinvaalien toinen kierros pidetään huomenna sunnuntaina.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Esko Varho</t>
+          <t>Kerstin Kronvall</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hussein al-Taee nauttii edelleen CMI:n luottamusta</t>
+          <t>Perussuomalaisten Halla-aho ei irtisanoudu vanhoista blogikirjoituksistaan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Työt CMI:ssä jäävät tauolle kansanedustajuuden ajaksi. Al-Taee on pahoitellut pahennusta herättäneitä kommenttejaan.</t>
+          <t>Puoluejohtajan mukaan toimittajalta poistettiin kiirastorstaina mikrofoni, koska kysymykset eivät istuneet tapahtuman aiheeseen.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Republikaanien Mitt Romney kertoo tyrmistyneensä paljastuksista</t>
+          <t>Nämä pudokkaat nousevat eduskuntaan, jos "tuplaehdokkaat" valitaan EU-parlamenttiin: Touko Aalto, Toimi Kankaanniemi, Aki Ruotsala...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>– Minua kuvottaa se, kuinka laajaa ja kokonaisvaltaista epärehellisyyttä ja harhaanjohtamista maan korkeimmissa viroissa olevat henkilöt, presidentti mukaan lukien, ovat harjoittaneet, Romney sanoi tiedotteessa.</t>
+          <t>Professori toivoo puolueilta, että kaksiin vaaleihin ehdolle asettuvat kertoisivat aikeistaan avoimesti.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Tulikukka de Fresnes</t>
         </is>
       </c>
     </row>
@@ -1080,17 +1080,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho kirjoitti blogiinsa kahden vuoden hiljaiselon jälkeen – kokosi tylyt luvut loikkareista</t>
+          <t>Rökäletappio eduskuntavaaleissa leikkaa keskustan puoluetukea miljoonilla – Puoluesihteeri: "Totta kai se on ikävä tunne"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PS:n puheenjohtajana Halla-aho ei ollut vielä kertaakaan aiemmin kirjoittanut polemiikkia nostattaneeseen blogiinsa.</t>
+          <t>Vaalivoiton saaneissa vihreissä lisärahan käyttöä ei ole ehditty vielä pohtia.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -1140,18 +1140,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Trump ei saanut puhtaita papereita Venäjä-raportista, demokraatit harkitsevat seuraavaa siirtoaan – lue tästä raportin jälkipuinnin pääkohdat</t>
+          <t>Jussi Halla-aho kirjoitti blogiinsa kahden vuoden hiljaiselon jälkeen – kokosi tylyt luvut loikkareista</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Demokraattien mielestä tutkinnan löydökset ovat paljon luultua vakavampia. Presidentin vieminen valtakunnanoikeuteen kuitenkin jakaa ja epäilyttää demokraatteja.
-</t>
+          <t>PS:n puheenjohtajana Halla-aho ei ollut vielä kertaakaan aiemmin kirjoittanut polemiikkia nostattaneeseen blogiinsa.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Johanna Kippo</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1160,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rökäletappio eduskuntavaaleissa leikkaa keskustan puoluetukea miljoonilla – Puoluesihteeri: "Totta kai se on ikävä tunne"</t>
+          <t>Trump ei saanut puhtaita papereita Venäjä-raportista, demokraatit harkitsevat seuraavaa siirtoaan – lue tästä raportin jälkipuinnin pääkohdat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vaalivoiton saaneissa vihreissä lisärahan käyttöä ei ole ehditty vielä pohtia.</t>
+          <t>Demokraattien mielestä tutkinnan löydökset ovat paljon luultua vakavampia. Presidentin vieminen valtakunnanoikeuteen kuitenkin jakaa ja epäilyttää demokraatteja.
+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Johanna Kippo</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Saara Särmän kolumni: Ihmiset ovat somessa todella ihania ja ärsyttäviä</t>
+          <t>Kreikka vaatii Saksalta sotakorvauksia natsimiehityksen ajalta – Saksa: "Asia on loppuunkäsitelty"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sosiaalinen media on juuri sellainen, millaiseksi me ihmiset sen teemme, pohtii Saara Särmä.</t>
+          <t>Kreikan parlamentin mukaan Saksa on sille velkaa yli 300 miljardia euroa.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Petri Burtsov</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Viro sai hallituksen – yksi hallituspuolueiden kansanedustaja äänesti oikeistopopulismia vastaan</t>
+          <t>Eduskuntavaalien äänikuningatar Sari Essayah lähtee eurovaaleihin, mutta asettaa hallituspaikan ykköseksi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pääministeri Jüri Ratas vakuutti, että hallitus on kaikkien virolaisten hallitus, joka tukee oikeusvaltiota ja sananvapautta. </t>
+          <t>KD:n Sari Essayah luopuu meppipaikastaan, jos kristilliset nousee hallitukseen ja hän saa ministeripaikan.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Anniina Wallius</t>
+          <t>Helmi Nykänen</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Yle seurasi: Sote-konkari Krista Kiuru valittiin hallitusneuvottelijoiden joukkoon ja Rinne vakuutti kaikkien puolueiden olevan yhä mukana</t>
+          <t>Perussuomalaiset ei ole vain "unohdetun kansan" puolue – katso miten tulot tai työttömyys vaikuttavat vaalitulokseen alueellasi</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Matti Putkonen syytti, että puolue on kabineteissa suljettu ulos hallituksesta.</t>
+          <t>Millaisia ihmisiä kotikulmillasi asuu ja miten teillä äänestettiin? Entä naapurissa? Katsele vaalitulosta uusin silmin.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Anne Orjala</t>
+          <t>Janne ToivonenEemeli MarttiPasi PeiponenJuha RissanenLinus Lång</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Neljä kainuulaista on ehdolla eurovaaleissa</t>
+          <t>Toistakymmentä pohjalaista eurovaalilistoilla – mukana myös juuri eduskuntaan valitut perussuomalaisten Mauri Peltokangas ja kristillisdemokraattien Peter Östman</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton Merja Kyllönen ottaa paikan vastaan eduskunnassa, vaikka onkin ehdolla eurovaaleissa.</t>
+          <t>Pohjalaiset ovat hyvin edustettuina puolueiden eurovaaliehdokaslistoilla. </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Päivi Rautanen</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Yli 150 ihmisen pelätään kuolleen lauttaturmassa Kongossa</t>
+          <t>Saara Särmän kolumni: Ihmiset ovat somessa todella ihania ja ärsyttäviä</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Onnettomuuden syy ei ole selvillä, mutta Kivujärvellä kulkevat alukset ovat usein ylikuormitettuja. </t>
+          <t>Sosiaalinen media on juuri sellainen, millaiseksi me ihmiset sen teemme, pohtii Saara Särmä.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kreikka vaatii Saksalta sotakorvauksia natsimiehityksen ajalta – Saksa: "Asia on loppuunkäsitelty"</t>
+          <t>Ääniharavana eduskuntaan noussut perussuomalaisten Mauri Peltokangas eurovaaliehdokkaaksi – SDP:n Jutta Urpilainen ei ehdolla</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kreikan parlamentin mukaan Saksa on sille velkaa yli 300 miljardia euroa.</t>
+          <t>Keski-Pohjanmaan alueelta europarlamenttivaaleihin lähtee viisi ehdokasta, joista kaksi valittiin juuri kansanedustajiksi.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Petri Burtsov</t>
+          <t>Riikka Oosi</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Muellerin raportti julkaistaan – kiinnitä huomio näihin viiteen kohtaan</t>
+          <t>STT: Eduskuntaan valittu Hussein al-taee pyytää anteeksi vanhoja Facebook-päivityksiään – Rinnasti niissä Israelin ja Isisin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Raporttia ei vieläkään julkaista täysin, mutta se antanee lisävalaisua kysymyksiin Muellerin Venäjä-tutkinnasta.</t>
+          <t>Hussein al-Taee ei kiistä avoimista Facebook-ryhmistä edelleen löytyvien kommenttien aitoutta.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ojala-Niemelästä jälleen eduskuntaryhmän varapuheenjohtaja</t>
+          <t>Yli 150 ihmisen pelätään kuolleen lauttaturmassa Kongossa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rovaniemeläisedustaja on ollut ryhmänsä varapuheenjohtaja myös aiemmin.</t>
+          <t>Onnettomuuden syy ei ole selvillä, mutta Kivujärvellä kulkevat alukset ovat usein ylikuormitettuja. </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Oulun vaalipiirin kansanedustajista EU-vaaliehdokkaina ovat Hanna Sarkkinen, Merja Kyllönen ja Sebastian Tynkkynen</t>
+          <t>Neljä kainuulaista on ehdolla eurovaaleissa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Politiikka seuraava bloggaaja Ville Koivuniemi ei tuomitsisi tuplaehdokkaita äänestäjien vedättämisestä.</t>
+          <t>Vasemmistoliiton Merja Kyllönen ottaa paikan vastaan eduskunnassa, vaikka onkin ehdolla eurovaaleissa.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Päivi Annala</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Torstai 18.4.2019 (radio)</t>
+          <t>Viro sai hallituksen – yksi hallituspuolueiden kansanedustaja äänesti oikeistopopulismia vastaan</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Viro on saanut uuden hallituksen. Madeiran lomasaarella tapahtui bussionnettomuus. Valmet Automotive palkkaa lisää työntekijöitä. Pääsiäinen tuo muutoksia liikenteeseen. Pääsiäisenä on hyvä ulkoilusää.</t>
+          <t>Pääministeri Jüri Ratas vakuutti, että hallitus on kaikkien virolaisten hallitus, joka tukee oikeusvaltiota ja sananvapautta. </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Pertti Seppä</t>
+          <t>Anniina Wallius</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Laura Huhtasaari lähtee europarlamenttivaaleihin</t>
+          <t>Yhdysvallat kiristää sanktioitaan Latinalaisessa Amerikassa – matkustusta Kuubaan rajoitetaan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Huhtasaari keräsi Satakunnassa eduskuntavaaleissa yli kymmenen prosenttia vaalipiirissä annetuista äänistä.</t>
+          <t>Turvallisuusneuvonantaja kutsui Kuubaa, Venezuelaa ja Nicaraguaa "tyrannian troikaksi".</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Markus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Europarlamenttiin tarjolla ainakin viisi eteläsavolaista</t>
+          <t>Kärnä: Keskusta todennäköisesti oppositioon</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Puolueet ovat jättäneet tänään ehdokaslistansa toukokuun lopun eurovaaleihin.</t>
+          <t>Mikko Kärnän (kesk.) mukaan keskustalla pitää olla tiukat ehdot, mikäli puolue lähtisikin hallitukseen.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jaakko Palvaila</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tarkastuslaskennassa hyväksyttiin kymmeniä uusia ääniä Oulun vaalipiirissä</t>
+          <t>Europarlamenttiin tarjolla ainakin viisi eteläsavolaista</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vaalipiirilautakunnat vahvistivat tarkistuslaskentojen tulokset keskiviikkona.</t>
+          <t>Puolueet ovat jättäneet tänään ehdokaslistansa toukokuun lopun eurovaaleihin.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Markus Leskinen</t>
+          <t>Jaakko Palvaila</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ääniharavana eduskuntaan noussut perussuomalaisten Mauri Peltokangas eurovaaliehdokkaaksi – SDP:n Jutta Urpilainen ei ehdolla</t>
+          <t>Viidelle Lapin kansanedustajalle palkkioihin korotus: +229 euroa ja +331 euroa kuussa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Keski-Pohjanmaan alueelta europarlamenttivaaleihin lähtee viisi ehdokasta, joista kaksi valittiin juuri kansanedustajiksi.</t>
+          <t>Pisimpään eduskunnassa olleiden Markus Mustajärven (vas.) ja Johanna Ojala-Niemelän (sd.) palkkiot nousevat 7408 euroon kuukaudessa.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Riikka Oosi</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien äänikuningatar Sari Essayah lähtee eurovaaleihin, mutta asettaa hallituspaikan ykköseksi</t>
+          <t>Video: Perussuomalaisten tiedotustilaisuus kuumeni – toimittaja kysyi Halla-aholta vanhoista blogiteksteistä, Putkonen keskeytti</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>KD:n Sari Essayah luopuu meppipaikastaan, jos kristilliset nousee hallitukseen ja hän saa ministeripaikan.</t>
+          <t>Perussuomalaisten tiedotustilaisuudessa nähtiin erikoinen show, kun Halla-aho ei suostunut vastaamaan toimittajan kysymykseen. </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Helmi Nykänen</t>
+          <t>Tatu Kuukkanen</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Mauri Peltokangas eurovaaliehdokkuudestaan: "Kun koutsi käskee, pelaaja tekee"</t>
+          <t>Puolueiden ehdokaslistat selvillä: Laura Huhtasaari lähtee eurovaaleihin, Timo Soini ei  </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eduskuntavaalikampanjointi meinasi viedä mehut, silti Mauri Peltokangas on heti valmiina uudelleen kentälle.</t>
+          <t>Eurovaaliehdokkaiksi on ilmaantunut useita kansanedustajaksi valittuja tunnettuja henkilöitä. KD:n Sari Essayah asettaa hallituspaikan ykköseksi.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kati Latva-Teikari</t>
+          <t>Marjatta RautioTiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kärnä: Keskusta todennäköisesti oppositioon</t>
+          <t>"En ole ollut vankilassa, olen ollut politiikassa" – Timo Soinin ura jytkyineen ja sotkuineen: Katso 90-luvun nousevan tähden haastattelu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mikko Kärnän (kesk.) mukaan keskustalla pitää olla tiukat ehdot, mikäli puolue lähtisikin hallitukseen.</t>
+          <t>Soinin poliittisen uran vuoristoradassa oli pitkä nousu huipulle. Sitä seurannut jyrkkä pudotus yllätti jokaisen.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Tiina LänkinenVarpu HelpinenAnne Orjala</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>STT: Eduskuntaan valittu Hussein al-taee pyytää anteeksi vanhoja Facebook-päivityksiään – Rinnasti niissä Israelin ja Isisin</t>
+          <t>Timo Soini ei lähde ehdolle eurovaaleihin – "Minä lähden politiikasta, hyväntuulisena, hyvillä mielin"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hussein al-Taee ei kiistä avoimista Facebook-ryhmistä edelleen löytyvien kommenttien aitoutta.</t>
+          <t>Hän kirjoittaa hoitavansa ministeripestinsä loppuun ja olevansa sen jälkeen vapaa suomalainen mies.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Hanna Hanhinen</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Yhdysvallat kiristää sanktioitaan Latinalaisessa Amerikassa – matkustusta Kuubaan rajoitetaan</t>
+          <t>Oulun vaalipiirin kansanedustajista EU-vaaliehdokkaina ovat Hanna Sarkkinen, Merja Kyllönen ja Sebastian Tynkkynen</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Turvallisuusneuvonantaja kutsui Kuubaa, Venezuelaa ja Nicaraguaa "tyrannian troikaksi".</t>
+          <t>Politiikka seuraava bloggaaja Ville Koivuniemi ei tuomitsisi tuplaehdokkaita äänestäjien vedättämisestä.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Markus Heikkilä</t>
+          <t>Päivi Annala</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Puolueiden ehdokaslistat selvillä: Laura Huhtasaari lähtee eurovaaleihin, Timo Soini ei  </t>
+          <t>Ojala-Niemelästä jälleen eduskuntaryhmän varapuheenjohtaja</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eurovaaliehdokkaiksi on ilmaantunut useita kansanedustajaksi valittuja tunnettuja henkilöitä. KD:n Sari Essayah asettaa hallituspaikan ykköseksi.</t>
+          <t>Rovaniemeläisedustaja on ollut ryhmänsä varapuheenjohtaja myös aiemmin.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Marjatta RautioTiina Länkinen</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -1581,17 +1581,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Timo Soini ei lähde ehdolle eurovaaleihin – "Minä lähden politiikasta, hyväntuulisena, hyvillä mielin"</t>
+          <t>Perussuomalaisten Laura Huhtasaari lähtee europarlamenttivaaleihin</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hän kirjoittaa hoitavansa ministeripestinsä loppuun ja olevansa sen jälkeen vapaa suomalainen mies.</t>
+          <t>Huhtasaari keräsi Satakunnassa eduskuntavaaleissa yli kymmenen prosenttia vaalipiirissä annetuista äänistä.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hanna Hanhinen</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Toistakymmentä pohjalaista eurovaalilistoilla – mukana myös juuri eduskuntaan valitut perussuomalaisten Mauri Peltokangas ja kristillisdemokraattien Peter Östman</t>
+          <t>Muellerin raportti julkaistaan – kiinnitä huomio näihin viiteen kohtaan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pohjalaiset ovat hyvin edustettuina puolueiden eurovaaliehdokaslistoilla. </t>
+          <t>Raporttia ei vieläkään julkaista täysin, mutta se antanee lisävalaisua kysymyksiin Muellerin Venäjä-tutkinnasta.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Päivi Rautanen</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Perussuomalaiset ei ole vain "unohdetun kansan" puolue – katso miten tulot tai työttömyys vaikuttavat vaalitulokseen alueellasi</t>
+          <t>Torstai 18.4.2019 (radio)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Millaisia ihmisiä kotikulmillasi asuu ja miten teillä äänestettiin? Entä naapurissa? Katsele vaalitulosta uusin silmin.</t>
+          <t>Viro on saanut uuden hallituksen. Madeiran lomasaarella tapahtui bussionnettomuus. Valmet Automotive palkkaa lisää työntekijöitä. Pääsiäinen tuo muutoksia liikenteeseen. Pääsiäisenä on hyvä ulkoilusää.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Janne ToivonenEemeli MarttiPasi PeiponenJuha RissanenLinus Lång</t>
+          <t>Pertti Seppä</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Video: Perussuomalaisten tiedotustilaisuus kuumeni – toimittaja kysyi Halla-aholta vanhoista blogiteksteistä, Putkonen keskeytti</t>
+          <t>Tarkastuslaskennassa hyväksyttiin kymmeniä uusia ääniä Oulun vaalipiirissä</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Perussuomalaisten tiedotustilaisuudessa nähtiin erikoinen show, kun Halla-aho ei suostunut vastaamaan toimittajan kysymykseen. </t>
+          <t>Vaalipiirilautakunnat vahvistivat tarkistuslaskentojen tulokset keskiviikkona.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tatu Kuukkanen</t>
+          <t>Markus Leskinen</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"En ole ollut vankilassa, olen ollut politiikassa" – Timo Soinin ura jytkyineen ja sotkuineen: Katso 90-luvun nousevan tähden haastattelu</t>
+          <t>Perussuomalaisten Mauri Peltokangas eurovaaliehdokkuudestaan: "Kun koutsi käskee, pelaaja tekee"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Soinin poliittisen uran vuoristoradassa oli pitkä nousu huipulle. Sitä seurannut jyrkkä pudotus yllätti jokaisen.</t>
+          <t>Eduskuntavaalikampanjointi meinasi viedä mehut, silti Mauri Peltokangas on heti valmiina uudelleen kentälle.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tiina LänkinenVarpu HelpinenAnne Orjala</t>
+          <t>Kati Latva-Teikari</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Viidelle Lapin kansanedustajalle palkkioihin korotus: +229 euroa ja +331 euroa kuussa</t>
+          <t>Yle seurasi: Sote-konkari Krista Kiuru valittiin hallitusneuvottelijoiden joukkoon ja Rinne vakuutti kaikkien puolueiden olevan yhä mukana</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pisimpään eduskunnassa olleiden Markus Mustajärven (vas.) ja Johanna Ojala-Niemelän (sd.) palkkiot nousevat 7408 euroon kuukaudessa.</t>
+          <t>Perussuomalaisten Matti Putkonen syytti, että puolue on kabineteissa suljettu ulos hallituksesta.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Anne Orjala</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ovatko perussuomalaiset vasemmalla vai oikealla? Tutkija: "Suuri joukko uusia edustajia on musta hevonen" – tiukka maahanmuuttolinja yhdistää</t>
+          <t>Ylijohtaja Varhila: Sote-uudistuksella on kiire – Suomesta loppuvat kymmenen vuoden päästä lähihoitajat </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Siksi heidän linjauksiaan muussa kuin maahanmuutossa on vaikea tietää.</t>
+          <t>Sosiaali- ja terveysministeriö ei usko, että terveyskeskusten uudistaminen riittää. </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ville Vedenpää</t>
+          <t>Kristiina Tolkki</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Ville Tavio: En lähde eurovaaliehdokkaaksi</t>
+          <t>Juha Sipilän 8 vuotta kestänyt poliittinen ura muistetaan kätilöistä, kikystä ja sotesotkuista</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ville Tavio kertoo päätöksestään eurovaaleihin liittyen Facebook-sivuillaan.</t>
+          <t>Keskustan puheenjohtajan tehtävät jättävä Juha Sipilä on outolintu puoluejohtajien joukossa. </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Johanna Lehtola</t>
+          <t>Ari Mölsä</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ylijohtaja Varhila: Sote-uudistuksella on kiire – Suomesta loppuvat kymmenen vuoden päästä lähihoitajat </t>
+          <t>Kokoomuspiirin toiminnanjohtaja vaihtuu</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sosiaali- ja terveysministeriö ei usko, että terveyskeskusten uudistaminen riittää. </t>
+          <t>Pohjanmaan Kokoomuksen toiminnanjohtaja Daniel Lahti lähtee muihin töihin. Riikka Varila toimii tehtävässä ainakin kesään saakka.  </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Kristiina Tolkki</t>
+          <t>Päivi Rautanen</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Juha Sipilän 8 vuotta kestänyt poliittinen ura muistetaan kätilöistä, kikystä ja sotesotkuista</t>
+          <t>Vanhojen kansanedustajien palkkioihin tuntuva korotus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Keskustan puheenjohtajan tehtävät jättävä Juha Sipilä on outolintu puoluejohtajien joukossa. </t>
+          <t>Vanhojen kansanedustajien palkkioihin tulee noin 300 euron kuukausittainen korotus.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ari Mölsä</t>
+          <t>Jussi Salokorpi</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lapin kansanedustajat verottaisivat kaivoksia</t>
+          <t>Haluatko tietää, mitä kansanedustajasi saa aikaan? Voitto-robotti valvoo uutta eduskuntaa puolestasi</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Täysin varauksetonta tukea kaivosten verottaminen ei kuitenkaan kaikilta saa.</t>
+          <t>Ylen uutiskirjekokeilu seuraa jokaisen kansanedustajan aktiivisuutta eduskunnassa. Tästä jutusta löydät ohjeet oman edustajasi kirjeen tilaamiseen sähköpostiisi.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Teemu Kiviniemi</t>
         </is>
       </c>
     </row>
@@ -1801,17 +1801,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ensimmäinen karu ennustus kävi toteen ja Tiina Elovaaralta lähti alta puolue ja työ: Nyt hän haluaa perussuomalaiset hallitukseen </t>
+          <t>Sitran jykevä veroavaus saa hallitusneuvotteluihin valmistautuvilta puolueilta pääosin myönteisen vastaanoton – perussuomalaiset tyrmää täysin</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sinisten pudonnut kansanedustaja Tiina Elovaara haluaa perussuomalaiset hallitukseen. Hänen oma tarinansa on kaikkea muuta kuin tylsä.</t>
+          <t>
+Sitra ehdottaa mittavaa verojärjestelmän uudistusta kestävän kehityksen mallissaan. </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Anu Leena Koskinen</t>
+          <t>Anne OrjalaPekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1822,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Turkulainen opiskelija arvioi täysin oikein keskustan vaalitappion ja nuorimman läpi päässeen – voitti Ylen vaaliveikkauksen</t>
+          <t>KSML: Teuvo Hakkarainen lähtee eurovaaliehdokkaaksi</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ylen vaaliveikkaukseen osallistui lähes 4000 lukijaa.  </t>
+          <t>Perussuomalaisten viitasaarelainen kansanedustaja Teuvo Hakkarainen on valittu puolueen ehdokkaaksi europarlamenttivaaleihin. </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Heli Suominen</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1842,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vanhojen kansanedustajien palkkioihin tuntuva korotus</t>
+          <t>Etelä-Savon maakuntahallitus ei kannata Joroisten ja Heinäveden maakuntavaihdoksia</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vanhojen kansanedustajien palkkioihin tulee noin 300 euron kuukausittainen korotus.</t>
+          <t>Maakuntahallitus on antanut kuntasiirroista lausuntonsa valtionvarainministeriölle.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jussi Salokorpi</t>
+          <t>Timo Ikonen</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1862,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Haluatko tietää, mitä kansanedustajasi saa aikaan? Voitto-robotti valvoo uutta eduskuntaa puolestasi</t>
+          <t>Perussuomalaisten Ville Tavio: En lähde eurovaaliehdokkaaksi</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ylen uutiskirjekokeilu seuraa jokaisen kansanedustajan aktiivisuutta eduskunnassa. Tästä jutusta löydät ohjeet oman edustajasi kirjeen tilaamiseen sähköpostiisi.</t>
+          <t>Ville Tavio kertoo päätöksestään eurovaaleihin liittyen Facebook-sivuillaan.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Teemu Kiviniemi</t>
+          <t>Johanna Lehtola</t>
         </is>
       </c>
     </row>
@@ -1881,18 +1882,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sitran jykevä veroavaus saa hallitusneuvotteluihin valmistautuvilta puolueilta pääosin myönteisen vastaanoton – perussuomalaiset tyrmää täysin</t>
+          <t>Suomalaiset konkarimepit pelkäävät EU-lainsäädännön halvaantuvan, jos ääriryhmät nousevat: "Tekevätkö populistit parlamentista vain puhujalavan?"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>
-Sitra ehdottaa mittavaa verojärjestelmän uudistusta kestävän kehityksen mallissaan. </t>
+          <t>Anneli Jäätteenmäki  ja Liisa Jaakonsaari sanovat olevansa surullisia ja huolissaan ilmapiirin heikentymisestä Euroopassa.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Anne OrjalaPekka Kinnunen</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -1902,17 +1902,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Seinäjoen kaupunginhallituksen puheenjohtajuus kiinnostaa</t>
+          <t>Ovatko perussuomalaiset vasemmalla vai oikealla? Tutkija: "Suuri joukko uusia edustajia on musta hevonen" – tiukka maahanmuuttolinja yhdistää</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Seinäjoella saattaa vaihtua kaupunginhallituksen puheenjohtaja, sillä eduskuntaan valittu Pasi Kivisaari pohtii väistymistä. </t>
+          <t>Perussuomalaisten 39 kansanedustajasta peräti 24 on uusia. Siksi heidän linjauksiaan muussa kuin maahanmuutossa on vaikea tietää.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Elina Niemistö</t>
+          <t>Ville Vedenpää</t>
         </is>
       </c>
     </row>
@@ -1922,17 +1922,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Enemmistö tuoreista kansanedustajista haluaa, että Suomi on edelläkävijä ilmastonmuutoksen vastaisessa taistelussa</t>
+          <t>Kainuulainen keskustakonkari on nähnyt maailman muutosten vaikutukset puolueeseen: "tällä hetkellä eletään vaihdon hetkiä"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lihaveroa ja bensa- ja dieselkäyttöisten autojen myyntikieltoa kannattaa sen sijaan uuden eduskunnan vähemmistö, käy ilmi Ylen vaalikoneen vastauksista.</t>
+          <t>Vuoden vaihteessa Kainuun Keskustan toiminnanjohtajan pestistä eläkkeelle siirtynyt Lyyli Pokela uskoo parempaan huomiseen.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hanna Eskonen</t>
+          <t>Arto Loukasmäki</t>
         </is>
       </c>
     </row>
@@ -1942,17 +1942,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kokoomuspiirin toiminnanjohtaja vaihtuu</t>
+          <t>Vaalien tulos vahvistettiin – historian suurin rannalle jääneen äänimäärä on nyt 7 818 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pohjanmaan Kokoomuksen toiminnanjohtaja Daniel Lahti lähtee muihin töihin. Riikka Varila toimii tehtävässä ainakin kesään saakka.  </t>
+          <t>Lapissa reaalinen äänikynnys oli 9,7 prosenttia, kun Uudellamaalla se oli 2,3 prosenttia.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Päivi Rautanen</t>
+          <t> STTJussi Salokorpi</t>
         </is>
       </c>
     </row>
@@ -1962,17 +1962,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Suomalaiset konkarimepit pelkäävät EU-lainsäädännön halvaantuvan, jos ääriryhmät nousevat: "Tekevätkö populistit parlamentista vain puhujalavan?"</t>
+          <t>Ensimmäinen karu ennustus kävi toteen ja Tiina Elovaaralta lähti alta puolue ja työ: Nyt hän haluaa perussuomalaiset hallitukseen </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Anneli Jäätteenmäki  ja Liisa Jaakonsaari sanovat olevansa surullisia ja huolissaan ilmapiirin heikentymisestä Euroopassa.</t>
+          <t>Sinisten pudonnut kansanedustaja Tiina Elovaara haluaa perussuomalaiset hallitukseen. Hänen oma tarinansa on kaikkea muuta kuin tylsä.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t>Anu Leena Koskinen</t>
         </is>
       </c>
     </row>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lue tästä askelmerkit, miten Suomi saa uuden hallituksen – Valmista toukokuun lopulla tai viimeistään juhannukseksi</t>
+          <t>Turkulainen opiskelija arvioi täysin oikein keskustan vaalitappion ja nuorimman läpi päässeen – voitti Ylen vaaliveikkauksen</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Politiikan kapellimestarina häärii seuraavat viikot SDP:n puheenjohtaja Antti Rinne, josta tulee  hallitustunnustelija.</t>
+          <t>Ylen vaaliveikkaukseen osallistui lähes 4000 lukijaa.  </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ari Hakahuhta</t>
+          <t>Heli Suominen</t>
         </is>
       </c>
     </row>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Etelä-Savon maakuntahallitus ei kannata Joroisten ja Heinäveden maakuntavaihdoksia</t>
+          <t>Seinäjoen kaupunginhallituksen puheenjohtajuus kiinnostaa</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Maakuntahallitus on antanut kuntasiirroista lausuntonsa valtionvarainministeriölle.</t>
+          <t>Seinäjoella saattaa vaihtua kaupunginhallituksen puheenjohtaja, sillä eduskuntaan valittu Pasi Kivisaari pohtii väistymistä. </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Timo Ikonen</t>
+          <t>Elina Niemistö</t>
         </is>
       </c>
     </row>
@@ -2022,17 +2022,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kainuulainen keskustakonkari on nähnyt maailman muutosten vaikutukset puolueeseen: "tällä hetkellä eletään vaihdon hetkiä"</t>
+          <t>Enemmistö tuoreista kansanedustajista haluaa, että Suomi on edelläkävijä ilmastonmuutoksen vastaisessa taistelussa</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Vuoden vaihteessa Kainuun Keskustan toiminnanjohtajan pestistä eläkkeelle siirtynyt Lyyli Pokela uskoo parempaan huomiseen.</t>
+          <t>Lihaveroa ja bensa- ja dieselkäyttöisten autojen myyntikieltoa kannattaa sen sijaan uuden eduskunnan vähemmistö, käy ilmi Ylen vaalikoneen vastauksista.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Arto Loukasmäki</t>
+          <t>Hanna Eskonen</t>
         </is>
       </c>
     </row>
@@ -2062,17 +2062,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KSML: Teuvo Hakkarainen lähtee eurovaaliehdokkaaksi</t>
+          <t>Lue tästä askelmerkit, miten Suomi saa uuden hallituksen – Valmista toukokuun lopulla tai viimeistään juhannukseksi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Perussuomalaisten viitasaarelainen kansanedustaja Teuvo Hakkarainen on valittu puolueen ehdokkaaksi europarlamenttivaaleihin. </t>
+          <t>Politiikan kapellimestarina häärii seuraavat viikot SDP:n puheenjohtaja Antti Rinne, josta tulee  hallitustunnustelija.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Ari Hakahuhta</t>
         </is>
       </c>
     </row>
@@ -2082,17 +2082,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Onko Ivanka Trump todellinen vaikuttaja vai merkityksetön Yhdysvaltain prinsessa?</t>
+          <t>Lapin kansanedustajat verottaisivat kaivoksia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Parhaillaan Afrikassa vieraileva Ivanka Trump pehmentää presidentti-isänsä kovaa julkisuuskuvaa. Tyttären asema Valkoisessa talossa hakee vertaistaan historiasta.</t>
+          <t>Täysin varauksetonta tukea kaivosten verottaminen ei kuitenkaan kaikilta saa.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Vaalien tulos vahvistettiin – historian suurin rannalle jääneen äänimäärä on nyt 7 818 </t>
+          <t>Onko Ivanka Trump todellinen vaikuttaja vai merkityksetön Yhdysvaltain prinsessa?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lapissa reaalinen äänikynnys oli 9,7 prosenttia, kun Uudellamaalla se oli 2,3 prosenttia.</t>
+          <t>Parhaillaan Afrikassa vieraileva Ivanka Trump pehmentää presidentti-isänsä kovaa julkisuuskuvaa. Tyttären asema Valkoisessa talossa hakee vertaistaan historiasta.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t> STTJussi Salokorpi</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -2122,17 +2122,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ex-ministeri Stefan Wallin viestintäyritys Miltton Networksin johtoon</t>
+          <t>Tiistai 16.4.2019 (tv)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wallin kertoi alkuvuodesta jättävänsä eduskunnan.</t>
+          <t>Notre Damen tulipalo. Juha Sipilä eroaa keskustan johdosta. Hallitusneuvottelut alkavat pääsiäisen jälkeen. Ugandan ihmiskauppa. Sää.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Hanna Hanhinen</t>
+          <t>Pälvi Tammi</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Analyysi: Sipilä jätti uppoavan laivan – löytyykö keskustan uusi suunta piirun verran vasemmalta?</t>
+          <t>Lapin kansanedustajat rakentaisivat Jäämeren radan – yhtä lukuunottamatta</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Keskusta putosi yhdessä yössä takaisin samaan kuoppaan, josta se Juha Sipilän johdolla kaivautui ylös kevään 2015 vaaleissa, politiikan toimittaja Pekka Kinnunen arvioi.  </t>
+          <t>Osa kansanedustajista selvittäisi rautatien rakentamista Venäjän kautta.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2162,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Keskustan entinen puoluesihteeri Jouni Ovaska: "On vaikea nähdä, että keskusta olisi lähtenyt hallitukseen Sipilän johdolla"</t>
+          <t>Ensimmäinen Punaisen Ristin avustuslento saapui Venezuelaan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Uutinen ei yllättänyt vastavalittua kansanedustajaa. </t>
+          <t>Presidentti Maduro on aiemmin torpannut kansainvälisen avun saapumisen maahan ilmoittamalla toistuvasti, ettei Venezuelassa ole humanitääristä kriisiä.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Heli Mansikka</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -2182,17 +2182,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kainuun piiripomo keskustan vaalitappiosta ja Sipilän erosta: "Ei tämä tarkoita, että jäisimme yksin"</t>
+          <t>Algerian väliaikainen presidentti nimitti perustuslailliseen neuvostoon uuden johtajan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Esa Kemppaisen mukaan Kainuussa selvitään hyvin keskustan mylleryksestä huolimatta. </t>
+          <t>Mielenosoittajat painostivat valitsemaan neuvostolle riippumattoman johtajan.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -2202,17 +2202,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Algerian väliaikainen presidentti nimitti perustuslailliseen neuvostoon uuden johtajan</t>
+          <t>Pitkän kansanedustajauran päättävä Annika Lapintie: Eduskuntaa on vaivannut asiantuntemuksen halveksunta </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mielenosoittajat painostivat valitsemaan neuvostolle riippumattoman johtajan.</t>
+          <t>Katsomoon siirtynyt perustuslakivaliokunnan puheenjohtaja Lapintie tunnustaa vanhat syntinsä: poliisikyyti ja sakot. </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Merja Niilola</t>
         </is>
       </c>
     </row>
@@ -2222,17 +2222,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Postimees: Ratas nimitettiin Viron hallitustunnustelijaksi</t>
+          <t>Egyptin parlamentti hyväksyi lain, jolla presidentti Sisin valtakausi jatkuu jopa vuoteen 2030</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Keskustapuolueen Jüri Rataksen hyväksymisestä tehtävään äänestetään huomenna maan parlamentissa. </t>
+          <t>Perustuslain muutokset joutuvat vielä kansanäänestykseen ennen kuin ne lopullisesti hyväksytään.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -2242,17 +2242,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Juha Sipilän ero: Keski-Suomen keskustalaiset haluavat tulevan puheenjohtajan muistavan puolueen juuret</t>
+          <t>Analyysi: Sipilä jätti uppoavan laivan – löytyykö keskustan uusi suunta piirun verran vasemmalta?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Keskustan keskisuomalaiset kansanedustajat eivät yllättyneet Juha Sipilän eroilmoituksesta puolueen puheenjohtajan tehtävästä.</t>
+          <t>Keskusta putosi yhdessä yössä takaisin samaan kuoppaan, josta se Juha Sipilän johdolla kaivautui ylös kevään 2015 vaaleissa, politiikan toimittaja Pekka Kinnunen arvioi.  </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -2262,17 +2262,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ensimmäinen Punaisen Ristin avustuslento saapui Venezuelaan</t>
+          <t>Keskustan entinen puoluesihteeri Jouni Ovaska: "On vaikea nähdä, että keskusta olisi lähtenyt hallitukseen Sipilän johdolla"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Presidentti Maduro on aiemmin torpannut kansainvälisen avun saapumisen maahan ilmoittamalla toistuvasti, ettei Venezuelassa ole humanitääristä kriisiä.</t>
+          <t>Uutinen ei yllättänyt vastavalittua kansanedustajaa. </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Heli Mansikka</t>
         </is>
       </c>
     </row>
@@ -2282,17 +2282,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Egyptin parlamentti hyväksyi lain, jolla presidentti Sisin valtakausi jatkuu jopa vuoteen 2030</t>
+          <t>Kainuun piiripomo keskustan vaalitappiosta ja Sipilän erosta: "Ei tämä tarkoita, että jäisimme yksin"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Perustuslain muutokset joutuvat vielä kansanäänestykseen ennen kuin ne lopullisesti hyväksytään.</t>
+          <t>Esa Kemppaisen mukaan Kainuussa selvitään hyvin keskustan mylleryksestä huolimatta. </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -2302,19 +2302,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kansanedustaja Eeva Kalli pitäisi hallitusovea auki</t>
+          <t>Ulkolinja: Brexit, kello käy – Mitä tapahtui neuvottelujen kulisseissa?</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Keskustan ainoa satakuntalaiskansanedustaja Eeva Kalli toivoo, että keskustan puheenjohtajapeliin saadaan useita ehdokkaita.</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Antti Laakso</t>
-        </is>
-      </c>
+          <t>EU:n pääneuvottelija Michel Barnier taisteli brexit-neuvotteluissa aikaa vastaan.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -2322,13 +2318,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Keski-Pohjanmaalla ei yllätytty Sipilän erosta</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>Ex-ministeri Stefan Wallin viestintäyritys Miltton Networksin johtoon</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Wallin kertoi alkuvuodesta jättävänsä eduskunnan.</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Petra Haavisto</t>
+          <t>Hanna Hanhinen</t>
         </is>
       </c>
     </row>
@@ -2338,17 +2338,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Juha Sipilä jättää keskustan puheenjohtajuuden</t>
+          <t>Postimees: Ratas nimitettiin Viron hallitustunnustelijaksi</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Juha Sipilän johdolla keskusta keräsi sunnuntain eduskuntavaaleissa Suomen itsenäisyyden ajan huonoimman vaalituloksen.</t>
+          <t>Keskustapuolueen Jüri Rataksen hyväksymisestä tehtävään äänestetään huomenna maan parlamentissa. </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Päivi Annala</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2378,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lapin kansanedustajat rakentaisivat Jäämeren radan – yhtä lukuunottamatta</t>
+          <t>Kokoomuksen ja keskustan puoluehallitukset koolla tänään</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Osa kansanedustajista selvittäisi rautatien rakentamista Venäjän kautta.</t>
+          <t>Sekä Orpolta että Sipilältä odotetaan linjauksia tulevaisuudesta ja siitä miltä hallitusmahdollisuudet näyttävät.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -2398,17 +2398,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Analyysi: Eurooppa ei pysähdy vaikka suomalaispoliitikot jämähtäisivätkin riitelemään hallituksensa kokoonpanosta</t>
+          <t>Tarkastuslaskenta toi yllätyksen Savo-Karjalassa: Tuula Väätäinen nousee eduskuntaan, Timo Suhonen putoaa varalle</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Vaalitulos tuskin tuo äkkikäännöstä Suomen suuntaan EU:ssa. Hyvin pedattua puheenjohtajuuttakin on vaikea sössiä, kirjoittaa EU-kirjeenvaihtaja Petri Raivio.</t>
+          <t>Väätäisen äänimäärä nousi tarkastuslaskennassa ja Suhosen laski.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Petri Raivio</t>
+          <t>Veli-Pekka Hämäläinen</t>
         </is>
       </c>
     </row>
@@ -2418,17 +2418,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pitkän kansanedustajauran päättävä Annika Lapintie: Eduskuntaa on vaivannut asiantuntemuksen halveksunta </t>
+          <t>Kenestä Juha Sipilän seuraaja? Keskustan puheenjohtajapeli lähti heti käyntiin – listasimme kärkiehdokkaat</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Katsomoon siirtynyt perustuslakivaliokunnan puheenjohtaja Lapintie tunnustaa vanhat syntinsä: poliisikyyti ja sakot. </t>
+          <t>Tässä vahvimmat ehdokkaat Juha Sipilän seuraajaksi keskustan johtoon.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Merja Niilola</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -2438,15 +2438,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ulkolinja: Brexit, kello käy – Mitä tapahtui neuvottelujen kulisseissa?</t>
+          <t>Li Andersson: Juha Sipilän lähtö helpottaa hallitusneuvotteluja – "Olen keskustellut Antin kanssa"</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EU:n pääneuvottelija Michel Barnier taisteli brexit-neuvotteluissa aikaa vastaan.</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>Vasemmistoliiton puheenjohtajan Li Anderssonin mukaan Sipilän eroilmoitus antaa viestin siitä, että keskusta ei ole ulkona hallitusneuvottelupöydästä. Keskustan tiedotteen mukaan puolueen kynnys hallitukseen on korkea.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Eino Kossila</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -2454,17 +2458,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kenestä Juha Sipilän seuraaja? Keskustan puheenjohtajapeli lähti heti käyntiin – listasimme kärkiehdokkaat</t>
+          <t>Juha Sipilän ero: Keski-Suomen keskustalaiset haluavat tulevan puheenjohtajan muistavan puolueen juuret</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Tässä vahvimmat ehdokkaat Juha Sipilän seuraajaksi keskustan johtoon.</t>
+          <t>Keskustan keskisuomalaiset kansanedustajat eivät yllättyneet Juha Sipilän eroilmoituksesta puolueen puheenjohtajan tehtävästä.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -2474,17 +2478,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kokoomuksen ja keskustan puoluehallitukset koolla tänään</t>
+          <t>Juha Sipilä jättää keskustan puheenjohtajuuden</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sekä Orpolta että Sipilältä odotetaan linjauksia tulevaisuudesta ja siitä miltä hallitusmahdollisuudet näyttävät.</t>
+          <t>Juha Sipilän johdolla keskusta keräsi sunnuntain eduskuntavaaleissa Suomen itsenäisyyden ajan huonoimman vaalituloksen.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Päivi Annala</t>
         </is>
       </c>
     </row>
@@ -2514,17 +2518,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Li Andersson: Juha Sipilän lähtö helpottaa hallitusneuvotteluja – "Olen keskustellut Antin kanssa"</t>
+          <t>Hallitusvastuu, hyökkäävä tyyli ja synnytyssairaalan lakkautus – näin Sipilän kotikuntalaiset ja puoluetoverit pohtivat eron syitä</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton puheenjohtajan Li Anderssonin mukaan Sipilän eroilmoitus antaa viestin siitä, että keskusta ei ole ulkona hallitusneuvottelupöydästä. Keskustan tiedotteen mukaan puolueen kynnys hallitukseen on korkea.</t>
+          <t>Kierros Sipilän kotikulmilla Kempeleessä ja Oulussa osoittaa, että varsinainen yllätys ero ei monelle ollut. </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Eino Kossila</t>
+          <t>Risto DegermanTimo SipolaRisto UkkonenMarko Pinola</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2538,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Menoja leikaten vai veroja kiristäen – Talouspolitiikasta on tulossa hallituksen jakolinja</t>
+          <t>Jari Lindström teki U-käännöksen – ei lähdekään ehdolle eurovaaleihin:  "Kun tässä nyt avaudutaan"</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vaalikonevastausten mukaan kansanedustajien enemmistö pitää menojen karsimista veronkorotuksia parempana vaihtoehtona. </t>
+          <t>Työministerinä toiminut Jari Lindström (sin.) kertoi Twitterissä päättäneensä asiasta eduskuntavaalien tulosiltana.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jarmo Koponen</t>
+          <t>Miina Sillanpää</t>
         </is>
       </c>
     </row>
@@ -2554,17 +2558,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hallitusvastuu, hyökkäävä tyyli ja synnytyssairaalan lakkautus – näin Sipilän kotikuntalaiset ja puoluetoverit pohtivat eron syitä</t>
+          <t>Juha Sipilä jättää puheenjohtajan tehtävät, ei halua tulla tänään median eteen – Katso, miten puoluesihteeri kommentoi Sipilän eroa</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kierros Sipilän kotikulmilla Kempeleessä ja Oulussa osoittaa, että varsinainen yllätys ero ei monelle ollut. </t>
+          <t>Keskusta valitsee uuden puheenjohtajan ensi syksyn ylimääräisessä puoluekokouksessa.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Risto DegermanTimo SipolaRisto UkkonenMarko Pinola</t>
+          <t>Päivi HapponenHanna Hanhinen</t>
         </is>
       </c>
     </row>
@@ -2574,17 +2578,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tarkastuslaskenta toi yllätyksen Savo-Karjalassa: Tuula Väätäinen nousee eduskuntaan, Timo Suhonen putoaa varalle</t>
+          <t>Kansanedustaja Eeva Kalli pitäisi hallitusovea auki</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Väätäisen äänimäärä nousi tarkastuslaskennassa ja Suhosen laski.</t>
+          <t>Keskustan ainoa satakuntalaiskansanedustaja Eeva Kalli toivoo, että keskustan puheenjohtajapeliin saadaan useita ehdokkaita.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Veli-Pekka Hämäläinen</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -2594,19 +2598,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jari Lindström teki U-käännöksen – ei lähdekään ehdolle eurovaaleihin:  "Kun tässä nyt avaudutaan"</t>
+          <t>Reetta Rädyn kolumni: Jos kansalainen ei vaalien jälkeen tiedä, mihin joukkoon kuuluu, on hän hahmottanut paikkansa maailmassa täsmällisesti</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Työministerinä toiminut Jari Lindström (sin.) kertoi Twitterissä päättäneensä asiasta eduskuntavaalien tulosiltana.</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Miina Sillanpää</t>
-        </is>
-      </c>
+          <t>Miksi meillä pitäisi olla enää duunareiden, porvareiden ja maanviljelijöiden isot puolueet, kun kansa ei enää jakaudu näin? Jakolinjat ovat nyt ihan muualla, kirjoittaa Reetta Räty.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -2614,17 +2614,13 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tiistai 16.4.2019 (tv)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Notre Damen tulipalo. Juha Sipilä eroaa keskustan johdosta. Hallitusneuvottelut alkavat pääsiäisen jälkeen. Ugandan ihmiskauppa. Sää.</t>
-        </is>
-      </c>
+          <t>Keski-Pohjanmaalla ei yllätytty Sipilän erosta</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Pälvi Tammi</t>
+          <t>Petra Haavisto</t>
         </is>
       </c>
     </row>
@@ -2634,17 +2630,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Juha Sipilä jättää puheenjohtajan tehtävät, ei halua tulla tänään median eteen – Katso, miten puoluesihteeri kommentoi Sipilän eroa</t>
+          <t>Analyysi: Eurooppa ei pysähdy vaikka suomalaispoliitikot jämähtäisivätkin riitelemään hallituksensa kokoonpanosta</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Keskusta valitsee uuden puheenjohtajan ensi syksyn ylimääräisessä puoluekokouksessa.</t>
+          <t>Vaalitulos tuskin tuo äkkikäännöstä Suomen suuntaan EU:ssa. Hyvin pedattua puheenjohtajuuttakin on vaikea sössiä, kirjoittaa EU-kirjeenvaihtaja Petri Raivio.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Päivi HapponenHanna Hanhinen</t>
+          <t>Petri Raivio</t>
         </is>
       </c>
     </row>
@@ -2654,15 +2650,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Reetta Rädyn kolumni: Jos kansalainen ei vaalien jälkeen tiedä, mihin joukkoon kuuluu, on hän hahmottanut paikkansa maailmassa täsmällisesti</t>
+          <t>Menoja leikaten vai veroja kiristäen – Talouspolitiikasta on tulossa hallituksen jakolinja</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Miksi meillä pitäisi olla enää duunareiden, porvareiden ja maanviljelijöiden isot puolueet, kun kansa ei enää jakaudu näin? Jakolinjat ovat nyt ihan muualla, kirjoittaa Reetta Räty.</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>Vaalikonevastausten mukaan kansanedustajien enemmistö pitää menojen karsimista veronkorotuksia parempana vaihtoehtona. </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Jarmo Koponen</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -2670,17 +2670,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Herätys: SDP niukkaan vaalivoittoon, kaikki vaaleista tulospalvelussa, Suomen naisleijonille kirvelevä tappio</t>
+          <t>Rinteen nenä haistaa yllätyksiä hallitusneuvotteluissa: Helppo ratkaisu, jos vedetään oikeista naruista – Yle seurasi hetki hetkeltä vaalien jälkipuintia </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Katso jutusta Antti Rinteen ja Jussi Halla-ahon videohaastattelut. Yle seurasi tässä artikkelissa vaalien jälkeisen päivän tapahtumia ja kommentteja. </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Päivi HapponenMattias Mattila</t>
         </is>
       </c>
     </row>
@@ -2690,17 +2690,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Perseen myynti ja nahkurin orret – testaa tietosi Suomen poliitikkojen letkautuksista!</t>
+          <t>Äänten tarkastuslaskenta tehty Lapissa: Markus Lohi viimeisenä läpi</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Suomen monenkirjavassa poliittisessa historiassa on sanansäilä lentänyt niin istuntosaleissa kuin turuilla ja toreilla. Monet lausahdukset ovat jääneet elämään aivan omaa elämäänsä vielä vuosien jälkeenkin. Elävä arkisto koosti niitä leikkimieliseen testiin. Kuka sanoi ja mitä? – testaa tietämyksesi!</t>
+          <t>Tarkastuslaskennassa ratkesi Lapin viimeinen läpimenijä eli seitsemäs kansanedustaja.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Petri Lehtola</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -2710,17 +2710,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Muellerin Venäjä-tutkintaraportista typistetty versio julki torstaina</t>
+          <t>Millainen oli vaalitulos kotikulmillasi? Kartat sen kertovat</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Aiemmin raportista on annettu julkisuuteen nelisivuisen tiivistelmä.</t>
+          <t>Kuntasi suurin puolue? Äänestysalueesi kakkospuolue? Missä puolueet kasvattivat äänipottiaan eniten? Katso tästä vaalitulos kartoilla.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Marika Harjumaa</t>
+          <t>Joel KanervaJuho SalminenJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kulmuni Keskustan vaalitappiosta: "Vaatii puolueessa erittäin kovan ja tiukan analyysin"</t>
+          <t>Herätys: SDP niukkaan vaalivoittoon, kaikki vaaleista tulospalvelussa, Suomen naisleijonille kirvelevä tappio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Keskustan lappilainen varapuheenjohtaja Katri Kulmuni pohtii antoiko puolue talousasioiden ajaa liikaa muiden edelle.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Antti Heikinmatti</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -2750,17 +2750,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Vihreiden ensimmäinen kansanedustaja Lapista jäi 9 äänen päähän – tutkija: puolueen tie korkeuksiin koko maassa on vain ajan kysymys</t>
+          <t>Keski-Suomen uusilla kansanedustajilla tavoitteet ja valiokuntatoiveet selvillä</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Neljän vuoden päästä vihreiden kannatus voi nousta jälleen, sillä nuoria äänestäjiä on lisää.</t>
+          <t>Keski-Suomen uudet kansanedustajat ovat asettaneet jo selkeitä tavoitteita ensi viikolla alkavalle eduskuntatyölleen ja pohtineet myös valiokuntatoiveitaan.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Laura Tolonen</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -2770,17 +2770,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Eduskunnan keski-ikä putosi vuodella – Nuoria kansanedustajia valittiin kuitenkin vähemmän kuin viimeksi </t>
+          <t>Muellerin Venäjä-tutkintaraportista typistetty versio julki torstaina</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Uudessa eduskunnassa aloittaa kahdeksan alle 30-vuotiasta kansanedustajaa.</t>
+          <t>Aiemmin raportista on annettu julkisuuteen nelisivuisen tiivistelmä.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Niina Honka</t>
+          <t>Marika Harjumaa</t>
         </is>
       </c>
     </row>
@@ -2790,17 +2790,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Maanantai 15.4.2019 (radio)</t>
+          <t>Eteläkarjalaiset kansanedustajat: Edessä vaativat hallitusneuvottelut</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kansanedustajiksi valittiin ennätysmäärä naisia. Uuden eduskunnan työ alkaa pääsiäisen jälkeen. SDP ei usko hallitusyhteistyöhön perussuomalaisten kanssa. Posti vähentää työntekijöitä. Ihmiselle löytyi uusi sukulainen.</t>
+          <t>Etelä-Karjalassa kansanedustajat pohtivat vaaleissa hyvin menestyneen perussuomalaisten asemaa hallitusneuvotteluissa.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Merja Windia</t>
+          <t>Tanja Hannus</t>
         </is>
       </c>
     </row>
@@ -2810,17 +2810,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Analyysi: Suomen suunta on hakusessa – SDP:n muutos ja perussuomalaisten protesti tuskin mahtuvat samaan hallitusbussiin</t>
+          <t>Keskustalla riittää tappiossa pureskeltavaa myös Keski-Pohjanmaalla:  "Nyt nöyrästi hattu kouraan ja uuteen nousuun"</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Antti Rinteen hallituksessa on vähintään SDP, vihreät sekä suuri ja pieni porvaripuolue, kirjoittaa Ari Hakahuhta.</t>
+          <t>Keskusta menetti toisen keskipohjalaisen kansanedustajansa. Monessa kunnassa puolueen osuus notkahti viime vaaleista, vaikka valta-asema säilyikin.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Ari Hakahuhta</t>
+          <t>Iina KluukeriSari Vähäsarja</t>
         </is>
       </c>
     </row>
@@ -2830,17 +2830,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Keski-Suomen uusilla kansanedustajilla tavoitteet ja valiokuntatoiveet selvillä</t>
+          <t>Huojennus demareille: Tarkastuslaskenta ei muuttanut SDP:n paikkamäärää Satakunnassa</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Keski-Suomen uudet kansanedustajat ovat asettaneet jo selkeitä tavoitteita ensi viikolla alkavalle eduskuntatyölleen ja pohtineet myös valiokuntatoiveitaan.</t>
+          <t>SDP sai kolmannen paikan keskustan nenän edestä Satakunnassa vain 51 vertauslukuäänen perusteella.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t> STT–YleAntti Laakso</t>
         </is>
       </c>
     </row>
@@ -2850,17 +2850,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Rinteen nenä haistaa yllätyksiä hallitusneuvotteluissa: Helppo ratkaisu, jos vedetään oikeista naruista – Yle seurasi hetki hetkeltä vaalien jälkipuintia </t>
+          <t>Kolmikymppiset menestyivät Oulun vaalipiirissä</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Katso jutusta Antti Rinteen ja Jussi Halla-ahon videohaastattelut. Yle seurasi tässä artikkelissa vaalien jälkeisen päivän tapahtumia ja kommentteja. </t>
+          <t> Oululainen Hanna Sarkkinen oli koko vaalipiirin äänikuningatar.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Päivi HapponenMattias Mattila</t>
+          <t>Emma Hinkula</t>
         </is>
       </c>
     </row>
@@ -2870,17 +2870,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Äänten tarkastuslaskenta tehty Lapissa: Markus Lohi viimeisenä läpi</t>
+          <t>Teuvo Hakkarainen pohtii eurovaaleja</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tarkastuslaskennassa ratkesi Lapin viimeinen läpimenijä eli seitsemäs kansanedustaja.</t>
+          <t>Perussuomalaisista kolmannelle kaudelle eduskuntaan valittu Teuvo Hakkarainen pohtii ehdokkuutta eurovaaleissa. </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -2890,17 +2890,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Keskustalla riittää tappiossa pureskeltavaa myös Keski-Pohjanmaalla:  "Nyt nöyrästi hattu kouraan ja uuteen nousuun"</t>
+          <t>Perseen myynti ja nahkurin orret – testaa tietosi Suomen poliitikkojen letkautuksista!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Keskusta menetti toisen keskipohjalaisen kansanedustajansa. Monessa kunnassa puolueen osuus notkahti viime vaaleista, vaikka valta-asema säilyikin.</t>
+          <t>Suomen monenkirjavassa poliittisessa historiassa on sanansäilä lentänyt niin istuntosaleissa kuin turuilla ja toreilla. Monet lausahdukset ovat jääneet elämään aivan omaa elämäänsä vielä vuosien jälkeenkin. Elävä arkisto koosti niitä leikkimieliseen testiin. Kuka sanoi ja mitä? – testaa tietämyksesi!</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Iina KluukeriSari Vähäsarja</t>
+          <t>Petri Lehtola</t>
         </is>
       </c>
     </row>
@@ -2910,17 +2910,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Huojennus demareille: Tarkastuslaskenta ei muuttanut SDP:n paikkamäärää Satakunnassa</t>
+          <t>Maakuntajohtaja on pettynyt vaalitulokseen: "Paljon rajuja yllätyksiä Kainuulle"</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SDP sai kolmannen paikan keskustan nenän edestä Satakunnassa vain 51 vertauslukuäänen perusteella.</t>
+          <t>Kainuun maakuntajohtaja Pentti Malisen mukaan kansanedustajien vaihtuminen ei ole välttämättä hyvä asia. </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t> STT–YleAntti Laakso</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -2930,17 +2930,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Juha Sipilä ei vielä tänään paljastanut jatkostaan mitään – Keskustan puoluehallitus koolla huomenna</t>
+          <t>Merja Kyllönen aikoo kunnioittaa äänestäjien toiveita ja pysyä eduskunnassa</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Keskustan puoluehallitus on koolla tiistaina Kesärannassa.  Osa odottaa kokouksessa kuulevansa Sipilän jatkosuunnitelmista.</t>
+          <t>Vasemmistoliiton kansanedustaja ei aio katkaista kolmatta kansanedustajakauttaan.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Markus Leskinen</t>
         </is>
       </c>
     </row>
@@ -2950,17 +2950,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Millainen oli vaalitulos kotikulmillasi? Kartat sen kertovat</t>
+          <t>Kainuun keskustalaiset kommentoivat rökäletappiota: “Turpaan on tullut”</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Kuntasi suurin puolue? Äänestysalueesi kakkospuolue? Missä puolueet kasvattivat äänipottiaan eniten? Katso tästä vaalitulos kartoilla.</t>
+          <t>Tuomas Kettunen ja Timo Korhonen ovat pettyneitä puolueen vaalitulokseen.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Joel KanervaJuho SalminenJuha Rissanen</t>
+          <t>Milka Krogerus</t>
         </is>
       </c>
     </row>
@@ -2970,17 +2970,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Perussuomalaiset juhli rakettimaista nousua ja vihreät naisten voittokulkua – näin vaalivoittajien ilta eteni jännityksestä riemuun</t>
+          <t>Lapin äärimmäisen jännittävä vaalitulos – viimeisen eduskuntapaikan kohtalo ratkeaa maanantaina</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Voittajien riemuun jäi Helsingin dramaattisessa vaali-illassa pieni sivumaku – olisiko pitänyt saada vielä enemmän?</t>
+          <t> Lapin vaalipiirilautakunta julkistaa äänten tarkastuslaskennan tuloksen maanantaina iltapäivällä.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Janne Toivonen</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -2990,19 +2990,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Merja Kyllönen aikoo kunnioittaa äänestäjien toiveita ja pysyä eduskunnassa</t>
+          <t>Erkki Virtasen kolumni: Karu arki iskee päälle heti vaalien jälkeen</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton kansanedustaja ei aio katkaista kolmatta kansanedustajakauttaan.</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Markus Leskinen</t>
-        </is>
-      </c>
+          <t>Tulevat hallituspuolueet eivät pääse pakoon talouden tosiasioita. Esimerkiksi Suomen velkaantuminen jatkuu edelleen päinvastaisista puheista huolimatta, kirjoittaa Erkki Virtanen.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -3010,17 +3006,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Keskustan romahdus tiivistyy maitopitäjään, jonka äänestäjät käänsivät selkänsä jopa oman kaupungin tähtiehdokkaalle – "Miksi Hannakaisa ei ole täällä?"</t>
+          <t>"Itku tuli kerran" – Konkari Juha Rehula kertoo, miltä tuntui pudota eduskunnasta</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Keskusta putosi rajusti monilla ydinalueillaan. Kävimme savolaisessa maitopitäjässä etsimässä syitä vaalitulokseen.</t>
+          <t>Moni ministerikin jäi vaaleissa vaille parlamenttipaikkaa. Yle kuulosteli keskustakonkarin Juha Rehulan tuntoja kyynelten jälkeen. </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Antti KarhunenVeli-Pekka Hämäläinen</t>
+          <t>Merja Niilola</t>
         </is>
       </c>
     </row>
@@ -3030,17 +3026,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kainuun keskustalaiset kommentoivat rökäletappiota: “Turpaan on tullut”</t>
+          <t>Maailman reaktiot Suomen vaalitulokseen – "Politiikka on pirstaloitunut, suomalaiset protestoivat" </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tuomas Kettunen ja Timo Korhonen ovat pettyneitä puolueen vaalitulokseen.</t>
+          <t>Mediat Euroopassa ja muualla maailmalla pohtivat syitä Suomen vaalitulokseen ja povaavat vaikeita hallitusneuvotteluja.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Petri BurtsovMikko Haapanen</t>
         </is>
       </c>
     </row>
@@ -3050,17 +3046,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tamperelainen Iiris Suomela, 24, on uuden eduskunnan kuopus – "Muutan pois keittiöttömästä yksiöstäni ja gradun tekeminen jää tauolle" </t>
+          <t>Eduskunnasta pudonneet: Kankaanniemi rauhallisin mielin, Aalto ja Paloniemi kommentoivat vain Facebookissa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Iiris Suomela sanoo, että nuorten naisten menestyminen vaaleissa kertoo siitä, että sukupolvenvaihdokselle ja tasa-arvolle on tilaus.</t>
+          <t>Perussuomalaisten kansanedustaja Toimi Kankaanniemi ottaa eduskunnasta putoamisensa vastaan rauhallisin mielin.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Heli Mansikka</t>
+          <t>Arvo Vuorela</t>
         </is>
       </c>
     </row>
@@ -3070,17 +3066,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kolmikymppiset menestyivät Oulun vaalipiirissä</t>
+          <t>Perussuomalaiset juhli rakettimaista nousua ja vihreät naisten voittokulkua – näin vaalivoittajien ilta eteni jännityksestä riemuun</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t> Oululainen Hanna Sarkkinen oli koko vaalipiirin äänikuningatar.</t>
+          <t>Voittajien riemuun jäi Helsingin dramaattisessa vaali-illassa pieni sivumaku – olisiko pitänyt saada vielä enemmän?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Emma Hinkula</t>
+          <t>Janne Toivonen</t>
         </is>
       </c>
     </row>
@@ -3090,17 +3086,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lapin äärimmäisen jännittävä vaalitulos – viimeisen eduskuntapaikan kohtalo ratkeaa maanantaina</t>
+          <t>Analyysi: Suomen suunta on hakusessa – SDP:n muutos ja perussuomalaisten protesti tuskin mahtuvat samaan hallitusbussiin</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t> Lapin vaalipiirilautakunta julkistaa äänten tarkastuslaskennan tuloksen maanantaina iltapäivällä.</t>
+          <t>Antti Rinteen hallituksessa on vähintään SDP, vihreät sekä suuri ja pieni porvaripuolue, kirjoittaa Ari Hakahuhta.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Ari Hakahuhta</t>
         </is>
       </c>
     </row>
@@ -3110,17 +3106,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Halla-aho sovittelevana: Olemme valmiita kompromisseihin – myös maahanmuuttopolitiikassa</t>
+          <t>Eduskunnan keski-ikä putosi vuodella – Nuoria kansanedustajia valittiin kuitenkin vähemmän kuin viimeksi </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien toiseksi suurin puolue on valmis kompromisseihin päästäkseen hallitukseen.</t>
+          <t>Uudessa eduskunnassa aloittaa kahdeksan alle 30-vuotiasta kansanedustajaa.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Miikka Kaskinen</t>
+          <t>Niina Honka</t>
         </is>
       </c>
     </row>
@@ -3130,17 +3126,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Miten neljän suurimman puolueen kemiat kohtasivat A-studiossa? Keskustan Kulmuni: "Emme ole ensimmäisenä hinkumassa hallitukseen"</t>
+          <t>Kulmuni Keskustan vaalitappiosta: "Vaatii puolueessa erittäin kovan ja tiukan analyysin"</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Historiallinen vaalitulos ennakoi hankalia hallitusneuvotteluja. </t>
+          <t>Keskustan lappilainen varapuheenjohtaja Katri Kulmuni pohtii antoiko puolue talousasioiden ajaa liikaa muiden edelle.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Hanna Asikainen</t>
+          <t>Antti Heikinmatti</t>
         </is>
       </c>
     </row>
@@ -3150,17 +3146,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"Itku tuli kerran" – Konkari Juha Rehula kertoo, miltä tuntui pudota eduskunnasta</t>
+          <t>"Neljä vuotta sitten naureskeltiin, että kaveri keulii" – Kokoomuksen äänikuningas Antti Häkkänen valmistautuu jo hallitusneuvotteluihin</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Moni ministerikin jäi vaaleissa vaille parlamenttipaikkaa. Yle kuulosteli keskustakonkarin Juha Rehulan tuntoja kyynelten jälkeen. </t>
+          <t>Antti Häkkänen keräsi eduskuntavaalien kolmanneksi suurimman äänipotin Jussi Halla-ahon ja Li Anderssonin jälkeen. </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Merja Niilola</t>
+          <t>Petri Vironen</t>
         </is>
       </c>
     </row>
@@ -3170,17 +3166,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Satakunnan tarkastuslaskenta voi viedä demareilta suurimman puolueen paikan eduskunnassa</t>
+          <t>Maanantai 15.4.2019 (radio)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vaalijohtaja Arto Jääskeläisen mukaan paikan vaihtuminen yhdeltä puolueelta toiselle olisi äärimmäisen harvinaista.</t>
+          <t>Kansanedustajiksi valittiin ennätysmäärä naisia. Uuden eduskunnan työ alkaa pääsiäisen jälkeen. SDP ei usko hallitusyhteistyöhön perussuomalaisten kanssa. Posti vähentää työntekijöitä. Ihmiselle löytyi uusi sukulainen.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Merja Windia</t>
         </is>
       </c>
     </row>
@@ -3190,17 +3186,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Väyrynen: Tähtiliike mukana myös tulevissa vaaleissa</t>
+          <t>Juha Sipilä ei vielä tänään paljastanut jatkostaan mitään – Keskustan puoluehallitus koolla huomenna</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Seuraaviin vaaleihin eli eurovaaleihin osallistuminen tosin mietityttää Paavo Väyrystä.</t>
+          <t>Keskustan puoluehallitus on koolla tiistaina Kesärannassa.  Osa odottaa kokouksessa kuulevansa Sipilän jatkosuunnitelmista.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -3210,17 +3206,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Maakuntajohtaja on pettynyt vaalitulokseen: "Paljon rajuja yllätyksiä Kainuulle"</t>
+          <t>Tamperelainen Iiris Suomela, 24, on uuden eduskunnan kuopus – "Muutan pois keittiöttömästä yksiöstäni ja gradun tekeminen jää tauolle" </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kainuun maakuntajohtaja Pentti Malisen mukaan kansanedustajien vaihtuminen ei ole välttämättä hyvä asia. </t>
+          <t>Iiris Suomela sanoo, että nuorten naisten menestyminen vaaleissa kertoo siitä, että sukupolvenvaihdokselle ja tasa-arvolle on tilaus.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Milka Krogerus</t>
+          <t>Heli Mansikka</t>
         </is>
       </c>
     </row>
@@ -3230,17 +3226,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Halla-aho oli ykkönen jopa vihreässä Kalliossa – ja ääniä ropisi muutenkin ympäri pääkaupunkia: "Hän esiintyi kärkihahmona, ja ihmiset äänestävät johtajaa"</t>
+          <t>Moniko kansanedustajista on kaltaisesi? Katso täältä, miltä uusi eduskunta näyttää</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Perussuomalaisten Jussi Halla-aho oli ylivoimainen ääniharava Helsingin vaalipiirissä.</t>
+          <t>Kerro hieman itsestäsi ja näet, paljonko samankaltaista väkeä on uudessa eduskunnassa.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Esa Koivuranta</t>
+          <t>Eemeli MarttiEetu PietarinenJuho Salminen</t>
         </is>
       </c>
     </row>
@@ -3250,17 +3246,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>"Neljä vuotta sitten naureskeltiin, että kaveri keulii" – Kokoomuksen äänikuningas Antti Häkkänen valmistautuu jo hallitusneuvotteluihin</t>
+          <t>Vihreiden ensimmäinen kansanedustaja Lapista jäi 9 äänen päähän – tutkija: puolueen tie korkeuksiin koko maassa on vain ajan kysymys</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Antti Häkkänen keräsi eduskuntavaalien kolmanneksi suurimman äänipotin Jussi Halla-ahon ja Li Anderssonin jälkeen. </t>
+          <t>Neljän vuoden päästä vihreiden kannatus voi nousta jälleen, sillä nuoria äänestäjiä on lisää.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Petri Vironen</t>
+          <t>Laura Tolonen</t>
         </is>
       </c>
     </row>
@@ -3270,17 +3266,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Eduskunnasta pudonneet: Kankaanniemi rauhallisin mielin, Aalto ja Paloniemi kommentoivat vain Facebookissa</t>
+          <t>Väyrynen: Tähtiliike mukana myös tulevissa vaaleissa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Perussuomalaisten kansanedustaja Toimi Kankaanniemi ottaa eduskunnasta putoamisensa vastaan rauhallisin mielin.</t>
+          <t>Seuraaviin vaaleihin eli eurovaaleihin osallistuminen tosin mietityttää Paavo Väyrystä.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3290,17 +3286,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Eteläkarjalaiset kansanedustajat: Edessä vaativat hallitusneuvottelut</t>
+          <t>Miten neljän suurimman puolueen kemiat kohtasivat A-studiossa? Keskustan Kulmuni: "Emme ole ensimmäisenä hinkumassa hallitukseen"</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Etelä-Karjalassa kansanedustajat pohtivat vaaleissa hyvin menestyneen perussuomalaisten asemaa hallitusneuvotteluissa.</t>
+          <t>Historiallinen vaalitulos ennakoi hankalia hallitusneuvotteluja. </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tanja Hannus</t>
+          <t>Hanna Asikainen</t>
         </is>
       </c>
     </row>
@@ -3310,17 +3306,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Maailman reaktiot Suomen vaalitulokseen – "Politiikka on pirstaloitunut, suomalaiset protestoivat" </t>
+          <t>Keskustan romahdus tiivistyy maitopitäjään, jonka äänestäjät käänsivät selkänsä jopa oman kaupungin tähtiehdokkaalle – "Miksi Hannakaisa ei ole täällä?"</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Mediat Euroopassa ja muualla maailmalla pohtivat syitä Suomen vaalitulokseen ja povaavat vaikeita hallitusneuvotteluja.</t>
+          <t>Keskusta putosi rajusti monilla ydinalueillaan. Kävimme savolaisessa maitopitäjässä etsimässä syitä vaalitulokseen.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Petri BurtsovMikko Haapanen</t>
+          <t>Antti KarhunenVeli-Pekka Hämäläinen</t>
         </is>
       </c>
     </row>
@@ -3330,17 +3326,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Teuvo Hakkarainen pohtii eurovaaleja</t>
+          <t>Halla-aho sovittelevana: Olemme valmiita kompromisseihin – myös maahanmuuttopolitiikassa</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Perussuomalaisista kolmannelle kaudelle eduskuntaan valittu Teuvo Hakkarainen pohtii ehdokkuutta eurovaaleissa. </t>
+          <t>Eduskuntavaalien toiseksi suurin puolue on valmis kompromisseihin päästäkseen hallitukseen.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Arvo Vuorela</t>
+          <t>Miikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3346,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Moniko kansanedustajista on kaltaisesi? Katso täältä, miltä uusi eduskunta näyttää</t>
+          <t>Satakunnan tarkastuslaskenta voi viedä demareilta suurimman puolueen paikan eduskunnassa</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kerro hieman itsestäsi ja näet, paljonko samankaltaista väkeä on uudessa eduskunnassa.</t>
+          <t>Vaalijohtaja Arto Jääskeläisen mukaan paikan vaihtuminen yhdeltä puolueelta toiselle olisi äärimmäisen harvinaista.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Eemeli MarttiEetu PietarinenJuho Salminen</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -3370,15 +3366,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Erkki Virtasen kolumni: Karu arki iskee päälle heti vaalien jälkeen</t>
+          <t>Halla-aho oli ykkönen jopa vihreässä Kalliossa – ja ääniä ropisi muutenkin ympäri pääkaupunkia: "Hän esiintyi kärkihahmona, ja ihmiset äänestävät johtajaa"</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tulevat hallituspuolueet eivät pääse pakoon talouden tosiasioita. Esimerkiksi Suomen velkaantuminen jatkuu edelleen päinvastaisista puheista huolimatta, kirjoittaa Erkki Virtanen.</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>Perussuomalaisten Jussi Halla-aho oli ylivoimainen ääniharava Helsingin vaalipiirissä.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Esa Koivuranta</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SDP ja vihreät vaalivoittoon Hämeessä, keskustalle rökäletappio: "Panee miettimään, mitä olemme tehneet väärin" </t>
+          <t>Seisoitko sinäkin pitkään L-Ö-jonossa? Kahtiajaossa iso epäsuhta – Vaalijohtaja: "Jonon saa katkaista, mistä haluaa"</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hämeen äänikunigas on Ville Skinnari (sd.) ja äänikuningatar Lulu Ranne (ps.).</t>
+          <t>Väestötietojärjestelmän mukaan selvä enemmistö suomalaisista on aakkosissa sukunimeltään K:n jälkeen.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Lauri RautavuoriNina Keski-Korpela</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -3406,17 +3406,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Väyrynen putosi eduskunnasta</t>
+          <t>Analyysi: Muutoksen tuuli romutti keskustan – Sipilän lähtölaskenta alkoi</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Väyrynen asettui näissä vaaleissa ehdolle Uudellemaalle uuden puolueensa Tähtiliikkeen riveissä.</t>
+          <t>Ennakkoäänestyksen alustavat tulokset toivat pääministeripuolue keskustalle painajaismaisen vaali-illan, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -3426,17 +3426,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Seisoitko sinäkin pitkään L-Ö-jonossa? Kahtiajaossa iso epäsuhta – Vaalijohtaja: "Jonon saa katkaista, mistä haluaa"</t>
+          <t>SDP suurin puolue, aloitti jo uuden hallituksen hahmottelun – Yle seurasi vaali-iltaa hetki hetkeltä</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Väestötietojärjestelmän mukaan selvä enemmistö suomalaisista on aakkosissa sukunimeltään K:n jälkeen.</t>
+          <t>SDP sai 40 kansanedustajaa, perussuomalaiset 39, kokoomus 38, keskusta 31, vihreät 20, vasemmistoliitto 16, RKP 9, KD 5 ja muut 2.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Timo-Pekka HeimaMiikka KaskinenHanna HanhinenSanttu Natri</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ari Torniainen uskoo, että kansa ei ole tyytyväinen tehtyyn politiikkaan: "Keskustalla on peiliin katsomisen paikka"</t>
+          <t>Demokraatit antoivat uuden takarajan Trumpin verotietojen luovuttamiselle – 10 päivää aikaa</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ari Torniainen sai jatkopestin kolmannelle kaudelle eduskuntaan.</t>
+          <t>Valtiovarainministerin mukaan asiaa harkitaan.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Johanna Luukko</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Maduro vahvistaa Venezuelan armeijaa miljoonalla taistelijalla</t>
+          <t>Keskusta menettämässä kolme paikkaa Oulun vaalipiirissä – monta uutta nimeä nousemassa eduskuntaan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Venezuelan armeija on pysynyt uskollisena presidentti Madurolle.</t>
+          <t>Keskustalle rökäletappio Oulun vaalipiirissä, perussuomalaiset ja vasemmistopuolueet ovat saamassa lisäpaikkoja</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Markus Heikkilä</t>
+          <t>Mari Jäntti</t>
         </is>
       </c>
     </row>
@@ -3486,17 +3486,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ministerien äänimäärät romahtivat Pohjois-Pohjanmaalla, ääniharavoina kolmikymppiset ehdokkaat</t>
+          <t>Väyrynen putosi eduskunnasta</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Muhoslainen Pirkko Mattila, sin., menetti eduskuntapaikkansa ja pääministeri Juha Sipilän, kesk., äänimäärä lähes puolittui.</t>
+          <t>Väyrynen asettui näissä vaaleissa ehdolle Uudellemaalle uuden puolueensa Tähtiliikkeen riveissä.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Katja Oittinen</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3506,17 +3506,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Aiju Salmisen sarjakuvakolumni: Äänestäminen on rituaali</t>
+          <t>Ketkä olivat kotikuntasi suurimmat ääniharavat? Katso Voitto-robotin tulosraportit</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ehdokkaan valinta on myös tapa tutustua omiin ajatuksiin, pohtii sarjakuvapiirtäjä Aiju Salminen.</t>
+          <t>Ylen Voitto-robotti kirjoitti eduskuntavaalien tulosraportit jokaisesta Suomen kunnasta.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t> Voitto-robottiEemeli MarttiTeemu Kiviniemi</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Keskusta menettämässä kolme paikkaa Oulun vaalipiirissä – monta uutta nimeä nousemassa eduskuntaan</t>
+          <t>Ennakkoäänet: SDP suurin puolue Kaakkois-Suomessa</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Keskustalle rökäletappio Oulun vaalipiirissä, perussuomalaiset ja vasemmistopuolueet ovat saamassa lisäpaikkoja</t>
+          <t>Toiseksi suurin puolue kaakossa on keskusta ja kolmanneksi suurin kokoomus.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Mari Jäntti</t>
+          <t>Valtteri Kykkänen</t>
         </is>
       </c>
     </row>
@@ -3546,17 +3546,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Kokoomuksen Sari Raassina putoaa eduskunnasta ja jättää politiikan</t>
+          <t>Tässä ovat Kaakkois-Suomen 17 kansanedustajaa – Antti Häkkänen ylivoimainen ääniharava, SDP palasi suurimmaksi puolueeksi</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Entinen kansanedustaja sanoi jatkavansa kunnallispolitiikassa tämän vaalikauden loppuun.</t>
+          <t>Kaakkois-Suomen edustajista kuusi on uusia. Oikeusministeri Antti Häkkäsen äänimäärä oli erittäin korkea valtakunnallisestikin.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Laura Kosonen</t>
+          <t>Valtteri Kykkänen</t>
         </is>
       </c>
     </row>
@@ -3566,17 +3566,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SDP suurin puolue, aloitti jo uuden hallituksen hahmottelun – Yle seurasi vaali-iltaa hetki hetkeltä</t>
+          <t>SDP voitti perussuomalaiset hiuksenhienolla erolla – suurimman puolueen asema on nyt heikompi kuin koskaan itsenäisyyden aikana</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SDP sai 40 kansanedustajaa, perussuomalaiset 39, kokoomus 38, keskusta 31, vihreät 20, vasemmistoliitto 16, RKP 9, KD 5 ja muut 2.</t>
+          <t>Pääministeripuolue keskusta ja eduskunnasta rannalle jäänyt siniset olivat vaalien häviäjät.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Timo-Pekka HeimaMiikka KaskinenHanna HanhinenSanttu Natri</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -3606,17 +3606,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ennakkoäänet: SDP suurin puolue Kaakkois-Suomessa</t>
+          <t>Maduro vahvistaa Venezuelan armeijaa miljoonalla taistelijalla</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Toiseksi suurin puolue kaakossa on keskusta ja kolmanneksi suurin kokoomus.</t>
+          <t>Venezuelan armeija on pysynyt uskollisena presidentti Madurolle.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Valtteri Kykkänen</t>
+          <t>Markus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -3626,17 +3626,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lappiin kolme uutta kansanedustajaa – viimeisestä paikasta todellinen jännitysnäytelmä</t>
+          <t>Aiju Salmisen sarjakuvakolumni: Äänestäminen on rituaali</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Markus Lohi (kesk.) ja Riikka Karppinen (vihr.) kamppailivat Lapin viimeisestä kansanedustajapaikasta ihan ääntenlaskennan viimeisille hetkille asti.</t>
+          <t>Ehdokkaan valinta on myös tapa tutustua omiin ajatuksiin, pohtii sarjakuvapiirtäjä Aiju Salminen.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Perttu Ruokangas</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -3646,17 +3646,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Demokraatit antoivat uuden takarajan Trumpin verotietojen luovuttamiselle – 10 päivää aikaa</t>
+          <t>Äänestäjät hylkäsivät keskustan myös pääministeri Sipilän kotikonnuilla – vuosituhannen huonoin vaalitulos vaimensi vaalivalvojaiset Oulussa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Valtiovarainministerin mukaan asiaa harkitaan.</t>
+          <t>Keskustan vaali-ilta päättyi jopa synkemmin kuin ennakoitiin. Kannatus mureni myös puolueen sydämessä pohjoisessa.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Risto Ukkonen</t>
         </is>
       </c>
     </row>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Katso videolta tunteiden koko kirjo, kun puoluepomot näkevät ennakkoäänet – Nieleskelyä, voimahaleja, peuroja ajovaloissa</t>
+          <t>Työministerin jyrkkä pudotus – viime vaalien äänikuningas Jari Lindström löi hanskat tiskiin jo alkuillasta: "Ei minulla ollut mitään jakoa"</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Viiden suurimman puolueen keulahahmot ottivat tiedon joukkojensa ääniosuuksista vastaan suorassa vaalilähetyksessä.</t>
+          <t>Työministeri Jari Lindström (sin.) joutuu jättämään eduskunnan kahdeksan vuoden jälkeen.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Satu Krautsuk</t>
         </is>
       </c>
     </row>
@@ -3686,17 +3686,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tässä ovat Oulun vaalipiirin kansanedustajat – kaksi alle 30-vuotiasta mutta myös vanhoja konkareita</t>
+          <t>Orpo sai puolueiden puheenjohtajista vähiten ääniä – Rinnekään ei ollut puolueensa ykkönen</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Noin puolet Oulun vaalipiirin kansanedustajista vaihtuu. Uusia nimiä ovat mm. Jenna Simula (ps.) ja Jenni Pitko (vihr.).</t>
+          <t>Orpon edelle kiilasi neljä muuta kokoomuksen edustajaa.</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Mari Jäntti</t>
+          <t>Ulla-Maija Hamunen</t>
         </is>
       </c>
     </row>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Helsingissä vihreät kiilasi suurimmaksi puolueeksi – Perussuomalaisten Halla-aho äänikuningas</t>
+          <t>Naisia nousi kansanedustajiksi historiallisen paljon – 85 prosenttia vihreiden edustajista naisia</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Helsingissä äänestettiin viime vaaleja vilkkaammin. Äänestysprosentti nousi 77,4 prosenttiin, joka oli Suomen korkein. Keskusta menetti ainoan Helsingin paikkansa.</t>
+          <t>Naiskansanedustajien määrä nousi eduskuntavaaleissa 93:een.</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Reeta Salminen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tässä ovat Vaasan vaalipiirin 16 kansanedustajaa – RKP kiri historiallisesti ohi keskustan</t>
+          <t>Lappiin kolme uutta kansanedustajaa – viimeisestä paikasta todellinen jännitysnäytelmä</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Perussuomalaiset saivat läpi kolme uutta kansanedustajaa.</t>
+          <t>Markus Lohi (kesk.) ja Riikka Karppinen (vihr.) kamppailivat Lapin viimeisestä kansanedustajapaikasta ihan ääntenlaskennan viimeisille hetkille asti.</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Sari VähäsarjaElina Kaakinen</t>
+          <t>Perttu Ruokangas</t>
         </is>
       </c>
     </row>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tässä ovat Hämeen vaalipiiristä valitut kansanedustajat: punavihreä voitto on keskustan tappio</t>
+          <t>Mats Löfström jatkaa Ahvenanmaan kansanedustajana</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Hämeen vaalipiirissä äänikuninkaaksi nousi lahtelainen Ville Skinnari (sd.).</t>
+          <t>Ahvenanmaan vaalipiirin kaikki annetut äänet on nyt laskettu. </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Nina Keski-Korpela</t>
+          <t>Johanna Lehtola</t>
         </is>
       </c>
     </row>
@@ -3766,17 +3766,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SDP voitti perussuomalaiset hiuksenhienolla erolla – suurimman puolueen asema on nyt heikompi kuin koskaan itsenäisyyden aikana</t>
+          <t>Tässä ovat Pirkanmaan 19 kansanedustajaa – demarit saivat yhden paikan lisää ja ovat nyt suurin puolue</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pääministeripuolue keskusta ja eduskunnasta rannalle jäänyt siniset olivat vaalien häviäjät.</t>
+          <t>Pirkanmaalla demarit saivat yhden edustajan lisää, keskusta puolestaan menetti yhden paikan.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Heli Mansikka</t>
         </is>
       </c>
     </row>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>He ovat putoamassa eduskunnasta: Jussi Niinistö, Jyrki Kasvi, Silvia Modig, Paavo Väyrynen – Siniset: Puolueen lakkautuspäätöstä ei ole</t>
+          <t>Koko maan äänestysprosentti nousi 72:een – katso miten ahkerasti sinun kunnassasi äänestettiin</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Viisi viime hallituksen ministeriä joutuu tyhjentämään työhuoneensa Eduskuntatalossa.</t>
+          <t>Äänestysprosentti on yltänyt yli 72:n viimeksi vuoden 1991 eduskuntavaaleissa.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -3806,17 +3806,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Vaalivirkailija Kuittinen on ollut töissä kaikissa vaaleissa 1970-luvun puolivälistä – ja taas hän ja 20 000 muuta panevat vaalit rullaamaan</t>
+          <t>Tässä ovat Hämeen vaalipiiristä valitut kansanedustajat: punavihreä voitto on keskustan tappio</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Kymmenien vaalien konkari: "Sinne lähdetään oikein innostuneella tunnelmalla." Äänestyspaikkojen määrä on vähentynyt tuhannella  2000-luvulla.  </t>
+          <t>Hämeen vaalipiirissä äänikuninkaaksi nousi lahtelainen Ville Skinnari (sd.).</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Antti Parviala</t>
+          <t>Nina Keski-Korpela</t>
         </is>
       </c>
     </row>
@@ -3826,17 +3826,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SDP:n komeetta Sanna Marin voitti sekä äänissä että hammaslääkärijonossa – puolueen johto oli lähes sulaa ennätysjännittävässä illassa</t>
+          <t>Tässä ovat Oulun vaalipiirin kansanedustajat – kaksi alle 30-vuotiasta mutta myös vanhoja konkareita</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SDP sai 40 kansanedustajaa ja voitti niukimmalla mahdollisella erolla. Perussuomalaiset ja kokoomus hengittivät koko illan niskaan. </t>
+          <t>Noin puolet Oulun vaalipiirin kansanedustajista vaihtuu. Uusia nimiä ovat mm. Jenna Simula (ps.) ja Jenni Pitko (vihr.).</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Anu Leena Koskinen</t>
+          <t>Mari Jäntti</t>
         </is>
       </c>
     </row>
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tässä ovat Helsingin piirin uudet kansanedustajat – Yhdeksän uutta, viisi tippui </t>
+          <t>Kokoomuksen Sari Raassina putoaa eduskunnasta ja jättää politiikan</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Helsingissä äänestettiin maan aktiivisimmin. Äänestysprosentti kipusi 77,4 prosenttiin. </t>
+          <t>Entinen kansanedustaja sanoi jatkavansa kunnallispolitiikassa tämän vaalikauden loppuun.</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Reeta Salminen</t>
+          <t>Laura Kosonen</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,18 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Muista nämä asiat, kun ennakkoäänten tulokset tulevat klo 20 –  Vaaliasiantuntija: Kaksi asiaa mutkistaa tulosten tulkintaa</t>
+          <t>Tässä ovat Keski-Suomen vaalipiiristä valitut kansanedustajat – SDP:n Riitta Mäkinen äänikuningatar: "En odottanut tällaista menestystä"</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Perinteisesti tietyt puolueet menettävät kannatusosuuttaan ääntenlaskennan edetessä, mutta tänä vuonna tilanne voi olla erilainen.</t>
+          <t>
+Keskusta menetti paikan vasemmistoliitolle. Jatkokaudelle eivät päässeet Aila Paloniemi (kesk.), Toimi Kankaanniemi (ps.) ja Touko Aalto (vihr.).</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Hanna Terävä</t>
+          <t>Laura Tolonen</t>
         </is>
       </c>
     </row>
@@ -3886,17 +3887,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Orpo sai puolueiden puheenjohtajista vähiten ääniä – Rinnekään ei ollut puolueensa ykkönen</t>
+          <t>Ylen tulospalvelu kertoo eduskuntavaalien tuloksen – katso oman kuntasi vaalitulos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Orpon edelle kiilasi neljä muuta kokoomuksen edustajaa.</t>
+          <t>Tulospalvelun kautta voit saada selville myös muun muassa tulevan eduskunnan ikä- ja sukupuolijakauman.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ulla-Maija Hamunen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -3906,17 +3907,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Puheenjohtajat palasivat illan päätteeksi puhumaan omilleen – katso videot</t>
+          <t>SDP ja vihreät vaalivoittoon Hämeessä, keskustalle rökäletappio: "Panee miettimään, mitä olemme tehneet väärin" </t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Vaali-illan kääntyessä loppusuoralle, siirtyivät puolueiden puheenjohtajat omiensa luokse pitämään kiitospuheita.</t>
+          <t>Hämeen äänikunigas on Ville Skinnari (sd.) ja äänikuningatar Lulu Ranne (ps.).</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ilpo Pajunen</t>
+          <t>Lauri RautavuoriNina Keski-Korpela</t>
         </is>
       </c>
     </row>
@@ -3926,18 +3927,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tässä ovat Keski-Suomen vaalipiiristä valitut kansanedustajat – SDP:n Riitta Mäkinen äänikuningatar: "En odottanut tällaista menestystä"</t>
+          <t>Video H-hetkestä: Näin Rinne, Halla-aho, Sipilä ja muut selittävät ensimmäisiä laskettuja ääniä – "Raju pudotus, kansanvalta on puhunut"</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>
-Keskusta menetti paikan vasemmistoliitolle. Jatkokaudelle eivät päässeet Aila Paloniemi (kesk.), Toimi Kankaanniemi (ps.) ja Touko Aalto (vihr.).</t>
+          <t>"Ykkösenä loppuun asti", ennusti SDP:n puheenjohtaja Antti Rinne ääntenlaskennan ensivaiheessa.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Laura Tolonen</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -3947,17 +3947,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Brother Christmas ja nämä muut uudet tuttavuudet pääsevät kansanedustajiksi</t>
+          <t>Muista nämä asiat, kun ennakkoäänten tulokset tulevat klo 20 –  Vaaliasiantuntija: Kaksi asiaa mutkistaa tulosten tulkintaa</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tuttuja julkkisnimiä noussee eduskuntaan. Liuta menneitä eduskuntakonkareita tekee comebackin tulevalla vaalikaudella.</t>
+          <t>Perinteisesti tietyt puolueet menettävät kannatusosuuttaan ääntenlaskennan edetessä, mutta tänä vuonna tilanne voi olla erilainen.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Matti KonttinenTiina Länkinen</t>
+          <t>Hanna Terävä</t>
         </is>
       </c>
     </row>
@@ -3967,17 +3967,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tässä ovat Pirkanmaan 19 kansanedustajaa – demarit saivat yhden paikan lisää ja ovat nyt suurin puolue</t>
+          <t>SDP:n komeetta Sanna Marin voitti sekä äänissä että hammaslääkärijonossa – puolueen johto oli lähes sulaa ennätysjännittävässä illassa</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pirkanmaalla demarit saivat yhden edustajan lisää, keskusta puolestaan menetti yhden paikan.</t>
+          <t>SDP sai 40 kansanedustajaa ja voitti niukimmalla mahdollisella erolla. Perussuomalaiset ja kokoomus hengittivät koko illan niskaan. </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Heli Mansikka</t>
+          <t>Anu Leena Koskinen</t>
         </is>
       </c>
     </row>
@@ -3987,17 +3987,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Naisia nousi kansanedustajiksi historiallisen paljon – 85 prosenttia vihreiden edustajista naisia</t>
+          <t>Tässä ovat Helsingin piirin uudet kansanedustajat – Yhdeksän uutta, viisi tippui </t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Naiskansanedustajien määrä nousi eduskuntavaaleissa 93:een.</t>
+          <t>Helsingissä äänestettiin maan aktiivisimmin. Äänestysprosentti kipusi 77,4 prosenttiin. </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Reeta Salminen</t>
         </is>
       </c>
     </row>
@@ -4007,17 +4007,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Koko maan äänestysprosentti nousi 72:een – katso miten ahkerasti sinun kunnassasi äänestettiin</t>
+          <t>Vaalivirkailija Kuittinen on ollut töissä kaikissa vaaleissa 1970-luvun puolivälistä – ja taas hän ja 20 000 muuta panevat vaalit rullaamaan</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Äänestysprosentti on yltänyt yli 72:n viimeksi vuoden 1991 eduskuntavaaleissa.</t>
+          <t>Kymmenien vaalien konkari: "Sinne lähdetään oikein innostuneella tunnelmalla." Äänestyspaikkojen määrä on vähentynyt tuhannella  2000-luvulla.  </t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Antti Parviala</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Video H-hetkestä: Näin Rinne, Halla-aho, Sipilä ja muut selittävät ensimmäisiä laskettuja ääniä – "Raju pudotus, kansanvalta on puhunut"</t>
+          <t>Tässä ovat Vaasan vaalipiirin 16 kansanedustajaa – RKP kiri historiallisesti ohi keskustan</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"Ykkösenä loppuun asti", ennusti SDP:n puheenjohtaja Antti Rinne ääntenlaskennan ensivaiheessa.</t>
+          <t>Perussuomalaiset saivat läpi kolme uutta kansanedustajaa.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Tiina Länkinen</t>
+          <t>Sari VähäsarjaElina Kaakinen</t>
         </is>
       </c>
     </row>
@@ -4047,17 +4047,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tässä ovat Varsinais-Suomen vaalipiiristä valitut kansanedustajat – perussuomalaiset nousi suurimmaksi puolueeksi  </t>
+          <t>Analyysi: Hallitusneuvotteluista äärimmäisen vaikeat – muutoksen suunta jäi kysymysmerkiksi</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Vasemmistoliiton puheenjohtajaa Li Anderssonia äänesti yli 24 000 varsinaissuomalaista. Vaalipiirin äänestysprosentti oli 73,2. </t>
+          <t>Jussi Halla-ahon perussuomalaisten vaaliylläköstä tuli  kutsumaton vieras punavihreän opposition voitonjuhliin, kirjoittaa politiikan toimittaja Pekka Kinnunen. </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Satu Aaltonen</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -4067,17 +4067,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Mats Löfström jatkaa Ahvenanmaan kansanedustajana</t>
+          <t>Sunnuntai 14.4.2019 (radio)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Ahvenanmaan vaalipiirin kaikki annetut äänet on nyt laskettu. </t>
+          <t>Suomessa on järjestetty eduskuntavaalit. Vaalitulos on tasainen. Voittajia ovat vasemmistopuolueet ja vihreät. Myös perussuomalaiset menestyivät hyvin. Suurin häviäjä on keskusta. Urheilua: Suomi sai MM-hopeaa naisten jääkiekossa.</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Johanna Lehtola</t>
+          <t>Pertti Seppä</t>
         </is>
       </c>
     </row>
@@ -4087,17 +4087,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sunnuntai 14.4.2019 (radio)</t>
+          <t>Brother Christmas ja nämä muut uudet tuttavuudet pääsevät kansanedustajiksi</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Suomessa on järjestetty eduskuntavaalit. Vaalitulos on tasainen. Voittajia ovat vasemmistopuolueet ja vihreät. Myös perussuomalaiset menestyivät hyvin. Suurin häviäjä on keskusta. Urheilua: Suomi sai MM-hopeaa naisten jääkiekossa.</t>
+          <t>Tuttuja julkkisnimiä noussee eduskuntaan. Liuta menneitä eduskuntakonkareita tekee comebackin tulevalla vaalikaudella.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Pertti Seppä</t>
+          <t>Matti KonttinenTiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -4107,17 +4107,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SDP ja vihreät vaalivoittoon Uudellamaalla – eniten kannatustaan menetti keskusta</t>
+          <t>Tässä ovat Varsinais-Suomen vaalipiiristä valitut kansanedustajat – perussuomalaiset nousi suurimmaksi puolueeksi  </t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Vuoden 2019 eduskuntavaalit muodostuivat sosialidemokraattien ja vihreiden juhlaksi Uudenmaan vaalipiirissä.</t>
+          <t>Vasemmistoliiton puheenjohtajaa Li Anderssonia äänesti yli 24 000 varsinaissuomalaista. Vaalipiirin äänestysprosentti oli 73,2. </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Paula Tiainen</t>
+          <t>Satu Aaltonen</t>
         </is>
       </c>
     </row>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Halla-aho vaalien äänikuningas ja ohitti Sauli Niinistön aikaisemman ennätyksen Helsingin vaalipiirissä – katso täältä muutkin äänirohmut</t>
+          <t>Ari Torniainen uskoo, että kansa ei ole tyytyväinen tehtyyn politiikkaan: "Keskustalla on peiliin katsomisen paikka"</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Viime vaalien ääniharava Juha Sipilä keräsi nyt seitsemänneksi eniten ääniä.</t>
+          <t>Ari Torniainen sai jatkopestin kolmannelle kaudelle eduskuntaan.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Ilpo Pajunen</t>
+          <t>Johanna Luukko</t>
         </is>
       </c>
     </row>
@@ -4147,17 +4147,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Analyysi: Muutoksen tuuli romutti keskustan – Sipilän lähtölaskenta alkoi</t>
+          <t>Vihreiden Riikka Karppinen keräsi puolueensa kolmanneksi suurimman äänisaaliin – jäi silti Lapissa rannalle äärimmäisen pienellä erolla</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ennakkoäänestyksen alustavat tulokset toivat pääministeripuolue keskustalle painajaismaisen vaali-illan, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
+          <t>Sodankyläläinen kunnanvaltuutettu Riikka Karppinen keräsi Vihreän liiton ehdokkaista koko maan kolmanneksi suurimman äänisaaliin.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Antti Heikinmatti</t>
         </is>
       </c>
     </row>
@@ -4167,17 +4167,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Analyysi: Hallitusneuvotteluista äärimmäisen vaikeat – muutoksen suunta jäi kysymysmerkiksi</t>
+          <t>SDP ja vihreät vaalivoittoon Uudellamaalla – eniten kannatustaan menetti keskusta</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Jussi Halla-ahon perussuomalaisten vaaliylläköstä tuli  kutsumaton vieras punavihreän opposition voitonjuhliin, kirjoittaa politiikan toimittaja Pekka Kinnunen. </t>
+          <t>Vuoden 2019 eduskuntavaalit muodostuivat sosialidemokraattien ja vihreiden juhlaksi Uudenmaan vaalipiirissä.</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Paula Tiainen</t>
         </is>
       </c>
     </row>
@@ -4187,12 +4187,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kädet ilmaan! Halla-aho juhlisti voitokasta iltaa suudelmalla, keskusta sulkeutui voimahalaukseen – kuvakooste vaali-illasta</t>
+          <t>Katso videolta tunteiden koko kirjo, kun puoluepomot näkevät ennakkoäänet – Nieleskelyä, voimahaleja, peuroja ajovaloissa</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Puolueiden vaalivalvojaisissa näkyi voitonhuuma ja tappion nieleskely. Yle kokosi tunnelmakuvia sunnuntai-illasta.</t>
+          <t>Viiden suurimman puolueen keulahahmot ottivat tiedon joukkojensa ääniosuuksista vastaan suorassa vaalilähetyksessä.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4207,17 +4207,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ketkä olivat kotikuntasi suurimmat ääniharavat? Katso Voitto-robotin tulosraportit</t>
+          <t>Ministerien äänimäärät romahtivat Pohjois-Pohjanmaalla, ääniharavoina kolmikymppiset ehdokkaat</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Ylen Voitto-robotti kirjoitti eduskuntavaalien tulosraportit jokaisesta Suomen kunnasta.</t>
+          <t>Muhoslainen Pirkko Mattila, sin., menetti eduskuntapaikkansa ja pääministeri Juha Sipilän, kesk., äänimäärä lähes puolittui.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t> Voitto-robottiEemeli MarttiTeemu Kiviniemi</t>
+          <t>Katja Oittinen</t>
         </is>
       </c>
     </row>
@@ -4227,17 +4227,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Äänestäjät hylkäsivät keskustan myös pääministeri Sipilän kotikonnuilla – vuosituhannen huonoin vaalitulos vaimensi vaalivalvojaiset Oulussa</t>
+          <t>Puheenjohtajat palasivat illan päätteeksi puhumaan omilleen – katso videot</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Keskustan vaali-ilta päättyi jopa synkemmin kuin ennakoitiin. Kannatus mureni myös puolueen sydämessä pohjoisessa.</t>
+          <t>Vaali-illan kääntyessä loppusuoralle, siirtyivät puolueiden puheenjohtajat omiensa luokse pitämään kiitospuheita.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Risto Ukkonen</t>
+          <t>Ilpo Pajunen</t>
         </is>
       </c>
     </row>
@@ -4247,17 +4247,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Työministerin jyrkkä pudotus – viime vaalien äänikuningas Jari Lindström löi hanskat tiskiin jo alkuillasta: "Ei minulla ollut mitään jakoa"</t>
+          <t>Helsingissä vihreät kiilasi suurimmaksi puolueeksi – Perussuomalaisten Halla-aho äänikuningas</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Työministeri Jari Lindström (sin.) joutuu jättämään eduskunnan kahdeksan vuoden jälkeen.</t>
+          <t>Helsingissä äänestettiin viime vaaleja vilkkaammin. Äänestysprosentti nousi 77,4 prosenttiin, joka oli Suomen korkein. Keskusta menetti ainoan Helsingin paikkansa.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Satu Krautsuk</t>
+          <t>Reeta Salminen</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ylen tulospalvelu kertoo eduskuntavaalien tuloksen – katso oman kuntasi vaalitulos</t>
+          <t>Kädet ilmaan! Halla-aho juhlisti voitokasta iltaa suudelmalla, keskusta sulkeutui voimahalaukseen – kuvakooste vaali-illasta</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Tulospalvelun kautta voit saada selville myös muun muassa tulevan eduskunnan ikä- ja sukupuolijakauman.</t>
+          <t>Puolueiden vaalivalvojaisissa näkyi voitonhuuma ja tappion nieleskely. Yle kokosi tunnelmakuvia sunnuntai-illasta.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -4287,17 +4287,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tässä ovat Kaakkois-Suomen 17 kansanedustajaa – Antti Häkkänen ylivoimainen ääniharava, SDP palasi suurimmaksi puolueeksi</t>
+          <t>He ovat putoamassa eduskunnasta: Jussi Niinistö, Jyrki Kasvi, Silvia Modig, Paavo Väyrynen – Siniset: Puolueen lakkautuspäätöstä ei ole</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Kaakkois-Suomen edustajista kuusi on uusia. Oikeusministeri Antti Häkkäsen äänimäärä oli erittäin korkea valtakunnallisestikin.</t>
+          <t>Viisi viime hallituksen ministeriä joutuu tyhjentämään työhuoneensa Eduskuntatalossa.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Valtteri Kykkänen</t>
+          <t>Tiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -4307,17 +4307,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Vihreiden Riikka Karppinen keräsi puolueensa kolmanneksi suurimman äänisaaliin – jäi silti Lapissa rannalle äärimmäisen pienellä erolla</t>
+          <t>Halla-aho vaalien äänikuningas ja ohitti Sauli Niinistön aikaisemman ennätyksen Helsingin vaalipiirissä – katso täältä muutkin äänirohmut</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Sodankyläläinen kunnanvaltuutettu Riikka Karppinen keräsi Vihreän liiton ehdokkaista koko maan kolmanneksi suurimman äänisaaliin.</t>
+          <t>Viime vaalien ääniharava Juha Sipilä keräsi nyt seitsemänneksi eniten ääniä.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Antti Heikinmatti</t>
+          <t>Ilpo Pajunen</t>
         </is>
       </c>
     </row>
@@ -4327,17 +4327,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Kärhämöinti Helsingin Narinkkatorin vaalitilaisuudessa jatkui – poliisi tekemässä rikosilmoitusta pahoinpitelystä</t>
+          <t>"Komeita ovat Hämeen emännät" – Sirkka-Liisa Anttila sai Veikko Vennamolta kehut tuoreena kansanedustajana </t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Naista lyötiin Suomen kansa ensin -puolueen vaaliteltalla.</t>
+          <t>Suomen pitkäaikaisin naiskansanedustaja keskittyy nyt isoäitiyteen ja kirjan kirjoittamiseen.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Jari Strömberg</t>
+          <t>Tiina Kokko</t>
         </is>
       </c>
     </row>
@@ -4347,17 +4347,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Narrin paikalta vallan kahvaan: Miksi äänestäjä luottaa koomikkoon? </t>
+          <t>Kärhämöinti Helsingin Narinkkatorin vaalitilaisuudessa jatkui – poliisi tekemässä rikosilmoitusta pahoinpitelystä</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Elämme ajassa, jossa parodiapuolueen perustaja on noussut pääkaupungin pormestariksi ja presidenttiä esittävä koomikko pärjää oikeissa presidentinvaaleissa. Onko yhteisten asioiden päättämisestä tullut vitsi?</t>
+          <t>Naista lyötiin Suomen kansa ensin -puolueen vaaliteltalla.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Anna Nevalainen</t>
+          <t>Jari Strömberg</t>
         </is>
       </c>
     </row>
@@ -4367,17 +4367,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö odottaa television supersunnuntaita: "Pitää pystyä simultaani maali- ja vaaliseurantaan"</t>
+          <t>Narrin paikalta vallan kahvaan: Miksi äänestäjä luottaa koomikkoon? </t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien ennakkoäänten julkistus ja naisten jääkiekon MM-finaali osuvat samalle kellonlyömälle.</t>
+          <t>Elämme ajassa, jossa parodiapuolueen perustaja on noussut pääkaupungin pormestariksi ja presidenttiä esittävä koomikko pärjää oikeissa presidentinvaaleissa. Onko yhteisten asioiden päättämisestä tullut vitsi?</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Markus HeikkiläHinni Hirvonen</t>
+          <t>Anna Nevalainen</t>
         </is>
       </c>
     </row>
@@ -4387,17 +4387,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Komeita ovat Hämeen emännät" – Sirkka-Liisa Anttila sai Veikko Vennamolta kehut tuoreena kansanedustajana </t>
+          <t>Tunnistatko puolueiden ilmastolupaukset? Testaa tietosi</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Suomen pitkäaikaisin naiskansanedustaja keskittyy nyt isoäitiyteen ja kirjan kirjoittamiseen.</t>
+          <t>Ilmastonmuutoksesta on puhuttu paljon eduskuntavaalien yhteydessä. Mutta mitä asiasta sanotaan puolueiden vaaliohjelmissa?</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tiina Kokko</t>
+          <t>Outi ParikkaLaura Tolonen</t>
         </is>
       </c>
     </row>
@@ -4407,17 +4407,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tunnistatko puolueiden ilmastolupaukset? Testaa tietosi</t>
+          <t>11 uutta ryhmää pyrkii eduskuntaan, mutta vain pari voinee onnistua – Miksi puolueen synnyttäminen on niin vaikeaa?</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Ilmastonmuutoksesta on puhuttu paljon eduskuntavaalien yhteydessä. Mutta mitä asiasta sanotaan puolueiden vaaliohjelmissa?</t>
+          <t>Monen pienen puolueen haaveet omista kansanedustajista murskautuvat vaaleissa. Eduskunnan kynnys on korkea. </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Outi ParikkaLaura Tolonen</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
@@ -4427,17 +4427,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>11 uutta ryhmää pyrkii eduskuntaan, mutta vain pari voinee onnistua – Miksi puolueen synnyttäminen on niin vaikeaa?</t>
+          <t>Presidentti Niinistö odottaa television supersunnuntaita: "Pitää pystyä simultaani maali- ja vaaliseurantaan"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Monen pienen puolueen haaveet omista kansanedustajista murskautuvat vaaleissa. Eduskunnan kynnys on korkea. </t>
+          <t>Eduskuntavaalien ennakkoäänten julkistus ja naisten jääkiekon MM-finaali osuvat samalle kellonlyömälle.</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Markus HeikkiläHinni Hirvonen</t>
         </is>
       </c>
     </row>
@@ -4467,17 +4467,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien nurja puoli – Kampanjat nielevät kymppitonneja, pelissä voi olla omat ja lähipiirin rahat, jopa perintöeurot</t>
+          <t>Ehdokas ostaa mieluummin tienvarsimainoksen kuin tubettajan – vaalimainonnassa Suomessa eletään yhä Kekkosen aikaa </t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Eduskuntavaaleissa menestyminen vaatii edelleen useimmilta läpimenijöiltä kymmenien tuhansien eurojen riskinoton. </t>
+          <t>Viestinnän asiantuntijat epäilevät, etteivät puolueet vieläkään osaa hyödyntää sosiaalista mediaa kampanjoissaan.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Petri Vironen</t>
+          <t>Mikko Pesonen</t>
         </is>
       </c>
     </row>
@@ -4487,17 +4487,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Viattomat tuotantoeläimet sotkettiin sote-soppaan – mitä tekemistä lehmillä on politiikan kanssa?</t>
+          <t>Tapahtuuko lähipäivinä jotain outoa? Näillä nopeilla vinkeillä voit tunnistaa vaalihäirinnän ilmiöt, jotka ovat tapahtuneet jo muualla</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Lehmänkaupoista on puhuttu liki koko päättynyt hallituskausi. Mutta mistä sanonta on peräisin?</t>
+          <t>Pääosin verkossa tapahtuva vaalihäirintä voi osua Suomeen, mutta tärkeintä on pitää pää kylmänä. </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Elina Rantalainen</t>
+          <t>Riku RoslundPäivi Koskinen</t>
         </is>
       </c>
     </row>
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Oululaista kaupunginvaltuutettua vastaan on nostettu syyte kiihottamisesta kansanryhmää vastaan</t>
+          <t>Obaman ex-avustajalle rikossyyte Muellerin Venäjä-tutkintaan liittyvässä vyyhdissä</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Kihlakunnansyyttäjä tiedotti syytteistä samana päivänä, kun toimittaja Johanna Vehkoo tuomittiin Junes Lokan kunnian loukkaamisesta, kun Vehkoo kutsui häntä natsiksi.</t>
+          <t>Gregory Craig on ensimmäinen demokraatti, joka saa syytteen Muellerin Venäjä-tutkintaan liittyen.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Marko Pinola</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tässä nuorten vaalikeskustelun osallistujat – mukana väestönvaihdosta twiittaileva perussuomalainen ja suoran toiminnan vasemmistolainen</t>
+          <t>The Washington Post: Trumpin hallinto halusi vapauttaa pidätettyjä siirtolaisia demokraattialueille rangaistakseen poliittisia vastustajiaan</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Puolueiden nuorisojärjestöjen edustajat haastoivat tänään toisensa Ylen vaalitentissä.</t>
+          <t>Amerikkalaislehden mukaan Valkoinen talo halusi kohdistaa toimia muun muassa San Franciscoon.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -4547,17 +4547,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Vaalipäivänä pääsee uurnille aurinkoisessa ja lämpimässä säässä – Tutkijan mukaan taivaalta pitäisi sataa "kissoja ja koiria", jotta se vaikuttaisi äänestysaktiivisuuteen</t>
+          <t>Nigel Farage perustaa brexit-puolueen</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Politiikan tutkijan Markku Jokisipilän mukaan äänestämään lähdetään, oli sää hyvä tai huono.</t>
+          <t>Farage johti Britannian EU-eroa vaatinutta puoluetta, mutta erosi siitä.</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t>Yrjö Kokkonen</t>
         </is>
       </c>
     </row>
@@ -4567,17 +4567,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Obaman ex-avustajalle rikossyyte Muellerin Venäjä-tutkintaan liittyvässä vyyhdissä</t>
+          <t>Nuuska maitokauppoihin ja naisille Lotta-koulutusta – Nuorten vaalitentissä keskusteltiin kohteliaasti ja huutamatta vaikeista asioista</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Gregory Craig on ensimmäinen demokraatti, joka saa syytteen Muellerin Venäjä-tutkintaan liittyen.</t>
+          <t>Keskustelua käytiin esimerkiksi koulutuksesta, päihteistä, ilmastonmuutoksesta ja hävittäjistä.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4587,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>The Washington Post: Trumpin hallinto halusi vapauttaa pidätettyjä siirtolaisia demokraattialueille rangaistakseen poliittisia vastustajiaan</t>
+          <t>Toimittaja tuomittiin kunnianloukkauksesta, kun hän kutsui oululaista kaupunginvaltuutettua natsiksi ja rasistiksi</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Amerikkalaislehden mukaan Valkoinen talo halusi kohdistaa toimia muun muassa San Franciscoon.</t>
+          <t>Oikeuden mukaan arvostelu kohdistui Junes Lokkaan henkilönä, kun toimittaja Johanna Vehkoo kutsui häntä muun muassa natsipelleksi. </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Marko PinolaMari Jäntti</t>
         </is>
       </c>
     </row>
@@ -4607,17 +4607,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Toimittaja tuomittiin kunnianloukkauksesta, kun hän kutsui oululaista kaupunginvaltuutettua natsiksi ja rasistiksi</t>
+          <t>Elämäsi sää, kuukausi kansanedustajan saappaissa ja paljastava arvomittari – tässä ovat Ylen vaalikevään suosituimmat pelit ja testit </t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Oikeuden mukaan arvostelu kohdistui Junes Lokkaan henkilönä, kun toimittaja Johanna Vehkoo kutsui häntä muun muassa natsipelleksi. </t>
+          <t>Ylen interaktiiviset jutut kertovat muun muassa vaalimainoksista, kansanedustajan työstä, arvoista ja ilmastosta.</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Marko PinolaMari Jäntti</t>
+          <t>Juho Salminen</t>
         </is>
       </c>
     </row>
@@ -4627,17 +4627,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Nigel Farage perustaa brexit-puolueen</t>
+          <t>Helsingin Sanomat: Valtiovarainministeriö pimitti eduskunnalta soteen liittyvän 210 miljoonan euron ongelman</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Farage johti Britannian EU-eroa vaatinutta puoluetta, mutta erosi siitä.</t>
+          <t>HS näki sähköpostit: ”Onko riski, että joku eduskunnassa huomaa tuon puutteen?”</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Yrjö Kokkonen</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -4647,17 +4647,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Elämäsi sää, kuukausi kansanedustajan saappaissa ja paljastava arvomittari – tässä ovat Ylen vaalikevään suosituimmat pelit ja testit </t>
+          <t>Eduskuntavaalien nurja puoli – Kampanjat nielevät kymppitonneja, pelissä voi olla omat ja lähipiirin rahat, jopa perintöeurot</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ylen interaktiiviset jutut kertovat muun muassa vaalimainoksista, kansanedustajan työstä, arvoista ja ilmastosta.</t>
+          <t>Eduskuntavaaleissa menestyminen vaatii edelleen useimmilta läpimenijöiltä kymmenien tuhansien eurojen riskinoton. </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Juho Salminen</t>
+          <t>Petri Vironen</t>
         </is>
       </c>
     </row>
@@ -4667,17 +4667,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tapahtuuko lähipäivinä jotain outoa? Näillä nopeilla vinkeillä voit tunnistaa vaalihäirinnän ilmiöt, jotka ovat tapahtuneet jo muualla</t>
+          <t>Mikko Alatalo jättäytyi eduskunnasta: "Kun jalka vielä teppasee, vois jotain muutakin touhuta"</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Pääosin verkossa tapahtuva vaalihäirintä voi osua Suomeen, mutta tärkeintä on pitää pää kylmänä. </t>
+          <t>Neljän eduskuntakauden jälkeen on aikaa musiikin tekemiseen, laulattamiseen, reissaamiseen ja koiran pissatuslenkkeihin Pispalassa.</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Riku RoslundPäivi Koskinen</t>
+          <t>Reija Grönroos</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mikko Alatalo jättäytyi eduskunnasta: "Kun jalka vielä teppasee, vois jotain muutakin touhuta"</t>
+          <t>Oululaista kaupunginvaltuutettua vastaan on nostettu syyte kiihottamisesta kansanryhmää vastaan</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Neljän eduskuntakauden jälkeen on aikaa musiikin tekemiseen, laulattamiseen, reissaamiseen ja koiran pissatuslenkkeihin Pispalassa.</t>
+          <t>Kihlakunnansyyttäjä tiedotti syytteistä samana päivänä, kun toimittaja Johanna Vehkoo tuomittiin Junes Lokan kunnian loukkaamisesta, kun Vehkoo kutsui häntä natsiksi.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Reija Grönroos</t>
+          <t>Marko Pinola</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4707,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuuska maitokauppoihin ja naisille Lotta-koulutusta – Nuorten vaalitentissä keskusteltiin kohteliaasti ja huutamatta vaikeista asioista</t>
+          <t>Viattomat tuotantoeläimet sotkettiin sote-soppaan – mitä tekemistä lehmillä on politiikan kanssa?</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Keskustelua käytiin esimerkiksi koulutuksesta, päihteistä, ilmastonmuutoksesta ja hävittäjistä.</t>
+          <t>Lehmänkaupoista on puhuttu liki koko päättynyt hallituskausi. Mutta mistä sanonta on peräisin?</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t>Elina Rantalainen</t>
         </is>
       </c>
     </row>
@@ -4727,17 +4727,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Soikku ja Roni Back äänestävät nyt, mutta aina niin ei ole ollut – "En äänestänyt viimeksi, koska kaikki oli mun mielestä Suomessa ihan hyvin"</t>
+          <t>Tässä nuorten vaalikeskustelun osallistujat – mukana väestönvaihdosta twiittaileva perussuomalainen ja suoran toiminnan vasemmistolainen</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Tubettajat Soikku ja Roni Back valitsivat eduskuntavaaliehdokkaansa vaalikoneen, kaverikeskustelujen ja ehdokkaan somepresenssin perusteella.</t>
+          <t>Puolueiden nuorisojärjestöjen edustajat haastoivat tänään toisensa Ylen vaalitentissä.</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Jonni Aromaa</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -4747,17 +4747,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Helsingin Sanomat: Valtiovarainministeriö pimitti eduskunnalta soteen liittyvän 210 miljoonan euron ongelman</t>
+          <t>Vaalipäivänä pääsee uurnille aurinkoisessa ja lämpimässä säässä – Tutkijan mukaan taivaalta pitäisi sataa "kissoja ja koiria", jotta se vaikuttaisi äänestysaktiivisuuteen</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>HS näki sähköpostit: ”Onko riski, että joku eduskunnassa huomaa tuon puutteen?”</t>
+          <t>Politiikan tutkijan Markku Jokisipilän mukaan äänestämään lähdetään, oli sää hyvä tai huono.</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -4767,17 +4767,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ehdokas ostaa mieluummin tienvarsimainoksen kuin tubettajan – vaalimainonnassa Suomessa eletään yhä Kekkosen aikaa </t>
+          <t>Ennakkoon ulkomailla äänestäneiden määrä kasvoi yli 41 000:een</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Viestinnän asiantuntijat epäilevät, etteivät puolueet vieläkään osaa hyödyntää sosiaalista mediaa kampanjoissaan.</t>
+          <t>Eniten ääniä annettiin perinteiseen tapaan Tukholmassa ja Espanjan Aurinkorannikon Fuengirolassa.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Mikko Pesonen</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -4787,17 +4787,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ennakkoon ulkomailla äänestäneiden määrä kasvoi yli 41 000:een</t>
+          <t>Soikku ja Roni Back äänestävät nyt, mutta aina niin ei ole ollut – "En äänestänyt viimeksi, koska kaikki oli mun mielestä Suomessa ihan hyvin"</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Eniten ääniä annettiin perinteiseen tapaan Tukholmassa ja Espanjan Aurinkorannikon Fuengirolassa.</t>
+          <t>Tubettajat Soikku ja Roni Back valitsivat eduskuntavaaliehdokkaansa vaalikoneen, kaverikeskustelujen ja ehdokkaan somepresenssin perusteella.</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Jonni Aromaa</t>
         </is>
       </c>
     </row>
@@ -4807,17 +4807,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pääministeri May selvitti parlamentille brexitin jatkoaskeleita: "Erosopimusta ei avata uudelleen" </t>
+          <t>Analyysi: Brexitiin tuli kaivattu hengähdystauko, mutta kestääkö brittien pää lokakuun takarajaan saakka?</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Britannian pääministeri Theresa May pahoitteli parlamentin alahuoneessa lokakuuhun asti myönnetyn lykkäyksen toteutumista.</t>
+          <t>Britanniassa kannetaan nyt huolta kansanedustajien henkisestä hyvinvoinnista,  kertoo Lontoosta Pasi Myöhänen.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Erja Tuomaala</t>
+          <t>Pasi Myöhänen</t>
         </is>
       </c>
     </row>
@@ -4827,17 +4827,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Maduro: Punaisen ristin apu on tervetullut Venezuelaan</t>
+          <t>Vastaavalta päätoimittajalta: Vaalikamppailu väliaikalähdöllä</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>YK:n mukaan lähes neljännes Venezuelan 30 miljoonasta ihmisestä tarvitsee kiireellistä apua.</t>
+          <t>Demokratia on suomalaisille vakava asia – hyvä niin, pohtii Jouko Jokinen näkökulmassaan.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t> STTMarkus Heikkilä</t>
+          <t>Jouko Jokinen</t>
         </is>
       </c>
     </row>
@@ -4847,17 +4847,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Halla-aho näpäyttää perussuomalaisia hyljeksiviä puolueita: "Luulen, että ylpeys käy lankeamuksen edellä, ministerisalkkuja ei kannata vielä jakaa"</t>
+          <t>Analyysi: Politiikan johtajuus hukassa – suurin puolue jäämässä alle 20 prosentin</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Ylen kannatuskyselyssä on pienen marginaalin sisällä neljä puoluetta, joten hallitusneuvotteluista ennakoidaan vaikeita.</t>
+          <t>Kannatusmittaukset ennakoivat eduskuntavaalikisasta jännitysnäytelmää ja vaikeita hallitusneuvotteluja, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -4867,17 +4867,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Brexitin jatkoajasta tehtiin vesitetty kompromissi – "EU:ssa on kuitenkin yhä helpompi päättää asioista kuin brittiparlamentissa"</t>
+          <t>Pääministeri May selvitti parlamentille brexitin jatkoaskeleita: "Erosopimusta ei avata uudelleen" </t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EU-johtajat eivät sulkeneet täysin pois vaihtoehtoa, että brexitin aikataulua joudutaan venyttämään uudelleen vielä syksylläkin.</t>
+          <t>Britannian pääministeri Theresa May pahoitteli parlamentin alahuoneessa lokakuuhun asti myönnetyn lykkäyksen toteutumista.</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t>Erja Tuomaala</t>
         </is>
       </c>
     </row>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ylen tv-uutiset äänestäjille selvästi tärkein politiikan tietolähde</t>
+          <t>Brexitin jatkoajasta tehtiin vesitetty kompromissi – "EU:ssa on kuitenkin yhä helpompi päättää asioista kuin brittiparlamentissa"</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Tarkasteltaessa koko äänestysikäistä väestöä, sosiaalinen media jää selvästi perinteisen median varjoon.</t>
+          <t>EU-johtajat eivät sulkeneet täysin pois vaihtoehtoa, että brexitin aikataulua joudutaan venyttämään uudelleen vielä syksylläkin.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Miikka Kaskinen</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -4927,17 +4927,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Vaalikone paljastaa: Ehdokkaat ovat usein eri mieltä kuin puolueet ja johtajat – Sipilä puolueensa vasemmassa siivessä, Rinne oikealla </t>
+          <t>Ylen kannatusmittaus: Perussuomalaiset kiilasi kakkoseksi, SDP:n etumatka kutistunut</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Politiikan asiantuntijan mukaan keskustassa puheenjohtaja on voinut kulkea omia teitään, mutta SDP:n Rinteellä voi olla vaikeampaa.</t>
+          <t>Ylen kyselyssä yksikään puolue ei yllä yli 20 prosentin kannatukseen, mikä olisi vaaleissa poikkeuksellinen tulos.</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Tulikukka de FresnesLinus LångPetter WestMalin Ekholm</t>
+          <t>Antti Pilke</t>
         </is>
       </c>
     </row>
@@ -4947,17 +4947,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Vaalibudjetteja availtu ennakkoon Hämeessä – osa ehdokkaista maksaa kaiken itse, osa saa tukea </t>
+          <t>Joko istahdit Vaalisohvan imuun? Tällaisia ehdokkaiden ja äänestäjien kohtaamisia koettiin olohuoneissa ympäri Suomen</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Kokoomuksen hämäläiset kärkiehdokkaat eivät ole vielä kertoneet vaalirahansa määrää. Ennakkoilmoitusta ei ole pakko tehdä.</t>
+          <t>Tavalliset suomalaiset tenttivät vaaliehdokkaita kotisohvillaan. Katso kaikki Ylen Vaalisohvat vaikka maratonina!</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Kari Mustonen</t>
+          <t>Jouni Koutonen</t>
         </is>
       </c>
     </row>
@@ -4967,17 +4967,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Kokoomuksen poliitikot ärähtävät keskustalle: sote-uudistuksen kaatumisesta ei voi syyttää kokoomusta</t>
+          <t>Maduro: Punaisen ristin apu on tervetullut Venezuelaan</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Kokoomuksen mukaan keskustaministerit epäonnistuivat tehtävissään.</t>
+          <t>YK:n mukaan lähes neljännes Venezuelan 30 miljoonasta ihmisestä tarvitsee kiireellistä apua.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t> STTMarkus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -4987,17 +4987,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ylen kannatusmittaus: Perussuomalaiset kiilasi kakkoseksi, SDP:n etumatka kutistunut</t>
+          <t>Puoluejohtajat ottivat kiihkeästi yhteen viimeisessä isossa vaalitentissä: "Teidän arvovalintanne ovat todella kovia", lue liveanalyysi täältä</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Ylen kyselyssä yksikään puolue ei yllä yli 20 prosentin kannatukseen, mikä olisi vaaleissa poikkeuksellinen tulos.</t>
+          <t>Yhdeksän eduskuntapuolueen puheenjohtajaa kohtasi viimeistä kertaa ennen eduskuntavaaleja Ylen suuressa vaalikeskustelussa.</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Antti Pilke</t>
+          <t>Heikki ValkamaHannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -5007,17 +5007,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Joko istahdit Vaalisohvan imuun? Tällaisia ehdokkaiden ja äänestäjien kohtaamisia koettiin olohuoneissa ympäri Suomen</t>
+          <t>Vaalikone paljastaa: Ehdokkaat ovat usein eri mieltä kuin puolueet ja johtajat – Sipilä puolueensa vasemmassa siivessä, Rinne oikealla </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Tavalliset suomalaiset tenttivät vaaliehdokkaita kotisohvillaan. Katso kaikki Ylen Vaalisohvat vaikka maratonina!</t>
+          <t>Politiikan asiantuntijan mukaan keskustassa puheenjohtaja on voinut kulkea omia teitään, mutta SDP:n Rinteellä voi olla vaikeampaa.</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Jouni Koutonen</t>
+          <t>Tulikukka de FresnesLinus LångPetter WestMalin Ekholm</t>
         </is>
       </c>
     </row>
@@ -5027,17 +5027,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Herätys: PS matkalla kohti jytkyä, Brexit lykättiin lokakuulle, hoivakodista hävisi satoja pillereitä ja sää muuttuu aurinkoiseksi</t>
+          <t>Halla-aho näpäyttää perussuomalaisia hyljeksiviä puolueita: "Luulen, että ylpeys käy lankeamuksen edellä, ministerisalkkuja ei kannata vielä jakaa"</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Ylen kannatuskyselyssä on pienen marginaalin sisällä neljä puoluetta, joten hallitusneuvotteluista ennakoidaan vaikeita.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -5047,17 +5047,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Analyysi: Brexitiin tuli kaivattu hengähdystauko, mutta kestääkö brittien pää lokakuun takarajaan saakka?</t>
+          <t>Intialaiset aloittivat äänestämisen maailman suurimmissa vaaleissa</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Britanniassa kannetaan nyt huolta kansanedustajien henkisestä hyvinvoinnista,  kertoo Lontoosta Pasi Myöhänen.</t>
+          <t>Viikkoja kestävät parlamenttivaalit päättyvät toukokuun puolivälin jälkeen.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Pasi Myöhänen</t>
+          <t>Mikko Leppänen</t>
         </is>
       </c>
     </row>
@@ -5067,17 +5067,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Vastaavalta päätoimittajalta: Vaalikamppailu väliaikalähdöllä</t>
+          <t>Ylen tv-uutiset äänestäjille selvästi tärkein politiikan tietolähde</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Demokratia on suomalaisille vakava asia – hyvä niin, pohtii Jouko Jokinen näkökulmassaan.</t>
+          <t>Tarkasteltaessa koko äänestysikäistä väestöä, sosiaalinen media jää selvästi perinteisen median varjoon.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Jouko Jokinen</t>
+          <t>Miikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -5087,17 +5087,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Puoluejohtajat ottivat kiihkeästi yhteen viimeisessä isossa vaalitentissä: "Teidän arvovalintanne ovat todella kovia", lue liveanalyysi täältä</t>
+          <t>Kokoomuksen poliitikot ärähtävät keskustalle: sote-uudistuksen kaatumisesta ei voi syyttää kokoomusta</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Yhdeksän eduskuntapuolueen puheenjohtajaa kohtasi viimeistä kertaa ennen eduskuntavaaleja Ylen suuressa vaalikeskustelussa.</t>
+          <t>Kokoomuksen mukaan keskustaministerit epäonnistuivat tehtävissään.</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Heikki ValkamaHannu Tikkala</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -5107,17 +5107,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Intialaiset aloittivat äänestämisen maailman suurimmissa vaaleissa</t>
+          <t>Vaalibudjetteja availtu ennakkoon Hämeessä – osa ehdokkaista maksaa kaiken itse, osa saa tukea </t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Viikkoja kestävät parlamenttivaalit päättyvät toukokuun puolivälin jälkeen.</t>
+          <t>Kokoomuksen hämäläiset kärkiehdokkaat eivät ole vielä kertoneet vaalirahansa määrää. Ennakkoilmoitusta ei ole pakko tehdä.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Mikko Leppänen</t>
+          <t>Kari Mustonen</t>
         </is>
       </c>
     </row>
@@ -5147,17 +5147,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Analyysi: Politiikan johtajuus hukassa – suurin puolue jäämässä alle 20 prosentin</t>
+          <t>Herätys: PS matkalla kohti jytkyä, Brexit lykättiin lokakuulle, hoivakodista hävisi satoja pillereitä ja sää muuttuu aurinkoiseksi</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Kannatusmittaukset ennakoivat eduskuntavaalikisasta jännitysnäytelmää ja vaikeita hallitusneuvotteluja, kirjoittaa politiikan toimittaja Pekka Kinnunen.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -5167,17 +5167,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Faktantarkistuksen haaviin jäi 36 kiistanalaista väitettä – ympäristökysymykset kuohuttivat eniten</t>
+          <t>Analyysi: Skandaali ei kaada populistia – neljä vakavaa opetusta Israelin vaaleista</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Yle seurasi poliitikkojen vaaliväitteitä kolmen viikon ajan. Tässä kiinnostavimpia paloja.</t>
+          <t>Benjamin Netanjahu on saanut arvostella vapaasti muita, mutta häneen arvostelu ei tartu, arvioi Ylen ulkomaantoimittaja Mika Mäkeläinen.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Lauri Miikkulainen</t>
+          <t>Mika Mäkeläinen</t>
         </is>
       </c>
     </row>
@@ -5187,17 +5187,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Analyysi: Skandaali ei kaada populistia – neljä vakavaa opetusta Israelin vaaleista</t>
+          <t>Luulitko tekeväsi arjen ilmastovalintasi itse? Näin poliitikot vaikuttavat ruokavalioosi, vaatteisiisi ja autoiluusi</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Benjamin Netanjahu on saanut arvostella vapaasti muita, mutta häneen arvostelu ei tartu, arvioi Ylen ulkomaantoimittaja Mika Mäkeläinen.</t>
+          <t>Kerromme esimerkkien avulla, miten poliitikot helpottavat tai vaikeuttavat ilmastoystävällistä kuluttamista.</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Mika Mäkeläinen</t>
+          <t>Risto Ukkonen</t>
         </is>
       </c>
     </row>
@@ -5207,17 +5207,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Vaalilakia rikottiin Jyväskylässä ja Oulussa – kymmeniä äänestäjiä käännytettiin etuajassa pois äänestyspaikalta </t>
+          <t>Ylen vaaliasiantuntija: Erilainen vaalikamppailu näkyy äänestysinnossa – "Enää ei jankata, mistä leikataan"</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Vaalitoimitsija kävi ilmoittamassa jonottajille, etteivät he ehdi enää äänestää. </t>
+          <t>Ennakkoäänestyksen suosion kasvussa näkyy myös se, että oppositiopuolueiden kannatus on noussut, arvioi Sami Borg. </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Päivi AnnalaSanna SavelaMiikka Kaskinen</t>
+          <t>Johanna Östman</t>
         </is>
       </c>
     </row>
@@ -5227,17 +5227,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Suomi on jäämässä yhä kauemmaksi YK-tavoitteesta – kehitysavun määrä laski viime vuonna</t>
+          <t>Kuka se oli ja miksi? Viisi kysymystä vaalisivustoon iskeneestä verkkohyökkäyksestä</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Yhtenä syynä on se, että pakolaisiin ja turvapaikanhakijoihin liittyvät kulut Suomessa laskivat.</t>
+          <t>Viikko ennen vaaleja oikeusministeriön sivulle tehtyä palvelunestohyökkäystä osattiin odottaa. Mihin sillä pyrittiin?</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Kirsi HeikelAntti Parviala</t>
         </is>
       </c>
     </row>
@@ -5247,17 +5247,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Ranskan Macron otti tiukan linjan brexitiin EU-kokouksen alkaessa – "Mikään ei ole varmaa"</t>
+          <t>Kulttuuri ei juuri vaaliohjelmissa näy – Kysyimme suoraan puolueilta, mitä ne pitävät kulttuurissa tärkeänä</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Ranska haluaa rajoittaa Britannian valtaa EU:ssa, jos brexit lykkääntyy useilla kuukausilla tai jopa vuodella. Saksa on valmis pitkäänkin siirtymäaikaan.</t>
+          <t>Suuri osa puolueista on valmis nostamaan kulttuurin rahoitusta. Tästä huolimatta kulttuuri ei juuri näy puolueiden painotuksissa vaalien alla. </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Anna KarismoPetri Raivio</t>
+          <t>Miia Gustafsson</t>
         </is>
       </c>
     </row>
@@ -5267,17 +5267,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Donald Trumpin uudistukset ovat pistäneet monet ahtaalle Yhdysvalloissa – Kaliforniassa asuvat suomalaiset kertovat koventuneesta arjestaan </t>
+          <t>Faktantarkistuksen haaviin jäi 36 kiistanalaista väitettä – ympäristökysymykset kuohuttivat eniten</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Yhdysvalloissa asuvien kolmen suomalaisen mukaan Trumpin myötä pienituloisilla verot ovat nousseet ja rasismi on lisääntynyt.</t>
+          <t>Yle seurasi poliitikkojen vaaliväitteitä kolmen viikon ajan. Tässä kiinnostavimpia paloja.</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Titta Puurunen</t>
+          <t>Lauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -5287,17 +5287,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Luulitko tekeväsi arjen ilmastovalintasi itse? Näin poliitikot vaikuttavat ruokavalioosi, vaatteisiisi ja autoiluusi</t>
+          <t>HS: Sote-raportti antaa hallitukselle kovaa kritiikkiä poliittisesta ohjauksesta – oppositio repii riemua</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Kerromme esimerkkien avulla, miten poliitikot helpottavat tai vaikeuttavat ilmastoystävällistä kuluttamista.</t>
+          <t>Valtioneuvoston kanslian tilaaman raportin julkaisua lykättiin vaalien yli.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Risto Ukkonen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -5307,17 +5307,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Puhemies Risikko moitti kansanedustajia kovasta keskustelukulttuurista: “Kollega saatettu nähdä enemmän saaliina kuin ihmisenä”– Yle seurasi</t>
+          <t>Nuoret haastoivat nuorisopoliitikkoja vaalibattlessa – katso Yle Areenasta</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Tasavallan presidentti puhui vaalikauden päättäjäisissä suomalaisten yhtenäisyydestä ja tiukentuneesta turvallisuustilanteesta. Puhemies taas arvosteli perustuslain moittijoita ja poliittisen retoriikan tasoa.</t>
+          <t>Cultura-säätiön järjestämän battlen aiheina ovat muun muassa nuorten työllisyys ja kansainvälistyminen.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -5327,17 +5327,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Kulttuuri ei juuri vaaliohjelmissa näy – Kysyimme suoraan puolueilta, mitä ne pitävät kulttuurissa tärkeänä</t>
+          <t>Donald Trumpin uudistukset ovat pistäneet monet ahtaalle Yhdysvalloissa – Kaliforniassa asuvat suomalaiset kertovat koventuneesta arjestaan </t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Suuri osa puolueista on valmis nostamaan kulttuurin rahoitusta. Tästä huolimatta kulttuuri ei juuri näy puolueiden painotuksissa vaalien alla. </t>
+          <t>Yhdysvalloissa asuvien kolmen suomalaisen mukaan Trumpin myötä pienituloisilla verot ovat nousseet ja rasismi on lisääntynyt.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Miia Gustafsson</t>
+          <t>Titta Puurunen</t>
         </is>
       </c>
     </row>
@@ -5347,17 +5347,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>HS: Sote-raportti antaa hallitukselle kovaa kritiikkiä poliittisesta ohjauksesta – oppositio repii riemua</t>
+          <t>Vaalilakia rikottiin Jyväskylässä ja Oulussa – kymmeniä äänestäjiä käännytettiin etuajassa pois äänestyspaikalta </t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Valtioneuvoston kanslian tilaaman raportin julkaisua lykättiin vaalien yli.</t>
+          <t>Vaalitoimitsija kävi ilmoittamassa jonottajille, etteivät he ehdi enää äänestää. </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Päivi AnnalaSanna SavelaMiikka Kaskinen</t>
         </is>
       </c>
     </row>
@@ -5367,17 +5367,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ylen vaaliasiantuntija: Erilainen vaalikamppailu näkyy äänestysinnossa – "Enää ei jankata, mistä leikataan"</t>
+          <t>Puhemies Risikko moitti kansanedustajia kovasta keskustelukulttuurista: “Kollega saatettu nähdä enemmän saaliina kuin ihmisenä”– Yle seurasi</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ennakkoäänestyksen suosion kasvussa näkyy myös se, että oppositiopuolueiden kannatus on noussut, arvioi Sami Borg. </t>
+          <t>Tasavallan presidentti puhui vaalikauden päättäjäisissä suomalaisten yhtenäisyydestä ja tiukentuneesta turvallisuustilanteesta. Puhemies taas arvosteli perustuslain moittijoita ja poliittisen retoriikan tasoa.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Johanna Östman</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -5387,17 +5387,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kuka se oli ja miksi? Viisi kysymystä vaalisivustoon iskeneestä verkkohyökkäyksestä</t>
+          <t>Suomi on jäämässä yhä kauemmaksi YK-tavoitteesta – kehitysavun määrä laski viime vuonna</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Viikko ennen vaaleja oikeusministeriön sivulle tehtyä palvelunestohyökkäystä osattiin odottaa. Mihin sillä pyrittiin?</t>
+          <t>Yhtenä syynä on se, että pakolaisiin ja turvapaikanhakijoihin liittyvät kulut Suomessa laskivat.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Kirsi HeikelAntti Parviala</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -5407,17 +5407,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Nuoret haastoivat nuorisopoliitikkoja vaalibattlessa – katso Yle Areenasta</t>
+          <t>Ranskan Macron otti tiukan linjan brexitiin EU-kokouksen alkaessa – "Mikään ei ole varmaa"</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Cultura-säätiön järjestämän battlen aiheina ovat muun muassa nuorten työllisyys ja kansainvälistyminen.</t>
+          <t>Ranska haluaa rajoittaa Britannian valtaa EU:ssa, jos brexit lykkääntyy useilla kuukausilla tai jopa vuodella. Saksa on valmis pitkäänkin siirtymäaikaan.</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Anna KarismoPetri Raivio</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Kazakstanissa ennenaikaiset presidentinvaalit kesäkuussa – takaako Nazarbajev vallan säilymisen lähipiirillään?</t>
+          <t>Tuomioistuin: Venäjä rikkoi oppositiojohtaja Aleksei Navalnyin oikeuksia kotiarestilla</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Eronneen johtajan Nursultan Nazarbajevin arvellaan tehneen suunnitelman jatkostaan.</t>
+          <t>Navalnyi määrättiin vuonna 2014 kotiarestiin, jota pidennettiin useita kertoja.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tuomioistuin: Venäjä rikkoi oppositiojohtaja Aleksei Navalnyin oikeuksia kotiarestilla</t>
+          <t>Kazakstanissa ennenaikaiset presidentinvaalit kesäkuussa – takaako Nazarbajev vallan säilymisen lähipiirillään?</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Navalnyi määrättiin vuonna 2014 kotiarestiin, jota pidennettiin useita kertoja.</t>
+          <t>Eronneen johtajan Nursultan Nazarbajevin arvellaan tehneen suunnitelman jatkostaan.</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5467,17 +5467,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Erdoganin AK-puolue hävisi Istanbulin paikallisvaalit ja vaatii nyt niiden uusimista</t>
+          <t>Netanjahun Likud-puolue liittolaisineen voittamassa Israelin vaalit</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>AKP:n ehdokas Binali Yildirim hävisi vaalit opposition Ekrem Imamoglulle 14 500 äänellä.</t>
+          <t>Likud ja Sininen ja valkoinen -vaaliliitto ovat molemmat saamassa 35 paikkaa parlamenttiin.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Petri Burtsov</t>
+          <t>Juho TakkunenIsmo SavolainenPetri Burtsov</t>
         </is>
       </c>
     </row>
@@ -5487,17 +5487,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Brittiparlamentti pakotti Mayn pyytämään brexitin lykkäystä</t>
+          <t>Erdoganin AK-puolue hävisi Istanbulin paikallisvaalit ja vaatii nyt niiden uusimista</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Parlamentti keskustelee tänään, kuinka pitkän lykkäyksen se haluaa.</t>
+          <t>AKP:n ehdokas Binali Yildirim hävisi vaalit opposition Ekrem Imamoglulle 14 500 äänellä.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Yrjö Kokkonen</t>
+          <t>Petri Burtsov</t>
         </is>
       </c>
     </row>
@@ -5507,17 +5507,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Netanjahun Likud-puolue liittolaisineen voittamassa Israelin vaalit</t>
+          <t>Brittiparlamentti pakotti Mayn pyytämään brexitin lykkäystä</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Likud ja Sininen ja valkoinen -vaaliliitto ovat molemmat saamassa 35 paikkaa parlamenttiin.</t>
+          <t>Parlamentti keskustelee tänään, kuinka pitkän lykkäyksen se haluaa.</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Juho TakkunenIsmo SavolainenPetri Burtsov</t>
+          <t>Yrjö Kokkonen</t>
         </is>
       </c>
     </row>
@@ -5547,17 +5547,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ylen kysely: Palkkoja ja lisiä ei saa leikata suoraan työpaikoilla, vaikka työnantajalla menisi huonosti</t>
+          <t>Vielä ehdit uurnalle – ennakkoäänestys päättyy tänään</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Erityisen kriittisesti suhtauduttiin palkan joustamiseen yrityksen taloustilanteen mukaan.</t>
+          <t>Yli 1,2 miljoonaa äänestäjää oli maanantai-iltaan mennessä antanut äänensä.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Janne Toivonen</t>
+          <t>Robert SundmanMarika Harjumaa</t>
         </is>
       </c>
     </row>
@@ -5567,17 +5567,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Miten Suomeen saadaan yli 60 000 työpaikkaa lisää? Katso Ylen vaalitentti työstä klo 21</t>
+          <t>Kyllä, puoluejohtajissa on eroja – 10 miljoonaa puuta, 1000 poliisia ja Antti Rinteen miljardit jäivät mieleen puheenjohtajatenteistä</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Vaalien alla puolueilla on kova luotto siihen, että työllisyysaste saadaan nostettua 75 prosenttiin. Mutta miten tuo temppu tehdään? </t>
+          <t>Onko ydinvoima vihreille kynnyskysymys? Kenen kanssa Li Andersson ei halua hallitukseen? Katso parhaat palat Ylen puheenjohtajatenteistä.</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Helmiina Suhonen</t>
+          <t>Heikki Valkama</t>
         </is>
       </c>
     </row>
@@ -5627,17 +5627,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Vielä ehdit uurnalle – ennakkoäänestys päättyy tänään</t>
+          <t>Ylen kysely: Palkkoja ja lisiä ei saa leikata suoraan työpaikoilla, vaikka työnantajalla menisi huonosti</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Yli 1,2 miljoonaa äänestäjää oli maanantai-iltaan mennessä antanut äänensä.</t>
+          <t>Erityisen kriittisesti suhtauduttiin palkan joustamiseen yrityksen taloustilanteen mukaan.</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Robert SundmanMarika Harjumaa</t>
+          <t>Janne Toivonen</t>
         </is>
       </c>
     </row>
@@ -5647,17 +5647,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EU-eron kyllästämät britit ovat alkaneet haaveilla vahvasta johtajasta – moni myös nakertaisi parlamentin sananvaltaa</t>
+          <t>Tämä pariskunta on kuin Israel pienoiskoossa – Pääministeri Netanjahusta saa aikaan tulisen mielipidetaistelun</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Tuoreen kyselyn mukaan ennätyksellisen suuri osa briteistä ajattelee, että maan poliittisessa järjestelmässä on paljon korjattavaa.</t>
+          <t>Korruptiosyytteet nakertavat Israelin kansan luottamusta poliitikkoihin, mutta uskottavat vaihtoehdot ovat tämän päivän parlamenttivaaleissa vähissä.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Mika Mäkeläinen</t>
         </is>
       </c>
     </row>
@@ -5667,17 +5667,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Kiina lupaa EU:n yrityksille tasapuolista kohtelua – Kyseessä on läpimurto, sanoi EU:n Tusk</t>
+          <t>Mitä kaikkea oletkaan halunnut tietää ennen vaaleja, mutta et ole huomannut lukea – tässä puolueet yhdellä silmäyksellä</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Kiinan lupausten toteutuminen jää kuitenkin nähtäväksi. Ihmisoikeudet jäivät kokouksessa talouden jalkoihin.</t>
+          <t>Keräsimme Ylen laajasta vaalitarjonnasta muutamia olennaisia tenttejä ja analyysejä.</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t>Jari Strömberg</t>
         </is>
       </c>
     </row>
@@ -5687,17 +5687,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Mitä kaikkea oletkaan halunnut tietää ennen vaaleja, mutta et ole huomannut lukea – tässä puolueet yhdellä silmäyksellä</t>
+          <t>Kiina lupaa EU:n yrityksille tasapuolista kohtelua – Kyseessä on läpimurto, sanoi EU:n Tusk</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Keräsimme Ylen laajasta vaalitarjonnasta muutamia olennaisia tenttejä ja analyysejä.</t>
+          <t>Kiinan lupausten toteutuminen jää kuitenkin nähtäväksi. Ihmisoikeudet jäivät kokouksessa talouden jalkoihin.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Jari Strömberg</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -5727,17 +5727,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Kyllä, puoluejohtajissa on eroja – 10 miljoonaa puuta, 1000 poliisia ja Antti Rinteen miljardit jäivät mieleen puheenjohtajatenteistä</t>
+          <t>EU-eron kyllästämät britit ovat alkaneet haaveilla vahvasta johtajasta – moni myös nakertaisi parlamentin sananvaltaa</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Onko ydinvoima vihreille kynnyskysymys? Kenen kanssa Li Andersson ei halua hallitukseen? Katso parhaat palat Ylen puheenjohtajatenteistä.</t>
+          <t>Tuoreen kyselyn mukaan ennätyksellisen suuri osa briteistä ajattelee, että maan poliittisessa järjestelmässä on paljon korjattavaa.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Heikki Valkama</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -5747,17 +5747,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Tämä pariskunta on kuin Israel pienoiskoossa – Pääministeri Netanjahusta saa aikaan tulisen mielipidetaistelun</t>
+          <t>Poliisi epäilee rikosta Suomen kansa ensin -puolueen kampanjoinnissa – toinen epäillyistä puolueen puheenjohtaja Marco de Wit</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Korruptiosyytteet nakertavat Israelin kansan luottamusta poliitikkoihin, mutta uskottavat vaihtoehdot ovat tämän päivän parlamenttivaaleissa vähissä.</t>
+          <t>Kyseinen kampanjointi tapahtui viikonloppuna Narinkkatorilla Kampissa.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Mika Mäkeläinen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -5787,17 +5787,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Poliisi epäilee rikosta Suomen kansa ensin -puolueen kampanjoinnissa – toinen epäillyistä puolueen puheenjohtaja Marco de Wit</t>
+          <t>Mitä tapahtui kun kaksi ehdokasta saapui puhumaan politiikkaa helsinkiläiseen kommuuniin? Syntyi Ylen Vaalisohva – vielä ehdit katsoa ohjelman jaksot </t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Kyseinen kampanjointi tapahtui viikonloppuna Narinkkatorilla Kampissa.</t>
+          <t>Vaalisohva-ohjelma oli siihen osallistuneen Ronja Vehviläisen mielestä antoisa kokemus.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Tatu Kuukkanen</t>
         </is>
       </c>
     </row>
@@ -5807,17 +5807,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Mitä tapahtui kun kaksi ehdokasta saapui puhumaan politiikkaa helsinkiläiseen kommuuniin? Syntyi Ylen Vaalisohva – vielä ehdit katsoa ohjelman jaksot </t>
+          <t>Miten Suomeen saadaan yli 60 000 työpaikkaa lisää? Katso Ylen vaalitentti työstä klo 21</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Vaalisohva-ohjelma oli siihen osallistuneen Ronja Vehviläisen mielestä antoisa kokemus.</t>
+          <t>Vaalien alla puolueilla on kova luotto siihen, että työllisyysaste saadaan nostettua 75 prosenttiin. Mutta miten tuo temppu tehdään? </t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Tatu Kuukkanen</t>
+          <t>Helmiina Suhonen</t>
         </is>
       </c>
     </row>
@@ -5867,17 +5867,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö huolissaan kylmän sodan palaamisesta</t>
+          <t>Tältä näyttää nuorisovaalien valitsema eduskunta – eniten paikkoja haalivat vihreät ja perussuomalaiset </t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Presidenttiä huolettaa vanhojen sopimusten romuttuminen. </t>
+          <t>Mitä puolueet vastaavat äänensä antaneille nuorille?</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Hanna AsikainenEllinoora SandellAnnette BlencoweSonja ParkkinenLauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -5887,17 +5887,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Eurooppa heräsi Kiinan vallan kasvuun – Seitsemän syytä, miksi Kiinasta tuli uhka</t>
+          <t>Presidentti Niinistö huolissaan kylmän sodan palaamisesta</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>EU vetää aiempaa tiukempaa linjaa suhteessa Kiinaan tiistaina huippukokouksessa. Listasimme, miksi EU haluaa muuttaa kurssia Kiinan suhteen juuri nyt.</t>
+          <t>Presidenttiä huolettaa vanhojen sopimusten romuttuminen. </t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Anna Karismo</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -5907,17 +5907,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Tältä näyttää nuorisovaalien valitsema eduskunta – eniten paikkoja haalivat vihreät ja perussuomalaiset </t>
+          <t>Eurooppa heräsi Kiinan vallan kasvuun – Seitsemän syytä, miksi Kiinasta tuli uhka</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Mitä puolueet vastaavat äänensä antaneille nuorille?</t>
+          <t>EU vetää aiempaa tiukempaa linjaa suhteessa Kiinaan tiistaina huippukokouksessa. Listasimme, miksi EU haluaa muuttaa kurssia Kiinan suhteen juuri nyt.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Hanna AsikainenEllinoora SandellAnnette BlencoweSonja ParkkinenLauri Miikkulainen</t>
+          <t>Anna Karismo</t>
         </is>
       </c>
     </row>
@@ -6147,17 +6147,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Intian pääministeri: Äänestäkää meitä, niin annamme 33 prosenttia paikoista naisille</t>
+          <t>Radio Suomen vaalitentti: "Yritystukia perattava, ihmisiin investoitava"</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>BJP lupaa miljardeja maaseudulle ja oikeuksia pois muslimivähemmistöltä.</t>
+          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat kokoontuivat maanantaina Radio Suomen Päivä –ohjelman vaalitenttiin. </t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Raisa Pöllänen</t>
         </is>
       </c>
     </row>
@@ -6167,17 +6167,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Britannian parlamentin ylähuone haluaa pakottaa pääministerin konsultoimaan parlamenttia EU-eron lykkäämisestä</t>
+          <t>Mikä on vaalipiirisi kuumin keskusteluaihe? Kuuntele tentit suorana Radio Suomesta tai Yle Areenasta</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>May harkitsee, että tuo parlamentin käsiteltäväksi uuden kansanäänestyksen järjestämisen.</t>
+          <t>Yle järjestää kaikissa vaalipiireissä eduskuntapuolueille radiotentin. Osaa tenteistä voi seurata paikan päällä.</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Hanne Kinnunen</t>
         </is>
       </c>
     </row>
@@ -6187,17 +6187,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Radio Suomen vaalitentti: "Yritystukia perattava, ihmisiin investoitava"</t>
+          <t>Moni äänesti vahingossa väärää ehdokasta viime vaaleissa – näin vältät 5 mokaa äänestyskopissa</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat kokoontuivat maanantaina Radio Suomen Päivä –ohjelman vaalitenttiin. </t>
+          <t>Kokosimme yhteen virheet, joita suomalaiset tekevät eduskuntavaalien äänestyskopeissa. Humalatila voi jopa estää äänestämisen.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Raisa Pöllänen</t>
+          <t>Satu Krautsuk</t>
         </is>
       </c>
     </row>
@@ -6207,17 +6207,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Moni äänesti vahingossa väärää ehdokasta viime vaaleissa – näin vältät 5 mokaa äänestyskopissa</t>
+          <t>Intian pääministeri: Äänestäkää meitä, niin annamme 33 prosenttia paikoista naisille</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Kokosimme yhteen virheet, joita suomalaiset tekevät eduskuntavaalien äänestyskopeissa. Humalatila voi jopa estää äänestämisen.</t>
+          <t>BJP lupaa miljardeja maaseudulle ja oikeuksia pois muslimivähemmistöltä.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Satu Krautsuk</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -6227,17 +6227,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Mikä on vaalipiirisi kuumin keskusteluaihe? Kuuntele tentit suorana Radio Suomesta tai Yle Areenasta</t>
+          <t>Britannian parlamentin ylähuone haluaa pakottaa pääministerin konsultoimaan parlamenttia EU-eron lykkäämisestä</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Yle järjestää kaikissa vaalipiireissä eduskuntapuolueille radiotentin. Osaa tenteistä voi seurata paikan päällä.</t>
+          <t>May harkitsee, että tuo parlamentin käsiteltäväksi uuden kansanäänestyksen järjestämisen.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Hanne Kinnunen</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -6247,17 +6247,18 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ylen vaalikonetta käytetty yli miljoona kertaa – oletko sinä jo löytänyt ehdokkaasi?</t>
+          <t>“Rohkeus ja mielikuvitus säästöliekillä”  –  asiantuntijat pettyivät puoluejohtajien 2050-visioihin</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Vaalikoneessa on 90 prosenttia kaikista eduskuntavaalien ehdokkaista. Vastaukset paljastavat heistä mielenkiintoisia asioita.</t>
+          <t>Vihreiden Pekka Haavisto ja ja vasemmistoliiton Li Andersson saivat parhaat arvosanat. Pienpuolueiden johtajat erottuivat rohkeudella.
+</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Ville Seuri</t>
+          <t>Tuomas HyytinenStina Tuominen</t>
         </is>
       </c>
     </row>
@@ -6267,17 +6268,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tuttu nukkuvien puolue kerää näissäkin vaaleissa yli miljoona ääntä –“Koen, että ääni on turha, päättäjät päättää, mitä päättää”</t>
+          <t>Puoluejohtajat löysivät aatteensa jo nuorina – Kokosimme puheenjohtajien polut vallan huipulle </t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Vaalitutkija arvioi, että äänestysaktiivisuus voi nousta muutamalla prosenttiyksiköllä viime vaaleista.</t>
+          <t>Sipilä ja Rinne saivat poliittiset kotipesänsä kotoaan, Orpo loisti opiskelijapolitiikassa. Haavisto paloi ympäristöasioille, Halla-ahoa kaihersi maahanmuutto.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Kai JaskariMarja SannikkaSanna Ukkola</t>
         </is>
       </c>
     </row>
@@ -6287,17 +6288,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Puoluejohtajat löysivät aatteensa jo nuorina – Kokosimme puheenjohtajien polut vallan huipulle </t>
+          <t>Tuttu nukkuvien puolue kerää näissäkin vaaleissa yli miljoona ääntä –“Koen, että ääni on turha, päättäjät päättää, mitä päättää”</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Sipilä ja Rinne saivat poliittiset kotipesänsä kotoaan, Orpo loisti opiskelijapolitiikassa. Haavisto paloi ympäristöasioille, Halla-ahoa kaihersi maahanmuutto.</t>
+          <t>Vaalitutkija arvioi, että äänestysaktiivisuus voi nousta muutamalla prosenttiyksiköllä viime vaaleista.</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Kai JaskariMarja SannikkaSanna Ukkola</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -6307,17 +6308,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Äänestyspaikoilla on ollut ennätysvilkasta – jo yli 800 000 on antanut äänensä ennakkoon</t>
+          <t>Analyysi: Virossa puoluekolmikko pelasi vaalivoittajan ulos hallituksesta – oikeistopopulistit etenemässä johtopaikoille</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Eduskuntavaalien ennakkoäänestys jatkuu tiistaihin asti.</t>
+          <t>Viron venäjänkieliset kokevat tulleensa petetyiksi, kun taas kulttuuriväki pelkää populismin nousua, kirjoittaa Ylen toimittaja Tallinnassa Silja Massa.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Silja Massa</t>
         </is>
       </c>
     </row>
@@ -6327,17 +6328,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Yhdysvaltain kotimaan turvallisuuden ministeri jättää tehtävänsä</t>
+          <t>Äänestyspaikoilla on ollut ennätysvilkasta – jo yli 800 000 on antanut äänensä ennakkoon</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Presidentti Trumpin mukaan Nielsenin tehtävän ottaa haltuunsa maan tulli- ja rajavartiolaitoksen johtaja Kevin McAleenan. </t>
+          <t>Eduskuntavaalien ennakkoäänestys jatkuu tiistaihin asti.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Markus Heikkilä</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6348,13 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>“Rohkeus ja mielikuvitus säästöliekillä”  –  asiantuntijat pettyivät puoluejohtajien 2050-visioihin</t>
+          <t>Robottiautot singahtelevat ja Suomi pelaa jalkapallon MM-kisoissa – näin puoluejohtajat ennustavat vuotta 2050
+</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Vihreiden Pekka Haavisto ja ja vasemmistoliiton Li Andersson saivat parhaat arvosanat. Pienpuolueiden johtajat erottuivat rohkeudella.
+          <t>A-studio kysyi puoluejohtajilta, miten elämme 30 vuoden kuluttua.
 </t>
         </is>
       </c>
@@ -6368,19 +6370,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Robottiautot singahtelevat ja Suomi pelaa jalkapallon MM-kisoissa – näin puoluejohtajat ennustavat vuotta 2050
-</t>
+          <t>Ylen vaalikonetta käytetty yli miljoona kertaa – oletko sinä jo löytänyt ehdokkaasi?</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>A-studio kysyi puoluejohtajilta, miten elämme 30 vuoden kuluttua.
-</t>
+          <t>Vaalikoneessa on 90 prosenttia kaikista eduskuntavaalien ehdokkaista. Vastaukset paljastavat heistä mielenkiintoisia asioita.</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Tuomas HyytinenStina Tuominen</t>
+          <t>Ville Seuri</t>
         </is>
       </c>
     </row>
@@ -6390,17 +6390,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Analyysi: Virossa puoluekolmikko pelasi vaalivoittajan ulos hallituksesta – oikeistopopulistit etenemässä johtopaikoille</t>
+          <t>Yhdysvaltain kotimaan turvallisuuden ministeri jättää tehtävänsä</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Viron venäjänkieliset kokevat tulleensa petetyiksi, kun taas kulttuuriväki pelkää populismin nousua, kirjoittaa Ylen toimittaja Tallinnassa Silja Massa.</t>
+          <t>Presidentti Trumpin mukaan Nielsenin tehtävän ottaa haltuunsa maan tulli- ja rajavartiolaitoksen johtaja Kevin McAleenan. </t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Silja Massa</t>
+          <t>Markus Heikkilä</t>
         </is>
       </c>
     </row>
@@ -6430,17 +6430,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Rinteellä puheenjohtajista suurin vaalibudjetti – osan tiedot puuttuvat</t>
+          <t>Virossa yllätyssopu hallituksesta – Jüri Ratas jatkaa pääministerinä</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Kokoomuksen Petteri Orpo ja perussuomalaisten Jussi Halla-aho eivät vielä ole tehneet vaalirahailmoitusta.</t>
+          <t>Reformipuolue on jäämässä yllättäen oppositioon.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -6450,17 +6450,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Virossa yllätyssopu hallituksesta – Jüri Ratas jatkaa pääministerinä</t>
+          <t>Rinteellä puheenjohtajista suurin vaalibudjetti – osan tiedot puuttuvat</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Reformipuolue on jäämässä yllättäen oppositioon.</t>
+          <t>Kokoomuksen Petteri Orpo ja perussuomalaisten Jussi Halla-aho eivät vielä ole tehneet vaalirahailmoitusta.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -6490,17 +6490,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Testaa: Mitä tiedät eduskunnasta</t>
+          <t>Presidentti Halonen liputtaa opiskelijoiden ilmastolakon puolesta – "Tärkeintä on kuitenkin äänestää vaaleissa"</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Kuinka paljon oli naiskansanedustajia Suomen ensimmäisessä eduskunnassa, mikä on nykykansanedustajan palkkio? Testaa tietosi Ylen eduskuntavisassa!</t>
+          <t>Presidentti Tarja Halonen puhui tänään Helsingissä opiskelijoiden ilmastomielenosoituksessa. Halosen mukaan ilmaston lämpenemisen estämiseksi on tehtävä välittömästi kaikki voitava. </t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Mia Gertsch</t>
+          <t>Petri Kosonen STT</t>
         </is>
       </c>
     </row>
@@ -6510,18 +6510,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Naisten osuus eduskuntavaaliehdokkaista kasvoi hieman – on nyt 42 prosenttia</t>
+          <t>Reformipuolueen Kaja Kallas johtamaan Viron hallitusneuvotteluja</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Kokoomuksella äveriäimmät ehdokkaat, pienituloisimmat eläinoikeuspuolueella.
-</t>
+          <t>Neuvotteluista povataan hankalia, koska puolueiden kannat poikkeavat selvästi toisistaan.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -6531,17 +6530,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Nyt tutkimaan: Ylen eduskuntavaalien vaalikoneen aineisto julkaistu avoimena datana</t>
+          <t>Robert Sundman: Kannattaako pienpuoluetentillä vain huvitella? Studiossa voi kyteä alku johonkin suurempaan</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Aineisto julkaistaan ilman ehdokkaiden nimiä. Koko materiaali on saatavissa journalistien ja tutkijoiden käyttöön pyynnöstä.</t>
+          <t>Isot puolueet voisivat oppia jotain pieniltä, kirjoittaa Ylen politiikan toimittaja Robert Sundman blogissaan.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Ville Seuri</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -6572,17 +6571,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Yle tarkasti poliitikkojen vaaliväitteitä: turpeen työllisyysvaikutuksista hurjaa liioittelua, verottaja ei nauti provikkapalkkaa</t>
+          <t>Britannia hakee jatkoaikaa brexitille kesäkuun loppuun ja valmistautuu eurovaaleihin – Suomi jäisi ilman sovittua lisäpaikkaa</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
+          <t>Britannia haluaa kuitenkin lähteä EU:sta jo ennen kesäkuun loppua, mikäli parlamentti onnistuu ratifioimaan erosopimuksen.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Matti KoivistoLauri MiikkulainenAri MölsäMerja Niilola</t>
+          <t>Johanna KippoUlla-Maija Hamunen</t>
         </is>
       </c>
     </row>
@@ -6592,17 +6591,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Reformipuolueen Kaja Kallas johtamaan Viron hallitusneuvotteluja</t>
+          <t>Ukrainan presidenttikisa ottaa erikoisia kierroksia: Zelenskyi vaati Porošenkolta huumetestiä, Porošenko ojensi kätensä</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Neuvotteluista povataan hankalia, koska puolueiden kannat poikkeavat selvästi toisistaan.</t>
+          <t>Ensimmäisen kierroksen voittanut tv-koomikko vaati istuvalta presidentiltä huume- ja alkoholitestiä ehtona vaaliväittelylle.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Mikko Haapanen</t>
         </is>
       </c>
     </row>
@@ -6612,17 +6611,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Robert Sundman: Kannattaako pienpuoluetentillä vain huvitella? Studiossa voi kyteä alku johonkin suurempaan</t>
+          <t>Yle tarkasti poliitikkojen vaaliväitteitä: turpeen työllisyysvaikutuksista hurjaa liioittelua, verottaja ei nauti provikkapalkkaa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Isot puolueet voisivat oppia jotain pieniltä, kirjoittaa Ylen politiikan toimittaja Robert Sundman blogissaan.</t>
+          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Matti KoivistoLauri MiikkulainenAri MölsäMerja Niilola</t>
         </is>
       </c>
     </row>
@@ -6632,17 +6631,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Britannia hakee jatkoaikaa brexitille kesäkuun loppuun ja valmistautuu eurovaaleihin – Suomi jäisi ilman sovittua lisäpaikkaa</t>
+          <t>Trump kävi katsastamassa raja-aitaa Kaliforniassa – aidassa hopeinen Trump-kyltti  </t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Britannia haluaa kuitenkin lähteä EU:sta jo ennen kesäkuun loppua, mikäli parlamentti onnistuu ratifioimaan erosopimuksen.</t>
+          <t>Meksikon rajalla on todella paha tilanne, todella paha, sanoi Trump.</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Johanna KippoUlla-Maija Hamunen</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -6652,17 +6651,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Juha Sipilä: "Täytyy myöntää, että olen myös öitä valvonut vastuun edessä" – Valitsi keskustan jo lukioikäisenä</t>
+          <t>Nyt tutkimaan: Ylen eduskuntavaalien vaalikoneen aineisto julkaistu avoimena datana</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Herkistynyt keskustan puheenjohtaja Juha Sipilä sanoo, että oman lapsen kuolemassa on "epäluonnollinen ja väärä järjestys".</t>
+          <t>Aineisto julkaistaan ilman ehdokkaiden nimiä. Koko materiaali on saatavissa journalistien ja tutkijoiden käyttöön pyynnöstä.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Kai JaskariMarja Sannikka</t>
+          <t>Ville Seuri</t>
         </is>
       </c>
     </row>
@@ -6672,17 +6671,18 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Presidentti Halonen liputtaa opiskelijoiden ilmastolakon puolesta – "Tärkeintä on kuitenkin äänestää vaaleissa"</t>
+          <t>Naisten osuus eduskuntavaaliehdokkaista kasvoi hieman – on nyt 42 prosenttia</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Presidentti Tarja Halonen puhui tänään Helsingissä opiskelijoiden ilmastomielenosoituksessa. Halosen mukaan ilmaston lämpenemisen estämiseksi on tehtävä välittömästi kaikki voitava. </t>
+          <t>Kokoomuksella äveriäimmät ehdokkaat, pienituloisimmat eläinoikeuspuolueella.
+</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Petri Kosonen STT</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -6692,17 +6692,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ukrainan presidenttikisa ottaa erikoisia kierroksia: Zelenskyi vaati Porošenkolta huumetestiä, Porošenko ojensi kätensä</t>
+          <t>Kampanjoinnin loppukiri on käynnissä aurinkoisessa säässä – Katso Ylen vaalikierros läpi Suomen pääkaupungista napapiirille</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Ensimmäisen kierroksen voittanut tv-koomikko vaati istuvalta presidentiltä huume- ja alkoholitestiä ehtona vaaliväittelylle.</t>
+          <t>Ylen vaalikierroksella käytiin haistelemassa, millaisissa tunnelmissa vaalitoreilla kampanjoidaan.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Mikko Haapanen</t>
+          <t>Teemu HallamaaLaura Mäkiniemi</t>
         </is>
       </c>
     </row>
@@ -6712,17 +6712,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Kampanjoinnin loppukiri on käynnissä aurinkoisessa säässä – Katso Ylen vaalikierros läpi Suomen pääkaupungista napapiirille</t>
+          <t>Juha Sipilä: "Täytyy myöntää, että olen myös öitä valvonut vastuun edessä" – Valitsi keskustan jo lukioikäisenä</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Ylen vaalikierroksella käytiin haistelemassa, millaisissa tunnelmissa vaalitoreilla kampanjoidaan.</t>
+          <t>Herkistynyt keskustan puheenjohtaja Juha Sipilä sanoo, että oman lapsen kuolemassa on "epäluonnollinen ja väärä järjestys".</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Teemu HallamaaLaura Mäkiniemi</t>
+          <t>Kai JaskariMarja Sannikka</t>
         </is>
       </c>
     </row>
@@ -6732,17 +6732,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Trump kävi katsastamassa raja-aitaa Kaliforniassa – aidassa hopeinen Trump-kyltti  </t>
+          <t>Testaa: Mitä tiedät eduskunnasta</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Meksikon rajalla on todella paha tilanne, todella paha, sanoi Trump.</t>
+          <t>Kuinka paljon oli naiskansanedustajia Suomen ensimmäisessä eduskunnassa, mikä on nykykansanedustajan palkkio? Testaa tietosi Ylen eduskuntavisassa!</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Mia Gertsch</t>
         </is>
       </c>
     </row>
@@ -6752,17 +6752,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Maailman suurimmat vaalit alkavat viikon päästä – Intian parlamenttivaaleissa kaikki on suurta: 900 miljoonaa äänioikeutettua, miljoona äänestyspaikkaa</t>
+          <t>Kongressi uhmaa Trumpin Saudi-Arabian-politiikkaa –"USA:n tuki pois sotatoimilta Jemenissä"   </t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Parlamenttivaalit ovat myös äänestys hindunationalistisen pääministerin Narendra Modin suosiosta. </t>
+          <t>Presidentti Donald Trump on uhannut käyttää asiassa veto-oikeuttaan. </t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Teemu Juhola</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -6772,17 +6772,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Kongressi uhmaa Trumpin Saudi-Arabian-politiikkaa –"USA:n tuki pois sotatoimilta Jemenissä"   </t>
+          <t>Evan tutkimus: Suomalaiset luottavat yhä poliisiin – "Eduskunnan ja poliitikkojen kannalta tilanne on murheellinen"</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Presidentti Donald Trump on uhannut käyttää asiassa veto-oikeuttaan. </t>
+          <t>Elinkeinoelämän valtuuskunta EVA julkaisi torstaina uusimman tutkimuksen suomalaisten luottamuksesta yhteiskunnan eri instituutioihin.</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Inka Haukka</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -6792,15 +6792,20 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Jani Halmeen kolumni: Sisar hento valkoinen-sanonnan voi huoletta haudata, nyt on hurjien hoitajien vuoro</t>
+          <t>Liikuntakeskustelu ei sytytä vaalikentillä, vaikka liikkumattomuus maksaa miljardeja – löytyykö ratkaisu edullisemmista tilavuokrista tai harrasteseteleistä?</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Vinoutuneet käsitykset hoitotyöstä ovat johtaneet siihen, etteivät poliitikot kykene tekemään viisaita päätöksiä, joissa näkyisivät hoitotyön todellinen arvo, kirjoittaa Jani Halme. </t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>
+Kysyimme viideltä suurimmalta puolueelta, miksi liikunta ei nouse vaalipuheisiin, vaikka suomalaisten liikkumattomuus on iso ongelma.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Riikka Smolander-Slotte</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -6808,17 +6813,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Vaaleja ja politiikkaa lasten silmin: "Jäin miettimään tuota äänestä Suomi takaisin -lausetta, että mitä se tarkoittaa, kun meillä on jo Suomi"</t>
+          <t>Teollisuusjohtaja patistaa Suomea tekemään tiukkaa ilmastopolitiikkaa – jopa vihreiden tavoitteet saavat kiitosta</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Kymmenen vuoden päästä vaaliuurnille pääsevä äänestäjäsukupolvi tietää jo, mitä politiikassa periaatteessa tapahtuu.</t>
+          <t>Metsäteollisuuden johtaja varoittelee poliitikkoja rajoittamasta metsähakkuita.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Mirva Ekman</t>
+          <t>Virpi Hukkanen</t>
         </is>
       </c>
     </row>
@@ -6848,19 +6853,15 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Evan tutkimus: Suomalaiset luottavat yhä poliisiin – "Eduskunnan ja poliitikkojen kannalta tilanne on murheellinen"</t>
+          <t>Jani Halmeen kolumni: Sisar hento valkoinen-sanonnan voi huoletta haudata, nyt on hurjien hoitajien vuoro</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Elinkeinoelämän valtuuskunta EVA julkaisi torstaina uusimman tutkimuksen suomalaisten luottamuksesta yhteiskunnan eri instituutioihin.</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>Hannu Tikkala</t>
-        </is>
-      </c>
+          <t>Vinoutuneet käsitykset hoitotyöstä ovat johtaneet siihen, etteivät poliitikot kykene tekemään viisaita päätöksiä, joissa näkyisivät hoitotyön todellinen arvo, kirjoittaa Jani Halme. </t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -6868,17 +6869,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Suomesta ilmastotekojen mallimaa? Katso ilmastotentti kello 21</t>
+          <t>Vaaleja ja politiikkaa lasten silmin: "Jäin miettimään tuota äänestä Suomi takaisin -lausetta, että mitä se tarkoittaa, kun meillä on jo Suomi"</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat väittelevät siitä, millaisia toimia ilmastonmuutos vaatii seuraavalta hallitukselta ja suomalaisilta.</t>
+          <t>Kymmenen vuoden päästä vaaliuurnille pääsevä äänestäjäsukupolvi tietää jo, mitä politiikassa periaatteessa tapahtuu.</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Helmiina Suhonen</t>
+          <t>Mirva Ekman</t>
         </is>
       </c>
     </row>
@@ -6888,17 +6889,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Trump uhkaa Meksikoa autotuonnin verotuksella ja rajan sulkemisella </t>
+          <t>Maailman suurimmat vaalit alkavat viikon päästä – Intian parlamenttivaaleissa kaikki on suurta: 900 miljoonaa äänioikeutettua, miljoona äänestyspaikkaa</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Meksikon rajan yli kulkee päivittäin tavaraa 1,7 miljardin dollarin eli 1,5 miljardin euron arvosta.</t>
+          <t>Parlamenttivaalit ovat myös äänestys hindunationalistisen pääministerin Narendra Modin suosiosta. </t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Minna Pärssinen</t>
+          <t>Teemu Juhola</t>
         </is>
       </c>
     </row>
@@ -6928,17 +6929,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Osaavatko poliitikot puhua niin, että kuka vain ymmärtää? Vastaus selviää Ylen selkokielisessä vaalikeskustelussa – katso tästä koko lähetys </t>
+          <t>Suomesta ilmastotekojen mallimaa? Katso ilmastotentti kello 21</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Poliitikkojen oli keskustelussa onnistuttava puhumaan ymmärrettävää suomea, vaikka aihe olisi kuinka vaikea.</t>
+          <t>Yhdeksän puolueen eduskuntavaaliehdokkaat väittelevät siitä, millaisia toimia ilmastonmuutos vaatii seuraavalta hallitukselta ja suomalaisilta.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Anne Orjala</t>
+          <t>Helmiina Suhonen</t>
         </is>
       </c>
     </row>
@@ -6988,17 +6989,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Teollisuusjohtaja patistaa Suomea tekemään tiukkaa ilmastopolitiikkaa – jopa vihreiden tavoitteet saavat kiitosta</t>
+          <t>Trump uhkaa Meksikoa autotuonnin verotuksella ja rajan sulkemisella </t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Metsäteollisuuden johtaja varoittelee poliitikkoja rajoittamasta metsähakkuita.</t>
+          <t>Meksikon rajan yli kulkee päivittäin tavaraa 1,7 miljardin dollarin eli 1,5 miljardin euron arvosta.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Virpi Hukkanen</t>
+          <t>Minna Pärssinen</t>
         </is>
       </c>
     </row>
@@ -7008,18 +7009,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Liikuntakeskustelu ei sytytä vaalikentillä, vaikka liikkumattomuus maksaa miljardeja – löytyykö ratkaisu edullisemmista tilavuokrista tai harrasteseteleistä?</t>
+          <t>Osaavatko poliitikot puhua niin, että kuka vain ymmärtää? Vastaus selviää Ylen selkokielisessä vaalikeskustelussa – katso tästä koko lähetys </t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>
-Kysyimme viideltä suurimmalta puolueelta, miksi liikunta ei nouse vaalipuheisiin, vaikka suomalaisten liikkumattomuus on iso ongelma.</t>
+          <t>Poliitikkojen oli keskustelussa onnistuttava puhumaan ymmärrettävää suomea, vaikka aihe olisi kuinka vaikea.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Riikka Smolander-Slotte</t>
+          <t>Anne Orjala</t>
         </is>
       </c>
     </row>
@@ -7029,13 +7029,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Brittiarmeija tutkii kohuvideota: Sotilaat näyttävät käyttävän oppositiojohtaja Jeremy Corbynin kuvaa harjoitusmaalina</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>Skandaalista irti pyristelevä Justin Trudeau potkaisi kaksi ex-ministeriä ulos puolueestaan </t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Kohu sai alkunsa suuren rakennusyhtiön korruptiosyytteistä. </t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Katriina Töyrylä</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -7045,17 +7049,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Miten pärjäisit kansanedustajan saappaissa? Ylen peli laittaa sinut vaalikauden kiperimpiin paikkoihin</t>
+          <t>Koululaiset toivovat lisää vapaata aikaa –  Professori: "Tylsistyminen on tervettä ja lisää luovuutta"</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Mitä kansanedustaja oikein tekee työkseen? Testaa edustajantaitosi Ylen pelissä.</t>
+          <t>Tutkijaa ja tulevaa lapsiasiavaltuutettua hätkähdytti kaveria kaipaavien lasten määrä. </t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaJoel KanervaEetu Pietarinen</t>
+          <t>Niina HonkaHanna Eskonen</t>
         </is>
       </c>
     </row>
@@ -7085,17 +7089,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Koululaiset toivovat lisää vapaata aikaa –  Professori: "Tylsistyminen on tervettä ja lisää luovuutta"</t>
+          <t>Venezuelassa oppositiojohtajalta poistettiin syytesuoja</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Tutkijaa ja tulevaa lapsiasiavaltuutettua hätkähdytti kaveria kaipaavien lasten määrä. </t>
+          <t>On vielä liian aikaista sanoa, ryhtyykö Maduro toimiin Guaidoa vastaan.</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Niina HonkaHanna Eskonen</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -7105,17 +7109,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Skandaalista irti pyristelevä Justin Trudeau potkaisi kaksi ex-ministeriä ulos puolueestaan </t>
+          <t>Miten pärjäisit kansanedustajan saappaissa? Ylen peli laittaa sinut vaalikauden kiperimpiin paikkoihin</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Kohu sai alkunsa suuren rakennusyhtiön korruptiosyytteistä. </t>
+          <t>Mitä kansanedustaja oikein tekee työkseen? Testaa edustajantaitosi Ylen pelissä.</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t>Ari HakahuhtaJoel KanervaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -7125,17 +7129,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Katri Saarikiven kolumni: Eduskuntavaalien ehdokkaat mustamaalaavat toisiaan, mutta minua kiinnostaisi tietää, miten he tekevät yhteistyötä </t>
+          <t>Ennakkoäänestys alkaa tänään, ja näin se hoituu: selvitä oman ehdokkaasi numero ja ota mukaan kuvallinen henkilöllisyystodistus</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Tarvittiin 400 000 ihmisen yhteistyötä, että ihminen pääsi kuuhun. Samaa yhteistyön ja virheistä oppimisen henkeä kaivattaisiin politiikkaan,  pohtii aivotutkija Katri Saarikivi.</t>
+          <t>Viimeinen päivä äänestää ennakkoon on ensi viikon tiistai eli 9. huhtikuuta. Varsinainen vaalipäivä on sunnuntaina 14. huhtikuuta.</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -7145,17 +7149,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Onko ikä pelkkä numero? Veeti, 18, haluaa pelastaa ilmaston – vaalien vanhin, 85-vuotias Gunvor ajaisi vanhusten asiaa</t>
+          <t>Jyväskylässä 150 metrin jono – Ennakkoäänestys eduskuntavaaleissa alkoi vilkkaammin kuin neljä vuotta sitten</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Kaikkien eduskuntavaaliehdokkaiden keski-ikä on 47 vuotta. Miehiä on ehdokkaina naisia enemmän.</t>
+          <t>Seuraa eduskuntavaalien ennakkoäänestysintoa Ylen vertailutietojen avulla.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Varpu Helpinen</t>
+          <t>Ari HakahuhtaTiina Länkinen</t>
         </is>
       </c>
     </row>
@@ -7165,17 +7169,18 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Venezuelassa oppositiojohtajalta poistettiin syytesuoja</t>
+          <t>Reformipuolueen Kaja Kallas aloittaa hallitustunnustelut Virossa – enemmistöhallituksen muodostaminen on vaikea tehtävä</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>On vielä liian aikaista sanoa, ryhtyykö Maduro toimiin Guaidoa vastaan.</t>
+          <t>Keskustapuolue valmistelee omaa hallituskokoonpanoaan
+.</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7185,17 +7190,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Henrik Dettmannin kolumni: Miksi vaalikoneet sivuuttavat täysin miljardien eurojen liikuntapommin? Esitä ehdokkaallesi nämä kysymykset ja vaikuta lastesi tulevaisuuteen</t>
+          <t>May ja Corbyn kävivät ”rakentavia keskusteluja” brexitistä</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Lastemme tulevaisuuden kannalta keskeiset teemat liikkumisesta ja oppimisesta pitäisi ottaa vaalikeskustelussa tosissaan, kirjoittaa Henrik Dettmann.</t>
+          <t>Monet Mayn konservatiivipuolueen edustajat ovat arvostelleet neuvotteluja työväenpuolueen Corbynin kanssa.</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Henrik Dettmann</t>
+          <t>Inka HaukkaKatriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -7205,17 +7210,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ennakkoäänestys alkaa tänään, ja näin se hoituu: selvitä oman ehdokkaasi numero ja ota mukaan kuvallinen henkilöllisyystodistus</t>
+          <t>Henrik Dettmannin kolumni: Miksi vaalikoneet sivuuttavat täysin miljardien eurojen liikuntapommin? Esitä ehdokkaallesi nämä kysymykset ja vaikuta lastesi tulevaisuuteen</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Viimeinen päivä äänestää ennakkoon on ensi viikon tiistai eli 9. huhtikuuta. Varsinainen vaalipäivä on sunnuntaina 14. huhtikuuta.</t>
+          <t>Lastemme tulevaisuuden kannalta keskeiset teemat liikkumisesta ja oppimisesta pitäisi ottaa vaalikeskustelussa tosissaan, kirjoittaa Henrik Dettmann.</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Henrik Dettmann</t>
         </is>
       </c>
     </row>
@@ -7225,17 +7230,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Jyväskylässä 150 metrin jono – Ennakkoäänestys eduskuntavaaleissa alkoi vilkkaammin kuin neljä vuotta sitten</t>
+          <t>Onko ikä pelkkä numero? Veeti, 18, haluaa pelastaa ilmaston – vaalien vanhin, 85-vuotias Gunvor ajaisi vanhusten asiaa</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Seuraa eduskuntavaalien ennakkoäänestysintoa Ylen vertailutietojen avulla.</t>
+          <t>Kaikkien eduskuntavaaliehdokkaiden keski-ikä on 47 vuotta. Miehiä on ehdokkaina naisia enemmän.</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaTiina Länkinen</t>
+          <t>Varpu Helpinen</t>
         </is>
       </c>
     </row>
@@ -7245,17 +7250,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Veroilmoituksen muoto muuttuu: lakanakaavake historiaan, tilalle A4</t>
+          <t>Katri Saarikiven kolumni: Eduskuntavaalien ehdokkaat mustamaalaavat toisiaan, mutta minua kiinnostaisi tietää, miten he tekevät yhteistyötä </t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Tilalle tulee A4-mallinen tuloste verotustiedoista.</t>
+          <t>Tarvittiin 400 000 ihmisen yhteistyötä, että ihminen pääsi kuuhun. Samaa yhteistyön ja virheistä oppimisen henkeä kaivattaisiin politiikkaan,  pohtii aivotutkija Katri Saarikivi.</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -7265,17 +7270,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>May ja Corbyn kävivät ”rakentavia keskusteluja” brexitistä</t>
+          <t>Veroilmoituksen muoto muuttuu: lakanakaavake historiaan, tilalle A4</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Monet Mayn konservatiivipuolueen edustajat ovat arvostelleet neuvotteluja työväenpuolueen Corbynin kanssa.</t>
+          <t>Tilalle tulee A4-mallinen tuloste verotustiedoista.</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Inka HaukkaKatriina Töyrylä</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7285,18 +7290,13 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Reformipuolueen Kaja Kallas aloittaa hallitustunnustelut Virossa – enemmistöhallituksen muodostaminen on vaikea tehtävä</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Keskustapuolue valmistelee omaa hallituskokoonpanoaan
-.</t>
-        </is>
-      </c>
+          <t>Brittiarmeija tutkii kohuvideota: Sotilaat näyttävät käyttävän oppositiojohtaja Jeremy Corbynin kuvaa harjoitusmaalina</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
@@ -7346,17 +7346,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>"Minut leimattiin saman tien rasistiksi" – lukijat kertovat Ylelle, miten oman äänestyspäätöksen paljastaminen voi johtaa jopa ilmiriitaan</t>
+          <t>Analyysi: SDP joutunee taistelemaan äänestäjistä Helsingissä – Äänet annetaan joko päästöttömälle tulevaisuudelle tai Suomen kulttuurin säilymiselle</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Professorin mielestä äänestyspäätöksestä kertominen ei saisi olla asia, joka katkaisee keskusteluyhteyden.</t>
+          <t>Huoli ilmastosta sekä eriarvoistumisen lisääntyminen näkynee pääkaupungin äänestystuloksissa. Maahanmuuttajien vastustuksella on oma vankka kannattajakuntansa.</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Ulriikka Myöhänen</t>
+          <t>Reeta Salminen</t>
         </is>
       </c>
     </row>
@@ -7366,17 +7366,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Analyysi: SDP joutunee taistelemaan äänestäjistä Helsingissä – Äänet annetaan joko päästöttömälle tulevaisuudelle tai Suomen kulttuurin säilymiselle</t>
+          <t>Pienpuolueet väittelivät vihapuheesta ja ilmastosta: "Vihapuhe on tekaistu käsite"</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Huoli ilmastosta sekä eriarvoistumisen lisääntyminen näkynee pääkaupungin äänestystuloksissa. Maahanmuuttajien vastustuksella on oma vankka kannattajakuntansa.</t>
+          <t>Kaksituntisessa vaalitentissä ääneen pääsivät puolueet, joilla ei ole tarvetta miellyttää keskitien äänestäjiä.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Reeta Salminen</t>
+          <t>Kristiina Tolkki</t>
         </is>
       </c>
     </row>
@@ -7406,17 +7406,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Pienpuolueet väittelivät vihapuheesta ja ilmastosta: "Vihapuhe on tekaistu käsite"</t>
+          <t>"Minut leimattiin saman tien rasistiksi" – lukijat kertovat Ylelle, miten oman äänestyspäätöksen paljastaminen voi johtaa jopa ilmiriitaan</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Kaksituntisessa vaalitentissä ääneen pääsivät puolueet, joilla ei ole tarvetta miellyttää keskitien äänestäjiä.</t>
+          <t>Professorin mielestä äänestyspäätöksestä kertominen ei saisi olla asia, joka katkaisee keskusteluyhteyden.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Kristiina Tolkki</t>
+          <t>Ulriikka Myöhänen</t>
         </is>
       </c>
     </row>
@@ -7426,19 +7426,15 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Niinistö tapaa Putinin Pietarissa</t>
+          <t>Jarno Limnéllin kolumni: Suomi tarvitsee nyt kyberturvallisuusjohtajan ja kyberturvallisuusyksikön</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö pitää puheenvuoron kansainvälisen arktisen foorumiin pääistunnossa.</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Inka Haukka</t>
-        </is>
-      </c>
+          <t>Vaalien jälkeisen hallituksen on keskitettävä kyberturvallisuus yhteen paikkaan. Kyberturvallisuus on erottamaton osa Suomen ulko- ja turvallisuuspolitiikkaa, kirjoittaa Jarno Limnéll.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -7446,17 +7442,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Sipilä syytti Halla-ahoa ja Väyrystä raiskausrikoksilla flirttailusta – Yle seurasi puoluejohtajien vaalitenttiä hetki hetkeltä</t>
+          <t>Vielä ehtii osallistua: Ylen vaaliveikkaus sulkeutuu lauantai-iltana – veikkaa vaalitulos oikein ja voita ihana puoluepomotyyny </t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Kaikki kymmenen eduskuntapuoluetta olivat paikalla Oulun vaalitentissä. </t>
+          <t>Kuinka hyvin osaat veikata eduskuntavaalien tuloksen?  Viisi parasta veikkaajaa saa palkinnoksi valitsemansa puheenjohtajan kuvalla varustetun tyynysetin.</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Johanna Laakkonen</t>
+          <t>Heli SuominenEemeli MarttiTeemo TebestStina Tuominen</t>
         </is>
       </c>
     </row>
@@ -7466,17 +7462,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Vielä ehtii osallistua: Ylen vaaliveikkaus sulkeutuu lauantai-iltana – veikkaa vaalitulos oikein ja voita ihana puoluepomotyyny </t>
+          <t>Ankaran ja Istanbulin pormestaripaikoista käydään kiivasta taistelua – presidentti Erdoğanin puolue väittää omien tietojensa perusteella voittaneensa Istanbulissa</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Kuinka hyvin osaat veikata eduskuntavaalien tuloksen?  Viisi parasta veikkaajaa saa palkinnoksi valitsemansa puheenjohtajan kuvalla varustetun tyynysetin.</t>
+          <t>Vaaleja pidettiin testinä presidentin suosiolle. Isot kaupungit näyttivät antavan hänelle näpäytyksen.</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Heli SuominenEemeli MarttiTeemo TebestStina Tuominen</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -7486,17 +7482,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Analyysi: Suomen suurimmassa vaalipiirissä on kymmeniä tuhansia kodittomia ääniä – Ratkaiseeko maahanmuutto vaalit Uudellamaalla?</t>
+          <t>Sipilä syytti Halla-ahoa ja Väyrystä raiskausrikoksilla flirttailusta – Yle seurasi puoluejohtajien vaalitenttiä hetki hetkeltä</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Uudellamaalla jännitetään, kenen laariin voimakas muuttoliike, erityisesti maahanmuutto, sataa, ja kuinka pärjää SDP:n puheenjohtaja Antti Rinne?</t>
+          <t>Kaikki kymmenen eduskuntapuoluetta olivat paikalla Oulun vaalitentissä. </t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Varpu Helpinen</t>
+          <t>Johanna Laakkonen</t>
         </is>
       </c>
     </row>
@@ -7506,17 +7502,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Näissä vaaleissa väistellään puhetta työllistämiskeinoista, koska ne "ovat kipeitä johonkin suuntaan", sanoo 150 budjettiriihen virkamies</t>
+          <t>Analyysi: Suomen suurimmassa vaalipiirissä on kymmeniä tuhansia kodittomia ääniä – Ratkaiseeko maahanmuutto vaalit Uudellamaalla?</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Budjettipäällikkö Hannu Mäkisen mielestä olisi syytä varautua siihen, että tulevaisuus ei ole ruusuinen. </t>
+          <t>Uudellamaalla jännitetään, kenen laariin voimakas muuttoliike, erityisesti maahanmuutto, sataa, ja kuinka pärjää SDP:n puheenjohtaja Antti Rinne?</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Maria Stenroos</t>
+          <t>Varpu Helpinen</t>
         </is>
       </c>
     </row>
@@ -7526,17 +7522,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>F1-asiantuntija esitti uhkakuvan Ferrarista suuren katastrofin ja superlupauksen dominoinnin jälkeen – ”Toivottavasti politiikkaa ei tule mukaan”</t>
+          <t>EU-komission Katainen varoittaa: Todennäköisesti edessä on kova Brexit </t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Jukka Mildh toivoo, että Ferrarilla ei synny poliittiset pelit Bahrainin GP:n ja Charles Leclercin huippusuorituksen jälkeen.</t>
+          <t>Euroopan unioni on valmistautunut sopimuksettoman eron varalta. Ero tapahtuu ensi viikon perjantaina, jolleivat EU ja britit sovi neuvotteluiden jatkoajasta.</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Roope Visuri</t>
+          <t>Maria Stenroos</t>
         </is>
       </c>
     </row>
@@ -7546,13 +7542,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Brexit edelleen umpikujassa: brittiparlamentti ei löytänyt vaihtoehtoista irtautumistapaa EU:sta</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
+          <t>Tavoitteena halvemmat autot, lisää poliiseja ja sata hävittäjää – Tällainen puolue on Sampo Terhon siniset, joka taistelee olemassaolostaan</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Sampo Terho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa tänään maanantaina kello 21.00.</t>
+        </is>
+      </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Ari HakahuhtaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -7562,17 +7562,13 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Junes Lokka syytteeseen kunnianloukkauksesta ja yksityiselämää loukkaavan tiedon levittämisestä</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Oululainen kaupunginvaltuutettu Junes Lokka vei vastikään toimittajan käräjille oman kunniansa loukkaamisesta.</t>
-        </is>
-      </c>
+          <t>Brexit edelleen umpikujassa: brittiparlamentti ei löytänyt vaihtoehtoista irtautumistapaa EU:sta</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -7582,17 +7578,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Ankaran ja Istanbulin pormestaripaikoista käydään kiivasta taistelua – presidentti Erdoğanin puolue väittää omien tietojensa perusteella voittaneensa Istanbulissa</t>
+          <t>Junes Lokka syytteeseen kunnianloukkauksesta ja yksityiselämää loukkaavan tiedon levittämisestä</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Vaaleja pidettiin testinä presidentin suosiolle. Isot kaupungit näyttivät antavan hänelle näpäytyksen.</t>
+          <t>Oululainen kaupunginvaltuutettu Junes Lokka vei vastikään toimittajan käräjille oman kunniansa loukkaamisesta.</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7602,17 +7598,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Erilainen pääministeritentti: Sampo Terho nauroi mutta järkyttyi, kun hänen lapsensa väitti isänsä muuttuneen punaiseksi – video</t>
+          <t>Niinistö tapaa Putinin Pietarissa</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Esitimme kahdeksan kiperää kysymystä sinisten puheenjohtajalle Sampo Terholle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
+          <t>Presidentti Niinistö pitää puheenvuoron kansainvälisen arktisen foorumiin pääistunnossa.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Päivi Happonen</t>
+          <t>Inka Haukka</t>
         </is>
       </c>
     </row>
@@ -7622,17 +7618,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tavoitteena halvemmat autot, lisää poliiseja ja sata hävittäjää – Tällainen puolue on Sampo Terhon siniset, joka taistelee olemassaolostaan</t>
+          <t>Näissä vaaleissa väistellään puhetta työllistämiskeinoista, koska ne "ovat kipeitä johonkin suuntaan", sanoo 150 budjettiriihen virkamies</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Sampo Terho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa tänään maanantaina kello 21.00.</t>
+          <t>Budjettipäällikkö Hannu Mäkisen mielestä olisi syytä varautua siihen, että tulevaisuus ei ole ruusuinen. </t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaEetu Pietarinen</t>
+          <t>Maria Stenroos</t>
         </is>
       </c>
     </row>
@@ -7642,15 +7638,19 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Jarno Limnéllin kolumni: Suomi tarvitsee nyt kyberturvallisuusjohtajan ja kyberturvallisuusyksikön</t>
+          <t>Terho lupasi Ylen tentissä: autovero pois, tuhat uutta poliisia ja sata hävittäjää – lue liveanalyysi</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Vaalien jälkeisen hallituksen on keskitettävä kyberturvallisuus yhteen paikkaan. Kyberturvallisuus on erottamaton osa Suomen ulko- ja turvallisuuspolitiikkaa, kirjoittaa Jarno Limnéll.</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
+          <t>Miten sinisten tentti meni? Terhon suoriutumista Ylen vaalitentissä analysoivat verkossa politiikan tutkija Johanna Vuorelma Tampereen yliopistosta, retoriikan asiantuntija Antti Mustakallio ja Ylen Heikki Valkama. Voit katsoa suoraa lähetystä Areenasta.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Heikki Valkama</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -7658,17 +7658,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>EU-komission Katainen varoittaa: Todennäköisesti edessä on kova Brexit </t>
+          <t>Erilainen pääministeritentti: Sampo Terho nauroi mutta järkyttyi, kun hänen lapsensa väitti isänsä muuttuneen punaiseksi – video</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Euroopan unioni on valmistautunut sopimuksettoman eron varalta. Ero tapahtuu ensi viikon perjantaina, jolleivat EU ja britit sovi neuvotteluiden jatkoajasta.</t>
+          <t>Esitimme kahdeksan kiperää kysymystä sinisten puheenjohtajalle Sampo Terholle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Maria Stenroos</t>
+          <t>Päivi Happonen</t>
         </is>
       </c>
     </row>
@@ -7678,17 +7678,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Herätys: Sinisillä näytön paikka, veikkaa vaalivoittajaa, länsituuli lämmittää etelässä</t>
+          <t>Yhdysvallat harkitsee lisäpakotteita Iranille</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Viranomainen arvioi, että pakotteet tulisivat voimaan toukokuussa.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -7698,17 +7698,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Terho lupasi Ylen tentissä: autovero pois, tuhat uutta poliisia ja sata hävittäjää – lue liveanalyysi</t>
+          <t>F1-asiantuntija esitti uhkakuvan Ferrarista suuren katastrofin ja superlupauksen dominoinnin jälkeen – ”Toivottavasti politiikkaa ei tule mukaan”</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Miten sinisten tentti meni? Terhon suoriutumista Ylen vaalitentissä analysoivat verkossa politiikan tutkija Johanna Vuorelma Tampereen yliopistosta, retoriikan asiantuntija Antti Mustakallio ja Ylen Heikki Valkama. Voit katsoa suoraa lähetystä Areenasta.</t>
+          <t>Jukka Mildh toivoo, että Ferrarilla ei synny poliittiset pelit Bahrainin GP:n ja Charles Leclercin huippusuorituksen jälkeen.</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Heikki Valkama</t>
+          <t>Roope Visuri</t>
         </is>
       </c>
     </row>
@@ -7718,17 +7718,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Britannian parlamentti äänesti Brexitistä – yksikään neljästä eri vaihtoehdosta ei saanut enemmistöä</t>
+          <t>Herätys: Sinisillä näytön paikka, veikkaa vaalivoittajaa, länsituuli lämmittää etelässä</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Äänestysten tarkoituksena oli löytää vaihtoehto pääministeri Theresa Mayn neuvottelemalle Brexit-sopimukselle.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Minna Kurki</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -7738,17 +7738,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Yhdysvallat harkitsee lisäpakotteita Iranille</t>
+          <t>Britannian parlamentti äänesti Brexitistä – yksikään neljästä eri vaihtoehdosta ei saanut enemmistöä</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Viranomainen arvioi, että pakotteet tulisivat voimaan toukokuussa.</t>
+          <t>Äänestysten tarkoituksena oli löytää vaihtoehto pääministeri Theresa Mayn neuvottelemalle Brexit-sopimukselle.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Minna Kurki</t>
         </is>
       </c>
     </row>
@@ -7758,17 +7758,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Haukuttu aktiivimalli muuttuu maanantaina – jatkossa esimerkiksi ammattiliitto, kunta tai rekisteröity yhdistys voi järjestää aktiivisuusehdon täyttävää koulutusta työttömälle</t>
+          <t>Turkissa Erdoğanin AKP uhkaa hävitä ensimmäiset vaalit vuosiin</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Myös työnantajan järjestämä muutosturvakoulutus kerryttää jatkossa aktiivisuutta.</t>
+          <t>Turkin talousongelmat ovat saaneet osan äänestäjistä pohtimaan vaihtoehtoja valtapuolueelle.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Matti Konttinen</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -7798,17 +7798,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Turkissa Erdoğanin AKP uhkaa hävitä ensimmäiset vaalit vuosiin</t>
+          <t>Tv-koomikko, suklaakuningas vai kaasuprinsessa: Ukraina äänestää sunnuntaina maalle uuden presidentin, ja kisaa johtaa tv:stä tuttu yllättäjä</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Turkin talousongelmat ovat saaneet osan äänestäjistä pohtimaan vaihtoehtoja valtapuolueelle.</t>
+          <t>Koomikko, joka ei ole pitänyt yhtään vaalitilaisuutta, on selvässä gallupjohdossa. Yle esittelee kärkiehdokkaat.</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t>Antti Kuronen</t>
         </is>
       </c>
     </row>
@@ -7838,17 +7838,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tv-koomikko, suklaakuningas vai kaasuprinsessa: Ukraina äänestää sunnuntaina maalle uuden presidentin, ja kisaa johtaa tv:stä tuttu yllättäjä</t>
+          <t>Haukuttu aktiivimalli muuttuu maanantaina – jatkossa esimerkiksi ammattiliitto, kunta tai rekisteröity yhdistys voi järjestää aktiivisuusehdon täyttävää koulutusta työttömälle</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Koomikko, joka ei ole pitänyt yhtään vaalitilaisuutta, on selvässä gallupjohdossa. Yle esittelee kärkiehdokkaat.</t>
+          <t>Myös työnantajan järjestämä muutosturvakoulutus kerryttää jatkossa aktiivisuutta.</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Antti Kuronen</t>
+          <t>Matti Konttinen</t>
         </is>
       </c>
     </row>
@@ -7874,17 +7874,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Vaalitaistelussa alkaa kahden viikon loppukiri – ehdokkaat toivovat toreille vaalirauhaa</t>
+          <t>Olisiko EU:sta ilmastosankariksi? Kyllä, jos poliittista tahtoa vain riittää, sanovat Suomen mepit</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Eduskuntavaaleihin on aikaa tasan kaksi viikkoa ja ennakkoäänestys alkaa jo keskiviikkona.</t>
+          <t>Vuonna 2050 maailmassa voi olla 200 miljoonaa ilmastopakolaista. Mitä jos he tulevat Eurooppaan?</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Pekka Kinnunen</t>
+          <t>Tuija SiltamäkiEemeli MarttiJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Olisiko EU:sta ilmastosankariksi? Kyllä, jos poliittista tahtoa vain riittää, sanovat Suomen mepit</t>
+          <t>Vaalikampanjointi käy ehdokkaille yhä kalliimmaksi – Viime vaaleissa paikka eduskunnassa irtosi 40 000 eurolla</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Vuonna 2050 maailmassa voi olla 200 miljoonaa ilmastopakolaista. Mitä jos he tulevat Eurooppaan?</t>
+          <t>Kampanjabudjetit ovat kasvaneet, kun vaaliviestintä on ammattimaistunut ja yhä useampia vaikuttamiskanavia on pidettävä auki rinnakkain.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Tuija SiltamäkiEemeli MarttiJuha Rissanen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -7914,17 +7914,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Vaalikampanjointi käy ehdokkaille yhä kalliimmaksi – Viime vaaleissa paikka eduskunnassa irtosi 40 000 eurolla</t>
+          <t>Vaalitaistelussa alkaa kahden viikon loppukiri – ehdokkaat toivovat toreille vaalirauhaa</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Kampanjabudjetit ovat kasvaneet, kun vaaliviestintä on ammattimaistunut ja yhä useampia vaikuttamiskanavia on pidettävä auki rinnakkain.</t>
+          <t>Eduskuntavaaleihin on aikaa tasan kaksi viikkoa ja ennakkoäänestys alkaa jo keskiviikkona.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Pekka Kinnunen</t>
         </is>
       </c>
     </row>
@@ -7975,17 +7975,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Egyptin presidentti al-Sisi nosti minimipalkkaa reilusti – yritys nostaa suosiota ennen kansanäänestystä valtakausista?</t>
+          <t>Onko kaikki viisaus puoluejohtajilla? Valitsemme vaaleissa parlamentin, emme diktaattoria</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2 000 Egyptin punnan korotus nosti vähimmäispalkkaa kahdella kolmasosalla.</t>
+          <t>Eduskuntavaaleista on jälleen muodostumassa lähinnä puoluejohtajien välinen kisa, kirjoittaa politiikan toimittaja Timo Seppänen.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Juho Takkunen</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
@@ -7995,17 +7995,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Onko kaikki viisaus puoluejohtajilla? Valitsemme vaaleissa parlamentin, emme diktaattoria</t>
+          <t>Egyptin presidentti al-Sisi nosti minimipalkkaa reilusti – yritys nostaa suosiota ennen kansanäänestystä valtakausista?</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Eduskuntavaaleista on jälleen muodostumassa lähinnä puoluejohtajien välinen kisa, kirjoittaa politiikan toimittaja Timo Seppänen.</t>
+          <t>2 000 Egyptin punnan korotus nosti vähimmäispalkkaa kahdella kolmasosalla.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Juho Takkunen</t>
         </is>
       </c>
     </row>
@@ -8035,17 +8035,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ylen kannatusmittaus: Perussuomalaiset on nyt kolmanneksi suosituin puolue, SDP menetti kannatustaan</t>
+          <t>Analyysi: Perussuomalaiset matkalla uuteen jytkyyn – kokoomuksessa ja keskustassa aika painaa paniikkinappulaa</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Myös kokoomuksen ja vihreiden suosio on laskenut. Kaikki muutokset mahtuvat virhemarginaalin sisään.</t>
+          <t>Perussuomalaisten haasteena on kannattajien saaminen vaaliuurnille asti, kirjoittaa politiikan toimittaja Matti Koivisto. </t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Matti Koivisto</t>
         </is>
       </c>
     </row>
@@ -8055,17 +8055,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SDP ylös – alas! Mihin hyytyi kokoomus? Perussuomalaiset ohi keskustan – katso, miten puolueet pomppivat Ylen animaatiossa</t>
+          <t>Nousussa oleva PS ei kelpaa vasemmistopuolueille hallituskumppaniksi – Halla-aho ihmettelee: "Vaalitulos ratkaisee hallituskelpoisuuden"</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Kärkipaikalla on neljän vuoden aikana ollut tuulista Ylen puoluekannatusmittauksissa. </t>
+          <t>"Vaikea kuvitella, että arvomme kohtaisivat", sanoo SDP:n Antti Rinne.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Pekka KinnunenJoel KanervaEetu Pietarinen</t>
+          <t>Marika HarjumaaKristiina Tolkki</t>
         </is>
       </c>
     </row>
@@ -8075,17 +8075,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Antti Rinne: "Koviksen maailma oli se, jolla suojautui muutosta vastaan" – Nahkatakkijätkä ei loistanut koulussa mutta suojeli kiusattua</t>
+          <t>Pelissä 800 miljoonan euron potti – Sitran rahojen kohtalo siirtyy seuraavalle hallitukselle</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>SDP:n Antti Rinne koki tulleensa kaltoin kohdelluksi, kun hänen tukijoitaan syytettiin junttauksesta puheenjohtajavaalissa.</t>
+          <t>Suomen itsenäisyyden juhlarahaston eli Sitran asemaa ja resursseja pohtinut työryhmä ei päässyt yksimielisyyteen siitä, mitä Sitran valtaville pääomille oikein pitäisi tehdä. </t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Kai JaskariSanna Ukkola</t>
+          <t>Jari Järvinen</t>
         </is>
       </c>
     </row>
@@ -8095,17 +8095,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Herätys: Kannatusmittaus hyydyttää hymyjä vaaliteltoilla, uupumusta ehkäistään jaksamisvalmennuksella, etelässä jopa yli kymmenen astetta</t>
+          <t>SDP ylös – alas! Mihin hyytyi kokoomus? Perussuomalaiset ohi keskustan – katso, miten puolueet pomppivat Ylen animaatiossa</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
+          <t>Kärkipaikalla on neljän vuoden aikana ollut tuulista Ylen puoluekannatusmittauksissa. </t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Pekka KinnunenJoel KanervaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8115,17 +8115,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Puhemies Risikko seksuaalirikoksista: "Yhdenkään lapsen ei pitäisi joutua tällaiseen"</t>
+          <t>Yle tarkasti poliitikkojen vaaliväitteitä: Perussuomalaisten luvut maahanmuuton kustannuksista kyseenalaisia, SDP ei ole nuorten suosikki</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Sisäministeriö ilmoitti helmikuussa lisäävänsä poliisin resursseja seksuaalirikosten torjumiseksi.</t>
+          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Annika Martikainen</t>
+          <t>Antti PilkeRiku RoslundMerja NiilolaLauri Miikkulainen</t>
         </is>
       </c>
     </row>
@@ -8135,17 +8135,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Nousussa oleva PS ei kelpaa vasemmistopuolueille hallituskumppaniksi – Halla-aho ihmettelee: "Vaalitulos ratkaisee hallituskelpoisuuden"</t>
+          <t>Antti Rinne: "Koviksen maailma oli se, jolla suojautui muutosta vastaan" – Nahkatakkijätkä ei loistanut koulussa mutta suojeli kiusattua</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"Vaikea kuvitella, että arvomme kohtaisivat", sanoo SDP:n Antti Rinne.</t>
+          <t>SDP:n Antti Rinne koki tulleensa kaltoin kohdelluksi, kun hänen tukijoitaan syytettiin junttauksesta puheenjohtajavaalissa.</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Marika HarjumaaKristiina Tolkki</t>
+          <t>Kai JaskariSanna Ukkola</t>
         </is>
       </c>
     </row>
@@ -8155,17 +8155,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Analyysi: Perussuomalaiset matkalla uuteen jytkyyn – kokoomuksessa ja keskustassa aika painaa paniikkinappulaa</t>
+          <t>Puhemies Risikko seksuaalirikoksista: "Yhdenkään lapsen ei pitäisi joutua tällaiseen"</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Perussuomalaisten haasteena on kannattajien saaminen vaaliuurnille asti, kirjoittaa politiikan toimittaja Matti Koivisto. </t>
+          <t>Sisäministeriö ilmoitti helmikuussa lisäävänsä poliisin resursseja seksuaalirikosten torjumiseksi.</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Matti Koivisto</t>
+          <t>Annika Martikainen</t>
         </is>
       </c>
     </row>
@@ -8175,17 +8175,17 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Yle tarkasti poliitikkojen vaaliväitteitä: Perussuomalaisten luvut maahanmuuton kustannuksista kyseenalaisia, SDP ei ole nuorten suosikki</t>
+          <t>Herätys: Kannatusmittaus hyydyttää hymyjä vaaliteltoilla, uupumusta ehkäistään jaksamisvalmennuksella, etelässä jopa yli kymmenen astetta</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Yle seuraa eduskuntavaalien alla sekä puolueiden että ehdokkaiden vaalipuheita ja tarkistaa väitteiden todenperäisyyden.</t>
+          <t>Lue tästä päivän puheenaiheet lyhyesti. Voit säätää Uutisvahdissa Herätys-ilmoituksia asetuksista.</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Antti PilkeRiku RoslundMerja NiilolaLauri Miikkulainen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -8215,17 +8215,17 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki: Yhtenäiskulttuuri kuolla kupsahti, mutta kaipuu yhteisiin kokemuksiin ei – Ja siksi me jonotamme museoon kuin idiootit</t>
+          <t>15-vuotias haaveilee äänestämisestä, parikymppiset nuokkuivat viime vaaleissa – kysyimme, sytyttääkö ilmasto nuorten äänestysinnon</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Tarvitsemme jonoja ja yhteisiä kokemuksia, jotta pysyisimme järjissämme, pohtii Tuija Siltamäki blogissaan. Tämän blogin voit myös kuunnella.</t>
+          <t>Nuoret lähtivät ilmaston puolesta kaduille ja lakkoon, mutta näkyykö noussut aktiivisuus vaaliuurnilla? Näin vastaavat nuoret itse.</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t>Jonna Karjalainen</t>
         </is>
       </c>
     </row>
@@ -8235,17 +8235,17 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>15-vuotias haaveilee äänestämisestä, parikymppiset nuokkuivat viime vaaleissa – kysyimme, sytyttääkö ilmasto nuorten äänestysinnon</t>
+          <t>Ylen kannatusmittaus: Perussuomalaiset on nyt kolmanneksi suosituin puolue, SDP menetti kannatustaan</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Nuoret lähtivät ilmaston puolesta kaduille ja lakkoon, mutta näkyykö noussut aktiivisuus vaaliuurnilla? Näin vastaavat nuoret itse.</t>
+          <t>Myös kokoomuksen ja vihreiden suosio on laskenut. Kaikki muutokset mahtuvat virhemarginaalin sisään.</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Jonna Karjalainen</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -8255,17 +8255,17 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Pelissä 800 miljoonan euron potti – Sitran rahojen kohtalo siirtyy seuraavalle hallitukselle</t>
+          <t>Britannian parlamentti hylkäsi EU-erosopimuksen kolmannen kerran</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Suomen itsenäisyyden juhlarahaston eli Sitran asemaa ja resursseja pohtinut työryhmä ei päässyt yksimielisyyteen siitä, mitä Sitran valtaville pääomille oikein pitäisi tehdä. </t>
+          <t>Äänestystulos tarkoittaa, että sopimuksettoman EU-eron riski 12. huhtikuuta kasvaa.</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Jari Järvinen</t>
+          <t>Juho TakkunenHeikki Heiskanen</t>
         </is>
       </c>
     </row>
@@ -8275,17 +8275,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Britannian parlamentti hylkäsi EU-erosopimuksen kolmannen kerran</t>
+          <t>Tuija Siltamäki: Yhtenäiskulttuuri kuolla kupsahti, mutta kaipuu yhteisiin kokemuksiin ei – Ja siksi me jonotamme museoon kuin idiootit</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Äänestystulos tarkoittaa, että sopimuksettoman EU-eron riski 12. huhtikuuta kasvaa.</t>
+          <t>Tarvitsemme jonoja ja yhteisiä kokemuksia, jotta pysyisimme järjissämme, pohtii Tuija Siltamäki blogissaan. Tämän blogin voit myös kuunnella.</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Juho TakkunenHeikki Heiskanen</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -8295,17 +8295,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Laura Huhtasaari joutui uhkauksen kohteeksi – teosta epäilty kokoomuspoliitikko eroaa puolueesta</t>
+          <t>Venezuela kielsi oppositiojohtaja Guaidolta osallistumisen politiikkaan</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Poliisi tutkii tapausta. Kokoomus sanoutuu teosta jyrkästi irti.</t>
+          <t>Yhdysvallat pitää päätöstä naurettavana.</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Antti Laakso</t>
+          <t>Ismo Savolainen</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho Ylen vaalitentissä kello 21: Arvioi kaiken maahanmuuton kurkistusreiästä – tällainen puolue on perussuomalaiset, jolle maahanmuutto on uhka</t>
+          <t>Jussi Halla-aho suomi "ilmastohysteriaa" Ylen tentissä: aiheuttaa ahdistusta ja laskee syntyvyyttä  – lue kooste liveanalyysistä täältä</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa torstai-iltana kello 21.00. </t>
+          <t>Perussuomalaisten puheenjohtajan Jussi Halla-ahon mukaan ilmastonmuutoskeskustelulla voi olla vaikutusta aiempaa alhaisempaan syntyvyyteen. </t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Ari HakahuhtaEetu Pietarinen</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -8335,17 +8335,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Analyysi: Vaaleista tulossa poikkeuksellisen kiinnostavat Oulun vaalipiirissä – ottaako keskusta turpaan, entä nousevatko perussuomalaiset?</t>
+          <t>Erilainen pääministeritentti: Jussi Halla-ahon ykkösarvo on itsepäisyys, ottaisi Isis-taistelijoiden lapset huostaan – video</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Professori uskoo, että kolme puoluetta käyvät kamppailua vaalipiirin viimeisistä kansanedustajanpaikoista.</t>
+          <t>Mitä pääministeriehdokas Jussi Halla-aho katuu elämässään? Esitimme kahdeksan kiperää kysymystä perussuomalaisten puheenjohtajalle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Arto VeräjänkorvaHeikki Rönty</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -8355,17 +8355,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Venezuela kielsi oppositiojohtaja Guaidolta osallistumisen politiikkaan</t>
+          <t>Laura Huhtasaari joutui uhkauksen kohteeksi – teosta epäilty kokoomuspoliitikko eroaa puolueesta</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Yhdysvallat pitää päätöstä naurettavana.</t>
+          <t>Poliisi tutkii tapausta. Kokoomus sanoutuu teosta jyrkästi irti.</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Antti Laakso</t>
         </is>
       </c>
     </row>
@@ -8375,17 +8375,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Jussi Halla-aho suomi "ilmastohysteriaa" Ylen tentissä: aiheuttaa ahdistusta ja laskee syntyvyyttä  – lue kooste liveanalyysistä täältä</t>
+          <t>Analyysi: Vaaleista tulossa poikkeuksellisen kiinnostavat Oulun vaalipiirissä – ottaako keskusta turpaan, entä nousevatko perussuomalaiset?</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Perussuomalaisten puheenjohtajan Jussi Halla-ahon mukaan ilmastonmuutoskeskustelulla voi olla vaikutusta aiempaa alhaisempaan syntyvyyteen. </t>
+          <t>Professori uskoo, että kolme puoluetta käyvät kamppailua vaalipiirin viimeisistä kansanedustajanpaikoista.</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t>Arto VeräjänkorvaHeikki Rönty</t>
         </is>
       </c>
     </row>
@@ -8415,17 +8415,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Erilainen pääministeritentti: Jussi Halla-ahon ykkösarvo on itsepäisyys, ottaisi Isis-taistelijoiden lapset huostaan – video</t>
+          <t>Puolassa tapettiin pormestari, Saksassa hyökättiin oikeistopoliitikon kimppuun – vastakkainasettelu johtaa hyökkäyksiin kaikilta laidoilta</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Mitä pääministeriehdokas Jussi Halla-aho katuu elämässään? Esitimme kahdeksan kiperää kysymystä perussuomalaisten puheenjohtajalle. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
+          <t>Perjantain Sannikka &amp; Ukkolassa keskustellaan siitä, millaista väkivallan uhkaa poliitikot Suomessa kohtaavat. Vieraina ovat muun muassa Päivi Räsänen ja Suldaan Said Ahmed.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Sonja Parkkinen</t>
         </is>
       </c>
     </row>
@@ -8435,17 +8435,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Puolassa tapettiin pormestari, Saksassa hyökättiin oikeistopoliitikon kimppuun – vastakkainasettelu johtaa hyökkäyksiin kaikilta laidoilta</t>
+          <t>Jussi Halla-aho Ylen vaalitentissä kello 21: Arvioi kaiken maahanmuuton kurkistusreiästä – tällainen puolue on perussuomalaiset, jolle maahanmuutto on uhka</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Perjantain Sannikka &amp; Ukkolassa keskustellaan siitä, millaista väkivallan uhkaa poliitikot Suomessa kohtaavat. Vieraina ovat muun muassa Päivi Räsänen ja Suldaan Said Ahmed.</t>
+          <t>Jussi Halla-aho on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa torstai-iltana kello 21.00. </t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Sonja Parkkinen</t>
+          <t>Ari HakahuhtaEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8455,17 +8455,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Sisäministeri Kai Mykkänen ehdottaa Suomeen uutta ihmiskauppalakia</t>
+          <t>Presidentti Niinistö yhdessä puoluejohtajien kanssa: Vaalirauha on turvattava</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Asia nousi esiin nigerialaisen ihmiskaupan uhrin Itohan Okundayen tapauksen yhteydessä.</t>
+          <t>Uhkailu tai väkivalta sanoissa tai teoissa eivät presidentin mielestä kuulu suomalaiselle vaalikentälle.</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Juho Takkunen</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -8475,17 +8475,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Haavisto suosituin pääministeriksi – SDP ja vihreät hallituksen runkopuolueiksi</t>
+          <t>Rysky Riiheläisen kolumni: Salaliittoteorioissa väkivalta on aina läsnä</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Kahdessa eri gallupissa suomalaiset valitsisivat seuraavaksi pääministeriksi vihreiden Pekka Haaviston.</t>
+          <t>Salaliittoteoriat helpottavat ihmisen oloa tekemällä maailmasta selkeämmän paikan. Mutta niiden sisältämä pelko ja viha tekevät maailmasta ikävämmän ja väkivaltaisemman paikan, kirjoittaa Rysky Riiheläinen.</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t> STT–Yle</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -8495,17 +8495,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Vaalimainonnan somemaailma on kuin elämä itse: yllättävä, epälooginen, kekseliäs – ja välillä mielikuvitukseton ja tylsä</t>
+          <t>Sisäministeri Kai Mykkänen ehdottaa Suomeen uutta ihmiskauppalakia</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Pyysimme esimerkkejä vaalivaikuttamisesta verkossa – tässä maistiaisia. </t>
+          <t>Asia nousi esiin nigerialaisen ihmiskaupan uhrin Itohan Okundayen tapauksen yhteydessä.</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Jari Strömberg</t>
+          <t>Juho Takkunen</t>
         </is>
       </c>
     </row>
@@ -8515,17 +8515,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Presidentti Niinistö yhdessä puoluejohtajien kanssa: Vaalirauha on turvattava</t>
+          <t>Analyysi: Taistelu Turun seudun äänistä ratkaisee Varsinais-Suomen eduskuntavaalien voimasuhteet</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Uhkailu tai väkivalta sanoissa tai teoissa eivät presidentin mielestä kuulu suomalaiselle vaalikentälle.</t>
+          <t>Paikasta auringossa kisaa ministereitä, puoluejohtajia, politiikan konkareita ja sote-eksperttejä.</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Hannu Vähämäki</t>
         </is>
       </c>
     </row>
@@ -8535,17 +8535,17 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>”Sitran varallisuutta ei tulla käyttämään valtion menoihin” – Sitraa ruotinut työryhmä julkistaa raporttinsa perjantaina</t>
+          <t>Tutkijat: Perussuomalaisten vaalivideo toimi kohun logiikkaa hyödyntämällä, levityksessä apuna videon paheksujat</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Ryhmän puheenjohtajana toiminut kansanedustaja Matti Vanhanen (kesk.) kiistää, että työryhmä olisi päätynyt demareiden kannalle. SDP on halunnut pienentää Sitran pääomaa.</t>
+          <t>Viime viikolla julkaistu video on kerännyt jo reilusti yli neljännesmiljoona katselukertaa.</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Ville LaaksoPäivi PuukkaMatti Koivisto</t>
         </is>
       </c>
     </row>
@@ -8555,17 +8555,17 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Amerikkalaismediat: Barbara Bush syyttää elämäkerrassaan Donald Trumpia sydänongelmistaan</t>
+          <t>Vaalimainonnan somemaailma on kuin elämä itse: yllättävä, epälooginen, kekseliäs – ja välillä mielikuvitukseton ja tylsä</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Republikaanina tunnetulta Barbara Bushilta ei heru ymmärrystä Trumpin kannattamiselle: "ahne, itsekäs ja ruma".</t>
+          <t>Pyysimme esimerkkejä vaalivaikuttamisesta verkossa – tässä maistiaisia. </t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Risto Mattila</t>
+          <t>Jari Strömberg</t>
         </is>
       </c>
     </row>
@@ -8575,17 +8575,17 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Li Andersson Ylen vaalitentissä: "Pidän epätodennäköisenä, että vasemmistoliitto päätyy kokoomuksen johtamaan hallitukseen" – lue kooste illan liveanalyysistä</t>
+          <t>Haavisto suosituin pääministeriksi – SDP ja vihreät hallituksen runkopuolueiksi</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Puheenjohtaja Andersson ei usko, että kokoomus ja vasemmistoliitto löytäisivät yhteistä säveltä hallitusohjelmaneuvotteluissa.</t>
+          <t>Kahdessa eri gallupissa suomalaiset valitsisivat seuraavaksi pääministeriksi vihreiden Pekka Haaviston.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t> STT–Yle</t>
         </is>
       </c>
     </row>
@@ -8595,17 +8595,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Erilainen pääministeritentti: Miksi Li Andersson nauroi smoothiebaarille, mitä hän katuu elämässään eniten? video </t>
+          <t>Li Andersson yrittää katkaista vuosien tappiokierteen – tällainen puolue on uutta nousua hakeva vasemmistoliitto</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Esitimme kahdeksan kiperää kysymystä vasemmistoliiton puheenjohtalle Li Anderssonille. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
+          <t>Li Andersson on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa keskiviikko-iltana kello 21.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Päivi Happonen</t>
+          <t>Matti KoivistoEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8615,17 +8615,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Kuntaliitto joutui selittämään sote-kantaansa: ”Emme halua esittää, että näin sote tulisi hoitaa”</t>
+          <t>Satunnainen vaalitarkkailija kentällä: Painukkee suolle, käski mummo, toisen kanssa istuttiin “kikkelipenkillä” – kuka on pihalla vaaleissa?</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Kuntaliitosta täsmennetään, että järjestön sote-kantaa rukataan seuraavalla vaalikaudella.</t>
+          <t>Eduskuntavaalit ovat ovella. Silti moni on täysin pihalla. Mummoja he eivät ainakaan ole. Juttusarja käsittelee vaali-ilmiöitä. </t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Pasi Peiponen</t>
         </is>
       </c>
     </row>
@@ -8635,17 +8635,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Li Andersson yrittää katkaista vuosien tappiokierteen – tällainen puolue on uutta nousua hakeva vasemmistoliitto</t>
+          <t>Erilainen pääministeritentti: Miksi Li Andersson nauroi smoothiebaarille, mitä hän katuu elämässään eniten? video </t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Li Andersson on Ylen puheenjohtajatentissä TV1:ssä ja Areenassa keskiviikko-iltana kello 21.</t>
+          <t>Esitimme kahdeksan kiperää kysymystä vasemmistoliiton puheenjohtalle Li Anderssonille. Katso video klikkaamalla kuvaa ja tentti suorana kello 21.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Matti KoivistoEetu Pietarinen</t>
+          <t>Päivi Happonen</t>
         </is>
       </c>
     </row>
@@ -8655,17 +8655,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Satunnainen vaalitarkkailija kentällä: Painukkee suolle, käski mummo, toisen kanssa istuttiin “kikkelipenkillä” – kuka on pihalla vaaleissa?</t>
+          <t>Li Andersson Ylen vaalitentissä: "Pidän epätodennäköisenä, että vasemmistoliitto päätyy kokoomuksen johtamaan hallitukseen" – lue kooste illan liveanalyysistä</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Eduskuntavaalit ovat ovella. Silti moni on täysin pihalla. Mummoja he eivät ainakaan ole. Juttusarja käsittelee vaali-ilmiöitä. </t>
+          <t>Puheenjohtaja Andersson ei usko, että kokoomus ja vasemmistoliitto löytäisivät yhteistä säveltä hallitusohjelmaneuvotteluissa.</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Pasi Peiponen</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -8675,17 +8675,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Rysky Riiheläisen kolumni: Salaliittoteorioissa väkivalta on aina läsnä</t>
+          <t>Amerikkalaismediat: Barbara Bush syyttää elämäkerrassaan Donald Trumpia sydänongelmistaan</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Salaliittoteoriat helpottavat ihmisen oloa tekemällä maailmasta selkeämmän paikan. Mutta niiden sisältämä pelko ja viha tekevät maailmasta ikävämmän ja väkivaltaisemman paikan, kirjoittaa Rysky Riiheläinen.</t>
+          <t>Republikaanina tunnetulta Barbara Bushilta ei heru ymmärrystä Trumpin kannattamiselle: "ahne, itsekäs ja ruma".</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Risto Mattila</t>
         </is>
       </c>
     </row>
@@ -8695,17 +8695,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Analyysi: Taistelu Turun seudun äänistä ratkaisee Varsinais-Suomen eduskuntavaalien voimasuhteet</t>
+          <t>Kuntaliitto joutui selittämään sote-kantaansa: ”Emme halua esittää, että näin sote tulisi hoitaa”</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Paikasta auringossa kisaa ministereitä, puoluejohtajia, politiikan konkareita ja sote-eksperttejä.</t>
+          <t>Kuntaliitosta täsmennetään, että järjestön sote-kantaa rukataan seuraavalla vaalikaudella.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Hannu Vähämäki</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -8715,17 +8715,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tutkijat: Perussuomalaisten vaalivideo toimi kohun logiikkaa hyödyntämällä, levityksessä apuna videon paheksujat</t>
+          <t>”Sitran varallisuutta ei tulla käyttämään valtion menoihin” – Sitraa ruotinut työryhmä julkistaa raporttinsa perjantaina</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Viime viikolla julkaistu video on kerännyt jo reilusti yli neljännesmiljoona katselukertaa.</t>
+          <t>Ryhmän puheenjohtajana toiminut kansanedustaja Matti Vanhanen (kesk.) kiistää, että työryhmä olisi päätynyt demareiden kannalle. SDP on halunnut pienentää Sitran pääomaa.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Ville LaaksoPäivi PuukkaMatti Koivisto</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
@@ -8735,17 +8735,17 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Veroasiantuntijoilta tyrmäys demareiden "puhtaan ruoan" arvonlisäverolle: "Päämäärä hyvä, mutta ei välttämättä toimi"</t>
+          <t>Verkostoidu, älä viisastele, äläkä aloita puhetta kuten ruotsalaiset: "Vi i Sverige..." – Yle kysyi konkarimeppien neuvot tuleville EU-parlamentaarikoille</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Ympäristöystävällisemmän ruoan veroale voi olla EU-säädösten vastainen. Asiantuntijat epäilevät myös, ettei se ohjaa kulutustottumuksia toivottuun suuntaan.</t>
+          <t>Mustat laatikot pakollisiksi autoihin, kännykän käyttö halvemmaksi ulkomailla... EU-mepit vaikuttavat arkeemme, millainen edustaja on tehokkain?</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Terhi Toivonen</t>
+          <t>Anna KarismoHannele Muilu</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Verkostoidu, älä viisastele, äläkä aloita puhetta kuten ruotsalaiset: "Vi i Sverige..." – Yle kysyi konkarimeppien neuvot tuleville EU-parlamentaarikoille</t>
+          <t>Kokoomuksen Petteri Orpo panttasi yhä puolueen kantaa hoitajamitoitukseen – lue Ylen liveanalyysi täältä</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Mustat laatikot pakollisiksi autoihin, kännykän käyttö halvemmaksi ulkomailla... EU-mepit vaikuttavat arkeemme, millainen edustaja on tehokkain?</t>
+          <t>Puheenjohtaja Petteri Orpon mukaan kokoomuksen takki ei ole kääntynyt sote-asioissa, vaikka puolue hylkäsi valinnanvapausmallinsa.</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Anna KarismoHannele Muilu</t>
+          <t>Hannu Tikkala</t>
         </is>
       </c>
     </row>
@@ -8775,17 +8775,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Berner valittiin ruotsalaispankki SEB:in hallitukseen</t>
+          <t>Analyysi: Jopa kymmeniä tuhansia ääniä uusjakoon Kaakkois-Suomessa</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Berner aloittaa yhtiön hallituksessa kesäkuun alussa.</t>
+          <t>Luopumiset, vaalipiirin vaihdokset ja loikkaukset näkyvät vasta yhden kauden toimineessa vaalipiirissä</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Vesa Grekula</t>
         </is>
       </c>
     </row>
@@ -8835,17 +8835,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Kokoomuksen Petteri Orpo panttasi yhä puolueen kantaa hoitajamitoitukseen – lue Ylen liveanalyysi täältä</t>
+          <t>Berner valittiin ruotsalaispankki SEB:in hallitukseen</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Puheenjohtaja Petteri Orpon mukaan kokoomuksen takki ei ole kääntynyt sote-asioissa, vaikka puolue hylkäsi valinnanvapausmallinsa.</t>
+          <t>Berner aloittaa yhtiön hallituksessa kesäkuun alussa.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Hannu Tikkala</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -8875,17 +8875,17 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Analyysi: Jopa kymmeniä tuhansia ääniä uusjakoon Kaakkois-Suomessa</t>
+          <t>Veroasiantuntijoilta tyrmäys demareiden "puhtaan ruoan" arvonlisäverolle: "Päämäärä hyvä, mutta ei välttämättä toimi"</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Luopumiset, vaalipiirin vaihdokset ja loikkaukset näkyvät vasta yhden kauden toimineessa vaalipiirissä</t>
+          <t>Ympäristöystävällisemmän ruoan veroale voi olla EU-säädösten vastainen. Asiantuntijat epäilevät myös, ettei se ohjaa kulutustottumuksia toivottuun suuntaan.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Vesa Grekula</t>
+          <t>Terhi Toivonen</t>
         </is>
       </c>
     </row>
@@ -8915,17 +8915,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Antti Rinteen viimeinen taisto pääministeriksi – tällainen puolue on vasemmalle kallistuva SDP</t>
+          <t>SDP:n Antti Rinne myönsi Ylen vaalitentissä, ettei hän tiedä puolueensa vaaliohjelman lopullista hintalappua – lue liveanalyysi täältä</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Puoluejohtaja Antti Rinne on Ylen puheenjohtajatentissä Areenassa ja TV1:ssä kello 21.</t>
+          <t>Puheenjohtaja Antti Rinne sanoi Ylen vaalitentissä, että puolueen vaaliohjelman toteuttaminen maksaisi 1–3 miljardia euroa.</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Pekka KinnunenEetu Pietarinen</t>
+          <t>Hannu TikkalaHeikki Valkama</t>
         </is>
       </c>
     </row>
@@ -8955,17 +8955,17 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Jari Ehrnroothin kolumni: Otetaan perusrakkaus politiikan käyttövoimaksi</t>
+          <t>Antti Rinteen viimeinen taisto pääministeriksi – tällainen puolue on vasemmalle kallistuva SDP</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Mikä on poliittisen vihan tehokkain vastalääke, pohtii Jari Ehrnrooth.</t>
+          <t>Puoluejohtaja Antti Rinne on Ylen puheenjohtajatentissä Areenassa ja TV1:ssä kello 21.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Pekka KinnunenEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -8975,17 +8975,17 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>SDP:n Antti Rinne myönsi Ylen vaalitentissä, ettei hän tiedä puolueensa vaaliohjelman lopullista hintalappua – lue liveanalyysi täältä</t>
+          <t>Jari Ehrnroothin kolumni: Otetaan perusrakkaus politiikan käyttövoimaksi</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Puheenjohtaja Antti Rinne sanoi Ylen vaalitentissä, että puolueen vaaliohjelman toteuttaminen maksaisi 1–3 miljardia euroa.</t>
+          <t>Mikä on poliittisen vihan tehokkain vastalääke, pohtii Jari Ehrnrooth.</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Hannu TikkalaHeikki Valkama</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -9075,17 +9075,17 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Antero Vartia tajusi, ettei ilmastonmuutosta ratkaista politiikalla – "Asiat voivat mennä niin pahasti pieleen, ettei ihmiskuntaa enää ole"</t>
+          <t>Joonas Janhusen kolumni: Nuoret eivät kaipaa poliitikoilta “kanssalapseilua”</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Ilmaston muuttajat, osa 3/4: Antero Vartia jättää eduskunnan ja omistautuu hiljaisuudessa valmistellulle säätiölleen.</t>
+          <t>Poliitikoilta tarvitaan radikaalimpia tekoja, jotta systeemiin saataisiin uskottavuutta nuorten silmissä, kirjoittaa ensimmäistä kertaa äänestävä Joonas Janhunen.</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Tuija SiltamäkiAntti HaanpääEemeli MarttiJuha Rissanen</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -9095,17 +9095,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Laura Kolehmainen yrittää ilmastoveivata Suomesta maailman ilmastojohtajan: "On ihan piipertelyä saarnata kulutusvalinnoista köyhille"</t>
+          <t>Antero Vartia tajusi, ettei ilmastonmuutosta ratkaista politiikalla – "Asiat voivat mennä niin pahasti pieleen, ettei ihmiskuntaa enää ole"</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Ilmaston muuttajat, osa 2/4: Laura Kolehmaisen mielestä kansalaisen paras ilmastoteko on vaikuttaa päättäjiin.</t>
+          <t>Ilmaston muuttajat, osa 3/4: Antero Vartia jättää eduskunnan ja omistautuu hiljaisuudessa valmistellulle säätiölleen.</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Tuija Siltamäki</t>
+          <t>Tuija SiltamäkiAntti HaanpääEemeli MarttiJuha Rissanen</t>
         </is>
       </c>
     </row>
@@ -9115,17 +9115,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Joonas Janhusen kolumni: Nuoret eivät kaipaa poliitikoilta “kanssalapseilua”</t>
+          <t>Laura Kolehmainen yrittää ilmastoveivata Suomesta maailman ilmastojohtajan: "On ihan piipertelyä saarnata kulutusvalinnoista köyhille"</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Poliitikoilta tarvitaan radikaalimpia tekoja, jotta systeemiin saataisiin uskottavuutta nuorten silmissä, kirjoittaa ensimmäistä kertaa äänestävä Joonas Janhunen.</t>
+          <t>Ilmaston muuttajat, osa 2/4: Laura Kolehmaisen mielestä kansalaisen paras ilmastoteko on vaikuttaa päättäjiin.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Tuija Siltamäki</t>
         </is>
       </c>
     </row>
@@ -9135,17 +9135,17 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Armin Kellomäen kolumni: Vanhempien ikäluokkien parjaama idealismi sopii politiikkaan täydellisesti</t>
+          <t>EU-politiikkako vain vakavaa ja poliitikot kuivia? Ehei! "Helvetti on vielä tyhjä", sanoi Donald Tusk ja sai salin nauramaan</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Kun nuoret tekevät vanhempiin verrattuna erilaisia äänestysvalintoja, sanotaan turhaan, että nuo nuoret ovat kamalan mustavalkoisia, kirjoittaa ensimmäistä kertaa äänestävä Armin Kellomäki.</t>
+          <t>Eurooppa-komission puheenjohtaja Donald Tusk nauratti yleisöään eilen sekä tarkoituksella että tahottomasti.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Kirsti Karttunen</t>
         </is>
       </c>
     </row>
@@ -9155,17 +9155,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>EU-politiikkako vain vakavaa ja poliitikot kuivia? Ehei! "Helvetti on vielä tyhjä", sanoi Donald Tusk ja sai salin nauramaan</t>
+          <t>Analyysi: Savo-Karjalasta valitaan yksi edustaja vähemmän – miten asettuvat voimasuhteet useiden luopujien ja puolueen vaihtajien vaalipiirissä?</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Eurooppa-komission puheenjohtaja Donald Tusk nauratti yleisöään eilen sekä tarkoituksella että tahottomasti.</t>
+          <t>Savo-Karjalasta tulee eduskuntaan useita uusia kansanedustajia. Keskustalla sivuun jää kolmikko, joka keräsi vaalipiirissä neljänneksen puolueen viime vaalien äänistä. Perussuomalaisten kaikki kolme kansanedustajaa siirtyivät sinisiin. </t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Kirsti Karttunen</t>
+          <t>Keijo Salokangas</t>
         </is>
       </c>
     </row>
@@ -9195,17 +9195,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Analyysi: Savo-Karjalasta valitaan yksi edustaja vähemmän – miten asettuvat voimasuhteet useiden luopujien ja puolueen vaihtajien vaalipiirissä?</t>
+          <t>Armin Kellomäen kolumni: Vanhempien ikäluokkien parjaama idealismi sopii politiikkaan täydellisesti</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Savo-Karjalasta tulee eduskuntaan useita uusia kansanedustajia. Keskustalla sivuun jää kolmikko, joka keräsi vaalipiirissä neljänneksen puolueen viime vaalien äänistä. Perussuomalaisten kaikki kolme kansanedustajaa siirtyivät sinisiin. </t>
+          <t>Kun nuoret tekevät vanhempiin verrattuna erilaisia äänestysvalintoja, sanotaan turhaan, että nuo nuoret ovat kamalan mustavalkoisia, kirjoittaa ensimmäistä kertaa äänestävä Armin Kellomäki.</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Keijo Salokangas</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
@@ -9295,17 +9295,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>HS-gallup: SDP kasvattanut kannatustaan suhteessa kokoomukseen</t>
+          <t>Suomi kuntoon, hallitus kumoon – tällainen puolue on keskusta </t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Keskustan kannatus heikkeni helmikuun 14,7 prosentista 14,3 prosenttiin.</t>
+          <t>Puoluejohtaja Juha Sipilä on tänään Ylen puheenjohtajatentissä Areenassa ja TV1:ssä klo 21. </t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Ismo Savolainen</t>
+          <t>Matti KoivistoEetu Pietarinen</t>
         </is>
       </c>
     </row>
@@ -9315,17 +9315,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Suomi kuntoon, hallitus kumoon – tällainen puolue on keskusta </t>
+          <t>Analyysi: Ennätysmäärä ehdokkaita tavoittelee kansanedustajanpaikkaa Keski-Suomesta</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Puoluejohtaja Juha Sipilä on tänään Ylen puheenjohtajatentissä Areenassa ja TV1:ssä klo 21. </t>
+          <t>Kolme keskisuomalaista politiikan konkaria jättää eduskunnan, mutta tilalle on tarjolla reilusti aiempaa suurempi joukko ehdokkaita.</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Matti KoivistoEetu Pietarinen</t>
+          <t>Virpi Kotilainen</t>
         </is>
       </c>
     </row>
@@ -9351,41 +9351,41 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Analyysi: Ennätysmäärä ehdokkaita tavoittelee kansanedustajanpaikkaa Keski-Suomesta</t>
+          <t>Kristillisten Essayah teki translaista hallituskysymyksen: "Sukupuoli ei voi olla ilmoitusasia" – Lue analyysi Ylen tentistä täältä</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Kolme keskisuomalaista politiikan konkaria jättää eduskunnan, mutta tilalle on tarjolla reilusti aiempaa suurempi joukko ehdokkaita.</t>
+          <t>Miten Sari Essayah pärjäsi Ylen vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Hannu Tikkala.</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Virpi Kotilainen</t>
+          <t>Hannu TikkalaVille Seuri</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Kristillisten Essayah teki translaista hallituskysymyksen: "Sukupuoli ei voi olla ilmoitusasia" – Lue analyysi Ylen tentistä täältä</t>
+          <t>RKP:n Henriksson vaati suurempaa pakolaiskiintiötä ja parempaa oikeusturvaa turvapaikanhakijoille – Lue analyysi Ylen tentin kohokohdista</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Miten Sari Essayah pärjäsi Ylen vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Hannu Tikkala.</t>
+          <t>"Hopeavesi- ja nuuskakeskustelut tulivat päivänpoliittisten otsikkokysymysten ulkopuolelta ja siitä seurasi  hämmentävää selittelyä." Miten Anna-Maja Henriksson pärjäsi vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Heikki Valkama.</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Hannu TikkalaVille Seuri</t>
+          <t>Heikki ValkamaVille Seuri</t>
         </is>
       </c>
     </row>
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Ranskan algerialaiset vaativat vanhan kotimaansa politiikkaan täysremonttia – Nuoret haikailevat Macronin kaltaista uudistajaa</t>
+          <t>Politiikka käyttää urheilua hyväkseen – miksi urheilu ei käytä politiikkaa?</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Presidentti Abdelaziz Bouteflikan ilmoitus olla pyrkimättä jatkokaudelle ei ole rauhoittanut protesteja. </t>
+          <t>Eduskuntavaalit lähestyvät, mutta urheilusta ei puhu yksikään poliitikko eikä puolue. Miksi?</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Annastiina Heikkilä</t>
+          <t>Jussi Paasi</t>
         </is>
       </c>
     </row>
@@ -9415,37 +9415,37 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>RKP:n Henriksson vaati suurempaa pakolaiskiintiötä ja parempaa oikeusturvaa turvapaikanhakijoille – Lue analyysi Ylen tentin kohokohdista</t>
+          <t>Ranskan algerialaiset vaativat vanhan kotimaansa politiikkaan täysremonttia – Nuoret haikailevat Macronin kaltaista uudistajaa</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>"Hopeavesi- ja nuuskakeskustelut tulivat päivänpoliittisten otsikkokysymysten ulkopuolelta ja siitä seurasi  hämmentävää selittelyä." Miten Anna-Maja Henriksson pärjäsi vaalitentissä? Tenttiä analysoivat politiikan tutkija Johanna Vuorelma ja puhetaidon kouluttaja Antti Mustakallio sekä Ylen Heikki Valkama.</t>
+          <t>Presidentti Abdelaziz Bouteflikan ilmoitus olla pyrkimättä jatkokaudelle ei ole rauhoittanut protesteja. </t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Heikki ValkamaVille Seuri</t>
+          <t>Annastiina Heikkilä</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43542</v>
+        <v>43540</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Politiikka käyttää urheilua hyväkseen – miksi urheilu ei käytä politiikkaa?</t>
+          <t>Politiikka palasi politiikkaan: Oikeisto haluaa nyt entistä kiihkeämmin leikkauksia, vasemmisto turvautuisi veronkiristyksiin</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Eduskuntavaalit lähestyvät, mutta urheilusta ei puhu yksikään poliitikko eikä puolue. Miksi?</t>
+          <t>Puolueiden näkemykset ovat vielä kauempana toisistaan kuin edellisten eduskuntavaalien alla. </t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Jussi Paasi</t>
+          <t>Antti Parviala</t>
         </is>
       </c>
     </row>
@@ -9455,17 +9455,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Politiikka palasi politiikkaan: Oikeisto haluaa nyt entistä kiihkeämmin leikkauksia, vasemmisto turvautuisi veronkiristyksiin</t>
+          <t>Slovakian presidentinvaalit toiselle kierrokselle – vastakkain hallituksen äänekäs arvostelija ja maan nykyinen EU-komissaari</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Puolueiden näkemykset ovat vielä kauempana toisistaan kuin edellisten eduskuntavaalien alla. </t>
+          <t>Korruptiota tutkineen toimittajan murha varjostaa yhä maan politiikkaa.</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Antti Parviala</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
@@ -9491,804 +9491,800 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43540</v>
+        <v>43538</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Slovakian presidentinvaalit toiselle kierrokselle – vastakkain hallituksen äänekäs arvostelija ja maan nykyinen EU-komissaari</t>
+          <t>Kaikki vaaleista päivä päivältä: Tässä täydellinen opas politiikan superkevääseen</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Korruptiota tutkineen toimittajan murha varjostaa yhä maan politiikkaa.</t>
+          <t>Tämä kalenteri kertoo, mitä Yle ja muu suomalainen media tarjoavat vaalien alla. Lista täydentyy pitkin kevättä.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Ville Seuri</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43538</v>
+        <v>43536</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Kaikki vaaleista päivä päivältä: Tässä täydellinen opas politiikan superkevääseen</t>
+          <t>Nuorison kiinnostus politiikkaan on kasvanut</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Tämä kalenteri kertoo, mitä Yle ja muu suomalainen media tarjoavat vaalien alla. Lista täydentyy pitkin kevättä.</t>
+          <t>Vaikuttamisesta kiinnostuneet käyttävät monia keinoja osallistua.</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Ville Seuri</t>
+          <t> STT</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43536</v>
+        <v>43532</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nuorison kiinnostus politiikkaan on kasvanut</t>
+          <t>Analyysi: Sipilän hallituksen politiikka on ollut porvarillisinta miesmuistiin – koalition saavutukset hautautuvat soten raunioihin</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Vaikuttamisesta kiinnostuneet käyttävät monia keinoja osallistua.</t>
+          <t>Juha Sipilän hallituksen politiikka on kärjistänyt poliittista vastakkainasettelua selvästi.</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t> STT</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43532</v>
+        <v>43529</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Analyysi: Sipilän hallituksen politiikka on ollut porvarillisinta miesmuistiin – koalition saavutukset hautautuvat soten raunioihin</t>
+          <t>Robert Sundman: Luokkakaveria mietitytti, onko Salatuista elämistä tuttu puolue hallituksessa – Nuorten on vaikea äänestää, kun politiikka loistaa arjesta poissaolollaan</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Juha Sipilän hallituksen politiikka on kärjistänyt poliittista vastakkainasettelua selvästi.</t>
+          <t>Moni koulussa opittu asia muuttuu arjessa konkretiaksi, mutta toisin käy politiikalle. Siksi nuoret empivät vaaliuurnille lähtemistä, kirjoittaa politiikan toimittaja Robert Sundman.</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Robert Sundman</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43529</v>
+        <v>43526</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Robert Sundman: Luokkakaveria mietitytti, onko Salatuista elämistä tuttu puolue hallituksessa – Nuorten on vaikea äänestää, kun politiikka loistaa arjesta poissaolollaan</t>
+          <t>Kokoomuksen Häkkänen: Rinteen puheissa vaalilaukan makua – Vaikea löytää kompromisseja, jos SDP lupaa täysin toisenlaista politiikkaa</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Moni koulussa opittu asia muuttuu arjessa konkretiaksi, mutta toisin käy politiikalle. Siksi nuoret empivät vaaliuurnille lähtemistä, kirjoittaa politiikan toimittaja Robert Sundman.</t>
+          <t>Kokoomuksen varapuheenjohtaja Antti Häkkänen vaatii SDP:lta kompromisseja, jotta puolueet mahtuisivat samaan hallitukseen.</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Robert Sundman</t>
+          <t>Johanna Östman</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43526</v>
+        <v>43516</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Kokoomuksen Häkkänen: Rinteen puheissa vaalilaukan makua – Vaikea löytää kompromisseja, jos SDP lupaa täysin toisenlaista politiikkaa</t>
+          <t>Anne Berner: "En ole jättämässä politiikkaa enkä keskustaa" – eduskuntaryhmässä kuohuu Bernerin ratkaisun jälkeen </t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Kokoomuksen varapuheenjohtaja Antti Häkkänen vaatii SDP:lta kompromisseja, jotta puolueet mahtuisivat samaan hallitukseen.</t>
+          <t>"Huomenna huutoa saavat sekä Sipilä että Berner", kansanedustaja arvioi Ylelle.</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Johanna Östman</t>
+          <t>Robert SundmanTulikukka de Fresnes</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43516</v>
+        <v>43515</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Anne Berner: "En ole jättämässä politiikkaa enkä keskustaa" – eduskuntaryhmässä kuohuu Bernerin ratkaisun jälkeen </t>
+          <t>Ranskalaisnuoria ei kiinnosta politiikka – Hallitus yrittää hakea huomiota Twitchissä</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>"Huomenna huutoa saavat sekä Sipilä että Berner", kansanedustaja arvioi Ylelle.</t>
+          <t>Ranskassa otetaan avuksi nuorten suosima Twitch-suoratoistopalvelu, jotta poliittinen keskustelu saataisiin kiinnostamaan heitäkin.</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Robert SundmanTulikukka de Fresnes</t>
+          <t>Minna Rinta-Tassi</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43515</v>
+        <v>43488</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ranskalaisnuoria ei kiinnosta politiikka – Hallitus yrittää hakea huomiota Twitchissä</t>
+          <t>Analyysi: Tähtääkö Timo Soini  hillotolpalle "pimeyden ytimeen"? – Kotimaan politiikka ei Soinia näytä enää kiinnostavan</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Ranskassa otetaan avuksi nuorten suosima Twitch-suoratoistopalvelu, jotta poliittinen keskustelu saataisiin kiinnostamaan heitäkin.</t>
+          <t>Timo Soini ei ole tehnyt elettäkään, joka viittaisi hänen ehdokkuuteensa eduskuntavaaleissa. </t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Minna Rinta-Tassi</t>
+          <t>Timo Seppänen</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43488</v>
+        <v>43484</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Analyysi: Tähtääkö Timo Soini  hillotolpalle "pimeyden ytimeen"? – Kotimaan politiikka ei Soinia näytä enää kiinnostavan</t>
+          <t>Puolustusministeri Niinistö Ykkösaamussa: Hävittäjiä voisi olla sata – vähentäminen "vastuutonta politiikkaa"</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Timo Soini ei ole tehnyt elettäkään, joka viittaisi hänen ehdokkuuteensa eduskuntavaaleissa. </t>
+          <t>Ylen kyselyn mukaan neljä puoluejohtajaa olisi valmiita vähentämään hävittäjien määrää. Nykyisiä Hornetteja hankittiin alun perin 64 kappaletta.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Timo Seppänen</t>
+          <t>Johanna ÖstmanHanna Hanhinen</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43484</v>
+        <v>43406</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Puolustusministeri Niinistö Ykkösaamussa: Hävittäjiä voisi olla sata – vähentäminen "vastuutonta politiikkaa"</t>
+          <t>Tunnetut radioäänet siirtyvät juontamaan A-studiota: Ykkösaamun Olli Seuri ja Politiikkaradion Sakari Sirkkanen haluavat kehittää klassikkobrändiä</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Ylen kyselyn mukaan neljä puoluejohtajaa olisi valmiita vähentämään hävittäjien määrää. Nykyisiä Hornetteja hankittiin alun perin 64 kappaletta.</t>
+          <t>Sirkkasen kanssa A-studiota juontavat Heikki Ali-Hokka ja Annika Damström. Seuri aloittaa tammikuussa A-studio Talkin vetäjänä.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Johanna ÖstmanHanna Hanhinen</t>
+          <t>Ville Vedenpää</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43406</v>
+        <v>43275</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tunnetut radioäänet siirtyvät juontamaan A-studiota: Ykkösaamun Olli Seuri ja Politiikkaradion Sakari Sirkkanen haluavat kehittää klassikkobrändiä</t>
+          <t>Ota politiikka haltuun kesämökin laiturilla –  kahdeksan podcastia, joilla pääset kärryille niin Trumpin kaudesta kuin sote-uudistuksen kiemuroistakin</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Sirkkasen kanssa A-studiota juontavat Heikki Ali-Hokka ja Annika Damström. Seuri aloittaa tammikuussa A-studio Talkin vetäjänä.</t>
+          <t>Onko saunan lämmetessä hetki aikaa ja juhannuksen soittolistat jo kuultu? Tässä kahdeksan podcast-suositusta politiikannälkään.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Ville Vedenpää</t>
+          <t>Matti Koivisto</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43275</v>
+        <v>43255</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ota politiikka haltuun kesämökin laiturilla –  kahdeksan podcastia, joilla pääset kärryille niin Trumpin kaudesta kuin sote-uudistuksen kiemuroistakin</t>
+          <t>Unto Hämäläisen kolumni: Politiikkaa hallitsee koston kierre – keskustele</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Onko saunan lämmetessä hetki aikaa ja juhannuksen soittolistat jo kuultu? Tässä kahdeksan podcast-suositusta politiikannälkään.</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>Matti Koivisto</t>
-        </is>
-      </c>
+          <t>Suomalaista politiikkaa hallitsee koston kierre, jossa uusi hallitus kostaa edellisen hallituksen "pahat" teot. Pääpuolueet ovat kukin vuorollaan kampittaneet toisiaan. Eduskunnan sote-kiista muistuttaa 90-luvun riitaa lääneistä, kirjoittaa Unto Hämäläinen. Voit keskustella aiheesta jutun lopussa.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43255</v>
+        <v>43208</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Unto Hämäläisen kolumni: Politiikkaa hallitsee koston kierre – keskustele</t>
+          <t>Politiikka alkoi kiinnostaa Piilaaksoa – Teknologiayhtiöt nousivat suurimmiksi lobbareiksi Yhdysvalloissa</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Suomalaista politiikkaa hallitsee koston kierre, jossa uusi hallitus kostaa edellisen hallituksen "pahat" teot. Pääpuolueet ovat kukin vuorollaan kampittaneet toisiaan. Eduskunnan sote-kiista muistuttaa 90-luvun riitaa lääneistä, kirjoittaa Unto Hämäläinen. Voit keskustella aiheesta jutun lopussa.</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr"/>
+          <t>Applen ja Googlen kaltaiset teknologiajätit laittavat lobbaamiseen kymmeniä miljoonia taatakseen asemansa maailman arvokkaimpina yrityksinä.</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Teemu Hallamaa</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43208</v>
+        <v>43057</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Politiikka alkoi kiinnostaa Piilaaksoa – Teknologiayhtiöt nousivat suurimmiksi lobbareiksi Yhdysvalloissa</t>
+          <t>Verohallinnon väistyvä pääjohtaja: Miksi Yleisradio ei luovuta Panaman papereita? – "Lähdesuojahöpötystä”</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Applen ja Googlen kaltaiset teknologiajätit laittavat lobbaamiseen kymmeniä miljoonia taatakseen asemansa maailman arvokkaimpina yrityksinä.</t>
+          <t>Verohallinnon eläkkeelle jäävä pääjohtaja Pekka Ruuhonen ihmettelee, miksi Yleisradio kieltäytyy luovuttamasta Panaman paperit -veroparatiisitietovuodon materiaalia verottajalle. Ruuhosen mukaan kyse on ”lähdesuojahöpötyksestä”, koska verottaja ei ole kiinnostunut itse tietolähteestä.</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Teemu Hallamaa</t>
+          <t> Yle</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43057</v>
+        <v>42802</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Verohallinnon väistyvä pääjohtaja: Miksi Yleisradio ei luovuta Panaman papereita? – "Lähdesuojahöpötystä”</t>
+          <t>Eduskunta käsittelee puolustusselontekoa – Yle näyttää suorana klo 14</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Verohallinnon eläkkeelle jäävä pääjohtaja Pekka Ruuhonen ihmettelee, miksi Yleisradio kieltäytyy luovuttamasta Panaman paperit -veroparatiisitietovuodon materiaalia verottajalle. Ruuhosen mukaan kyse on ”lähdesuojahöpötyksestä”, koska verottaja ei ole kiinnostunut itse tietolähteestä.</t>
+          <t>Puolustusselonteko julkistettiin helmikuussa.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t> Yle</t>
+          <t>Jussi Virkkunen</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>42802</v>
+        <v>42170</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Eduskunta käsittelee puolustusselontekoa – Yle näyttää suorana klo 14</t>
+          <t>Talbott arvosteli voimakkaasti Putinin politiikkaa</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Puolustusselonteko julkistettiin helmikuussa.</t>
+          <t>Putin näyttää Strobe Talbottin mukaan toteuttavan  kansallismielistä politiikkaa, joka määrittää etnisyyden perustaksi sille, mihin valtioon ihmiset kuuluvat. Tämän tien päässä on katastrofi, hän sanoo.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Jussi Virkkunen</t>
+          <t>Ilpo Pajunen</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>42170</v>
+        <v>42044</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Talbott arvosteli voimakkaasti Putinin politiikkaa</t>
+          <t>"Keskiolut pois kaupoista - älyllisyys takaisin politiikkaan"</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Putin näyttää Strobe Talbottin mukaan toteuttavan  kansallismielistä politiikkaa, joka määrittää etnisyyden perustaksi sille, mihin valtioon ihmiset kuuluvat. Tämän tien päässä on katastrofi, hän sanoo.</t>
+          <t>Kansanedustajat Inkeri Kerola (Kesk.) ja Risto Kalliorinne (Vas.) kaipaavat politiikkaan lisää älyllisyyttä. Kansaa he raitistaisivat hieman eri tavoin. </t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Ilpo Pajunen</t>
+          <t>Timo Sipola</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>42044</v>
+        <v>41961</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>"Keskiolut pois kaupoista - älyllisyys takaisin politiikkaan"</t>
+          <t>Pakotteisiin pohjautuva Venäjän politiikka herättää arvostelua</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Kansanedustajat Inkeri Kerola (Kesk.) ja Risto Kalliorinne (Vas.) kaipaavat politiikkaan lisää älyllisyyttä. Kansaa he raitistaisivat hieman eri tavoin. </t>
+          <t>Kansainvälisen oikeuden professori ei usko pakotteiden muuttavan Putinin politiikkaa. Venäjän liike-elämän tuntija puolestaan uskoo pakotepolitiikan vahvistavan Putinin asemaa.</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Timo Sipola</t>
+          <t>Jaana Kanninen</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>41961</v>
+        <v>41917</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Pakotteisiin pohjautuva Venäjän politiikka herättää arvostelua</t>
+          <t>Näkökulma: #Selfie-Stubbin "uusi politiikka" lopettaa lehmänkaupat</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Kansainvälisen oikeuden professori ei usko pakotteiden muuttavan Putinin politiikkaa. Venäjän liike-elämän tuntija puolestaan uskoo pakotepolitiikan vahvistavan Putinin asemaa.</t>
+          <t>Näyttää uhkaavasti siltä, että puhettaan hidastaneen joukkuepelaaja Alex Stubbin rummuttama uusi tapa tehdä politiikkaa ei ehdi vielä ennen vappua Suomeen, kirjoittaa Yle Uutisten toimittaja-tuottaja Jarno Virtanen näkökulmasssaan.</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Jaana Kanninen</t>
+          <t>Jarno Virtanen</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>41917</v>
+        <v>41907</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Näkökulma: #Selfie-Stubbin "uusi politiikka" lopettaa lehmänkaupat</t>
+          <t>Ville Haapasalo Venäjästä: "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan"</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Näyttää uhkaavasti siltä, että puhettaan hidastaneen joukkuepelaaja Alex Stubbin rummuttama uusi tapa tehdä politiikkaa ei ehdi vielä ennen vappua Suomeen, kirjoittaa Yle Uutisten toimittaja-tuottaja Jarno Virtanen näkökulmasssaan.</t>
+          <t>Venäjällä vaikuttava näyttelijä Ville Haapasalo moitti Ylen aamu-tv:n haastattelussa tapaa, jolla Suomessa suhtaudutaan Venäjään. "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan. Suomessa kukaan ei halua kertoa, mitä siellä tapahtuu. Unohdetaan, että siellä kansa kärsii ja on sota ja keskitytään sen sijaan muotoilemaan uhkakuvia."</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Jarno Virtanen</t>
+          <t>Anna Takala</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>41907</v>
+        <v>41900</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ville Haapasalo Venäjästä: "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan"</t>
+          <t>LK: Ari Ruotsalainen harkitsee paluuta politiikkaan</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Venäjällä vaikuttava näyttelijä Ville Haapasalo moitti Ylen aamu-tv:n haastattelussa tapaa, jolla Suomessa suhtaudutaan Venäjään. "On olemassa politiikka ja ihmiset, jotka ei liity siihen politiikkaan. Suomessa kukaan ei halua kertoa, mitä siellä tapahtuu. Unohdetaan, että siellä kansa kärsii ja on sota ja keskitytään sen sijaan muotoilemaan uhkakuvia."</t>
+          <t>Rovaniemen entinen kaupunginhallituksen puheenjohtaja Ari Ruotsalainen harkitsee paluuta politiikkaan, kertoo Lapin Kansa. Ruotsalaisen mukaan monet tahot ovat kysyneet häntä lähtemään keskustan kansanedustajaehdokkaaksi.</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Anna Takala</t>
+          <t>Jyri Tynkkynen</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>41900</v>
+        <v>41814</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LK: Ari Ruotsalainen harkitsee paluuta politiikkaan</t>
+          <t>Politiikka vaikuttaa nuorten silmissä keski-ikäisten hommalta</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Rovaniemen entinen kaupunginhallituksen puheenjohtaja Ari Ruotsalainen harkitsee paluuta politiikkaan, kertoo Lapin Kansa. Ruotsalaisen mukaan monet tahot ovat kysyneet häntä lähtemään keskustan kansanedustajaehdokkaaksi.</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Jyri Tynkkynen</t>
-        </is>
-      </c>
+          <t>Suomalaisnuorilla on erinomaiset yhteiskunnalliset tiedot ja taidot, mutta halu vaikuttaa ympäröivään maailmaan puuttuu. Nuori vaikuttaja kannustaa hylkäämään vaatimattomuuden.</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>41814</v>
+        <v>41785</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Politiikka vaikuttaa nuorten silmissä keski-ikäisten hommalta</t>
+          <t>SDP:n Jaakonsaari: "Tehtävämme on palauttaa usko politiikkaan"</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Suomalaisnuorilla on erinomaiset yhteiskunnalliset tiedot ja taidot, mutta halu vaikuttaa ympäröivään maailmaan puuttuu. Nuori vaikuttaja kannustaa hylkäämään vaatimattomuuden.</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr"/>
+          <t>Sosiaalidemokraattien europarlamentaarikko Liisa Jaakonsaari ihmettelee, että aidosti rasistisilla kommenteilla saa ääniä politiikassa. Hän on huolestunut ääriliikkeistä, mutta pitää uusien europarlamentaarikkojen yhtenä tehtävänä palauttaa ihmisten usko politiikkaan.</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Anne Pirskanen</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>41785</v>
+        <v>41771</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SDP:n Jaakonsaari: "Tehtävämme on palauttaa usko politiikkaan"</t>
+          <t>Vihreiden Satu Piispa-Hakala on koukussa politiikkaan</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Sosiaalidemokraattien europarlamentaarikko Liisa Jaakonsaari ihmettelee, että aidosti rasistisilla kommenteilla saa ääniä politiikassa. Hän on huolestunut ääriliikkeistä, mutta pitää uusien europarlamentaarikkojen yhtenä tehtävänä palauttaa ihmisten usko politiikkaan.</t>
+          <t>Juvalainen Satu Piispa-Hakala on Vihreiden työmyyrä.  Vihreä politiikka on vienyt naista mennessään ja hän kuvaileekin sitä jo elämäntavaksi. </t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Anne Pirskanen</t>
+          <t>Sari Ursin</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>41771</v>
+        <v>41740</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Vihreiden Satu Piispa-Hakala on koukussa politiikkaan</t>
+          <t>Kari Häkämies kirjoittaa murhista eikä haikaile politiikkaan</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Juvalainen Satu Piispa-Hakala on Vihreiden työmyyrä.  Vihreä politiikka on vienyt naista mennessään ja hän kuvaileekin sitä jo elämäntavaksi. </t>
+          <t>Entinen kokoomuksen kansanedustaja ja ministeri Kari Häkämies kirjoitti neljännen dekkarinsa uudessa kotikaupungissaan Turussa. Lounais-Suomen aluehallintoviraston johtajana toimiva Häkämies ei halaja takaisin politiikkaan, vaikka sijoittaakin romaaninsa politiikan kulisseihin.</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Sari Ursin</t>
+          <t>Yrjö Hjelt</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>41740</v>
+        <v>41663</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Kari Häkämies kirjoittaa murhista eikä haikaile politiikkaan</t>
+          <t>Politiikka kiinnostaa pappeja: Arvokeskustelu ja vaikuttamisen mahdollisuus houkuttavat</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Entinen kokoomuksen kansanedustaja ja ministeri Kari Häkämies kirjoitti neljännen dekkarinsa uudessa kotikaupungissaan Turussa. Lounais-Suomen aluehallintoviraston johtajana toimiva Häkämies ei halaja takaisin politiikkaan, vaikka sijoittaakin romaaninsa politiikan kulisseihin.</t>
+          <t>Euroopan parlamenttiin pyrkii kevään vaaleissa useita pappeja. Kunnallisella tasolla vaikuttamisessa papeilla on pitkät perinteet. </t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Yrjö Hjelt</t>
+          <t>Anne-Pauliina Rytkönen</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>41663</v>
+        <v>41409</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Politiikka kiinnostaa pappeja: Arvokeskustelu ja vaikuttamisen mahdollisuus houkuttavat</t>
+          <t>Politiikka syö sananvapautta Unkarissa</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Euroopan parlamenttiin pyrkii kevään vaaleissa useita pappeja. Kunnallisella tasolla vaikuttamisessa papeilla on pitkät perinteet. </t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>Anne-Pauliina Rytkönen</t>
-        </is>
-      </c>
+          <t>Unkarin oikeistopopulistinen hallitus ulottaa valtansa sekä mediaan että kulttuuriin. Kriitikoiden mielestä nyt halutaan muuttaa mieliä: kansalaistensa ajattelua maasta, sen historiasta, sosialismin jälkeisestä ajasta ja ulkopuolella olevasta Euroopasta. </t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>41409</v>
+        <v>41394</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Politiikka syö sananvapautta Unkarissa</t>
+          <t>Sipilä haluaa yhteistyötä politiikkaan</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Unkarin oikeistopopulistinen hallitus ulottaa valtansa sekä mediaan että kulttuuriin. Kriitikoiden mielestä nyt halutaan muuttaa mieliä: kansalaistensa ajattelua maasta, sen historiasta, sosialismin jälkeisestä ajasta ja ulkopuolella olevasta Euroopasta. </t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr"/>
+          <t>Keskustan puheenjohtaja Juha Sipilä tarjoaa hallitukselle yhteistyötä sosiaali- ja terveyspalveluiden turvaamisessa ja energiapolitiikassa. Vappupuheessaan Oulun Rotuaarilla Sipilä mainosti myös keskustan politiikan vastuullisuutta.</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Vesa Sundqvist</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>41394</v>
+        <v>41348</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Sipilä haluaa yhteistyötä politiikkaan</t>
+          <t>Politiikkaa tehdään tiedostamattomien tunteiden varassa</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Keskustan puheenjohtaja Juha Sipilä tarjoaa hallitukselle yhteistyötä sosiaali- ja terveyspalveluiden turvaamisessa ja energiapolitiikassa. Vappupuheessaan Oulun Rotuaarilla Sipilä mainosti myös keskustan politiikan vastuullisuutta.</t>
+          <t>Psykoanalyytikon ja entisen aktiivipoliitikon Claes Anderssonin mukaan paineet ovat johtaneet jopa kansanedustajan hermoromahdukseen eduskunnassa. </t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Vesa Sundqvist</t>
+          <t>Hilkka Säävälä</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>41348</v>
+        <v>41256</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Politiikkaa tehdään tiedostamattomien tunteiden varassa</t>
+          <t>Valto Koski toivoo politiikkaa takaisin politiikkaan</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Psykoanalyytikon ja entisen aktiivipoliitikon Claes Anderssonin mukaan paineet ovat johtaneet jopa kansanedustajan hermoromahdukseen eduskunnassa. </t>
+          <t>Pitkän poliittisen uran tehnyt Valto Koski johti maanantaina viimeisen kerran Kouvolan kaupunginvaltuustoa. Nyt Koskella on aikaa perheelle ja muistelmien kokoamiseen.</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Hilkka Säävälä</t>
+          <t>Niklas Joki</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>41256</v>
+        <v>41191</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Valto Koski toivoo politiikkaa takaisin politiikkaan</t>
+          <t>Politiikka sai kasvot - Per Looks poiki lisää kuvablogeja</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Pitkän poliittisen uran tehnyt Valto Koski johti maanantaina viimeisen kerran Kouvolan kaupunginvaltuustoa. Nyt Koskella on aikaa perheelle ja muistelmien kokoamiseen.</t>
+          <t>Perussuomalaisia kuvablogi ei miellyttänyt. Rumankauniista potrettisarjasta alkoi kuitenkin kuvastojen vyöry: nyt niitä on julkaistu vihreistä, piraateista ja kokoomuksestakin. </t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Niklas Joki</t>
+          <t>Teija Santaharju</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>41191</v>
+        <v>41190</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Politiikka sai kasvot - Per Looks poiki lisää kuvablogeja</t>
+          <t>Romney maalaili uutta politiikkaa Lähi-itään</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Perussuomalaisia kuvablogi ei miellyttänyt. Rumankauniista potrettisarjasta alkoi kuitenkin kuvastojen vyöry: nyt niitä on julkaistu vihreistä, piraateista ja kokoomuksestakin. </t>
+          <t>Republikaanien presidenttiehdokas maalailee Yhdysvaltojen uutta politiikkaa Lähi-itään. Romneyn mukaan presidentti Obaman linja on ollut liian lepsu ja toiveikas, Romney lupaakin tiukempaa lähestymistä useisiin kysymyksiin.</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Teija Santaharju</t>
+          <t>Teemu Toivola</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>41190</v>
+        <v>41178</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Romney maalaili uutta politiikkaa Lähi-itään</t>
+          <t>Politiikka kiinnostaa nuoria yhä enemmän</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Republikaanien presidenttiehdokas maalailee Yhdysvaltojen uutta politiikkaa Lähi-itään. Romneyn mukaan presidentti Obaman linja on ollut liian lepsu ja toiveikas, Romney lupaakin tiukempaa lähestymistä useisiin kysymyksiin.</t>
+          <t>Nuorten kiinnostus politiikkaan on lisääntynyt. Tänään julkistetun Nuorisobarometrin mukaan nuorten luottamus toisiin ihmisiin on kuitenkin heikentynyt.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Teemu Toivola</t>
+          <t>Susanna Siironen</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>41178</v>
+        <v>41029</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Politiikka kiinnostaa nuoria yhä enemmän</t>
+          <t>Politiikka katoaa työväenlauluperinteestä</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Nuorten kiinnostus politiikkaan on lisääntynyt. Tänään julkistetun Nuorisobarometrin mukaan nuorten luottamus toisiin ihmisiin on kuitenkin heikentynyt.</t>
+          <t>Politiikka on häviämässä myös nykyisten työväenlaulujen sanoituksista. Vappuna kuullaan perinteisten marssien sijaan yhä enemmän nuorison suosimaa rokkia ja poppia.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Susanna Siironen</t>
+          <t>Eero Mäntymaa</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>41029</v>
+        <v>41016</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Politiikka katoaa työväenlauluperinteestä</t>
+          <t>Nuorten kiinnostus politiikkaan viriämässä</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Politiikka on häviämässä myös nykyisten työväenlaulujen sanoituksista. Vappuna kuullaan perinteisten marssien sijaan yhä enemmän nuorison suosimaa rokkia ja poppia.</t>
+          <t>Suomalaisnuoret tietävät politiikasta muita maita paremmin, mutta ovat  muita passiivisempia.</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Eero Mäntymaa</t>
+          <t>Katriina Töyrylä</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>41016</v>
+        <v>40992</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Nuorten kiinnostus politiikkaan viriämässä</t>
+          <t>Tutkija: Edes poliitikot eivät luota politiikkaan</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Suomalaisnuoret tietävät politiikasta muita maita paremmin, mutta ovat  muita passiivisempia.</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>Katriina Töyrylä</t>
-        </is>
-      </c>
+          <t>Poliittinen kielenkäyttö ja vastuu ovat hämärtyneet, sanoo Helsingin yliopiston poliitikan tutkija Anu Kantola. Hänen mukaansa poliitikot vierastavat puhua politiikasta, koska se viittaa hämärähommiin. Esimerkiksi kelpaavat puolustusvoimien uudistus ja Stefan Wallinin Dragsvik-puheet.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>40992</v>
+        <v>40907</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tutkija: Edes poliitikot eivät luota politiikkaan</t>
+          <t>YLE Puhe valtakunnalliseksi</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Poliittinen kielenkäyttö ja vastuu ovat hämärtyneet, sanoo Helsingin yliopiston poliitikan tutkija Anu Kantola. Hänen mukaansa poliitikot vierastavat puhua politiikasta, koska se viittaa hämärähommiin. Esimerkiksi kelpaavat puolustusvoimien uudistus ja Stefan Wallinin Dragsvik-puheet.</t>
+          <t>YLE Puheesta tulee valtakunnallinen kanava vuoden 2012 alkaessa. Samalla Suomen ainoan puheradion profiili uudistuu. Kanavan ohjelmistoa suunnataan ruuhkavuosiaan eläville ihmisille.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>40907</v>
+        <v>40861</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>YLE Puhe valtakunnalliseksi</t>
+          <t>Kiviniemi: EU-politiikkaa ei pidä alistaa puoluepolitiikalle</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>YLE Puheesta tulee valtakunnallinen kanava vuoden 2012 alkaessa. Samalla Suomen ainoan puheradion profiili uudistuu. Kanavan ohjelmistoa suunnataan ruuhkavuosiaan eläville ihmisille.</t>
+          <t>Keskustan puheenjohtaja Mari Kiviniemi varoittaa, ettei EU-politiikkaa pidä alistaa lyhytnäköiselle puoluepolitiikalle. Hän sanoi keskustan Quo Vadis, Eurooppa -seminaarissa, että hallitus käytti vakuusasiassa valtavasti sitä poliittista pääomaa, jota olisi tarvittu tulevissa alue- ja maatalousneuvotteluissa.</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>40861</v>
+        <v>40846</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Kiviniemi: EU-politiikkaa ei pidä alistaa puoluepolitiikalle</t>
+          <t>AL: Kansa toivoo presidentiltä potkua EU-politiikkaan</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Keskustan puheenjohtaja Mari Kiviniemi varoittaa, ettei EU-politiikkaa pidä alistaa lyhytnäköiselle puoluepolitiikalle. Hän sanoi keskustan Quo Vadis, Eurooppa -seminaarissa, että hallitus käytti vakuusasiassa valtavasti sitä poliittista pääomaa, jota olisi tarvittu tulevissa alue- ja maatalousneuvotteluissa.</t>
+          <t>Suomalaiset toivovat uudelta presidentiltä aktiivisempaa otetta Eurooppa-politiikkaan, kirjoittaa Aamulehti. Taloustutkimuksen tekemän kyselyn mukaan kolmannes noin 1 000 vastaajasta haluaa presidentiltä eurooppalaisia lisäpanoksia.</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>40846</v>
+        <v>40631</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>AL: Kansa toivoo presidentiltä potkua EU-politiikkaan</t>
+          <t>Politiikkaohjelmat vahvistivat yhteistyötä</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Suomalaiset toivovat uudelta presidentiltä aktiivisempaa otetta Eurooppa-politiikkaan, kirjoittaa Aamulehti. Taloustutkimuksen tekemän kyselyn mukaan kolmannes noin 1 000 vastaajasta haluaa presidentiltä eurooppalaisia lisäpanoksia.</t>
+          <t>Myös tulevan hallituksen toivotaan ottavan käyttöön poikkihallinnollisia politiikkaohjelmia ja kehittävän myös muita toimintatapoja poikkihallinnollisuuden suuntaan. Valtioneuvoston kanslia julkisti asiaa koskevan raportin tänään tiistaina.</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>40631</v>
+        <v>40445</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Politiikkaohjelmat vahvistivat yhteistyötä</t>
+          <t>Tarkastusvirasto moittii politiikkaohjelmia riittämättömiksi</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Myös tulevan hallituksen toivotaan ottavan käyttöön poikkihallinnollisia politiikkaohjelmia ja kehittävän myös muita toimintatapoja poikkihallinnollisuuden suuntaan. Valtioneuvoston kanslia julkisti asiaa koskevan raportin tänään tiistaina.</t>
+          <t>Valtiontalouden tarkastusviraston (VTV:n) mukaan hallituksen politiikkaohjelmien merkitys on nykymuodossaan melko vähäinen. Politiikkaohjelmien tarkoituksena on tehostaa hallitusohjelman toteutusta ja lisätä hallinnonalojen yhteistyötä. Viraston mielestä niillä ei ole kuitenkaan saatu aikaan oleellisia parannuksia.</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>40445</v>
+        <v>40438</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tarkastusvirasto moittii politiikkaohjelmia riittämättömiksi</t>
+          <t>Nuorisojärjestöt: Politiikka takaisin kouluihin</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Valtiontalouden tarkastusviraston (VTV:n) mukaan hallituksen politiikkaohjelmien merkitys on nykymuodossaan melko vähäinen. Politiikkaohjelmien tarkoituksena on tehostaa hallitusohjelman toteutusta ja lisätä hallinnonalojen yhteistyötä. Viraston mielestä niillä ei ole kuitenkaan saatu aikaan oleellisia parannuksia.</t>
+          <t>Poliittiset nuorisojärjestöt haluaisivat päästä nykyistä useammin kouluihin puhumaan politiikasta. Nuorisojärjestöjen mukaan koulut aristelevat yksittäisten poliittisten järjestöjen vierailuja leimautumisen pelossa. Poliittinen keskustelu kouluissa voisi nuorisopoliitikkojen mukaan nostaa nuorten äänestysintoa.</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
